--- a/archivos/RLlenadoRevisado.xlsx
+++ b/archivos/RLlenadoRevisado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Nicaragua\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5295E520-9B32-4F2D-BF61-ED0B8C31078C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1612972C-C179-477F-BA61-5CB3F70C02B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -275,13 +275,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19080</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1018710</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
@@ -297,13 +297,20 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19080" y="0"/>
-          <a:ext cx="2765520" cy="804600"/>
+          <a:off x="47625" y="0"/>
+          <a:ext cx="2876549" cy="804825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -37355,3504 +37362,963 @@
     </row>
   </sheetData>
   <mergeCells count="4487">
-    <mergeCell ref="H4493:I4493"/>
-    <mergeCell ref="H4494:I4494"/>
-    <mergeCell ref="H4495:I4495"/>
-    <mergeCell ref="H4496:I4496"/>
-    <mergeCell ref="H4497:I4497"/>
-    <mergeCell ref="H4498:I4498"/>
-    <mergeCell ref="H4484:I4484"/>
-    <mergeCell ref="H4485:I4485"/>
-    <mergeCell ref="H4486:I4486"/>
-    <mergeCell ref="H4487:I4487"/>
-    <mergeCell ref="H4488:I4488"/>
-    <mergeCell ref="H4489:I4489"/>
-    <mergeCell ref="H4490:I4490"/>
-    <mergeCell ref="H4491:I4491"/>
-    <mergeCell ref="H4492:I4492"/>
-    <mergeCell ref="H4475:I4475"/>
-    <mergeCell ref="H4476:I4476"/>
-    <mergeCell ref="H4477:I4477"/>
-    <mergeCell ref="H4478:I4478"/>
-    <mergeCell ref="H4479:I4479"/>
-    <mergeCell ref="H4480:I4480"/>
-    <mergeCell ref="H4481:I4481"/>
-    <mergeCell ref="H4482:I4482"/>
-    <mergeCell ref="H4483:I4483"/>
-    <mergeCell ref="H4466:I4466"/>
-    <mergeCell ref="H4467:I4467"/>
-    <mergeCell ref="H4468:I4468"/>
-    <mergeCell ref="H4469:I4469"/>
-    <mergeCell ref="H4470:I4470"/>
-    <mergeCell ref="H4471:I4471"/>
-    <mergeCell ref="H4472:I4472"/>
-    <mergeCell ref="H4473:I4473"/>
-    <mergeCell ref="H4474:I4474"/>
-    <mergeCell ref="H4457:I4457"/>
-    <mergeCell ref="H4458:I4458"/>
-    <mergeCell ref="H4459:I4459"/>
-    <mergeCell ref="H4460:I4460"/>
-    <mergeCell ref="H4461:I4461"/>
-    <mergeCell ref="H4462:I4462"/>
-    <mergeCell ref="H4463:I4463"/>
-    <mergeCell ref="H4464:I4464"/>
-    <mergeCell ref="H4465:I4465"/>
-    <mergeCell ref="H4448:I4448"/>
-    <mergeCell ref="H4449:I4449"/>
-    <mergeCell ref="H4450:I4450"/>
-    <mergeCell ref="H4451:I4451"/>
-    <mergeCell ref="H4452:I4452"/>
-    <mergeCell ref="H4453:I4453"/>
-    <mergeCell ref="H4454:I4454"/>
-    <mergeCell ref="H4455:I4455"/>
-    <mergeCell ref="H4456:I4456"/>
-    <mergeCell ref="H4439:I4439"/>
-    <mergeCell ref="H4440:I4440"/>
-    <mergeCell ref="H4441:I4441"/>
-    <mergeCell ref="H4442:I4442"/>
-    <mergeCell ref="H4443:I4443"/>
-    <mergeCell ref="H4444:I4444"/>
-    <mergeCell ref="H4445:I4445"/>
-    <mergeCell ref="H4446:I4446"/>
-    <mergeCell ref="H4447:I4447"/>
-    <mergeCell ref="H4430:I4430"/>
-    <mergeCell ref="H4431:I4431"/>
-    <mergeCell ref="H4432:I4432"/>
-    <mergeCell ref="H4433:I4433"/>
-    <mergeCell ref="H4434:I4434"/>
-    <mergeCell ref="H4435:I4435"/>
-    <mergeCell ref="H4436:I4436"/>
-    <mergeCell ref="H4437:I4437"/>
-    <mergeCell ref="H4438:I4438"/>
-    <mergeCell ref="H4421:I4421"/>
-    <mergeCell ref="H4422:I4422"/>
-    <mergeCell ref="H4423:I4423"/>
-    <mergeCell ref="H4424:I4424"/>
-    <mergeCell ref="H4425:I4425"/>
-    <mergeCell ref="H4426:I4426"/>
-    <mergeCell ref="H4427:I4427"/>
-    <mergeCell ref="H4428:I4428"/>
-    <mergeCell ref="H4429:I4429"/>
-    <mergeCell ref="H4412:I4412"/>
-    <mergeCell ref="H4413:I4413"/>
-    <mergeCell ref="H4414:I4414"/>
-    <mergeCell ref="H4415:I4415"/>
-    <mergeCell ref="H4416:I4416"/>
-    <mergeCell ref="H4417:I4417"/>
-    <mergeCell ref="H4418:I4418"/>
-    <mergeCell ref="H4419:I4419"/>
-    <mergeCell ref="H4420:I4420"/>
-    <mergeCell ref="H4403:I4403"/>
-    <mergeCell ref="H4404:I4404"/>
-    <mergeCell ref="H4405:I4405"/>
-    <mergeCell ref="H4406:I4406"/>
-    <mergeCell ref="H4407:I4407"/>
-    <mergeCell ref="H4408:I4408"/>
-    <mergeCell ref="H4409:I4409"/>
-    <mergeCell ref="H4410:I4410"/>
-    <mergeCell ref="H4411:I4411"/>
-    <mergeCell ref="H4394:I4394"/>
-    <mergeCell ref="H4395:I4395"/>
-    <mergeCell ref="H4396:I4396"/>
-    <mergeCell ref="H4397:I4397"/>
-    <mergeCell ref="H4398:I4398"/>
-    <mergeCell ref="H4399:I4399"/>
-    <mergeCell ref="H4400:I4400"/>
-    <mergeCell ref="H4401:I4401"/>
-    <mergeCell ref="H4402:I4402"/>
-    <mergeCell ref="H4385:I4385"/>
-    <mergeCell ref="H4386:I4386"/>
-    <mergeCell ref="H4387:I4387"/>
-    <mergeCell ref="H4388:I4388"/>
-    <mergeCell ref="H4389:I4389"/>
-    <mergeCell ref="H4390:I4390"/>
-    <mergeCell ref="H4391:I4391"/>
-    <mergeCell ref="H4392:I4392"/>
-    <mergeCell ref="H4393:I4393"/>
-    <mergeCell ref="H4376:I4376"/>
-    <mergeCell ref="H4377:I4377"/>
-    <mergeCell ref="H4378:I4378"/>
-    <mergeCell ref="H4379:I4379"/>
-    <mergeCell ref="H4380:I4380"/>
-    <mergeCell ref="H4381:I4381"/>
-    <mergeCell ref="H4382:I4382"/>
-    <mergeCell ref="H4383:I4383"/>
-    <mergeCell ref="H4384:I4384"/>
-    <mergeCell ref="H4367:I4367"/>
-    <mergeCell ref="H4368:I4368"/>
-    <mergeCell ref="H4369:I4369"/>
-    <mergeCell ref="H4370:I4370"/>
-    <mergeCell ref="H4371:I4371"/>
-    <mergeCell ref="H4372:I4372"/>
-    <mergeCell ref="H4373:I4373"/>
-    <mergeCell ref="H4374:I4374"/>
-    <mergeCell ref="H4375:I4375"/>
-    <mergeCell ref="H4358:I4358"/>
-    <mergeCell ref="H4359:I4359"/>
-    <mergeCell ref="H4360:I4360"/>
-    <mergeCell ref="H4361:I4361"/>
-    <mergeCell ref="H4362:I4362"/>
-    <mergeCell ref="H4363:I4363"/>
-    <mergeCell ref="H4364:I4364"/>
-    <mergeCell ref="H4365:I4365"/>
-    <mergeCell ref="H4366:I4366"/>
-    <mergeCell ref="H4349:I4349"/>
-    <mergeCell ref="H4350:I4350"/>
-    <mergeCell ref="H4351:I4351"/>
-    <mergeCell ref="H4352:I4352"/>
-    <mergeCell ref="H4353:I4353"/>
-    <mergeCell ref="H4354:I4354"/>
-    <mergeCell ref="H4355:I4355"/>
-    <mergeCell ref="H4356:I4356"/>
-    <mergeCell ref="H4357:I4357"/>
-    <mergeCell ref="H4340:I4340"/>
-    <mergeCell ref="H4341:I4341"/>
-    <mergeCell ref="H4342:I4342"/>
-    <mergeCell ref="H4343:I4343"/>
-    <mergeCell ref="H4344:I4344"/>
-    <mergeCell ref="H4345:I4345"/>
-    <mergeCell ref="H4346:I4346"/>
-    <mergeCell ref="H4347:I4347"/>
-    <mergeCell ref="H4348:I4348"/>
-    <mergeCell ref="H4331:I4331"/>
-    <mergeCell ref="H4332:I4332"/>
-    <mergeCell ref="H4333:I4333"/>
-    <mergeCell ref="H4334:I4334"/>
-    <mergeCell ref="H4335:I4335"/>
-    <mergeCell ref="H4336:I4336"/>
-    <mergeCell ref="H4337:I4337"/>
-    <mergeCell ref="H4338:I4338"/>
-    <mergeCell ref="H4339:I4339"/>
-    <mergeCell ref="H4322:I4322"/>
-    <mergeCell ref="H4323:I4323"/>
-    <mergeCell ref="H4324:I4324"/>
-    <mergeCell ref="H4325:I4325"/>
-    <mergeCell ref="H4326:I4326"/>
-    <mergeCell ref="H4327:I4327"/>
-    <mergeCell ref="H4328:I4328"/>
-    <mergeCell ref="H4329:I4329"/>
-    <mergeCell ref="H4330:I4330"/>
-    <mergeCell ref="H4313:I4313"/>
-    <mergeCell ref="H4314:I4314"/>
-    <mergeCell ref="H4315:I4315"/>
-    <mergeCell ref="H4316:I4316"/>
-    <mergeCell ref="H4317:I4317"/>
-    <mergeCell ref="H4318:I4318"/>
-    <mergeCell ref="H4319:I4319"/>
-    <mergeCell ref="H4320:I4320"/>
-    <mergeCell ref="H4321:I4321"/>
-    <mergeCell ref="H4304:I4304"/>
-    <mergeCell ref="H4305:I4305"/>
-    <mergeCell ref="H4306:I4306"/>
-    <mergeCell ref="H4307:I4307"/>
-    <mergeCell ref="H4308:I4308"/>
-    <mergeCell ref="H4309:I4309"/>
-    <mergeCell ref="H4310:I4310"/>
-    <mergeCell ref="H4311:I4311"/>
-    <mergeCell ref="H4312:I4312"/>
-    <mergeCell ref="H4295:I4295"/>
-    <mergeCell ref="H4296:I4296"/>
-    <mergeCell ref="H4297:I4297"/>
-    <mergeCell ref="H4298:I4298"/>
-    <mergeCell ref="H4299:I4299"/>
-    <mergeCell ref="H4300:I4300"/>
-    <mergeCell ref="H4301:I4301"/>
-    <mergeCell ref="H4302:I4302"/>
-    <mergeCell ref="H4303:I4303"/>
-    <mergeCell ref="H4286:I4286"/>
-    <mergeCell ref="H4287:I4287"/>
-    <mergeCell ref="H4288:I4288"/>
-    <mergeCell ref="H4289:I4289"/>
-    <mergeCell ref="H4290:I4290"/>
-    <mergeCell ref="H4291:I4291"/>
-    <mergeCell ref="H4292:I4292"/>
-    <mergeCell ref="H4293:I4293"/>
-    <mergeCell ref="H4294:I4294"/>
-    <mergeCell ref="H4277:I4277"/>
-    <mergeCell ref="H4278:I4278"/>
-    <mergeCell ref="H4279:I4279"/>
-    <mergeCell ref="H4280:I4280"/>
-    <mergeCell ref="H4281:I4281"/>
-    <mergeCell ref="H4282:I4282"/>
-    <mergeCell ref="H4283:I4283"/>
-    <mergeCell ref="H4284:I4284"/>
-    <mergeCell ref="H4285:I4285"/>
-    <mergeCell ref="H4268:I4268"/>
-    <mergeCell ref="H4269:I4269"/>
-    <mergeCell ref="H4270:I4270"/>
-    <mergeCell ref="H4271:I4271"/>
-    <mergeCell ref="H4272:I4272"/>
-    <mergeCell ref="H4273:I4273"/>
-    <mergeCell ref="H4274:I4274"/>
-    <mergeCell ref="H4275:I4275"/>
-    <mergeCell ref="H4276:I4276"/>
-    <mergeCell ref="H4259:I4259"/>
-    <mergeCell ref="H4260:I4260"/>
-    <mergeCell ref="H4261:I4261"/>
-    <mergeCell ref="H4262:I4262"/>
-    <mergeCell ref="H4263:I4263"/>
-    <mergeCell ref="H4264:I4264"/>
-    <mergeCell ref="H4265:I4265"/>
-    <mergeCell ref="H4266:I4266"/>
-    <mergeCell ref="H4267:I4267"/>
-    <mergeCell ref="H4250:I4250"/>
-    <mergeCell ref="H4251:I4251"/>
-    <mergeCell ref="H4252:I4252"/>
-    <mergeCell ref="H4253:I4253"/>
-    <mergeCell ref="H4254:I4254"/>
-    <mergeCell ref="H4255:I4255"/>
-    <mergeCell ref="H4256:I4256"/>
-    <mergeCell ref="H4257:I4257"/>
-    <mergeCell ref="H4258:I4258"/>
-    <mergeCell ref="H4241:I4241"/>
-    <mergeCell ref="H4242:I4242"/>
-    <mergeCell ref="H4243:I4243"/>
-    <mergeCell ref="H4244:I4244"/>
-    <mergeCell ref="H4245:I4245"/>
-    <mergeCell ref="H4246:I4246"/>
-    <mergeCell ref="H4247:I4247"/>
-    <mergeCell ref="H4248:I4248"/>
-    <mergeCell ref="H4249:I4249"/>
-    <mergeCell ref="H4232:I4232"/>
-    <mergeCell ref="H4233:I4233"/>
-    <mergeCell ref="H4234:I4234"/>
-    <mergeCell ref="H4235:I4235"/>
-    <mergeCell ref="H4236:I4236"/>
-    <mergeCell ref="H4237:I4237"/>
-    <mergeCell ref="H4238:I4238"/>
-    <mergeCell ref="H4239:I4239"/>
-    <mergeCell ref="H4240:I4240"/>
-    <mergeCell ref="H4223:I4223"/>
-    <mergeCell ref="H4224:I4224"/>
-    <mergeCell ref="H4225:I4225"/>
-    <mergeCell ref="H4226:I4226"/>
-    <mergeCell ref="H4227:I4227"/>
-    <mergeCell ref="H4228:I4228"/>
-    <mergeCell ref="H4229:I4229"/>
-    <mergeCell ref="H4230:I4230"/>
-    <mergeCell ref="H4231:I4231"/>
-    <mergeCell ref="H4214:I4214"/>
-    <mergeCell ref="H4215:I4215"/>
-    <mergeCell ref="H4216:I4216"/>
-    <mergeCell ref="H4217:I4217"/>
-    <mergeCell ref="H4218:I4218"/>
-    <mergeCell ref="H4219:I4219"/>
-    <mergeCell ref="H4220:I4220"/>
-    <mergeCell ref="H4221:I4221"/>
-    <mergeCell ref="H4222:I4222"/>
-    <mergeCell ref="H4205:I4205"/>
-    <mergeCell ref="H4206:I4206"/>
-    <mergeCell ref="H4207:I4207"/>
-    <mergeCell ref="H4208:I4208"/>
-    <mergeCell ref="H4209:I4209"/>
-    <mergeCell ref="H4210:I4210"/>
-    <mergeCell ref="H4211:I4211"/>
-    <mergeCell ref="H4212:I4212"/>
-    <mergeCell ref="H4213:I4213"/>
-    <mergeCell ref="H4196:I4196"/>
-    <mergeCell ref="H4197:I4197"/>
-    <mergeCell ref="H4198:I4198"/>
-    <mergeCell ref="H4199:I4199"/>
-    <mergeCell ref="H4200:I4200"/>
-    <mergeCell ref="H4201:I4201"/>
-    <mergeCell ref="H4202:I4202"/>
-    <mergeCell ref="H4203:I4203"/>
-    <mergeCell ref="H4204:I4204"/>
-    <mergeCell ref="H4187:I4187"/>
-    <mergeCell ref="H4188:I4188"/>
-    <mergeCell ref="H4189:I4189"/>
-    <mergeCell ref="H4190:I4190"/>
-    <mergeCell ref="H4191:I4191"/>
-    <mergeCell ref="H4192:I4192"/>
-    <mergeCell ref="H4193:I4193"/>
-    <mergeCell ref="H4194:I4194"/>
-    <mergeCell ref="H4195:I4195"/>
-    <mergeCell ref="H4178:I4178"/>
-    <mergeCell ref="H4179:I4179"/>
-    <mergeCell ref="H4180:I4180"/>
-    <mergeCell ref="H4181:I4181"/>
-    <mergeCell ref="H4182:I4182"/>
-    <mergeCell ref="H4183:I4183"/>
-    <mergeCell ref="H4184:I4184"/>
-    <mergeCell ref="H4185:I4185"/>
-    <mergeCell ref="H4186:I4186"/>
-    <mergeCell ref="H4169:I4169"/>
-    <mergeCell ref="H4170:I4170"/>
-    <mergeCell ref="H4171:I4171"/>
-    <mergeCell ref="H4172:I4172"/>
-    <mergeCell ref="H4173:I4173"/>
-    <mergeCell ref="H4174:I4174"/>
-    <mergeCell ref="H4175:I4175"/>
-    <mergeCell ref="H4176:I4176"/>
-    <mergeCell ref="H4177:I4177"/>
-    <mergeCell ref="H4160:I4160"/>
-    <mergeCell ref="H4161:I4161"/>
-    <mergeCell ref="H4162:I4162"/>
-    <mergeCell ref="H4163:I4163"/>
-    <mergeCell ref="H4164:I4164"/>
-    <mergeCell ref="H4165:I4165"/>
-    <mergeCell ref="H4166:I4166"/>
-    <mergeCell ref="H4167:I4167"/>
-    <mergeCell ref="H4168:I4168"/>
-    <mergeCell ref="H4151:I4151"/>
-    <mergeCell ref="H4152:I4152"/>
-    <mergeCell ref="H4153:I4153"/>
-    <mergeCell ref="H4154:I4154"/>
-    <mergeCell ref="H4155:I4155"/>
-    <mergeCell ref="H4156:I4156"/>
-    <mergeCell ref="H4157:I4157"/>
-    <mergeCell ref="H4158:I4158"/>
-    <mergeCell ref="H4159:I4159"/>
-    <mergeCell ref="H4142:I4142"/>
-    <mergeCell ref="H4143:I4143"/>
-    <mergeCell ref="H4144:I4144"/>
-    <mergeCell ref="H4145:I4145"/>
-    <mergeCell ref="H4146:I4146"/>
-    <mergeCell ref="H4147:I4147"/>
-    <mergeCell ref="H4148:I4148"/>
-    <mergeCell ref="H4149:I4149"/>
-    <mergeCell ref="H4150:I4150"/>
-    <mergeCell ref="H4133:I4133"/>
-    <mergeCell ref="H4134:I4134"/>
-    <mergeCell ref="H4135:I4135"/>
-    <mergeCell ref="H4136:I4136"/>
-    <mergeCell ref="H4137:I4137"/>
-    <mergeCell ref="H4138:I4138"/>
-    <mergeCell ref="H4139:I4139"/>
-    <mergeCell ref="H4140:I4140"/>
-    <mergeCell ref="H4141:I4141"/>
-    <mergeCell ref="H4124:I4124"/>
-    <mergeCell ref="H4125:I4125"/>
-    <mergeCell ref="H4126:I4126"/>
-    <mergeCell ref="H4127:I4127"/>
-    <mergeCell ref="H4128:I4128"/>
-    <mergeCell ref="H4129:I4129"/>
-    <mergeCell ref="H4130:I4130"/>
-    <mergeCell ref="H4131:I4131"/>
-    <mergeCell ref="H4132:I4132"/>
-    <mergeCell ref="H4115:I4115"/>
-    <mergeCell ref="H4116:I4116"/>
-    <mergeCell ref="H4117:I4117"/>
-    <mergeCell ref="H4118:I4118"/>
-    <mergeCell ref="H4119:I4119"/>
-    <mergeCell ref="H4120:I4120"/>
-    <mergeCell ref="H4121:I4121"/>
-    <mergeCell ref="H4122:I4122"/>
-    <mergeCell ref="H4123:I4123"/>
-    <mergeCell ref="H4106:I4106"/>
-    <mergeCell ref="H4107:I4107"/>
-    <mergeCell ref="H4108:I4108"/>
-    <mergeCell ref="H4109:I4109"/>
-    <mergeCell ref="H4110:I4110"/>
-    <mergeCell ref="H4111:I4111"/>
-    <mergeCell ref="H4112:I4112"/>
-    <mergeCell ref="H4113:I4113"/>
-    <mergeCell ref="H4114:I4114"/>
-    <mergeCell ref="H4097:I4097"/>
-    <mergeCell ref="H4098:I4098"/>
-    <mergeCell ref="H4099:I4099"/>
-    <mergeCell ref="H4100:I4100"/>
-    <mergeCell ref="H4101:I4101"/>
-    <mergeCell ref="H4102:I4102"/>
-    <mergeCell ref="H4103:I4103"/>
-    <mergeCell ref="H4104:I4104"/>
-    <mergeCell ref="H4105:I4105"/>
-    <mergeCell ref="H4088:I4088"/>
-    <mergeCell ref="H4089:I4089"/>
-    <mergeCell ref="H4090:I4090"/>
-    <mergeCell ref="H4091:I4091"/>
-    <mergeCell ref="H4092:I4092"/>
-    <mergeCell ref="H4093:I4093"/>
-    <mergeCell ref="H4094:I4094"/>
-    <mergeCell ref="H4095:I4095"/>
-    <mergeCell ref="H4096:I4096"/>
-    <mergeCell ref="H4079:I4079"/>
-    <mergeCell ref="H4080:I4080"/>
-    <mergeCell ref="H4081:I4081"/>
-    <mergeCell ref="H4082:I4082"/>
-    <mergeCell ref="H4083:I4083"/>
-    <mergeCell ref="H4084:I4084"/>
-    <mergeCell ref="H4085:I4085"/>
-    <mergeCell ref="H4086:I4086"/>
-    <mergeCell ref="H4087:I4087"/>
-    <mergeCell ref="H4070:I4070"/>
-    <mergeCell ref="H4071:I4071"/>
-    <mergeCell ref="H4072:I4072"/>
-    <mergeCell ref="H4073:I4073"/>
-    <mergeCell ref="H4074:I4074"/>
-    <mergeCell ref="H4075:I4075"/>
-    <mergeCell ref="H4076:I4076"/>
-    <mergeCell ref="H4077:I4077"/>
-    <mergeCell ref="H4078:I4078"/>
-    <mergeCell ref="H4061:I4061"/>
-    <mergeCell ref="H4062:I4062"/>
-    <mergeCell ref="H4063:I4063"/>
-    <mergeCell ref="H4064:I4064"/>
-    <mergeCell ref="H4065:I4065"/>
-    <mergeCell ref="H4066:I4066"/>
-    <mergeCell ref="H4067:I4067"/>
-    <mergeCell ref="H4068:I4068"/>
-    <mergeCell ref="H4069:I4069"/>
-    <mergeCell ref="H4052:I4052"/>
-    <mergeCell ref="H4053:I4053"/>
-    <mergeCell ref="H4054:I4054"/>
-    <mergeCell ref="H4055:I4055"/>
-    <mergeCell ref="H4056:I4056"/>
-    <mergeCell ref="H4057:I4057"/>
-    <mergeCell ref="H4058:I4058"/>
-    <mergeCell ref="H4059:I4059"/>
-    <mergeCell ref="H4060:I4060"/>
-    <mergeCell ref="H4043:I4043"/>
-    <mergeCell ref="H4044:I4044"/>
-    <mergeCell ref="H4045:I4045"/>
-    <mergeCell ref="H4046:I4046"/>
-    <mergeCell ref="H4047:I4047"/>
-    <mergeCell ref="H4048:I4048"/>
-    <mergeCell ref="H4049:I4049"/>
-    <mergeCell ref="H4050:I4050"/>
-    <mergeCell ref="H4051:I4051"/>
-    <mergeCell ref="H4034:I4034"/>
-    <mergeCell ref="H4035:I4035"/>
-    <mergeCell ref="H4036:I4036"/>
-    <mergeCell ref="H4037:I4037"/>
-    <mergeCell ref="H4038:I4038"/>
-    <mergeCell ref="H4039:I4039"/>
-    <mergeCell ref="H4040:I4040"/>
-    <mergeCell ref="H4041:I4041"/>
-    <mergeCell ref="H4042:I4042"/>
-    <mergeCell ref="H4025:I4025"/>
-    <mergeCell ref="H4026:I4026"/>
-    <mergeCell ref="H4027:I4027"/>
-    <mergeCell ref="H4028:I4028"/>
-    <mergeCell ref="H4029:I4029"/>
-    <mergeCell ref="H4030:I4030"/>
-    <mergeCell ref="H4031:I4031"/>
-    <mergeCell ref="H4032:I4032"/>
-    <mergeCell ref="H4033:I4033"/>
-    <mergeCell ref="H4016:I4016"/>
-    <mergeCell ref="H4017:I4017"/>
-    <mergeCell ref="H4018:I4018"/>
-    <mergeCell ref="H4019:I4019"/>
-    <mergeCell ref="H4020:I4020"/>
-    <mergeCell ref="H4021:I4021"/>
-    <mergeCell ref="H4022:I4022"/>
-    <mergeCell ref="H4023:I4023"/>
-    <mergeCell ref="H4024:I4024"/>
-    <mergeCell ref="H4007:I4007"/>
-    <mergeCell ref="H4008:I4008"/>
-    <mergeCell ref="H4009:I4009"/>
-    <mergeCell ref="H4010:I4010"/>
-    <mergeCell ref="H4011:I4011"/>
-    <mergeCell ref="H4012:I4012"/>
-    <mergeCell ref="H4013:I4013"/>
-    <mergeCell ref="H4014:I4014"/>
-    <mergeCell ref="H4015:I4015"/>
-    <mergeCell ref="H3998:I3998"/>
-    <mergeCell ref="H3999:I3999"/>
-    <mergeCell ref="H4000:I4000"/>
-    <mergeCell ref="H4001:I4001"/>
-    <mergeCell ref="H4002:I4002"/>
-    <mergeCell ref="H4003:I4003"/>
-    <mergeCell ref="H4004:I4004"/>
-    <mergeCell ref="H4005:I4005"/>
-    <mergeCell ref="H4006:I4006"/>
-    <mergeCell ref="H3989:I3989"/>
-    <mergeCell ref="H3990:I3990"/>
-    <mergeCell ref="H3991:I3991"/>
-    <mergeCell ref="H3992:I3992"/>
-    <mergeCell ref="H3993:I3993"/>
-    <mergeCell ref="H3994:I3994"/>
-    <mergeCell ref="H3995:I3995"/>
-    <mergeCell ref="H3996:I3996"/>
-    <mergeCell ref="H3997:I3997"/>
-    <mergeCell ref="H3980:I3980"/>
-    <mergeCell ref="H3981:I3981"/>
-    <mergeCell ref="H3982:I3982"/>
-    <mergeCell ref="H3983:I3983"/>
-    <mergeCell ref="H3984:I3984"/>
-    <mergeCell ref="H3985:I3985"/>
-    <mergeCell ref="H3986:I3986"/>
-    <mergeCell ref="H3987:I3987"/>
-    <mergeCell ref="H3988:I3988"/>
-    <mergeCell ref="H3971:I3971"/>
-    <mergeCell ref="H3972:I3972"/>
-    <mergeCell ref="H3973:I3973"/>
-    <mergeCell ref="H3974:I3974"/>
-    <mergeCell ref="H3975:I3975"/>
-    <mergeCell ref="H3976:I3976"/>
-    <mergeCell ref="H3977:I3977"/>
-    <mergeCell ref="H3978:I3978"/>
-    <mergeCell ref="H3979:I3979"/>
-    <mergeCell ref="H3962:I3962"/>
-    <mergeCell ref="H3963:I3963"/>
-    <mergeCell ref="H3964:I3964"/>
-    <mergeCell ref="H3965:I3965"/>
-    <mergeCell ref="H3966:I3966"/>
-    <mergeCell ref="H3967:I3967"/>
-    <mergeCell ref="H3968:I3968"/>
-    <mergeCell ref="H3969:I3969"/>
-    <mergeCell ref="H3970:I3970"/>
-    <mergeCell ref="H3953:I3953"/>
-    <mergeCell ref="H3954:I3954"/>
-    <mergeCell ref="H3955:I3955"/>
-    <mergeCell ref="H3956:I3956"/>
-    <mergeCell ref="H3957:I3957"/>
-    <mergeCell ref="H3958:I3958"/>
-    <mergeCell ref="H3959:I3959"/>
-    <mergeCell ref="H3960:I3960"/>
-    <mergeCell ref="H3961:I3961"/>
-    <mergeCell ref="H3944:I3944"/>
-    <mergeCell ref="H3945:I3945"/>
-    <mergeCell ref="H3946:I3946"/>
-    <mergeCell ref="H3947:I3947"/>
-    <mergeCell ref="H3948:I3948"/>
-    <mergeCell ref="H3949:I3949"/>
-    <mergeCell ref="H3950:I3950"/>
-    <mergeCell ref="H3951:I3951"/>
-    <mergeCell ref="H3952:I3952"/>
-    <mergeCell ref="H3935:I3935"/>
-    <mergeCell ref="H3936:I3936"/>
-    <mergeCell ref="H3937:I3937"/>
-    <mergeCell ref="H3938:I3938"/>
-    <mergeCell ref="H3939:I3939"/>
-    <mergeCell ref="H3940:I3940"/>
-    <mergeCell ref="H3941:I3941"/>
-    <mergeCell ref="H3942:I3942"/>
-    <mergeCell ref="H3943:I3943"/>
-    <mergeCell ref="H3926:I3926"/>
-    <mergeCell ref="H3927:I3927"/>
-    <mergeCell ref="H3928:I3928"/>
-    <mergeCell ref="H3929:I3929"/>
-    <mergeCell ref="H3930:I3930"/>
-    <mergeCell ref="H3931:I3931"/>
-    <mergeCell ref="H3932:I3932"/>
-    <mergeCell ref="H3933:I3933"/>
-    <mergeCell ref="H3934:I3934"/>
-    <mergeCell ref="H3917:I3917"/>
-    <mergeCell ref="H3918:I3918"/>
-    <mergeCell ref="H3919:I3919"/>
-    <mergeCell ref="H3920:I3920"/>
-    <mergeCell ref="H3921:I3921"/>
-    <mergeCell ref="H3922:I3922"/>
-    <mergeCell ref="H3923:I3923"/>
-    <mergeCell ref="H3924:I3924"/>
-    <mergeCell ref="H3925:I3925"/>
-    <mergeCell ref="H3908:I3908"/>
-    <mergeCell ref="H3909:I3909"/>
-    <mergeCell ref="H3910:I3910"/>
-    <mergeCell ref="H3911:I3911"/>
-    <mergeCell ref="H3912:I3912"/>
-    <mergeCell ref="H3913:I3913"/>
-    <mergeCell ref="H3914:I3914"/>
-    <mergeCell ref="H3915:I3915"/>
-    <mergeCell ref="H3916:I3916"/>
-    <mergeCell ref="H3899:I3899"/>
-    <mergeCell ref="H3900:I3900"/>
-    <mergeCell ref="H3901:I3901"/>
-    <mergeCell ref="H3902:I3902"/>
-    <mergeCell ref="H3903:I3903"/>
-    <mergeCell ref="H3904:I3904"/>
-    <mergeCell ref="H3905:I3905"/>
-    <mergeCell ref="H3906:I3906"/>
-    <mergeCell ref="H3907:I3907"/>
-    <mergeCell ref="H3890:I3890"/>
-    <mergeCell ref="H3891:I3891"/>
-    <mergeCell ref="H3892:I3892"/>
-    <mergeCell ref="H3893:I3893"/>
-    <mergeCell ref="H3894:I3894"/>
-    <mergeCell ref="H3895:I3895"/>
-    <mergeCell ref="H3896:I3896"/>
-    <mergeCell ref="H3897:I3897"/>
-    <mergeCell ref="H3898:I3898"/>
-    <mergeCell ref="H3881:I3881"/>
-    <mergeCell ref="H3882:I3882"/>
-    <mergeCell ref="H3883:I3883"/>
-    <mergeCell ref="H3884:I3884"/>
-    <mergeCell ref="H3885:I3885"/>
-    <mergeCell ref="H3886:I3886"/>
-    <mergeCell ref="H3887:I3887"/>
-    <mergeCell ref="H3888:I3888"/>
-    <mergeCell ref="H3889:I3889"/>
-    <mergeCell ref="H3872:I3872"/>
-    <mergeCell ref="H3873:I3873"/>
-    <mergeCell ref="H3874:I3874"/>
-    <mergeCell ref="H3875:I3875"/>
-    <mergeCell ref="H3876:I3876"/>
-    <mergeCell ref="H3877:I3877"/>
-    <mergeCell ref="H3878:I3878"/>
-    <mergeCell ref="H3879:I3879"/>
-    <mergeCell ref="H3880:I3880"/>
-    <mergeCell ref="H3863:I3863"/>
-    <mergeCell ref="H3864:I3864"/>
-    <mergeCell ref="H3865:I3865"/>
-    <mergeCell ref="H3866:I3866"/>
-    <mergeCell ref="H3867:I3867"/>
-    <mergeCell ref="H3868:I3868"/>
-    <mergeCell ref="H3869:I3869"/>
-    <mergeCell ref="H3870:I3870"/>
-    <mergeCell ref="H3871:I3871"/>
-    <mergeCell ref="H3854:I3854"/>
-    <mergeCell ref="H3855:I3855"/>
-    <mergeCell ref="H3856:I3856"/>
-    <mergeCell ref="H3857:I3857"/>
-    <mergeCell ref="H3858:I3858"/>
-    <mergeCell ref="H3859:I3859"/>
-    <mergeCell ref="H3860:I3860"/>
-    <mergeCell ref="H3861:I3861"/>
-    <mergeCell ref="H3862:I3862"/>
-    <mergeCell ref="H3845:I3845"/>
-    <mergeCell ref="H3846:I3846"/>
-    <mergeCell ref="H3847:I3847"/>
-    <mergeCell ref="H3848:I3848"/>
-    <mergeCell ref="H3849:I3849"/>
-    <mergeCell ref="H3850:I3850"/>
-    <mergeCell ref="H3851:I3851"/>
-    <mergeCell ref="H3852:I3852"/>
-    <mergeCell ref="H3853:I3853"/>
-    <mergeCell ref="H3836:I3836"/>
-    <mergeCell ref="H3837:I3837"/>
-    <mergeCell ref="H3838:I3838"/>
-    <mergeCell ref="H3839:I3839"/>
-    <mergeCell ref="H3840:I3840"/>
-    <mergeCell ref="H3841:I3841"/>
-    <mergeCell ref="H3842:I3842"/>
-    <mergeCell ref="H3843:I3843"/>
-    <mergeCell ref="H3844:I3844"/>
-    <mergeCell ref="H3827:I3827"/>
-    <mergeCell ref="H3828:I3828"/>
-    <mergeCell ref="H3829:I3829"/>
-    <mergeCell ref="H3830:I3830"/>
-    <mergeCell ref="H3831:I3831"/>
-    <mergeCell ref="H3832:I3832"/>
-    <mergeCell ref="H3833:I3833"/>
-    <mergeCell ref="H3834:I3834"/>
-    <mergeCell ref="H3835:I3835"/>
-    <mergeCell ref="H3818:I3818"/>
-    <mergeCell ref="H3819:I3819"/>
-    <mergeCell ref="H3820:I3820"/>
-    <mergeCell ref="H3821:I3821"/>
-    <mergeCell ref="H3822:I3822"/>
-    <mergeCell ref="H3823:I3823"/>
-    <mergeCell ref="H3824:I3824"/>
-    <mergeCell ref="H3825:I3825"/>
-    <mergeCell ref="H3826:I3826"/>
-    <mergeCell ref="H3809:I3809"/>
-    <mergeCell ref="H3810:I3810"/>
-    <mergeCell ref="H3811:I3811"/>
-    <mergeCell ref="H3812:I3812"/>
-    <mergeCell ref="H3813:I3813"/>
-    <mergeCell ref="H3814:I3814"/>
-    <mergeCell ref="H3815:I3815"/>
-    <mergeCell ref="H3816:I3816"/>
-    <mergeCell ref="H3817:I3817"/>
-    <mergeCell ref="H3800:I3800"/>
-    <mergeCell ref="H3801:I3801"/>
-    <mergeCell ref="H3802:I3802"/>
-    <mergeCell ref="H3803:I3803"/>
-    <mergeCell ref="H3804:I3804"/>
-    <mergeCell ref="H3805:I3805"/>
-    <mergeCell ref="H3806:I3806"/>
-    <mergeCell ref="H3807:I3807"/>
-    <mergeCell ref="H3808:I3808"/>
-    <mergeCell ref="H3791:I3791"/>
-    <mergeCell ref="H3792:I3792"/>
-    <mergeCell ref="H3793:I3793"/>
-    <mergeCell ref="H3794:I3794"/>
-    <mergeCell ref="H3795:I3795"/>
-    <mergeCell ref="H3796:I3796"/>
-    <mergeCell ref="H3797:I3797"/>
-    <mergeCell ref="H3798:I3798"/>
-    <mergeCell ref="H3799:I3799"/>
-    <mergeCell ref="H3782:I3782"/>
-    <mergeCell ref="H3783:I3783"/>
-    <mergeCell ref="H3784:I3784"/>
-    <mergeCell ref="H3785:I3785"/>
-    <mergeCell ref="H3786:I3786"/>
-    <mergeCell ref="H3787:I3787"/>
-    <mergeCell ref="H3788:I3788"/>
-    <mergeCell ref="H3789:I3789"/>
-    <mergeCell ref="H3790:I3790"/>
-    <mergeCell ref="H3773:I3773"/>
-    <mergeCell ref="H3774:I3774"/>
-    <mergeCell ref="H3775:I3775"/>
-    <mergeCell ref="H3776:I3776"/>
-    <mergeCell ref="H3777:I3777"/>
-    <mergeCell ref="H3778:I3778"/>
-    <mergeCell ref="H3779:I3779"/>
-    <mergeCell ref="H3780:I3780"/>
-    <mergeCell ref="H3781:I3781"/>
-    <mergeCell ref="H3764:I3764"/>
-    <mergeCell ref="H3765:I3765"/>
-    <mergeCell ref="H3766:I3766"/>
-    <mergeCell ref="H3767:I3767"/>
-    <mergeCell ref="H3768:I3768"/>
-    <mergeCell ref="H3769:I3769"/>
-    <mergeCell ref="H3770:I3770"/>
-    <mergeCell ref="H3771:I3771"/>
-    <mergeCell ref="H3772:I3772"/>
-    <mergeCell ref="H3755:I3755"/>
-    <mergeCell ref="H3756:I3756"/>
-    <mergeCell ref="H3757:I3757"/>
-    <mergeCell ref="H3758:I3758"/>
-    <mergeCell ref="H3759:I3759"/>
-    <mergeCell ref="H3760:I3760"/>
-    <mergeCell ref="H3761:I3761"/>
-    <mergeCell ref="H3762:I3762"/>
-    <mergeCell ref="H3763:I3763"/>
-    <mergeCell ref="H3746:I3746"/>
-    <mergeCell ref="H3747:I3747"/>
-    <mergeCell ref="H3748:I3748"/>
-    <mergeCell ref="H3749:I3749"/>
-    <mergeCell ref="H3750:I3750"/>
-    <mergeCell ref="H3751:I3751"/>
-    <mergeCell ref="H3752:I3752"/>
-    <mergeCell ref="H3753:I3753"/>
-    <mergeCell ref="H3754:I3754"/>
-    <mergeCell ref="H3737:I3737"/>
-    <mergeCell ref="H3738:I3738"/>
-    <mergeCell ref="H3739:I3739"/>
-    <mergeCell ref="H3740:I3740"/>
-    <mergeCell ref="H3741:I3741"/>
-    <mergeCell ref="H3742:I3742"/>
-    <mergeCell ref="H3743:I3743"/>
-    <mergeCell ref="H3744:I3744"/>
-    <mergeCell ref="H3745:I3745"/>
-    <mergeCell ref="H3728:I3728"/>
-    <mergeCell ref="H3729:I3729"/>
-    <mergeCell ref="H3730:I3730"/>
-    <mergeCell ref="H3731:I3731"/>
-    <mergeCell ref="H3732:I3732"/>
-    <mergeCell ref="H3733:I3733"/>
-    <mergeCell ref="H3734:I3734"/>
-    <mergeCell ref="H3735:I3735"/>
-    <mergeCell ref="H3736:I3736"/>
-    <mergeCell ref="H3719:I3719"/>
-    <mergeCell ref="H3720:I3720"/>
-    <mergeCell ref="H3721:I3721"/>
-    <mergeCell ref="H3722:I3722"/>
-    <mergeCell ref="H3723:I3723"/>
-    <mergeCell ref="H3724:I3724"/>
-    <mergeCell ref="H3725:I3725"/>
-    <mergeCell ref="H3726:I3726"/>
-    <mergeCell ref="H3727:I3727"/>
-    <mergeCell ref="H3710:I3710"/>
-    <mergeCell ref="H3711:I3711"/>
-    <mergeCell ref="H3712:I3712"/>
-    <mergeCell ref="H3713:I3713"/>
-    <mergeCell ref="H3714:I3714"/>
-    <mergeCell ref="H3715:I3715"/>
-    <mergeCell ref="H3716:I3716"/>
-    <mergeCell ref="H3717:I3717"/>
-    <mergeCell ref="H3718:I3718"/>
-    <mergeCell ref="H3701:I3701"/>
-    <mergeCell ref="H3702:I3702"/>
-    <mergeCell ref="H3703:I3703"/>
-    <mergeCell ref="H3704:I3704"/>
-    <mergeCell ref="H3705:I3705"/>
-    <mergeCell ref="H3706:I3706"/>
-    <mergeCell ref="H3707:I3707"/>
-    <mergeCell ref="H3708:I3708"/>
-    <mergeCell ref="H3709:I3709"/>
-    <mergeCell ref="H3692:I3692"/>
-    <mergeCell ref="H3693:I3693"/>
-    <mergeCell ref="H3694:I3694"/>
-    <mergeCell ref="H3695:I3695"/>
-    <mergeCell ref="H3696:I3696"/>
-    <mergeCell ref="H3697:I3697"/>
-    <mergeCell ref="H3698:I3698"/>
-    <mergeCell ref="H3699:I3699"/>
-    <mergeCell ref="H3700:I3700"/>
-    <mergeCell ref="H3683:I3683"/>
-    <mergeCell ref="H3684:I3684"/>
-    <mergeCell ref="H3685:I3685"/>
-    <mergeCell ref="H3686:I3686"/>
-    <mergeCell ref="H3687:I3687"/>
-    <mergeCell ref="H3688:I3688"/>
-    <mergeCell ref="H3689:I3689"/>
-    <mergeCell ref="H3690:I3690"/>
-    <mergeCell ref="H3691:I3691"/>
-    <mergeCell ref="H3674:I3674"/>
-    <mergeCell ref="H3675:I3675"/>
-    <mergeCell ref="H3676:I3676"/>
-    <mergeCell ref="H3677:I3677"/>
-    <mergeCell ref="H3678:I3678"/>
-    <mergeCell ref="H3679:I3679"/>
-    <mergeCell ref="H3680:I3680"/>
-    <mergeCell ref="H3681:I3681"/>
-    <mergeCell ref="H3682:I3682"/>
-    <mergeCell ref="H3665:I3665"/>
-    <mergeCell ref="H3666:I3666"/>
-    <mergeCell ref="H3667:I3667"/>
-    <mergeCell ref="H3668:I3668"/>
-    <mergeCell ref="H3669:I3669"/>
-    <mergeCell ref="H3670:I3670"/>
-    <mergeCell ref="H3671:I3671"/>
-    <mergeCell ref="H3672:I3672"/>
-    <mergeCell ref="H3673:I3673"/>
-    <mergeCell ref="H3656:I3656"/>
-    <mergeCell ref="H3657:I3657"/>
-    <mergeCell ref="H3658:I3658"/>
-    <mergeCell ref="H3659:I3659"/>
-    <mergeCell ref="H3660:I3660"/>
-    <mergeCell ref="H3661:I3661"/>
-    <mergeCell ref="H3662:I3662"/>
-    <mergeCell ref="H3663:I3663"/>
-    <mergeCell ref="H3664:I3664"/>
-    <mergeCell ref="H3647:I3647"/>
-    <mergeCell ref="H3648:I3648"/>
-    <mergeCell ref="H3649:I3649"/>
-    <mergeCell ref="H3650:I3650"/>
-    <mergeCell ref="H3651:I3651"/>
-    <mergeCell ref="H3652:I3652"/>
-    <mergeCell ref="H3653:I3653"/>
-    <mergeCell ref="H3654:I3654"/>
-    <mergeCell ref="H3655:I3655"/>
-    <mergeCell ref="H3638:I3638"/>
-    <mergeCell ref="H3639:I3639"/>
-    <mergeCell ref="H3640:I3640"/>
-    <mergeCell ref="H3641:I3641"/>
-    <mergeCell ref="H3642:I3642"/>
-    <mergeCell ref="H3643:I3643"/>
-    <mergeCell ref="H3644:I3644"/>
-    <mergeCell ref="H3645:I3645"/>
-    <mergeCell ref="H3646:I3646"/>
-    <mergeCell ref="H3629:I3629"/>
-    <mergeCell ref="H3630:I3630"/>
-    <mergeCell ref="H3631:I3631"/>
-    <mergeCell ref="H3632:I3632"/>
-    <mergeCell ref="H3633:I3633"/>
-    <mergeCell ref="H3634:I3634"/>
-    <mergeCell ref="H3635:I3635"/>
-    <mergeCell ref="H3636:I3636"/>
-    <mergeCell ref="H3637:I3637"/>
-    <mergeCell ref="H3620:I3620"/>
-    <mergeCell ref="H3621:I3621"/>
-    <mergeCell ref="H3622:I3622"/>
-    <mergeCell ref="H3623:I3623"/>
-    <mergeCell ref="H3624:I3624"/>
-    <mergeCell ref="H3625:I3625"/>
-    <mergeCell ref="H3626:I3626"/>
-    <mergeCell ref="H3627:I3627"/>
-    <mergeCell ref="H3628:I3628"/>
-    <mergeCell ref="H3611:I3611"/>
-    <mergeCell ref="H3612:I3612"/>
-    <mergeCell ref="H3613:I3613"/>
-    <mergeCell ref="H3614:I3614"/>
-    <mergeCell ref="H3615:I3615"/>
-    <mergeCell ref="H3616:I3616"/>
-    <mergeCell ref="H3617:I3617"/>
-    <mergeCell ref="H3618:I3618"/>
-    <mergeCell ref="H3619:I3619"/>
-    <mergeCell ref="H3602:I3602"/>
-    <mergeCell ref="H3603:I3603"/>
-    <mergeCell ref="H3604:I3604"/>
-    <mergeCell ref="H3605:I3605"/>
-    <mergeCell ref="H3606:I3606"/>
-    <mergeCell ref="H3607:I3607"/>
-    <mergeCell ref="H3608:I3608"/>
-    <mergeCell ref="H3609:I3609"/>
-    <mergeCell ref="H3610:I3610"/>
-    <mergeCell ref="H3593:I3593"/>
-    <mergeCell ref="H3594:I3594"/>
-    <mergeCell ref="H3595:I3595"/>
-    <mergeCell ref="H3596:I3596"/>
-    <mergeCell ref="H3597:I3597"/>
-    <mergeCell ref="H3598:I3598"/>
-    <mergeCell ref="H3599:I3599"/>
-    <mergeCell ref="H3600:I3600"/>
-    <mergeCell ref="H3601:I3601"/>
-    <mergeCell ref="H3584:I3584"/>
-    <mergeCell ref="H3585:I3585"/>
-    <mergeCell ref="H3586:I3586"/>
-    <mergeCell ref="H3587:I3587"/>
-    <mergeCell ref="H3588:I3588"/>
-    <mergeCell ref="H3589:I3589"/>
-    <mergeCell ref="H3590:I3590"/>
-    <mergeCell ref="H3591:I3591"/>
-    <mergeCell ref="H3592:I3592"/>
-    <mergeCell ref="H3575:I3575"/>
-    <mergeCell ref="H3576:I3576"/>
-    <mergeCell ref="H3577:I3577"/>
-    <mergeCell ref="H3578:I3578"/>
-    <mergeCell ref="H3579:I3579"/>
-    <mergeCell ref="H3580:I3580"/>
-    <mergeCell ref="H3581:I3581"/>
-    <mergeCell ref="H3582:I3582"/>
-    <mergeCell ref="H3583:I3583"/>
-    <mergeCell ref="H3566:I3566"/>
-    <mergeCell ref="H3567:I3567"/>
-    <mergeCell ref="H3568:I3568"/>
-    <mergeCell ref="H3569:I3569"/>
-    <mergeCell ref="H3570:I3570"/>
-    <mergeCell ref="H3571:I3571"/>
-    <mergeCell ref="H3572:I3572"/>
-    <mergeCell ref="H3573:I3573"/>
-    <mergeCell ref="H3574:I3574"/>
-    <mergeCell ref="H3557:I3557"/>
-    <mergeCell ref="H3558:I3558"/>
-    <mergeCell ref="H3559:I3559"/>
-    <mergeCell ref="H3560:I3560"/>
-    <mergeCell ref="H3561:I3561"/>
-    <mergeCell ref="H3562:I3562"/>
-    <mergeCell ref="H3563:I3563"/>
-    <mergeCell ref="H3564:I3564"/>
-    <mergeCell ref="H3565:I3565"/>
-    <mergeCell ref="H3548:I3548"/>
-    <mergeCell ref="H3549:I3549"/>
-    <mergeCell ref="H3550:I3550"/>
-    <mergeCell ref="H3551:I3551"/>
-    <mergeCell ref="H3552:I3552"/>
-    <mergeCell ref="H3553:I3553"/>
-    <mergeCell ref="H3554:I3554"/>
-    <mergeCell ref="H3555:I3555"/>
-    <mergeCell ref="H3556:I3556"/>
-    <mergeCell ref="H3539:I3539"/>
-    <mergeCell ref="H3540:I3540"/>
-    <mergeCell ref="H3541:I3541"/>
-    <mergeCell ref="H3542:I3542"/>
-    <mergeCell ref="H3543:I3543"/>
-    <mergeCell ref="H3544:I3544"/>
-    <mergeCell ref="H3545:I3545"/>
-    <mergeCell ref="H3546:I3546"/>
-    <mergeCell ref="H3547:I3547"/>
-    <mergeCell ref="H3530:I3530"/>
-    <mergeCell ref="H3531:I3531"/>
-    <mergeCell ref="H3532:I3532"/>
-    <mergeCell ref="H3533:I3533"/>
-    <mergeCell ref="H3534:I3534"/>
-    <mergeCell ref="H3535:I3535"/>
-    <mergeCell ref="H3536:I3536"/>
-    <mergeCell ref="H3537:I3537"/>
-    <mergeCell ref="H3538:I3538"/>
-    <mergeCell ref="H3521:I3521"/>
-    <mergeCell ref="H3522:I3522"/>
-    <mergeCell ref="H3523:I3523"/>
-    <mergeCell ref="H3524:I3524"/>
-    <mergeCell ref="H3525:I3525"/>
-    <mergeCell ref="H3526:I3526"/>
-    <mergeCell ref="H3527:I3527"/>
-    <mergeCell ref="H3528:I3528"/>
-    <mergeCell ref="H3529:I3529"/>
-    <mergeCell ref="H3512:I3512"/>
-    <mergeCell ref="H3513:I3513"/>
-    <mergeCell ref="H3514:I3514"/>
-    <mergeCell ref="H3515:I3515"/>
-    <mergeCell ref="H3516:I3516"/>
-    <mergeCell ref="H3517:I3517"/>
-    <mergeCell ref="H3518:I3518"/>
-    <mergeCell ref="H3519:I3519"/>
-    <mergeCell ref="H3520:I3520"/>
-    <mergeCell ref="H3503:I3503"/>
-    <mergeCell ref="H3504:I3504"/>
-    <mergeCell ref="H3505:I3505"/>
-    <mergeCell ref="H3506:I3506"/>
-    <mergeCell ref="H3507:I3507"/>
-    <mergeCell ref="H3508:I3508"/>
-    <mergeCell ref="H3509:I3509"/>
-    <mergeCell ref="H3510:I3510"/>
-    <mergeCell ref="H3511:I3511"/>
-    <mergeCell ref="H3494:I3494"/>
-    <mergeCell ref="H3495:I3495"/>
-    <mergeCell ref="H3496:I3496"/>
-    <mergeCell ref="H3497:I3497"/>
-    <mergeCell ref="H3498:I3498"/>
-    <mergeCell ref="H3499:I3499"/>
-    <mergeCell ref="H3500:I3500"/>
-    <mergeCell ref="H3501:I3501"/>
-    <mergeCell ref="H3502:I3502"/>
-    <mergeCell ref="H3485:I3485"/>
-    <mergeCell ref="H3486:I3486"/>
-    <mergeCell ref="H3487:I3487"/>
-    <mergeCell ref="H3488:I3488"/>
-    <mergeCell ref="H3489:I3489"/>
-    <mergeCell ref="H3490:I3490"/>
-    <mergeCell ref="H3491:I3491"/>
-    <mergeCell ref="H3492:I3492"/>
-    <mergeCell ref="H3493:I3493"/>
-    <mergeCell ref="H3476:I3476"/>
-    <mergeCell ref="H3477:I3477"/>
-    <mergeCell ref="H3478:I3478"/>
-    <mergeCell ref="H3479:I3479"/>
-    <mergeCell ref="H3480:I3480"/>
-    <mergeCell ref="H3481:I3481"/>
-    <mergeCell ref="H3482:I3482"/>
-    <mergeCell ref="H3483:I3483"/>
-    <mergeCell ref="H3484:I3484"/>
-    <mergeCell ref="H3467:I3467"/>
-    <mergeCell ref="H3468:I3468"/>
-    <mergeCell ref="H3469:I3469"/>
-    <mergeCell ref="H3470:I3470"/>
-    <mergeCell ref="H3471:I3471"/>
-    <mergeCell ref="H3472:I3472"/>
-    <mergeCell ref="H3473:I3473"/>
-    <mergeCell ref="H3474:I3474"/>
-    <mergeCell ref="H3475:I3475"/>
-    <mergeCell ref="H3458:I3458"/>
-    <mergeCell ref="H3459:I3459"/>
-    <mergeCell ref="H3460:I3460"/>
-    <mergeCell ref="H3461:I3461"/>
-    <mergeCell ref="H3462:I3462"/>
-    <mergeCell ref="H3463:I3463"/>
-    <mergeCell ref="H3464:I3464"/>
-    <mergeCell ref="H3465:I3465"/>
-    <mergeCell ref="H3466:I3466"/>
-    <mergeCell ref="H3449:I3449"/>
-    <mergeCell ref="H3450:I3450"/>
-    <mergeCell ref="H3451:I3451"/>
-    <mergeCell ref="H3452:I3452"/>
-    <mergeCell ref="H3453:I3453"/>
-    <mergeCell ref="H3454:I3454"/>
-    <mergeCell ref="H3455:I3455"/>
-    <mergeCell ref="H3456:I3456"/>
-    <mergeCell ref="H3457:I3457"/>
-    <mergeCell ref="H3440:I3440"/>
-    <mergeCell ref="H3441:I3441"/>
-    <mergeCell ref="H3442:I3442"/>
-    <mergeCell ref="H3443:I3443"/>
-    <mergeCell ref="H3444:I3444"/>
-    <mergeCell ref="H3445:I3445"/>
-    <mergeCell ref="H3446:I3446"/>
-    <mergeCell ref="H3447:I3447"/>
-    <mergeCell ref="H3448:I3448"/>
-    <mergeCell ref="H3431:I3431"/>
-    <mergeCell ref="H3432:I3432"/>
-    <mergeCell ref="H3433:I3433"/>
-    <mergeCell ref="H3434:I3434"/>
-    <mergeCell ref="H3435:I3435"/>
-    <mergeCell ref="H3436:I3436"/>
-    <mergeCell ref="H3437:I3437"/>
-    <mergeCell ref="H3438:I3438"/>
-    <mergeCell ref="H3439:I3439"/>
-    <mergeCell ref="H3422:I3422"/>
-    <mergeCell ref="H3423:I3423"/>
-    <mergeCell ref="H3424:I3424"/>
-    <mergeCell ref="H3425:I3425"/>
-    <mergeCell ref="H3426:I3426"/>
-    <mergeCell ref="H3427:I3427"/>
-    <mergeCell ref="H3428:I3428"/>
-    <mergeCell ref="H3429:I3429"/>
-    <mergeCell ref="H3430:I3430"/>
-    <mergeCell ref="H3413:I3413"/>
-    <mergeCell ref="H3414:I3414"/>
-    <mergeCell ref="H3415:I3415"/>
-    <mergeCell ref="H3416:I3416"/>
-    <mergeCell ref="H3417:I3417"/>
-    <mergeCell ref="H3418:I3418"/>
-    <mergeCell ref="H3419:I3419"/>
-    <mergeCell ref="H3420:I3420"/>
-    <mergeCell ref="H3421:I3421"/>
-    <mergeCell ref="H3404:I3404"/>
-    <mergeCell ref="H3405:I3405"/>
-    <mergeCell ref="H3406:I3406"/>
-    <mergeCell ref="H3407:I3407"/>
-    <mergeCell ref="H3408:I3408"/>
-    <mergeCell ref="H3409:I3409"/>
-    <mergeCell ref="H3410:I3410"/>
-    <mergeCell ref="H3411:I3411"/>
-    <mergeCell ref="H3412:I3412"/>
-    <mergeCell ref="H3395:I3395"/>
-    <mergeCell ref="H3396:I3396"/>
-    <mergeCell ref="H3397:I3397"/>
-    <mergeCell ref="H3398:I3398"/>
-    <mergeCell ref="H3399:I3399"/>
-    <mergeCell ref="H3400:I3400"/>
-    <mergeCell ref="H3401:I3401"/>
-    <mergeCell ref="H3402:I3402"/>
-    <mergeCell ref="H3403:I3403"/>
-    <mergeCell ref="H3386:I3386"/>
-    <mergeCell ref="H3387:I3387"/>
-    <mergeCell ref="H3388:I3388"/>
-    <mergeCell ref="H3389:I3389"/>
-    <mergeCell ref="H3390:I3390"/>
-    <mergeCell ref="H3391:I3391"/>
-    <mergeCell ref="H3392:I3392"/>
-    <mergeCell ref="H3393:I3393"/>
-    <mergeCell ref="H3394:I3394"/>
-    <mergeCell ref="H3377:I3377"/>
-    <mergeCell ref="H3378:I3378"/>
-    <mergeCell ref="H3379:I3379"/>
-    <mergeCell ref="H3380:I3380"/>
-    <mergeCell ref="H3381:I3381"/>
-    <mergeCell ref="H3382:I3382"/>
-    <mergeCell ref="H3383:I3383"/>
-    <mergeCell ref="H3384:I3384"/>
-    <mergeCell ref="H3385:I3385"/>
-    <mergeCell ref="H3368:I3368"/>
-    <mergeCell ref="H3369:I3369"/>
-    <mergeCell ref="H3370:I3370"/>
-    <mergeCell ref="H3371:I3371"/>
-    <mergeCell ref="H3372:I3372"/>
-    <mergeCell ref="H3373:I3373"/>
-    <mergeCell ref="H3374:I3374"/>
-    <mergeCell ref="H3375:I3375"/>
-    <mergeCell ref="H3376:I3376"/>
-    <mergeCell ref="H3359:I3359"/>
-    <mergeCell ref="H3360:I3360"/>
-    <mergeCell ref="H3361:I3361"/>
-    <mergeCell ref="H3362:I3362"/>
-    <mergeCell ref="H3363:I3363"/>
-    <mergeCell ref="H3364:I3364"/>
-    <mergeCell ref="H3365:I3365"/>
-    <mergeCell ref="H3366:I3366"/>
-    <mergeCell ref="H3367:I3367"/>
-    <mergeCell ref="H3350:I3350"/>
-    <mergeCell ref="H3351:I3351"/>
-    <mergeCell ref="H3352:I3352"/>
-    <mergeCell ref="H3353:I3353"/>
-    <mergeCell ref="H3354:I3354"/>
-    <mergeCell ref="H3355:I3355"/>
-    <mergeCell ref="H3356:I3356"/>
-    <mergeCell ref="H3357:I3357"/>
-    <mergeCell ref="H3358:I3358"/>
-    <mergeCell ref="H3341:I3341"/>
-    <mergeCell ref="H3342:I3342"/>
-    <mergeCell ref="H3343:I3343"/>
-    <mergeCell ref="H3344:I3344"/>
-    <mergeCell ref="H3345:I3345"/>
-    <mergeCell ref="H3346:I3346"/>
-    <mergeCell ref="H3347:I3347"/>
-    <mergeCell ref="H3348:I3348"/>
-    <mergeCell ref="H3349:I3349"/>
-    <mergeCell ref="H3332:I3332"/>
-    <mergeCell ref="H3333:I3333"/>
-    <mergeCell ref="H3334:I3334"/>
-    <mergeCell ref="H3335:I3335"/>
-    <mergeCell ref="H3336:I3336"/>
-    <mergeCell ref="H3337:I3337"/>
-    <mergeCell ref="H3338:I3338"/>
-    <mergeCell ref="H3339:I3339"/>
-    <mergeCell ref="H3340:I3340"/>
-    <mergeCell ref="H3323:I3323"/>
-    <mergeCell ref="H3324:I3324"/>
-    <mergeCell ref="H3325:I3325"/>
-    <mergeCell ref="H3326:I3326"/>
-    <mergeCell ref="H3327:I3327"/>
-    <mergeCell ref="H3328:I3328"/>
-    <mergeCell ref="H3329:I3329"/>
-    <mergeCell ref="H3330:I3330"/>
-    <mergeCell ref="H3331:I3331"/>
-    <mergeCell ref="H3314:I3314"/>
-    <mergeCell ref="H3315:I3315"/>
-    <mergeCell ref="H3316:I3316"/>
-    <mergeCell ref="H3317:I3317"/>
-    <mergeCell ref="H3318:I3318"/>
-    <mergeCell ref="H3319:I3319"/>
-    <mergeCell ref="H3320:I3320"/>
-    <mergeCell ref="H3321:I3321"/>
-    <mergeCell ref="H3322:I3322"/>
-    <mergeCell ref="H3305:I3305"/>
-    <mergeCell ref="H3306:I3306"/>
-    <mergeCell ref="H3307:I3307"/>
-    <mergeCell ref="H3308:I3308"/>
-    <mergeCell ref="H3309:I3309"/>
-    <mergeCell ref="H3310:I3310"/>
-    <mergeCell ref="H3311:I3311"/>
-    <mergeCell ref="H3312:I3312"/>
-    <mergeCell ref="H3313:I3313"/>
-    <mergeCell ref="H3296:I3296"/>
-    <mergeCell ref="H3297:I3297"/>
-    <mergeCell ref="H3298:I3298"/>
-    <mergeCell ref="H3299:I3299"/>
-    <mergeCell ref="H3300:I3300"/>
-    <mergeCell ref="H3301:I3301"/>
-    <mergeCell ref="H3302:I3302"/>
-    <mergeCell ref="H3303:I3303"/>
-    <mergeCell ref="H3304:I3304"/>
-    <mergeCell ref="H3287:I3287"/>
-    <mergeCell ref="H3288:I3288"/>
-    <mergeCell ref="H3289:I3289"/>
-    <mergeCell ref="H3290:I3290"/>
-    <mergeCell ref="H3291:I3291"/>
-    <mergeCell ref="H3292:I3292"/>
-    <mergeCell ref="H3293:I3293"/>
-    <mergeCell ref="H3294:I3294"/>
-    <mergeCell ref="H3295:I3295"/>
-    <mergeCell ref="H3278:I3278"/>
-    <mergeCell ref="H3279:I3279"/>
-    <mergeCell ref="H3280:I3280"/>
-    <mergeCell ref="H3281:I3281"/>
-    <mergeCell ref="H3282:I3282"/>
-    <mergeCell ref="H3283:I3283"/>
-    <mergeCell ref="H3284:I3284"/>
-    <mergeCell ref="H3285:I3285"/>
-    <mergeCell ref="H3286:I3286"/>
-    <mergeCell ref="H3269:I3269"/>
-    <mergeCell ref="H3270:I3270"/>
-    <mergeCell ref="H3271:I3271"/>
-    <mergeCell ref="H3272:I3272"/>
-    <mergeCell ref="H3273:I3273"/>
-    <mergeCell ref="H3274:I3274"/>
-    <mergeCell ref="H3275:I3275"/>
-    <mergeCell ref="H3276:I3276"/>
-    <mergeCell ref="H3277:I3277"/>
-    <mergeCell ref="H3260:I3260"/>
-    <mergeCell ref="H3261:I3261"/>
-    <mergeCell ref="H3262:I3262"/>
-    <mergeCell ref="H3263:I3263"/>
-    <mergeCell ref="H3264:I3264"/>
-    <mergeCell ref="H3265:I3265"/>
-    <mergeCell ref="H3266:I3266"/>
-    <mergeCell ref="H3267:I3267"/>
-    <mergeCell ref="H3268:I3268"/>
-    <mergeCell ref="H3251:I3251"/>
-    <mergeCell ref="H3252:I3252"/>
-    <mergeCell ref="H3253:I3253"/>
-    <mergeCell ref="H3254:I3254"/>
-    <mergeCell ref="H3255:I3255"/>
-    <mergeCell ref="H3256:I3256"/>
-    <mergeCell ref="H3257:I3257"/>
-    <mergeCell ref="H3258:I3258"/>
-    <mergeCell ref="H3259:I3259"/>
-    <mergeCell ref="H3242:I3242"/>
-    <mergeCell ref="H3243:I3243"/>
-    <mergeCell ref="H3244:I3244"/>
-    <mergeCell ref="H3245:I3245"/>
-    <mergeCell ref="H3246:I3246"/>
-    <mergeCell ref="H3247:I3247"/>
-    <mergeCell ref="H3248:I3248"/>
-    <mergeCell ref="H3249:I3249"/>
-    <mergeCell ref="H3250:I3250"/>
-    <mergeCell ref="H3233:I3233"/>
-    <mergeCell ref="H3234:I3234"/>
-    <mergeCell ref="H3235:I3235"/>
-    <mergeCell ref="H3236:I3236"/>
-    <mergeCell ref="H3237:I3237"/>
-    <mergeCell ref="H3238:I3238"/>
-    <mergeCell ref="H3239:I3239"/>
-    <mergeCell ref="H3240:I3240"/>
-    <mergeCell ref="H3241:I3241"/>
-    <mergeCell ref="H3224:I3224"/>
-    <mergeCell ref="H3225:I3225"/>
-    <mergeCell ref="H3226:I3226"/>
-    <mergeCell ref="H3227:I3227"/>
-    <mergeCell ref="H3228:I3228"/>
-    <mergeCell ref="H3229:I3229"/>
-    <mergeCell ref="H3230:I3230"/>
-    <mergeCell ref="H3231:I3231"/>
-    <mergeCell ref="H3232:I3232"/>
-    <mergeCell ref="H3215:I3215"/>
-    <mergeCell ref="H3216:I3216"/>
-    <mergeCell ref="H3217:I3217"/>
-    <mergeCell ref="H3218:I3218"/>
-    <mergeCell ref="H3219:I3219"/>
-    <mergeCell ref="H3220:I3220"/>
-    <mergeCell ref="H3221:I3221"/>
-    <mergeCell ref="H3222:I3222"/>
-    <mergeCell ref="H3223:I3223"/>
-    <mergeCell ref="H3206:I3206"/>
-    <mergeCell ref="H3207:I3207"/>
-    <mergeCell ref="H3208:I3208"/>
-    <mergeCell ref="H3209:I3209"/>
-    <mergeCell ref="H3210:I3210"/>
-    <mergeCell ref="H3211:I3211"/>
-    <mergeCell ref="H3212:I3212"/>
-    <mergeCell ref="H3213:I3213"/>
-    <mergeCell ref="H3214:I3214"/>
-    <mergeCell ref="H3197:I3197"/>
-    <mergeCell ref="H3198:I3198"/>
-    <mergeCell ref="H3199:I3199"/>
-    <mergeCell ref="H3200:I3200"/>
-    <mergeCell ref="H3201:I3201"/>
-    <mergeCell ref="H3202:I3202"/>
-    <mergeCell ref="H3203:I3203"/>
-    <mergeCell ref="H3204:I3204"/>
-    <mergeCell ref="H3205:I3205"/>
-    <mergeCell ref="H3188:I3188"/>
-    <mergeCell ref="H3189:I3189"/>
-    <mergeCell ref="H3190:I3190"/>
-    <mergeCell ref="H3191:I3191"/>
-    <mergeCell ref="H3192:I3192"/>
-    <mergeCell ref="H3193:I3193"/>
-    <mergeCell ref="H3194:I3194"/>
-    <mergeCell ref="H3195:I3195"/>
-    <mergeCell ref="H3196:I3196"/>
-    <mergeCell ref="H3179:I3179"/>
-    <mergeCell ref="H3180:I3180"/>
-    <mergeCell ref="H3181:I3181"/>
-    <mergeCell ref="H3182:I3182"/>
-    <mergeCell ref="H3183:I3183"/>
-    <mergeCell ref="H3184:I3184"/>
-    <mergeCell ref="H3185:I3185"/>
-    <mergeCell ref="H3186:I3186"/>
-    <mergeCell ref="H3187:I3187"/>
-    <mergeCell ref="H3170:I3170"/>
-    <mergeCell ref="H3171:I3171"/>
-    <mergeCell ref="H3172:I3172"/>
-    <mergeCell ref="H3173:I3173"/>
-    <mergeCell ref="H3174:I3174"/>
-    <mergeCell ref="H3175:I3175"/>
-    <mergeCell ref="H3176:I3176"/>
-    <mergeCell ref="H3177:I3177"/>
-    <mergeCell ref="H3178:I3178"/>
-    <mergeCell ref="H3161:I3161"/>
-    <mergeCell ref="H3162:I3162"/>
-    <mergeCell ref="H3163:I3163"/>
-    <mergeCell ref="H3164:I3164"/>
-    <mergeCell ref="H3165:I3165"/>
-    <mergeCell ref="H3166:I3166"/>
-    <mergeCell ref="H3167:I3167"/>
-    <mergeCell ref="H3168:I3168"/>
-    <mergeCell ref="H3169:I3169"/>
-    <mergeCell ref="H3152:I3152"/>
-    <mergeCell ref="H3153:I3153"/>
-    <mergeCell ref="H3154:I3154"/>
-    <mergeCell ref="H3155:I3155"/>
-    <mergeCell ref="H3156:I3156"/>
-    <mergeCell ref="H3157:I3157"/>
-    <mergeCell ref="H3158:I3158"/>
-    <mergeCell ref="H3159:I3159"/>
-    <mergeCell ref="H3160:I3160"/>
-    <mergeCell ref="H3143:I3143"/>
-    <mergeCell ref="H3144:I3144"/>
-    <mergeCell ref="H3145:I3145"/>
-    <mergeCell ref="H3146:I3146"/>
-    <mergeCell ref="H3147:I3147"/>
-    <mergeCell ref="H3148:I3148"/>
-    <mergeCell ref="H3149:I3149"/>
-    <mergeCell ref="H3150:I3150"/>
-    <mergeCell ref="H3151:I3151"/>
-    <mergeCell ref="H3134:I3134"/>
-    <mergeCell ref="H3135:I3135"/>
-    <mergeCell ref="H3136:I3136"/>
-    <mergeCell ref="H3137:I3137"/>
-    <mergeCell ref="H3138:I3138"/>
-    <mergeCell ref="H3139:I3139"/>
-    <mergeCell ref="H3140:I3140"/>
-    <mergeCell ref="H3141:I3141"/>
-    <mergeCell ref="H3142:I3142"/>
-    <mergeCell ref="H3125:I3125"/>
-    <mergeCell ref="H3126:I3126"/>
-    <mergeCell ref="H3127:I3127"/>
-    <mergeCell ref="H3128:I3128"/>
-    <mergeCell ref="H3129:I3129"/>
-    <mergeCell ref="H3130:I3130"/>
-    <mergeCell ref="H3131:I3131"/>
-    <mergeCell ref="H3132:I3132"/>
-    <mergeCell ref="H3133:I3133"/>
-    <mergeCell ref="H3116:I3116"/>
-    <mergeCell ref="H3117:I3117"/>
-    <mergeCell ref="H3118:I3118"/>
-    <mergeCell ref="H3119:I3119"/>
-    <mergeCell ref="H3120:I3120"/>
-    <mergeCell ref="H3121:I3121"/>
-    <mergeCell ref="H3122:I3122"/>
-    <mergeCell ref="H3123:I3123"/>
-    <mergeCell ref="H3124:I3124"/>
-    <mergeCell ref="H3107:I3107"/>
-    <mergeCell ref="H3108:I3108"/>
-    <mergeCell ref="H3109:I3109"/>
-    <mergeCell ref="H3110:I3110"/>
-    <mergeCell ref="H3111:I3111"/>
-    <mergeCell ref="H3112:I3112"/>
-    <mergeCell ref="H3113:I3113"/>
-    <mergeCell ref="H3114:I3114"/>
-    <mergeCell ref="H3115:I3115"/>
-    <mergeCell ref="H3098:I3098"/>
-    <mergeCell ref="H3099:I3099"/>
-    <mergeCell ref="H3100:I3100"/>
-    <mergeCell ref="H3101:I3101"/>
-    <mergeCell ref="H3102:I3102"/>
-    <mergeCell ref="H3103:I3103"/>
-    <mergeCell ref="H3104:I3104"/>
-    <mergeCell ref="H3105:I3105"/>
-    <mergeCell ref="H3106:I3106"/>
-    <mergeCell ref="H3089:I3089"/>
-    <mergeCell ref="H3090:I3090"/>
-    <mergeCell ref="H3091:I3091"/>
-    <mergeCell ref="H3092:I3092"/>
-    <mergeCell ref="H3093:I3093"/>
-    <mergeCell ref="H3094:I3094"/>
-    <mergeCell ref="H3095:I3095"/>
-    <mergeCell ref="H3096:I3096"/>
-    <mergeCell ref="H3097:I3097"/>
-    <mergeCell ref="H3080:I3080"/>
-    <mergeCell ref="H3081:I3081"/>
-    <mergeCell ref="H3082:I3082"/>
-    <mergeCell ref="H3083:I3083"/>
-    <mergeCell ref="H3084:I3084"/>
-    <mergeCell ref="H3085:I3085"/>
-    <mergeCell ref="H3086:I3086"/>
-    <mergeCell ref="H3087:I3087"/>
-    <mergeCell ref="H3088:I3088"/>
-    <mergeCell ref="H3071:I3071"/>
-    <mergeCell ref="H3072:I3072"/>
-    <mergeCell ref="H3073:I3073"/>
-    <mergeCell ref="H3074:I3074"/>
-    <mergeCell ref="H3075:I3075"/>
-    <mergeCell ref="H3076:I3076"/>
-    <mergeCell ref="H3077:I3077"/>
-    <mergeCell ref="H3078:I3078"/>
-    <mergeCell ref="H3079:I3079"/>
-    <mergeCell ref="H3062:I3062"/>
-    <mergeCell ref="H3063:I3063"/>
-    <mergeCell ref="H3064:I3064"/>
-    <mergeCell ref="H3065:I3065"/>
-    <mergeCell ref="H3066:I3066"/>
-    <mergeCell ref="H3067:I3067"/>
-    <mergeCell ref="H3068:I3068"/>
-    <mergeCell ref="H3069:I3069"/>
-    <mergeCell ref="H3070:I3070"/>
-    <mergeCell ref="H3053:I3053"/>
-    <mergeCell ref="H3054:I3054"/>
-    <mergeCell ref="H3055:I3055"/>
-    <mergeCell ref="H3056:I3056"/>
-    <mergeCell ref="H3057:I3057"/>
-    <mergeCell ref="H3058:I3058"/>
-    <mergeCell ref="H3059:I3059"/>
-    <mergeCell ref="H3060:I3060"/>
-    <mergeCell ref="H3061:I3061"/>
-    <mergeCell ref="H3044:I3044"/>
-    <mergeCell ref="H3045:I3045"/>
-    <mergeCell ref="H3046:I3046"/>
-    <mergeCell ref="H3047:I3047"/>
-    <mergeCell ref="H3048:I3048"/>
-    <mergeCell ref="H3049:I3049"/>
-    <mergeCell ref="H3050:I3050"/>
-    <mergeCell ref="H3051:I3051"/>
-    <mergeCell ref="H3052:I3052"/>
-    <mergeCell ref="H3035:I3035"/>
-    <mergeCell ref="H3036:I3036"/>
-    <mergeCell ref="H3037:I3037"/>
-    <mergeCell ref="H3038:I3038"/>
-    <mergeCell ref="H3039:I3039"/>
-    <mergeCell ref="H3040:I3040"/>
-    <mergeCell ref="H3041:I3041"/>
-    <mergeCell ref="H3042:I3042"/>
-    <mergeCell ref="H3043:I3043"/>
-    <mergeCell ref="H3026:I3026"/>
-    <mergeCell ref="H3027:I3027"/>
-    <mergeCell ref="H3028:I3028"/>
-    <mergeCell ref="H3029:I3029"/>
-    <mergeCell ref="H3030:I3030"/>
-    <mergeCell ref="H3031:I3031"/>
-    <mergeCell ref="H3032:I3032"/>
-    <mergeCell ref="H3033:I3033"/>
-    <mergeCell ref="H3034:I3034"/>
-    <mergeCell ref="H3017:I3017"/>
-    <mergeCell ref="H3018:I3018"/>
-    <mergeCell ref="H3019:I3019"/>
-    <mergeCell ref="H3020:I3020"/>
-    <mergeCell ref="H3021:I3021"/>
-    <mergeCell ref="H3022:I3022"/>
-    <mergeCell ref="H3023:I3023"/>
-    <mergeCell ref="H3024:I3024"/>
-    <mergeCell ref="H3025:I3025"/>
-    <mergeCell ref="H3008:I3008"/>
-    <mergeCell ref="H3009:I3009"/>
-    <mergeCell ref="H3010:I3010"/>
-    <mergeCell ref="H3011:I3011"/>
-    <mergeCell ref="H3012:I3012"/>
-    <mergeCell ref="H3013:I3013"/>
-    <mergeCell ref="H3014:I3014"/>
-    <mergeCell ref="H3015:I3015"/>
-    <mergeCell ref="H3016:I3016"/>
-    <mergeCell ref="H2999:I2999"/>
-    <mergeCell ref="H3000:I3000"/>
-    <mergeCell ref="H3001:I3001"/>
-    <mergeCell ref="H3002:I3002"/>
-    <mergeCell ref="H3003:I3003"/>
-    <mergeCell ref="H3004:I3004"/>
-    <mergeCell ref="H3005:I3005"/>
-    <mergeCell ref="H3006:I3006"/>
-    <mergeCell ref="H3007:I3007"/>
-    <mergeCell ref="H2990:I2990"/>
-    <mergeCell ref="H2991:I2991"/>
-    <mergeCell ref="H2992:I2992"/>
-    <mergeCell ref="H2993:I2993"/>
-    <mergeCell ref="H2994:I2994"/>
-    <mergeCell ref="H2995:I2995"/>
-    <mergeCell ref="H2996:I2996"/>
-    <mergeCell ref="H2997:I2997"/>
-    <mergeCell ref="H2998:I2998"/>
-    <mergeCell ref="H2981:I2981"/>
-    <mergeCell ref="H2982:I2982"/>
-    <mergeCell ref="H2983:I2983"/>
-    <mergeCell ref="H2984:I2984"/>
-    <mergeCell ref="H2985:I2985"/>
-    <mergeCell ref="H2986:I2986"/>
-    <mergeCell ref="H2987:I2987"/>
-    <mergeCell ref="H2988:I2988"/>
-    <mergeCell ref="H2989:I2989"/>
-    <mergeCell ref="H2972:I2972"/>
-    <mergeCell ref="H2973:I2973"/>
-    <mergeCell ref="H2974:I2974"/>
-    <mergeCell ref="H2975:I2975"/>
-    <mergeCell ref="H2976:I2976"/>
-    <mergeCell ref="H2977:I2977"/>
-    <mergeCell ref="H2978:I2978"/>
-    <mergeCell ref="H2979:I2979"/>
-    <mergeCell ref="H2980:I2980"/>
-    <mergeCell ref="H2963:I2963"/>
-    <mergeCell ref="H2964:I2964"/>
-    <mergeCell ref="H2965:I2965"/>
-    <mergeCell ref="H2966:I2966"/>
-    <mergeCell ref="H2967:I2967"/>
-    <mergeCell ref="H2968:I2968"/>
-    <mergeCell ref="H2969:I2969"/>
-    <mergeCell ref="H2970:I2970"/>
-    <mergeCell ref="H2971:I2971"/>
-    <mergeCell ref="H2954:I2954"/>
-    <mergeCell ref="H2955:I2955"/>
-    <mergeCell ref="H2956:I2956"/>
-    <mergeCell ref="H2957:I2957"/>
-    <mergeCell ref="H2958:I2958"/>
-    <mergeCell ref="H2959:I2959"/>
-    <mergeCell ref="H2960:I2960"/>
-    <mergeCell ref="H2961:I2961"/>
-    <mergeCell ref="H2962:I2962"/>
-    <mergeCell ref="H2945:I2945"/>
-    <mergeCell ref="H2946:I2946"/>
-    <mergeCell ref="H2947:I2947"/>
-    <mergeCell ref="H2948:I2948"/>
-    <mergeCell ref="H2949:I2949"/>
-    <mergeCell ref="H2950:I2950"/>
-    <mergeCell ref="H2951:I2951"/>
-    <mergeCell ref="H2952:I2952"/>
-    <mergeCell ref="H2953:I2953"/>
-    <mergeCell ref="H2936:I2936"/>
-    <mergeCell ref="H2937:I2937"/>
-    <mergeCell ref="H2938:I2938"/>
-    <mergeCell ref="H2939:I2939"/>
-    <mergeCell ref="H2940:I2940"/>
-    <mergeCell ref="H2941:I2941"/>
-    <mergeCell ref="H2942:I2942"/>
-    <mergeCell ref="H2943:I2943"/>
-    <mergeCell ref="H2944:I2944"/>
-    <mergeCell ref="H2927:I2927"/>
-    <mergeCell ref="H2928:I2928"/>
-    <mergeCell ref="H2929:I2929"/>
-    <mergeCell ref="H2930:I2930"/>
-    <mergeCell ref="H2931:I2931"/>
-    <mergeCell ref="H2932:I2932"/>
-    <mergeCell ref="H2933:I2933"/>
-    <mergeCell ref="H2934:I2934"/>
-    <mergeCell ref="H2935:I2935"/>
-    <mergeCell ref="H2918:I2918"/>
-    <mergeCell ref="H2919:I2919"/>
-    <mergeCell ref="H2920:I2920"/>
-    <mergeCell ref="H2921:I2921"/>
-    <mergeCell ref="H2922:I2922"/>
-    <mergeCell ref="H2923:I2923"/>
-    <mergeCell ref="H2924:I2924"/>
-    <mergeCell ref="H2925:I2925"/>
-    <mergeCell ref="H2926:I2926"/>
-    <mergeCell ref="H2909:I2909"/>
-    <mergeCell ref="H2910:I2910"/>
-    <mergeCell ref="H2911:I2911"/>
-    <mergeCell ref="H2912:I2912"/>
-    <mergeCell ref="H2913:I2913"/>
-    <mergeCell ref="H2914:I2914"/>
-    <mergeCell ref="H2915:I2915"/>
-    <mergeCell ref="H2916:I2916"/>
-    <mergeCell ref="H2917:I2917"/>
-    <mergeCell ref="H2900:I2900"/>
-    <mergeCell ref="H2901:I2901"/>
-    <mergeCell ref="H2902:I2902"/>
-    <mergeCell ref="H2903:I2903"/>
-    <mergeCell ref="H2904:I2904"/>
-    <mergeCell ref="H2905:I2905"/>
-    <mergeCell ref="H2906:I2906"/>
-    <mergeCell ref="H2907:I2907"/>
-    <mergeCell ref="H2908:I2908"/>
-    <mergeCell ref="H2891:I2891"/>
-    <mergeCell ref="H2892:I2892"/>
-    <mergeCell ref="H2893:I2893"/>
-    <mergeCell ref="H2894:I2894"/>
-    <mergeCell ref="H2895:I2895"/>
-    <mergeCell ref="H2896:I2896"/>
-    <mergeCell ref="H2897:I2897"/>
-    <mergeCell ref="H2898:I2898"/>
-    <mergeCell ref="H2899:I2899"/>
-    <mergeCell ref="H2882:I2882"/>
-    <mergeCell ref="H2883:I2883"/>
-    <mergeCell ref="H2884:I2884"/>
-    <mergeCell ref="H2885:I2885"/>
-    <mergeCell ref="H2886:I2886"/>
-    <mergeCell ref="H2887:I2887"/>
-    <mergeCell ref="H2888:I2888"/>
-    <mergeCell ref="H2889:I2889"/>
-    <mergeCell ref="H2890:I2890"/>
-    <mergeCell ref="H2873:I2873"/>
-    <mergeCell ref="H2874:I2874"/>
-    <mergeCell ref="H2875:I2875"/>
-    <mergeCell ref="H2876:I2876"/>
-    <mergeCell ref="H2877:I2877"/>
-    <mergeCell ref="H2878:I2878"/>
-    <mergeCell ref="H2879:I2879"/>
-    <mergeCell ref="H2880:I2880"/>
-    <mergeCell ref="H2881:I2881"/>
-    <mergeCell ref="H2864:I2864"/>
-    <mergeCell ref="H2865:I2865"/>
-    <mergeCell ref="H2866:I2866"/>
-    <mergeCell ref="H2867:I2867"/>
-    <mergeCell ref="H2868:I2868"/>
-    <mergeCell ref="H2869:I2869"/>
-    <mergeCell ref="H2870:I2870"/>
-    <mergeCell ref="H2871:I2871"/>
-    <mergeCell ref="H2872:I2872"/>
-    <mergeCell ref="H2855:I2855"/>
-    <mergeCell ref="H2856:I2856"/>
-    <mergeCell ref="H2857:I2857"/>
-    <mergeCell ref="H2858:I2858"/>
-    <mergeCell ref="H2859:I2859"/>
-    <mergeCell ref="H2860:I2860"/>
-    <mergeCell ref="H2861:I2861"/>
-    <mergeCell ref="H2862:I2862"/>
-    <mergeCell ref="H2863:I2863"/>
-    <mergeCell ref="H2846:I2846"/>
-    <mergeCell ref="H2847:I2847"/>
-    <mergeCell ref="H2848:I2848"/>
-    <mergeCell ref="H2849:I2849"/>
-    <mergeCell ref="H2850:I2850"/>
-    <mergeCell ref="H2851:I2851"/>
-    <mergeCell ref="H2852:I2852"/>
-    <mergeCell ref="H2853:I2853"/>
-    <mergeCell ref="H2854:I2854"/>
-    <mergeCell ref="H2837:I2837"/>
-    <mergeCell ref="H2838:I2838"/>
-    <mergeCell ref="H2839:I2839"/>
-    <mergeCell ref="H2840:I2840"/>
-    <mergeCell ref="H2841:I2841"/>
-    <mergeCell ref="H2842:I2842"/>
-    <mergeCell ref="H2843:I2843"/>
-    <mergeCell ref="H2844:I2844"/>
-    <mergeCell ref="H2845:I2845"/>
-    <mergeCell ref="H2828:I2828"/>
-    <mergeCell ref="H2829:I2829"/>
-    <mergeCell ref="H2830:I2830"/>
-    <mergeCell ref="H2831:I2831"/>
-    <mergeCell ref="H2832:I2832"/>
-    <mergeCell ref="H2833:I2833"/>
-    <mergeCell ref="H2834:I2834"/>
-    <mergeCell ref="H2835:I2835"/>
-    <mergeCell ref="H2836:I2836"/>
-    <mergeCell ref="H2819:I2819"/>
-    <mergeCell ref="H2820:I2820"/>
-    <mergeCell ref="H2821:I2821"/>
-    <mergeCell ref="H2822:I2822"/>
-    <mergeCell ref="H2823:I2823"/>
-    <mergeCell ref="H2824:I2824"/>
-    <mergeCell ref="H2825:I2825"/>
-    <mergeCell ref="H2826:I2826"/>
-    <mergeCell ref="H2827:I2827"/>
-    <mergeCell ref="H2810:I2810"/>
-    <mergeCell ref="H2811:I2811"/>
-    <mergeCell ref="H2812:I2812"/>
-    <mergeCell ref="H2813:I2813"/>
-    <mergeCell ref="H2814:I2814"/>
-    <mergeCell ref="H2815:I2815"/>
-    <mergeCell ref="H2816:I2816"/>
-    <mergeCell ref="H2817:I2817"/>
-    <mergeCell ref="H2818:I2818"/>
-    <mergeCell ref="H2801:I2801"/>
-    <mergeCell ref="H2802:I2802"/>
-    <mergeCell ref="H2803:I2803"/>
-    <mergeCell ref="H2804:I2804"/>
-    <mergeCell ref="H2805:I2805"/>
-    <mergeCell ref="H2806:I2806"/>
-    <mergeCell ref="H2807:I2807"/>
-    <mergeCell ref="H2808:I2808"/>
-    <mergeCell ref="H2809:I2809"/>
-    <mergeCell ref="H2792:I2792"/>
-    <mergeCell ref="H2793:I2793"/>
-    <mergeCell ref="H2794:I2794"/>
-    <mergeCell ref="H2795:I2795"/>
-    <mergeCell ref="H2796:I2796"/>
-    <mergeCell ref="H2797:I2797"/>
-    <mergeCell ref="H2798:I2798"/>
-    <mergeCell ref="H2799:I2799"/>
-    <mergeCell ref="H2800:I2800"/>
-    <mergeCell ref="H2783:I2783"/>
-    <mergeCell ref="H2784:I2784"/>
-    <mergeCell ref="H2785:I2785"/>
-    <mergeCell ref="H2786:I2786"/>
-    <mergeCell ref="H2787:I2787"/>
-    <mergeCell ref="H2788:I2788"/>
-    <mergeCell ref="H2789:I2789"/>
-    <mergeCell ref="H2790:I2790"/>
-    <mergeCell ref="H2791:I2791"/>
-    <mergeCell ref="H2774:I2774"/>
-    <mergeCell ref="H2775:I2775"/>
-    <mergeCell ref="H2776:I2776"/>
-    <mergeCell ref="H2777:I2777"/>
-    <mergeCell ref="H2778:I2778"/>
-    <mergeCell ref="H2779:I2779"/>
-    <mergeCell ref="H2780:I2780"/>
-    <mergeCell ref="H2781:I2781"/>
-    <mergeCell ref="H2782:I2782"/>
-    <mergeCell ref="H2765:I2765"/>
-    <mergeCell ref="H2766:I2766"/>
-    <mergeCell ref="H2767:I2767"/>
-    <mergeCell ref="H2768:I2768"/>
-    <mergeCell ref="H2769:I2769"/>
-    <mergeCell ref="H2770:I2770"/>
-    <mergeCell ref="H2771:I2771"/>
-    <mergeCell ref="H2772:I2772"/>
-    <mergeCell ref="H2773:I2773"/>
-    <mergeCell ref="H2756:I2756"/>
-    <mergeCell ref="H2757:I2757"/>
-    <mergeCell ref="H2758:I2758"/>
-    <mergeCell ref="H2759:I2759"/>
-    <mergeCell ref="H2760:I2760"/>
-    <mergeCell ref="H2761:I2761"/>
-    <mergeCell ref="H2762:I2762"/>
-    <mergeCell ref="H2763:I2763"/>
-    <mergeCell ref="H2764:I2764"/>
-    <mergeCell ref="H2747:I2747"/>
-    <mergeCell ref="H2748:I2748"/>
-    <mergeCell ref="H2749:I2749"/>
-    <mergeCell ref="H2750:I2750"/>
-    <mergeCell ref="H2751:I2751"/>
-    <mergeCell ref="H2752:I2752"/>
-    <mergeCell ref="H2753:I2753"/>
-    <mergeCell ref="H2754:I2754"/>
-    <mergeCell ref="H2755:I2755"/>
-    <mergeCell ref="H2738:I2738"/>
-    <mergeCell ref="H2739:I2739"/>
-    <mergeCell ref="H2740:I2740"/>
-    <mergeCell ref="H2741:I2741"/>
-    <mergeCell ref="H2742:I2742"/>
-    <mergeCell ref="H2743:I2743"/>
-    <mergeCell ref="H2744:I2744"/>
-    <mergeCell ref="H2745:I2745"/>
-    <mergeCell ref="H2746:I2746"/>
-    <mergeCell ref="H2729:I2729"/>
-    <mergeCell ref="H2730:I2730"/>
-    <mergeCell ref="H2731:I2731"/>
-    <mergeCell ref="H2732:I2732"/>
-    <mergeCell ref="H2733:I2733"/>
-    <mergeCell ref="H2734:I2734"/>
-    <mergeCell ref="H2735:I2735"/>
-    <mergeCell ref="H2736:I2736"/>
-    <mergeCell ref="H2737:I2737"/>
-    <mergeCell ref="H2720:I2720"/>
-    <mergeCell ref="H2721:I2721"/>
-    <mergeCell ref="H2722:I2722"/>
-    <mergeCell ref="H2723:I2723"/>
-    <mergeCell ref="H2724:I2724"/>
-    <mergeCell ref="H2725:I2725"/>
-    <mergeCell ref="H2726:I2726"/>
-    <mergeCell ref="H2727:I2727"/>
-    <mergeCell ref="H2728:I2728"/>
-    <mergeCell ref="H2711:I2711"/>
-    <mergeCell ref="H2712:I2712"/>
-    <mergeCell ref="H2713:I2713"/>
-    <mergeCell ref="H2714:I2714"/>
-    <mergeCell ref="H2715:I2715"/>
-    <mergeCell ref="H2716:I2716"/>
-    <mergeCell ref="H2717:I2717"/>
-    <mergeCell ref="H2718:I2718"/>
-    <mergeCell ref="H2719:I2719"/>
-    <mergeCell ref="H2702:I2702"/>
-    <mergeCell ref="H2703:I2703"/>
-    <mergeCell ref="H2704:I2704"/>
-    <mergeCell ref="H2705:I2705"/>
-    <mergeCell ref="H2706:I2706"/>
-    <mergeCell ref="H2707:I2707"/>
-    <mergeCell ref="H2708:I2708"/>
-    <mergeCell ref="H2709:I2709"/>
-    <mergeCell ref="H2710:I2710"/>
-    <mergeCell ref="H2693:I2693"/>
-    <mergeCell ref="H2694:I2694"/>
-    <mergeCell ref="H2695:I2695"/>
-    <mergeCell ref="H2696:I2696"/>
-    <mergeCell ref="H2697:I2697"/>
-    <mergeCell ref="H2698:I2698"/>
-    <mergeCell ref="H2699:I2699"/>
-    <mergeCell ref="H2700:I2700"/>
-    <mergeCell ref="H2701:I2701"/>
-    <mergeCell ref="H2684:I2684"/>
-    <mergeCell ref="H2685:I2685"/>
-    <mergeCell ref="H2686:I2686"/>
-    <mergeCell ref="H2687:I2687"/>
-    <mergeCell ref="H2688:I2688"/>
-    <mergeCell ref="H2689:I2689"/>
-    <mergeCell ref="H2690:I2690"/>
-    <mergeCell ref="H2691:I2691"/>
-    <mergeCell ref="H2692:I2692"/>
-    <mergeCell ref="H2675:I2675"/>
-    <mergeCell ref="H2676:I2676"/>
-    <mergeCell ref="H2677:I2677"/>
-    <mergeCell ref="H2678:I2678"/>
-    <mergeCell ref="H2679:I2679"/>
-    <mergeCell ref="H2680:I2680"/>
-    <mergeCell ref="H2681:I2681"/>
-    <mergeCell ref="H2682:I2682"/>
-    <mergeCell ref="H2683:I2683"/>
-    <mergeCell ref="H2666:I2666"/>
-    <mergeCell ref="H2667:I2667"/>
-    <mergeCell ref="H2668:I2668"/>
-    <mergeCell ref="H2669:I2669"/>
-    <mergeCell ref="H2670:I2670"/>
-    <mergeCell ref="H2671:I2671"/>
-    <mergeCell ref="H2672:I2672"/>
-    <mergeCell ref="H2673:I2673"/>
-    <mergeCell ref="H2674:I2674"/>
-    <mergeCell ref="H2657:I2657"/>
-    <mergeCell ref="H2658:I2658"/>
-    <mergeCell ref="H2659:I2659"/>
-    <mergeCell ref="H2660:I2660"/>
-    <mergeCell ref="H2661:I2661"/>
-    <mergeCell ref="H2662:I2662"/>
-    <mergeCell ref="H2663:I2663"/>
-    <mergeCell ref="H2664:I2664"/>
-    <mergeCell ref="H2665:I2665"/>
-    <mergeCell ref="H2648:I2648"/>
-    <mergeCell ref="H2649:I2649"/>
-    <mergeCell ref="H2650:I2650"/>
-    <mergeCell ref="H2651:I2651"/>
-    <mergeCell ref="H2652:I2652"/>
-    <mergeCell ref="H2653:I2653"/>
-    <mergeCell ref="H2654:I2654"/>
-    <mergeCell ref="H2655:I2655"/>
-    <mergeCell ref="H2656:I2656"/>
-    <mergeCell ref="H2639:I2639"/>
-    <mergeCell ref="H2640:I2640"/>
-    <mergeCell ref="H2641:I2641"/>
-    <mergeCell ref="H2642:I2642"/>
-    <mergeCell ref="H2643:I2643"/>
-    <mergeCell ref="H2644:I2644"/>
-    <mergeCell ref="H2645:I2645"/>
-    <mergeCell ref="H2646:I2646"/>
-    <mergeCell ref="H2647:I2647"/>
-    <mergeCell ref="H2630:I2630"/>
-    <mergeCell ref="H2631:I2631"/>
-    <mergeCell ref="H2632:I2632"/>
-    <mergeCell ref="H2633:I2633"/>
-    <mergeCell ref="H2634:I2634"/>
-    <mergeCell ref="H2635:I2635"/>
-    <mergeCell ref="H2636:I2636"/>
-    <mergeCell ref="H2637:I2637"/>
-    <mergeCell ref="H2638:I2638"/>
-    <mergeCell ref="H2621:I2621"/>
-    <mergeCell ref="H2622:I2622"/>
-    <mergeCell ref="H2623:I2623"/>
-    <mergeCell ref="H2624:I2624"/>
-    <mergeCell ref="H2625:I2625"/>
-    <mergeCell ref="H2626:I2626"/>
-    <mergeCell ref="H2627:I2627"/>
-    <mergeCell ref="H2628:I2628"/>
-    <mergeCell ref="H2629:I2629"/>
-    <mergeCell ref="H2612:I2612"/>
-    <mergeCell ref="H2613:I2613"/>
-    <mergeCell ref="H2614:I2614"/>
-    <mergeCell ref="H2615:I2615"/>
-    <mergeCell ref="H2616:I2616"/>
-    <mergeCell ref="H2617:I2617"/>
-    <mergeCell ref="H2618:I2618"/>
-    <mergeCell ref="H2619:I2619"/>
-    <mergeCell ref="H2620:I2620"/>
-    <mergeCell ref="H2603:I2603"/>
-    <mergeCell ref="H2604:I2604"/>
-    <mergeCell ref="H2605:I2605"/>
-    <mergeCell ref="H2606:I2606"/>
-    <mergeCell ref="H2607:I2607"/>
-    <mergeCell ref="H2608:I2608"/>
-    <mergeCell ref="H2609:I2609"/>
-    <mergeCell ref="H2610:I2610"/>
-    <mergeCell ref="H2611:I2611"/>
-    <mergeCell ref="H2594:I2594"/>
-    <mergeCell ref="H2595:I2595"/>
-    <mergeCell ref="H2596:I2596"/>
-    <mergeCell ref="H2597:I2597"/>
-    <mergeCell ref="H2598:I2598"/>
-    <mergeCell ref="H2599:I2599"/>
-    <mergeCell ref="H2600:I2600"/>
-    <mergeCell ref="H2601:I2601"/>
-    <mergeCell ref="H2602:I2602"/>
-    <mergeCell ref="H2585:I2585"/>
-    <mergeCell ref="H2586:I2586"/>
-    <mergeCell ref="H2587:I2587"/>
-    <mergeCell ref="H2588:I2588"/>
-    <mergeCell ref="H2589:I2589"/>
-    <mergeCell ref="H2590:I2590"/>
-    <mergeCell ref="H2591:I2591"/>
-    <mergeCell ref="H2592:I2592"/>
-    <mergeCell ref="H2593:I2593"/>
-    <mergeCell ref="H2576:I2576"/>
-    <mergeCell ref="H2577:I2577"/>
-    <mergeCell ref="H2578:I2578"/>
-    <mergeCell ref="H2579:I2579"/>
-    <mergeCell ref="H2580:I2580"/>
-    <mergeCell ref="H2581:I2581"/>
-    <mergeCell ref="H2582:I2582"/>
-    <mergeCell ref="H2583:I2583"/>
-    <mergeCell ref="H2584:I2584"/>
-    <mergeCell ref="H2567:I2567"/>
-    <mergeCell ref="H2568:I2568"/>
-    <mergeCell ref="H2569:I2569"/>
-    <mergeCell ref="H2570:I2570"/>
-    <mergeCell ref="H2571:I2571"/>
-    <mergeCell ref="H2572:I2572"/>
-    <mergeCell ref="H2573:I2573"/>
-    <mergeCell ref="H2574:I2574"/>
-    <mergeCell ref="H2575:I2575"/>
-    <mergeCell ref="H2558:I2558"/>
-    <mergeCell ref="H2559:I2559"/>
-    <mergeCell ref="H2560:I2560"/>
-    <mergeCell ref="H2561:I2561"/>
-    <mergeCell ref="H2562:I2562"/>
-    <mergeCell ref="H2563:I2563"/>
-    <mergeCell ref="H2564:I2564"/>
-    <mergeCell ref="H2565:I2565"/>
-    <mergeCell ref="H2566:I2566"/>
-    <mergeCell ref="H2549:I2549"/>
-    <mergeCell ref="H2550:I2550"/>
-    <mergeCell ref="H2551:I2551"/>
-    <mergeCell ref="H2552:I2552"/>
-    <mergeCell ref="H2553:I2553"/>
-    <mergeCell ref="H2554:I2554"/>
-    <mergeCell ref="H2555:I2555"/>
-    <mergeCell ref="H2556:I2556"/>
-    <mergeCell ref="H2557:I2557"/>
-    <mergeCell ref="H2540:I2540"/>
-    <mergeCell ref="H2541:I2541"/>
-    <mergeCell ref="H2542:I2542"/>
-    <mergeCell ref="H2543:I2543"/>
-    <mergeCell ref="H2544:I2544"/>
-    <mergeCell ref="H2545:I2545"/>
-    <mergeCell ref="H2546:I2546"/>
-    <mergeCell ref="H2547:I2547"/>
-    <mergeCell ref="H2548:I2548"/>
-    <mergeCell ref="H2531:I2531"/>
-    <mergeCell ref="H2532:I2532"/>
-    <mergeCell ref="H2533:I2533"/>
-    <mergeCell ref="H2534:I2534"/>
-    <mergeCell ref="H2535:I2535"/>
-    <mergeCell ref="H2536:I2536"/>
-    <mergeCell ref="H2537:I2537"/>
-    <mergeCell ref="H2538:I2538"/>
-    <mergeCell ref="H2539:I2539"/>
-    <mergeCell ref="H2522:I2522"/>
-    <mergeCell ref="H2523:I2523"/>
-    <mergeCell ref="H2524:I2524"/>
-    <mergeCell ref="H2525:I2525"/>
-    <mergeCell ref="H2526:I2526"/>
-    <mergeCell ref="H2527:I2527"/>
-    <mergeCell ref="H2528:I2528"/>
-    <mergeCell ref="H2529:I2529"/>
-    <mergeCell ref="H2530:I2530"/>
-    <mergeCell ref="H2513:I2513"/>
-    <mergeCell ref="H2514:I2514"/>
-    <mergeCell ref="H2515:I2515"/>
-    <mergeCell ref="H2516:I2516"/>
-    <mergeCell ref="H2517:I2517"/>
-    <mergeCell ref="H2518:I2518"/>
-    <mergeCell ref="H2519:I2519"/>
-    <mergeCell ref="H2520:I2520"/>
-    <mergeCell ref="H2521:I2521"/>
-    <mergeCell ref="H2504:I2504"/>
-    <mergeCell ref="H2505:I2505"/>
-    <mergeCell ref="H2506:I2506"/>
-    <mergeCell ref="H2507:I2507"/>
-    <mergeCell ref="H2508:I2508"/>
-    <mergeCell ref="H2509:I2509"/>
-    <mergeCell ref="H2510:I2510"/>
-    <mergeCell ref="H2511:I2511"/>
-    <mergeCell ref="H2512:I2512"/>
-    <mergeCell ref="H2495:I2495"/>
-    <mergeCell ref="H2496:I2496"/>
-    <mergeCell ref="H2497:I2497"/>
-    <mergeCell ref="H2498:I2498"/>
-    <mergeCell ref="H2499:I2499"/>
-    <mergeCell ref="H2500:I2500"/>
-    <mergeCell ref="H2501:I2501"/>
-    <mergeCell ref="H2502:I2502"/>
-    <mergeCell ref="H2503:I2503"/>
-    <mergeCell ref="H2486:I2486"/>
-    <mergeCell ref="H2487:I2487"/>
-    <mergeCell ref="H2488:I2488"/>
-    <mergeCell ref="H2489:I2489"/>
-    <mergeCell ref="H2490:I2490"/>
-    <mergeCell ref="H2491:I2491"/>
-    <mergeCell ref="H2492:I2492"/>
-    <mergeCell ref="H2493:I2493"/>
-    <mergeCell ref="H2494:I2494"/>
-    <mergeCell ref="H2477:I2477"/>
-    <mergeCell ref="H2478:I2478"/>
-    <mergeCell ref="H2479:I2479"/>
-    <mergeCell ref="H2480:I2480"/>
-    <mergeCell ref="H2481:I2481"/>
-    <mergeCell ref="H2482:I2482"/>
-    <mergeCell ref="H2483:I2483"/>
-    <mergeCell ref="H2484:I2484"/>
-    <mergeCell ref="H2485:I2485"/>
-    <mergeCell ref="H2468:I2468"/>
-    <mergeCell ref="H2469:I2469"/>
-    <mergeCell ref="H2470:I2470"/>
-    <mergeCell ref="H2471:I2471"/>
-    <mergeCell ref="H2472:I2472"/>
-    <mergeCell ref="H2473:I2473"/>
-    <mergeCell ref="H2474:I2474"/>
-    <mergeCell ref="H2475:I2475"/>
-    <mergeCell ref="H2476:I2476"/>
-    <mergeCell ref="H2459:I2459"/>
-    <mergeCell ref="H2460:I2460"/>
-    <mergeCell ref="H2461:I2461"/>
-    <mergeCell ref="H2462:I2462"/>
-    <mergeCell ref="H2463:I2463"/>
-    <mergeCell ref="H2464:I2464"/>
-    <mergeCell ref="H2465:I2465"/>
-    <mergeCell ref="H2466:I2466"/>
-    <mergeCell ref="H2467:I2467"/>
-    <mergeCell ref="H2450:I2450"/>
-    <mergeCell ref="H2451:I2451"/>
-    <mergeCell ref="H2452:I2452"/>
-    <mergeCell ref="H2453:I2453"/>
-    <mergeCell ref="H2454:I2454"/>
-    <mergeCell ref="H2455:I2455"/>
-    <mergeCell ref="H2456:I2456"/>
-    <mergeCell ref="H2457:I2457"/>
-    <mergeCell ref="H2458:I2458"/>
-    <mergeCell ref="H2441:I2441"/>
-    <mergeCell ref="H2442:I2442"/>
-    <mergeCell ref="H2443:I2443"/>
-    <mergeCell ref="H2444:I2444"/>
-    <mergeCell ref="H2445:I2445"/>
-    <mergeCell ref="H2446:I2446"/>
-    <mergeCell ref="H2447:I2447"/>
-    <mergeCell ref="H2448:I2448"/>
-    <mergeCell ref="H2449:I2449"/>
-    <mergeCell ref="H2432:I2432"/>
-    <mergeCell ref="H2433:I2433"/>
-    <mergeCell ref="H2434:I2434"/>
-    <mergeCell ref="H2435:I2435"/>
-    <mergeCell ref="H2436:I2436"/>
-    <mergeCell ref="H2437:I2437"/>
-    <mergeCell ref="H2438:I2438"/>
-    <mergeCell ref="H2439:I2439"/>
-    <mergeCell ref="H2440:I2440"/>
-    <mergeCell ref="H2423:I2423"/>
-    <mergeCell ref="H2424:I2424"/>
-    <mergeCell ref="H2425:I2425"/>
-    <mergeCell ref="H2426:I2426"/>
-    <mergeCell ref="H2427:I2427"/>
-    <mergeCell ref="H2428:I2428"/>
-    <mergeCell ref="H2429:I2429"/>
-    <mergeCell ref="H2430:I2430"/>
-    <mergeCell ref="H2431:I2431"/>
-    <mergeCell ref="H2414:I2414"/>
-    <mergeCell ref="H2415:I2415"/>
-    <mergeCell ref="H2416:I2416"/>
-    <mergeCell ref="H2417:I2417"/>
-    <mergeCell ref="H2418:I2418"/>
-    <mergeCell ref="H2419:I2419"/>
-    <mergeCell ref="H2420:I2420"/>
-    <mergeCell ref="H2421:I2421"/>
-    <mergeCell ref="H2422:I2422"/>
-    <mergeCell ref="H2405:I2405"/>
-    <mergeCell ref="H2406:I2406"/>
-    <mergeCell ref="H2407:I2407"/>
-    <mergeCell ref="H2408:I2408"/>
-    <mergeCell ref="H2409:I2409"/>
-    <mergeCell ref="H2410:I2410"/>
-    <mergeCell ref="H2411:I2411"/>
-    <mergeCell ref="H2412:I2412"/>
-    <mergeCell ref="H2413:I2413"/>
-    <mergeCell ref="H2396:I2396"/>
-    <mergeCell ref="H2397:I2397"/>
-    <mergeCell ref="H2398:I2398"/>
-    <mergeCell ref="H2399:I2399"/>
-    <mergeCell ref="H2400:I2400"/>
-    <mergeCell ref="H2401:I2401"/>
-    <mergeCell ref="H2402:I2402"/>
-    <mergeCell ref="H2403:I2403"/>
-    <mergeCell ref="H2404:I2404"/>
-    <mergeCell ref="H2387:I2387"/>
-    <mergeCell ref="H2388:I2388"/>
-    <mergeCell ref="H2389:I2389"/>
-    <mergeCell ref="H2390:I2390"/>
-    <mergeCell ref="H2391:I2391"/>
-    <mergeCell ref="H2392:I2392"/>
-    <mergeCell ref="H2393:I2393"/>
-    <mergeCell ref="H2394:I2394"/>
-    <mergeCell ref="H2395:I2395"/>
-    <mergeCell ref="H2378:I2378"/>
-    <mergeCell ref="H2379:I2379"/>
-    <mergeCell ref="H2380:I2380"/>
-    <mergeCell ref="H2381:I2381"/>
-    <mergeCell ref="H2382:I2382"/>
-    <mergeCell ref="H2383:I2383"/>
-    <mergeCell ref="H2384:I2384"/>
-    <mergeCell ref="H2385:I2385"/>
-    <mergeCell ref="H2386:I2386"/>
-    <mergeCell ref="H2369:I2369"/>
-    <mergeCell ref="H2370:I2370"/>
-    <mergeCell ref="H2371:I2371"/>
-    <mergeCell ref="H2372:I2372"/>
-    <mergeCell ref="H2373:I2373"/>
-    <mergeCell ref="H2374:I2374"/>
-    <mergeCell ref="H2375:I2375"/>
-    <mergeCell ref="H2376:I2376"/>
-    <mergeCell ref="H2377:I2377"/>
-    <mergeCell ref="H2360:I2360"/>
-    <mergeCell ref="H2361:I2361"/>
-    <mergeCell ref="H2362:I2362"/>
-    <mergeCell ref="H2363:I2363"/>
-    <mergeCell ref="H2364:I2364"/>
-    <mergeCell ref="H2365:I2365"/>
-    <mergeCell ref="H2366:I2366"/>
-    <mergeCell ref="H2367:I2367"/>
-    <mergeCell ref="H2368:I2368"/>
-    <mergeCell ref="H2351:I2351"/>
-    <mergeCell ref="H2352:I2352"/>
-    <mergeCell ref="H2353:I2353"/>
-    <mergeCell ref="H2354:I2354"/>
-    <mergeCell ref="H2355:I2355"/>
-    <mergeCell ref="H2356:I2356"/>
-    <mergeCell ref="H2357:I2357"/>
-    <mergeCell ref="H2358:I2358"/>
-    <mergeCell ref="H2359:I2359"/>
-    <mergeCell ref="H2342:I2342"/>
-    <mergeCell ref="H2343:I2343"/>
-    <mergeCell ref="H2344:I2344"/>
-    <mergeCell ref="H2345:I2345"/>
-    <mergeCell ref="H2346:I2346"/>
-    <mergeCell ref="H2347:I2347"/>
-    <mergeCell ref="H2348:I2348"/>
-    <mergeCell ref="H2349:I2349"/>
-    <mergeCell ref="H2350:I2350"/>
-    <mergeCell ref="H2333:I2333"/>
-    <mergeCell ref="H2334:I2334"/>
-    <mergeCell ref="H2335:I2335"/>
-    <mergeCell ref="H2336:I2336"/>
-    <mergeCell ref="H2337:I2337"/>
-    <mergeCell ref="H2338:I2338"/>
-    <mergeCell ref="H2339:I2339"/>
-    <mergeCell ref="H2340:I2340"/>
-    <mergeCell ref="H2341:I2341"/>
-    <mergeCell ref="H2324:I2324"/>
-    <mergeCell ref="H2325:I2325"/>
-    <mergeCell ref="H2326:I2326"/>
-    <mergeCell ref="H2327:I2327"/>
-    <mergeCell ref="H2328:I2328"/>
-    <mergeCell ref="H2329:I2329"/>
-    <mergeCell ref="H2330:I2330"/>
-    <mergeCell ref="H2331:I2331"/>
-    <mergeCell ref="H2332:I2332"/>
-    <mergeCell ref="H2315:I2315"/>
-    <mergeCell ref="H2316:I2316"/>
-    <mergeCell ref="H2317:I2317"/>
-    <mergeCell ref="H2318:I2318"/>
-    <mergeCell ref="H2319:I2319"/>
-    <mergeCell ref="H2320:I2320"/>
-    <mergeCell ref="H2321:I2321"/>
-    <mergeCell ref="H2322:I2322"/>
-    <mergeCell ref="H2323:I2323"/>
-    <mergeCell ref="H2306:I2306"/>
-    <mergeCell ref="H2307:I2307"/>
-    <mergeCell ref="H2308:I2308"/>
-    <mergeCell ref="H2309:I2309"/>
-    <mergeCell ref="H2310:I2310"/>
-    <mergeCell ref="H2311:I2311"/>
-    <mergeCell ref="H2312:I2312"/>
-    <mergeCell ref="H2313:I2313"/>
-    <mergeCell ref="H2314:I2314"/>
-    <mergeCell ref="H2297:I2297"/>
-    <mergeCell ref="H2298:I2298"/>
-    <mergeCell ref="H2299:I2299"/>
-    <mergeCell ref="H2300:I2300"/>
-    <mergeCell ref="H2301:I2301"/>
-    <mergeCell ref="H2302:I2302"/>
-    <mergeCell ref="H2303:I2303"/>
-    <mergeCell ref="H2304:I2304"/>
-    <mergeCell ref="H2305:I2305"/>
-    <mergeCell ref="H2288:I2288"/>
-    <mergeCell ref="H2289:I2289"/>
-    <mergeCell ref="H2290:I2290"/>
-    <mergeCell ref="H2291:I2291"/>
-    <mergeCell ref="H2292:I2292"/>
-    <mergeCell ref="H2293:I2293"/>
-    <mergeCell ref="H2294:I2294"/>
-    <mergeCell ref="H2295:I2295"/>
-    <mergeCell ref="H2296:I2296"/>
-    <mergeCell ref="H2279:I2279"/>
-    <mergeCell ref="H2280:I2280"/>
-    <mergeCell ref="H2281:I2281"/>
-    <mergeCell ref="H2282:I2282"/>
-    <mergeCell ref="H2283:I2283"/>
-    <mergeCell ref="H2284:I2284"/>
-    <mergeCell ref="H2285:I2285"/>
-    <mergeCell ref="H2286:I2286"/>
-    <mergeCell ref="H2287:I2287"/>
-    <mergeCell ref="H2270:I2270"/>
-    <mergeCell ref="H2271:I2271"/>
-    <mergeCell ref="H2272:I2272"/>
-    <mergeCell ref="H2273:I2273"/>
-    <mergeCell ref="H2274:I2274"/>
-    <mergeCell ref="H2275:I2275"/>
-    <mergeCell ref="H2276:I2276"/>
-    <mergeCell ref="H2277:I2277"/>
-    <mergeCell ref="H2278:I2278"/>
-    <mergeCell ref="H2261:I2261"/>
-    <mergeCell ref="H2262:I2262"/>
-    <mergeCell ref="H2263:I2263"/>
-    <mergeCell ref="H2264:I2264"/>
-    <mergeCell ref="H2265:I2265"/>
-    <mergeCell ref="H2266:I2266"/>
-    <mergeCell ref="H2267:I2267"/>
-    <mergeCell ref="H2268:I2268"/>
-    <mergeCell ref="H2269:I2269"/>
-    <mergeCell ref="H2252:I2252"/>
-    <mergeCell ref="H2253:I2253"/>
-    <mergeCell ref="H2254:I2254"/>
-    <mergeCell ref="H2255:I2255"/>
-    <mergeCell ref="H2256:I2256"/>
-    <mergeCell ref="H2257:I2257"/>
-    <mergeCell ref="H2258:I2258"/>
-    <mergeCell ref="H2259:I2259"/>
-    <mergeCell ref="H2260:I2260"/>
-    <mergeCell ref="H2243:I2243"/>
-    <mergeCell ref="H2244:I2244"/>
-    <mergeCell ref="H2245:I2245"/>
-    <mergeCell ref="H2246:I2246"/>
-    <mergeCell ref="H2247:I2247"/>
-    <mergeCell ref="H2248:I2248"/>
-    <mergeCell ref="H2249:I2249"/>
-    <mergeCell ref="H2250:I2250"/>
-    <mergeCell ref="H2251:I2251"/>
-    <mergeCell ref="H2234:I2234"/>
-    <mergeCell ref="H2235:I2235"/>
-    <mergeCell ref="H2236:I2236"/>
-    <mergeCell ref="H2237:I2237"/>
-    <mergeCell ref="H2238:I2238"/>
-    <mergeCell ref="H2239:I2239"/>
-    <mergeCell ref="H2240:I2240"/>
-    <mergeCell ref="H2241:I2241"/>
-    <mergeCell ref="H2242:I2242"/>
-    <mergeCell ref="H2225:I2225"/>
-    <mergeCell ref="H2226:I2226"/>
-    <mergeCell ref="H2227:I2227"/>
-    <mergeCell ref="H2228:I2228"/>
-    <mergeCell ref="H2229:I2229"/>
-    <mergeCell ref="H2230:I2230"/>
-    <mergeCell ref="H2231:I2231"/>
-    <mergeCell ref="H2232:I2232"/>
-    <mergeCell ref="H2233:I2233"/>
-    <mergeCell ref="H2216:I2216"/>
-    <mergeCell ref="H2217:I2217"/>
-    <mergeCell ref="H2218:I2218"/>
-    <mergeCell ref="H2219:I2219"/>
-    <mergeCell ref="H2220:I2220"/>
-    <mergeCell ref="H2221:I2221"/>
-    <mergeCell ref="H2222:I2222"/>
-    <mergeCell ref="H2223:I2223"/>
-    <mergeCell ref="H2224:I2224"/>
-    <mergeCell ref="H2207:I2207"/>
-    <mergeCell ref="H2208:I2208"/>
-    <mergeCell ref="H2209:I2209"/>
-    <mergeCell ref="H2210:I2210"/>
-    <mergeCell ref="H2211:I2211"/>
-    <mergeCell ref="H2212:I2212"/>
-    <mergeCell ref="H2213:I2213"/>
-    <mergeCell ref="H2214:I2214"/>
-    <mergeCell ref="H2215:I2215"/>
-    <mergeCell ref="H2198:I2198"/>
-    <mergeCell ref="H2199:I2199"/>
-    <mergeCell ref="H2200:I2200"/>
-    <mergeCell ref="H2201:I2201"/>
-    <mergeCell ref="H2202:I2202"/>
-    <mergeCell ref="H2203:I2203"/>
-    <mergeCell ref="H2204:I2204"/>
-    <mergeCell ref="H2205:I2205"/>
-    <mergeCell ref="H2206:I2206"/>
-    <mergeCell ref="H2189:I2189"/>
-    <mergeCell ref="H2190:I2190"/>
-    <mergeCell ref="H2191:I2191"/>
-    <mergeCell ref="H2192:I2192"/>
-    <mergeCell ref="H2193:I2193"/>
-    <mergeCell ref="H2194:I2194"/>
-    <mergeCell ref="H2195:I2195"/>
-    <mergeCell ref="H2196:I2196"/>
-    <mergeCell ref="H2197:I2197"/>
-    <mergeCell ref="H2180:I2180"/>
-    <mergeCell ref="H2181:I2181"/>
-    <mergeCell ref="H2182:I2182"/>
-    <mergeCell ref="H2183:I2183"/>
-    <mergeCell ref="H2184:I2184"/>
-    <mergeCell ref="H2185:I2185"/>
-    <mergeCell ref="H2186:I2186"/>
-    <mergeCell ref="H2187:I2187"/>
-    <mergeCell ref="H2188:I2188"/>
-    <mergeCell ref="H2171:I2171"/>
-    <mergeCell ref="H2172:I2172"/>
-    <mergeCell ref="H2173:I2173"/>
-    <mergeCell ref="H2174:I2174"/>
-    <mergeCell ref="H2175:I2175"/>
-    <mergeCell ref="H2176:I2176"/>
-    <mergeCell ref="H2177:I2177"/>
-    <mergeCell ref="H2178:I2178"/>
-    <mergeCell ref="H2179:I2179"/>
-    <mergeCell ref="H2162:I2162"/>
-    <mergeCell ref="H2163:I2163"/>
-    <mergeCell ref="H2164:I2164"/>
-    <mergeCell ref="H2165:I2165"/>
-    <mergeCell ref="H2166:I2166"/>
-    <mergeCell ref="H2167:I2167"/>
-    <mergeCell ref="H2168:I2168"/>
-    <mergeCell ref="H2169:I2169"/>
-    <mergeCell ref="H2170:I2170"/>
-    <mergeCell ref="H2153:I2153"/>
-    <mergeCell ref="H2154:I2154"/>
-    <mergeCell ref="H2155:I2155"/>
-    <mergeCell ref="H2156:I2156"/>
-    <mergeCell ref="H2157:I2157"/>
-    <mergeCell ref="H2158:I2158"/>
-    <mergeCell ref="H2159:I2159"/>
-    <mergeCell ref="H2160:I2160"/>
-    <mergeCell ref="H2161:I2161"/>
-    <mergeCell ref="H2144:I2144"/>
-    <mergeCell ref="H2145:I2145"/>
-    <mergeCell ref="H2146:I2146"/>
-    <mergeCell ref="H2147:I2147"/>
-    <mergeCell ref="H2148:I2148"/>
-    <mergeCell ref="H2149:I2149"/>
-    <mergeCell ref="H2150:I2150"/>
-    <mergeCell ref="H2151:I2151"/>
-    <mergeCell ref="H2152:I2152"/>
-    <mergeCell ref="H2135:I2135"/>
-    <mergeCell ref="H2136:I2136"/>
-    <mergeCell ref="H2137:I2137"/>
-    <mergeCell ref="H2138:I2138"/>
-    <mergeCell ref="H2139:I2139"/>
-    <mergeCell ref="H2140:I2140"/>
-    <mergeCell ref="H2141:I2141"/>
-    <mergeCell ref="H2142:I2142"/>
-    <mergeCell ref="H2143:I2143"/>
-    <mergeCell ref="H2126:I2126"/>
-    <mergeCell ref="H2127:I2127"/>
-    <mergeCell ref="H2128:I2128"/>
-    <mergeCell ref="H2129:I2129"/>
-    <mergeCell ref="H2130:I2130"/>
-    <mergeCell ref="H2131:I2131"/>
-    <mergeCell ref="H2132:I2132"/>
-    <mergeCell ref="H2133:I2133"/>
-    <mergeCell ref="H2134:I2134"/>
-    <mergeCell ref="H2117:I2117"/>
-    <mergeCell ref="H2118:I2118"/>
-    <mergeCell ref="H2119:I2119"/>
-    <mergeCell ref="H2120:I2120"/>
-    <mergeCell ref="H2121:I2121"/>
-    <mergeCell ref="H2122:I2122"/>
-    <mergeCell ref="H2123:I2123"/>
-    <mergeCell ref="H2124:I2124"/>
-    <mergeCell ref="H2125:I2125"/>
-    <mergeCell ref="H2108:I2108"/>
-    <mergeCell ref="H2109:I2109"/>
-    <mergeCell ref="H2110:I2110"/>
-    <mergeCell ref="H2111:I2111"/>
-    <mergeCell ref="H2112:I2112"/>
-    <mergeCell ref="H2113:I2113"/>
-    <mergeCell ref="H2114:I2114"/>
-    <mergeCell ref="H2115:I2115"/>
-    <mergeCell ref="H2116:I2116"/>
-    <mergeCell ref="H2099:I2099"/>
-    <mergeCell ref="H2100:I2100"/>
-    <mergeCell ref="H2101:I2101"/>
-    <mergeCell ref="H2102:I2102"/>
-    <mergeCell ref="H2103:I2103"/>
-    <mergeCell ref="H2104:I2104"/>
-    <mergeCell ref="H2105:I2105"/>
-    <mergeCell ref="H2106:I2106"/>
-    <mergeCell ref="H2107:I2107"/>
-    <mergeCell ref="H2090:I2090"/>
-    <mergeCell ref="H2091:I2091"/>
-    <mergeCell ref="H2092:I2092"/>
-    <mergeCell ref="H2093:I2093"/>
-    <mergeCell ref="H2094:I2094"/>
-    <mergeCell ref="H2095:I2095"/>
-    <mergeCell ref="H2096:I2096"/>
-    <mergeCell ref="H2097:I2097"/>
-    <mergeCell ref="H2098:I2098"/>
-    <mergeCell ref="H2081:I2081"/>
-    <mergeCell ref="H2082:I2082"/>
-    <mergeCell ref="H2083:I2083"/>
-    <mergeCell ref="H2084:I2084"/>
-    <mergeCell ref="H2085:I2085"/>
-    <mergeCell ref="H2086:I2086"/>
-    <mergeCell ref="H2087:I2087"/>
-    <mergeCell ref="H2088:I2088"/>
-    <mergeCell ref="H2089:I2089"/>
-    <mergeCell ref="H2072:I2072"/>
-    <mergeCell ref="H2073:I2073"/>
-    <mergeCell ref="H2074:I2074"/>
-    <mergeCell ref="H2075:I2075"/>
-    <mergeCell ref="H2076:I2076"/>
-    <mergeCell ref="H2077:I2077"/>
-    <mergeCell ref="H2078:I2078"/>
-    <mergeCell ref="H2079:I2079"/>
-    <mergeCell ref="H2080:I2080"/>
-    <mergeCell ref="H2063:I2063"/>
-    <mergeCell ref="H2064:I2064"/>
-    <mergeCell ref="H2065:I2065"/>
-    <mergeCell ref="H2066:I2066"/>
-    <mergeCell ref="H2067:I2067"/>
-    <mergeCell ref="H2068:I2068"/>
-    <mergeCell ref="H2069:I2069"/>
-    <mergeCell ref="H2070:I2070"/>
-    <mergeCell ref="H2071:I2071"/>
-    <mergeCell ref="H2054:I2054"/>
-    <mergeCell ref="H2055:I2055"/>
-    <mergeCell ref="H2056:I2056"/>
-    <mergeCell ref="H2057:I2057"/>
-    <mergeCell ref="H2058:I2058"/>
-    <mergeCell ref="H2059:I2059"/>
-    <mergeCell ref="H2060:I2060"/>
-    <mergeCell ref="H2061:I2061"/>
-    <mergeCell ref="H2062:I2062"/>
-    <mergeCell ref="H2045:I2045"/>
-    <mergeCell ref="H2046:I2046"/>
-    <mergeCell ref="H2047:I2047"/>
-    <mergeCell ref="H2048:I2048"/>
-    <mergeCell ref="H2049:I2049"/>
-    <mergeCell ref="H2050:I2050"/>
-    <mergeCell ref="H2051:I2051"/>
-    <mergeCell ref="H2052:I2052"/>
-    <mergeCell ref="H2053:I2053"/>
-    <mergeCell ref="H2036:I2036"/>
-    <mergeCell ref="H2037:I2037"/>
-    <mergeCell ref="H2038:I2038"/>
-    <mergeCell ref="H2039:I2039"/>
-    <mergeCell ref="H2040:I2040"/>
-    <mergeCell ref="H2041:I2041"/>
-    <mergeCell ref="H2042:I2042"/>
-    <mergeCell ref="H2043:I2043"/>
-    <mergeCell ref="H2044:I2044"/>
-    <mergeCell ref="H2027:I2027"/>
-    <mergeCell ref="H2028:I2028"/>
-    <mergeCell ref="H2029:I2029"/>
-    <mergeCell ref="H2030:I2030"/>
-    <mergeCell ref="H2031:I2031"/>
-    <mergeCell ref="H2032:I2032"/>
-    <mergeCell ref="H2033:I2033"/>
-    <mergeCell ref="H2034:I2034"/>
-    <mergeCell ref="H2035:I2035"/>
-    <mergeCell ref="H2018:I2018"/>
-    <mergeCell ref="H2019:I2019"/>
-    <mergeCell ref="H2020:I2020"/>
-    <mergeCell ref="H2021:I2021"/>
-    <mergeCell ref="H2022:I2022"/>
-    <mergeCell ref="H2023:I2023"/>
-    <mergeCell ref="H2024:I2024"/>
-    <mergeCell ref="H2025:I2025"/>
-    <mergeCell ref="H2026:I2026"/>
-    <mergeCell ref="H2009:I2009"/>
-    <mergeCell ref="H2010:I2010"/>
-    <mergeCell ref="H2011:I2011"/>
-    <mergeCell ref="H2012:I2012"/>
-    <mergeCell ref="H2013:I2013"/>
-    <mergeCell ref="H2014:I2014"/>
-    <mergeCell ref="H2015:I2015"/>
-    <mergeCell ref="H2016:I2016"/>
-    <mergeCell ref="H2017:I2017"/>
-    <mergeCell ref="H2000:I2000"/>
-    <mergeCell ref="H2001:I2001"/>
-    <mergeCell ref="H2002:I2002"/>
-    <mergeCell ref="H2003:I2003"/>
-    <mergeCell ref="H2004:I2004"/>
-    <mergeCell ref="H2005:I2005"/>
-    <mergeCell ref="H2006:I2006"/>
-    <mergeCell ref="H2007:I2007"/>
-    <mergeCell ref="H2008:I2008"/>
-    <mergeCell ref="H1991:I1991"/>
-    <mergeCell ref="H1992:I1992"/>
-    <mergeCell ref="H1993:I1993"/>
-    <mergeCell ref="H1994:I1994"/>
-    <mergeCell ref="H1995:I1995"/>
-    <mergeCell ref="H1996:I1996"/>
-    <mergeCell ref="H1997:I1997"/>
-    <mergeCell ref="H1998:I1998"/>
-    <mergeCell ref="H1999:I1999"/>
-    <mergeCell ref="H1982:I1982"/>
-    <mergeCell ref="H1983:I1983"/>
-    <mergeCell ref="H1984:I1984"/>
-    <mergeCell ref="H1985:I1985"/>
-    <mergeCell ref="H1986:I1986"/>
-    <mergeCell ref="H1987:I1987"/>
-    <mergeCell ref="H1988:I1988"/>
-    <mergeCell ref="H1989:I1989"/>
-    <mergeCell ref="H1990:I1990"/>
-    <mergeCell ref="H1973:I1973"/>
-    <mergeCell ref="H1974:I1974"/>
-    <mergeCell ref="H1975:I1975"/>
-    <mergeCell ref="H1976:I1976"/>
-    <mergeCell ref="H1977:I1977"/>
-    <mergeCell ref="H1978:I1978"/>
-    <mergeCell ref="H1979:I1979"/>
-    <mergeCell ref="H1980:I1980"/>
-    <mergeCell ref="H1981:I1981"/>
-    <mergeCell ref="H1964:I1964"/>
-    <mergeCell ref="H1965:I1965"/>
-    <mergeCell ref="H1966:I1966"/>
-    <mergeCell ref="H1967:I1967"/>
-    <mergeCell ref="H1968:I1968"/>
-    <mergeCell ref="H1969:I1969"/>
-    <mergeCell ref="H1970:I1970"/>
-    <mergeCell ref="H1971:I1971"/>
-    <mergeCell ref="H1972:I1972"/>
-    <mergeCell ref="H1955:I1955"/>
-    <mergeCell ref="H1956:I1956"/>
-    <mergeCell ref="H1957:I1957"/>
-    <mergeCell ref="H1958:I1958"/>
-    <mergeCell ref="H1959:I1959"/>
-    <mergeCell ref="H1960:I1960"/>
-    <mergeCell ref="H1961:I1961"/>
-    <mergeCell ref="H1962:I1962"/>
-    <mergeCell ref="H1963:I1963"/>
-    <mergeCell ref="H1946:I1946"/>
-    <mergeCell ref="H1947:I1947"/>
-    <mergeCell ref="H1948:I1948"/>
-    <mergeCell ref="H1949:I1949"/>
-    <mergeCell ref="H1950:I1950"/>
-    <mergeCell ref="H1951:I1951"/>
-    <mergeCell ref="H1952:I1952"/>
-    <mergeCell ref="H1953:I1953"/>
-    <mergeCell ref="H1954:I1954"/>
-    <mergeCell ref="H1937:I1937"/>
-    <mergeCell ref="H1938:I1938"/>
-    <mergeCell ref="H1939:I1939"/>
-    <mergeCell ref="H1940:I1940"/>
-    <mergeCell ref="H1941:I1941"/>
-    <mergeCell ref="H1942:I1942"/>
-    <mergeCell ref="H1943:I1943"/>
-    <mergeCell ref="H1944:I1944"/>
-    <mergeCell ref="H1945:I1945"/>
-    <mergeCell ref="H1928:I1928"/>
-    <mergeCell ref="H1929:I1929"/>
-    <mergeCell ref="H1930:I1930"/>
-    <mergeCell ref="H1931:I1931"/>
-    <mergeCell ref="H1932:I1932"/>
-    <mergeCell ref="H1933:I1933"/>
-    <mergeCell ref="H1934:I1934"/>
-    <mergeCell ref="H1935:I1935"/>
-    <mergeCell ref="H1936:I1936"/>
-    <mergeCell ref="H1919:I1919"/>
-    <mergeCell ref="H1920:I1920"/>
-    <mergeCell ref="H1921:I1921"/>
-    <mergeCell ref="H1922:I1922"/>
-    <mergeCell ref="H1923:I1923"/>
-    <mergeCell ref="H1924:I1924"/>
-    <mergeCell ref="H1925:I1925"/>
-    <mergeCell ref="H1926:I1926"/>
-    <mergeCell ref="H1927:I1927"/>
-    <mergeCell ref="H1910:I1910"/>
-    <mergeCell ref="H1911:I1911"/>
-    <mergeCell ref="H1912:I1912"/>
-    <mergeCell ref="H1913:I1913"/>
-    <mergeCell ref="H1914:I1914"/>
-    <mergeCell ref="H1915:I1915"/>
-    <mergeCell ref="H1916:I1916"/>
-    <mergeCell ref="H1917:I1917"/>
-    <mergeCell ref="H1918:I1918"/>
-    <mergeCell ref="H1901:I1901"/>
-    <mergeCell ref="H1902:I1902"/>
-    <mergeCell ref="H1903:I1903"/>
-    <mergeCell ref="H1904:I1904"/>
-    <mergeCell ref="H1905:I1905"/>
-    <mergeCell ref="H1906:I1906"/>
-    <mergeCell ref="H1907:I1907"/>
-    <mergeCell ref="H1908:I1908"/>
-    <mergeCell ref="H1909:I1909"/>
-    <mergeCell ref="H1892:I1892"/>
-    <mergeCell ref="H1893:I1893"/>
-    <mergeCell ref="H1894:I1894"/>
-    <mergeCell ref="H1895:I1895"/>
-    <mergeCell ref="H1896:I1896"/>
-    <mergeCell ref="H1897:I1897"/>
-    <mergeCell ref="H1898:I1898"/>
-    <mergeCell ref="H1899:I1899"/>
-    <mergeCell ref="H1900:I1900"/>
-    <mergeCell ref="H1883:I1883"/>
-    <mergeCell ref="H1884:I1884"/>
-    <mergeCell ref="H1885:I1885"/>
-    <mergeCell ref="H1886:I1886"/>
-    <mergeCell ref="H1887:I1887"/>
-    <mergeCell ref="H1888:I1888"/>
-    <mergeCell ref="H1889:I1889"/>
-    <mergeCell ref="H1890:I1890"/>
-    <mergeCell ref="H1891:I1891"/>
-    <mergeCell ref="H1874:I1874"/>
-    <mergeCell ref="H1875:I1875"/>
-    <mergeCell ref="H1876:I1876"/>
-    <mergeCell ref="H1877:I1877"/>
-    <mergeCell ref="H1878:I1878"/>
-    <mergeCell ref="H1879:I1879"/>
-    <mergeCell ref="H1880:I1880"/>
-    <mergeCell ref="H1881:I1881"/>
-    <mergeCell ref="H1882:I1882"/>
-    <mergeCell ref="H1865:I1865"/>
-    <mergeCell ref="H1866:I1866"/>
-    <mergeCell ref="H1867:I1867"/>
-    <mergeCell ref="H1868:I1868"/>
-    <mergeCell ref="H1869:I1869"/>
-    <mergeCell ref="H1870:I1870"/>
-    <mergeCell ref="H1871:I1871"/>
-    <mergeCell ref="H1872:I1872"/>
-    <mergeCell ref="H1873:I1873"/>
-    <mergeCell ref="H1856:I1856"/>
-    <mergeCell ref="H1857:I1857"/>
-    <mergeCell ref="H1858:I1858"/>
-    <mergeCell ref="H1859:I1859"/>
-    <mergeCell ref="H1860:I1860"/>
-    <mergeCell ref="H1861:I1861"/>
-    <mergeCell ref="H1862:I1862"/>
-    <mergeCell ref="H1863:I1863"/>
-    <mergeCell ref="H1864:I1864"/>
-    <mergeCell ref="H1847:I1847"/>
-    <mergeCell ref="H1848:I1848"/>
-    <mergeCell ref="H1849:I1849"/>
-    <mergeCell ref="H1850:I1850"/>
-    <mergeCell ref="H1851:I1851"/>
-    <mergeCell ref="H1852:I1852"/>
-    <mergeCell ref="H1853:I1853"/>
-    <mergeCell ref="H1854:I1854"/>
-    <mergeCell ref="H1855:I1855"/>
-    <mergeCell ref="H1838:I1838"/>
-    <mergeCell ref="H1839:I1839"/>
-    <mergeCell ref="H1840:I1840"/>
-    <mergeCell ref="H1841:I1841"/>
-    <mergeCell ref="H1842:I1842"/>
-    <mergeCell ref="H1843:I1843"/>
-    <mergeCell ref="H1844:I1844"/>
-    <mergeCell ref="H1845:I1845"/>
-    <mergeCell ref="H1846:I1846"/>
-    <mergeCell ref="H1829:I1829"/>
-    <mergeCell ref="H1830:I1830"/>
-    <mergeCell ref="H1831:I1831"/>
-    <mergeCell ref="H1832:I1832"/>
-    <mergeCell ref="H1833:I1833"/>
-    <mergeCell ref="H1834:I1834"/>
-    <mergeCell ref="H1835:I1835"/>
-    <mergeCell ref="H1836:I1836"/>
-    <mergeCell ref="H1837:I1837"/>
-    <mergeCell ref="H1820:I1820"/>
-    <mergeCell ref="H1821:I1821"/>
-    <mergeCell ref="H1822:I1822"/>
-    <mergeCell ref="H1823:I1823"/>
-    <mergeCell ref="H1824:I1824"/>
-    <mergeCell ref="H1825:I1825"/>
-    <mergeCell ref="H1826:I1826"/>
-    <mergeCell ref="H1827:I1827"/>
-    <mergeCell ref="H1828:I1828"/>
-    <mergeCell ref="H1811:I1811"/>
-    <mergeCell ref="H1812:I1812"/>
-    <mergeCell ref="H1813:I1813"/>
-    <mergeCell ref="H1814:I1814"/>
-    <mergeCell ref="H1815:I1815"/>
-    <mergeCell ref="H1816:I1816"/>
-    <mergeCell ref="H1817:I1817"/>
-    <mergeCell ref="H1818:I1818"/>
-    <mergeCell ref="H1819:I1819"/>
-    <mergeCell ref="H1802:I1802"/>
-    <mergeCell ref="H1803:I1803"/>
-    <mergeCell ref="H1804:I1804"/>
-    <mergeCell ref="H1805:I1805"/>
-    <mergeCell ref="H1806:I1806"/>
-    <mergeCell ref="H1807:I1807"/>
-    <mergeCell ref="H1808:I1808"/>
-    <mergeCell ref="H1809:I1809"/>
-    <mergeCell ref="H1810:I1810"/>
-    <mergeCell ref="H1793:I1793"/>
-    <mergeCell ref="H1794:I1794"/>
-    <mergeCell ref="H1795:I1795"/>
-    <mergeCell ref="H1796:I1796"/>
-    <mergeCell ref="H1797:I1797"/>
-    <mergeCell ref="H1798:I1798"/>
-    <mergeCell ref="H1799:I1799"/>
-    <mergeCell ref="H1800:I1800"/>
-    <mergeCell ref="H1801:I1801"/>
-    <mergeCell ref="H1784:I1784"/>
-    <mergeCell ref="H1785:I1785"/>
-    <mergeCell ref="H1786:I1786"/>
-    <mergeCell ref="H1787:I1787"/>
-    <mergeCell ref="H1788:I1788"/>
-    <mergeCell ref="H1789:I1789"/>
-    <mergeCell ref="H1790:I1790"/>
-    <mergeCell ref="H1791:I1791"/>
-    <mergeCell ref="H1792:I1792"/>
-    <mergeCell ref="H1775:I1775"/>
-    <mergeCell ref="H1776:I1776"/>
-    <mergeCell ref="H1777:I1777"/>
-    <mergeCell ref="H1778:I1778"/>
-    <mergeCell ref="H1779:I1779"/>
-    <mergeCell ref="H1780:I1780"/>
-    <mergeCell ref="H1781:I1781"/>
-    <mergeCell ref="H1782:I1782"/>
-    <mergeCell ref="H1783:I1783"/>
-    <mergeCell ref="H1766:I1766"/>
-    <mergeCell ref="H1767:I1767"/>
-    <mergeCell ref="H1768:I1768"/>
-    <mergeCell ref="H1769:I1769"/>
-    <mergeCell ref="H1770:I1770"/>
-    <mergeCell ref="H1771:I1771"/>
-    <mergeCell ref="H1772:I1772"/>
-    <mergeCell ref="H1773:I1773"/>
-    <mergeCell ref="H1774:I1774"/>
-    <mergeCell ref="H1757:I1757"/>
-    <mergeCell ref="H1758:I1758"/>
-    <mergeCell ref="H1759:I1759"/>
-    <mergeCell ref="H1760:I1760"/>
-    <mergeCell ref="H1761:I1761"/>
-    <mergeCell ref="H1762:I1762"/>
-    <mergeCell ref="H1763:I1763"/>
-    <mergeCell ref="H1764:I1764"/>
-    <mergeCell ref="H1765:I1765"/>
-    <mergeCell ref="H1748:I1748"/>
-    <mergeCell ref="H1749:I1749"/>
-    <mergeCell ref="H1750:I1750"/>
-    <mergeCell ref="H1751:I1751"/>
-    <mergeCell ref="H1752:I1752"/>
-    <mergeCell ref="H1753:I1753"/>
-    <mergeCell ref="H1754:I1754"/>
-    <mergeCell ref="H1755:I1755"/>
-    <mergeCell ref="H1756:I1756"/>
-    <mergeCell ref="H1739:I1739"/>
-    <mergeCell ref="H1740:I1740"/>
-    <mergeCell ref="H1741:I1741"/>
-    <mergeCell ref="H1742:I1742"/>
-    <mergeCell ref="H1743:I1743"/>
-    <mergeCell ref="H1744:I1744"/>
-    <mergeCell ref="H1745:I1745"/>
-    <mergeCell ref="H1746:I1746"/>
-    <mergeCell ref="H1747:I1747"/>
-    <mergeCell ref="H1730:I1730"/>
-    <mergeCell ref="H1731:I1731"/>
-    <mergeCell ref="H1732:I1732"/>
-    <mergeCell ref="H1733:I1733"/>
-    <mergeCell ref="H1734:I1734"/>
-    <mergeCell ref="H1735:I1735"/>
-    <mergeCell ref="H1736:I1736"/>
-    <mergeCell ref="H1737:I1737"/>
-    <mergeCell ref="H1738:I1738"/>
-    <mergeCell ref="H1721:I1721"/>
-    <mergeCell ref="H1722:I1722"/>
-    <mergeCell ref="H1723:I1723"/>
-    <mergeCell ref="H1724:I1724"/>
-    <mergeCell ref="H1725:I1725"/>
-    <mergeCell ref="H1726:I1726"/>
-    <mergeCell ref="H1727:I1727"/>
-    <mergeCell ref="H1728:I1728"/>
-    <mergeCell ref="H1729:I1729"/>
-    <mergeCell ref="H1712:I1712"/>
-    <mergeCell ref="H1713:I1713"/>
-    <mergeCell ref="H1714:I1714"/>
-    <mergeCell ref="H1715:I1715"/>
-    <mergeCell ref="H1716:I1716"/>
-    <mergeCell ref="H1717:I1717"/>
-    <mergeCell ref="H1718:I1718"/>
-    <mergeCell ref="H1719:I1719"/>
-    <mergeCell ref="H1720:I1720"/>
-    <mergeCell ref="H1703:I1703"/>
-    <mergeCell ref="H1704:I1704"/>
-    <mergeCell ref="H1705:I1705"/>
-    <mergeCell ref="H1706:I1706"/>
-    <mergeCell ref="H1707:I1707"/>
-    <mergeCell ref="H1708:I1708"/>
-    <mergeCell ref="H1709:I1709"/>
-    <mergeCell ref="H1710:I1710"/>
-    <mergeCell ref="H1711:I1711"/>
-    <mergeCell ref="H1694:I1694"/>
-    <mergeCell ref="H1695:I1695"/>
-    <mergeCell ref="H1696:I1696"/>
-    <mergeCell ref="H1697:I1697"/>
-    <mergeCell ref="H1698:I1698"/>
-    <mergeCell ref="H1699:I1699"/>
-    <mergeCell ref="H1700:I1700"/>
-    <mergeCell ref="H1701:I1701"/>
-    <mergeCell ref="H1702:I1702"/>
-    <mergeCell ref="H1685:I1685"/>
-    <mergeCell ref="H1686:I1686"/>
-    <mergeCell ref="H1687:I1687"/>
-    <mergeCell ref="H1688:I1688"/>
-    <mergeCell ref="H1689:I1689"/>
-    <mergeCell ref="H1690:I1690"/>
-    <mergeCell ref="H1691:I1691"/>
-    <mergeCell ref="H1692:I1692"/>
-    <mergeCell ref="H1693:I1693"/>
-    <mergeCell ref="H1676:I1676"/>
-    <mergeCell ref="H1677:I1677"/>
-    <mergeCell ref="H1678:I1678"/>
-    <mergeCell ref="H1679:I1679"/>
-    <mergeCell ref="H1680:I1680"/>
-    <mergeCell ref="H1681:I1681"/>
-    <mergeCell ref="H1682:I1682"/>
-    <mergeCell ref="H1683:I1683"/>
-    <mergeCell ref="H1684:I1684"/>
-    <mergeCell ref="H1667:I1667"/>
-    <mergeCell ref="H1668:I1668"/>
-    <mergeCell ref="H1669:I1669"/>
-    <mergeCell ref="H1670:I1670"/>
-    <mergeCell ref="H1671:I1671"/>
-    <mergeCell ref="H1672:I1672"/>
-    <mergeCell ref="H1673:I1673"/>
-    <mergeCell ref="H1674:I1674"/>
-    <mergeCell ref="H1675:I1675"/>
-    <mergeCell ref="H1658:I1658"/>
-    <mergeCell ref="H1659:I1659"/>
-    <mergeCell ref="H1660:I1660"/>
-    <mergeCell ref="H1661:I1661"/>
-    <mergeCell ref="H1662:I1662"/>
-    <mergeCell ref="H1663:I1663"/>
-    <mergeCell ref="H1664:I1664"/>
-    <mergeCell ref="H1665:I1665"/>
-    <mergeCell ref="H1666:I1666"/>
-    <mergeCell ref="H1649:I1649"/>
-    <mergeCell ref="H1650:I1650"/>
-    <mergeCell ref="H1651:I1651"/>
-    <mergeCell ref="H1652:I1652"/>
-    <mergeCell ref="H1653:I1653"/>
-    <mergeCell ref="H1654:I1654"/>
-    <mergeCell ref="H1655:I1655"/>
-    <mergeCell ref="H1656:I1656"/>
-    <mergeCell ref="H1657:I1657"/>
-    <mergeCell ref="H1640:I1640"/>
-    <mergeCell ref="H1641:I1641"/>
-    <mergeCell ref="H1642:I1642"/>
-    <mergeCell ref="H1643:I1643"/>
-    <mergeCell ref="H1644:I1644"/>
-    <mergeCell ref="H1645:I1645"/>
-    <mergeCell ref="H1646:I1646"/>
-    <mergeCell ref="H1647:I1647"/>
-    <mergeCell ref="H1648:I1648"/>
-    <mergeCell ref="H1631:I1631"/>
-    <mergeCell ref="H1632:I1632"/>
-    <mergeCell ref="H1633:I1633"/>
-    <mergeCell ref="H1634:I1634"/>
-    <mergeCell ref="H1635:I1635"/>
-    <mergeCell ref="H1636:I1636"/>
-    <mergeCell ref="H1637:I1637"/>
-    <mergeCell ref="H1638:I1638"/>
-    <mergeCell ref="H1639:I1639"/>
-    <mergeCell ref="H1622:I1622"/>
-    <mergeCell ref="H1623:I1623"/>
-    <mergeCell ref="H1624:I1624"/>
-    <mergeCell ref="H1625:I1625"/>
-    <mergeCell ref="H1626:I1626"/>
-    <mergeCell ref="H1627:I1627"/>
-    <mergeCell ref="H1628:I1628"/>
-    <mergeCell ref="H1629:I1629"/>
-    <mergeCell ref="H1630:I1630"/>
-    <mergeCell ref="H1613:I1613"/>
-    <mergeCell ref="H1614:I1614"/>
-    <mergeCell ref="H1615:I1615"/>
-    <mergeCell ref="H1616:I1616"/>
-    <mergeCell ref="H1617:I1617"/>
-    <mergeCell ref="H1618:I1618"/>
-    <mergeCell ref="H1619:I1619"/>
-    <mergeCell ref="H1620:I1620"/>
-    <mergeCell ref="H1621:I1621"/>
-    <mergeCell ref="H1604:I1604"/>
-    <mergeCell ref="H1605:I1605"/>
-    <mergeCell ref="H1606:I1606"/>
-    <mergeCell ref="H1607:I1607"/>
-    <mergeCell ref="H1608:I1608"/>
-    <mergeCell ref="H1609:I1609"/>
-    <mergeCell ref="H1610:I1610"/>
-    <mergeCell ref="H1611:I1611"/>
-    <mergeCell ref="H1612:I1612"/>
-    <mergeCell ref="H1595:I1595"/>
-    <mergeCell ref="H1596:I1596"/>
-    <mergeCell ref="H1597:I1597"/>
-    <mergeCell ref="H1598:I1598"/>
-    <mergeCell ref="H1599:I1599"/>
-    <mergeCell ref="H1600:I1600"/>
-    <mergeCell ref="H1601:I1601"/>
-    <mergeCell ref="H1602:I1602"/>
-    <mergeCell ref="H1603:I1603"/>
-    <mergeCell ref="H1586:I1586"/>
-    <mergeCell ref="H1587:I1587"/>
-    <mergeCell ref="H1588:I1588"/>
-    <mergeCell ref="H1589:I1589"/>
-    <mergeCell ref="H1590:I1590"/>
-    <mergeCell ref="H1591:I1591"/>
-    <mergeCell ref="H1592:I1592"/>
-    <mergeCell ref="H1593:I1593"/>
-    <mergeCell ref="H1594:I1594"/>
-    <mergeCell ref="H1577:I1577"/>
-    <mergeCell ref="H1578:I1578"/>
-    <mergeCell ref="H1579:I1579"/>
-    <mergeCell ref="H1580:I1580"/>
-    <mergeCell ref="H1581:I1581"/>
-    <mergeCell ref="H1582:I1582"/>
-    <mergeCell ref="H1583:I1583"/>
-    <mergeCell ref="H1584:I1584"/>
-    <mergeCell ref="H1585:I1585"/>
-    <mergeCell ref="H1568:I1568"/>
-    <mergeCell ref="H1569:I1569"/>
-    <mergeCell ref="H1570:I1570"/>
-    <mergeCell ref="H1571:I1571"/>
-    <mergeCell ref="H1572:I1572"/>
-    <mergeCell ref="H1573:I1573"/>
-    <mergeCell ref="H1574:I1574"/>
-    <mergeCell ref="H1575:I1575"/>
-    <mergeCell ref="H1576:I1576"/>
-    <mergeCell ref="H1559:I1559"/>
-    <mergeCell ref="H1560:I1560"/>
-    <mergeCell ref="H1561:I1561"/>
-    <mergeCell ref="H1562:I1562"/>
-    <mergeCell ref="H1563:I1563"/>
-    <mergeCell ref="H1564:I1564"/>
-    <mergeCell ref="H1565:I1565"/>
-    <mergeCell ref="H1566:I1566"/>
-    <mergeCell ref="H1567:I1567"/>
-    <mergeCell ref="H1550:I1550"/>
-    <mergeCell ref="H1551:I1551"/>
-    <mergeCell ref="H1552:I1552"/>
-    <mergeCell ref="H1553:I1553"/>
-    <mergeCell ref="H1554:I1554"/>
-    <mergeCell ref="H1555:I1555"/>
-    <mergeCell ref="H1556:I1556"/>
-    <mergeCell ref="H1557:I1557"/>
-    <mergeCell ref="H1558:I1558"/>
-    <mergeCell ref="H1541:I1541"/>
-    <mergeCell ref="H1542:I1542"/>
-    <mergeCell ref="H1543:I1543"/>
-    <mergeCell ref="H1544:I1544"/>
-    <mergeCell ref="H1545:I1545"/>
-    <mergeCell ref="H1546:I1546"/>
-    <mergeCell ref="H1547:I1547"/>
-    <mergeCell ref="H1548:I1548"/>
-    <mergeCell ref="H1549:I1549"/>
-    <mergeCell ref="H1532:I1532"/>
-    <mergeCell ref="H1533:I1533"/>
-    <mergeCell ref="H1534:I1534"/>
-    <mergeCell ref="H1535:I1535"/>
-    <mergeCell ref="H1536:I1536"/>
-    <mergeCell ref="H1537:I1537"/>
-    <mergeCell ref="H1538:I1538"/>
-    <mergeCell ref="H1539:I1539"/>
-    <mergeCell ref="H1540:I1540"/>
-    <mergeCell ref="H1523:I1523"/>
-    <mergeCell ref="H1524:I1524"/>
-    <mergeCell ref="H1525:I1525"/>
-    <mergeCell ref="H1526:I1526"/>
-    <mergeCell ref="H1527:I1527"/>
-    <mergeCell ref="H1528:I1528"/>
-    <mergeCell ref="H1529:I1529"/>
-    <mergeCell ref="H1530:I1530"/>
-    <mergeCell ref="H1531:I1531"/>
-    <mergeCell ref="H1514:I1514"/>
-    <mergeCell ref="H1515:I1515"/>
-    <mergeCell ref="H1516:I1516"/>
-    <mergeCell ref="H1517:I1517"/>
-    <mergeCell ref="H1518:I1518"/>
-    <mergeCell ref="H1519:I1519"/>
-    <mergeCell ref="H1520:I1520"/>
-    <mergeCell ref="H1521:I1521"/>
-    <mergeCell ref="H1522:I1522"/>
-    <mergeCell ref="H1505:I1505"/>
-    <mergeCell ref="H1506:I1506"/>
-    <mergeCell ref="H1507:I1507"/>
-    <mergeCell ref="H1508:I1508"/>
-    <mergeCell ref="H1509:I1509"/>
-    <mergeCell ref="H1510:I1510"/>
-    <mergeCell ref="H1511:I1511"/>
-    <mergeCell ref="H1512:I1512"/>
-    <mergeCell ref="H1513:I1513"/>
-    <mergeCell ref="H1496:I1496"/>
-    <mergeCell ref="H1497:I1497"/>
-    <mergeCell ref="H1498:I1498"/>
-    <mergeCell ref="H1499:I1499"/>
-    <mergeCell ref="H1500:I1500"/>
-    <mergeCell ref="H1501:I1501"/>
-    <mergeCell ref="H1502:I1502"/>
-    <mergeCell ref="H1503:I1503"/>
-    <mergeCell ref="H1504:I1504"/>
-    <mergeCell ref="H1487:I1487"/>
-    <mergeCell ref="H1488:I1488"/>
-    <mergeCell ref="H1489:I1489"/>
-    <mergeCell ref="H1490:I1490"/>
-    <mergeCell ref="H1491:I1491"/>
-    <mergeCell ref="H1492:I1492"/>
-    <mergeCell ref="H1493:I1493"/>
-    <mergeCell ref="H1494:I1494"/>
-    <mergeCell ref="H1495:I1495"/>
-    <mergeCell ref="H1478:I1478"/>
-    <mergeCell ref="H1479:I1479"/>
-    <mergeCell ref="H1480:I1480"/>
-    <mergeCell ref="H1481:I1481"/>
-    <mergeCell ref="H1482:I1482"/>
-    <mergeCell ref="H1483:I1483"/>
-    <mergeCell ref="H1484:I1484"/>
-    <mergeCell ref="H1485:I1485"/>
-    <mergeCell ref="H1486:I1486"/>
-    <mergeCell ref="H1469:I1469"/>
-    <mergeCell ref="H1470:I1470"/>
-    <mergeCell ref="H1471:I1471"/>
-    <mergeCell ref="H1472:I1472"/>
-    <mergeCell ref="H1473:I1473"/>
-    <mergeCell ref="H1474:I1474"/>
-    <mergeCell ref="H1475:I1475"/>
-    <mergeCell ref="H1476:I1476"/>
-    <mergeCell ref="H1477:I1477"/>
-    <mergeCell ref="H1460:I1460"/>
-    <mergeCell ref="H1461:I1461"/>
-    <mergeCell ref="H1462:I1462"/>
-    <mergeCell ref="H1463:I1463"/>
-    <mergeCell ref="H1464:I1464"/>
-    <mergeCell ref="H1465:I1465"/>
-    <mergeCell ref="H1466:I1466"/>
-    <mergeCell ref="H1467:I1467"/>
-    <mergeCell ref="H1468:I1468"/>
-    <mergeCell ref="H1451:I1451"/>
-    <mergeCell ref="H1452:I1452"/>
-    <mergeCell ref="H1453:I1453"/>
-    <mergeCell ref="H1454:I1454"/>
-    <mergeCell ref="H1455:I1455"/>
-    <mergeCell ref="H1456:I1456"/>
-    <mergeCell ref="H1457:I1457"/>
-    <mergeCell ref="H1458:I1458"/>
-    <mergeCell ref="H1459:I1459"/>
-    <mergeCell ref="H1442:I1442"/>
-    <mergeCell ref="H1443:I1443"/>
-    <mergeCell ref="H1444:I1444"/>
-    <mergeCell ref="H1445:I1445"/>
-    <mergeCell ref="H1446:I1446"/>
-    <mergeCell ref="H1447:I1447"/>
-    <mergeCell ref="H1448:I1448"/>
-    <mergeCell ref="H1449:I1449"/>
-    <mergeCell ref="H1450:I1450"/>
-    <mergeCell ref="H1433:I1433"/>
-    <mergeCell ref="H1434:I1434"/>
-    <mergeCell ref="H1435:I1435"/>
-    <mergeCell ref="H1436:I1436"/>
-    <mergeCell ref="H1437:I1437"/>
-    <mergeCell ref="H1438:I1438"/>
-    <mergeCell ref="H1439:I1439"/>
-    <mergeCell ref="H1440:I1440"/>
-    <mergeCell ref="H1441:I1441"/>
-    <mergeCell ref="H1424:I1424"/>
-    <mergeCell ref="H1425:I1425"/>
-    <mergeCell ref="H1426:I1426"/>
-    <mergeCell ref="H1427:I1427"/>
-    <mergeCell ref="H1428:I1428"/>
-    <mergeCell ref="H1429:I1429"/>
-    <mergeCell ref="H1430:I1430"/>
-    <mergeCell ref="H1431:I1431"/>
-    <mergeCell ref="H1432:I1432"/>
-    <mergeCell ref="H1415:I1415"/>
-    <mergeCell ref="H1416:I1416"/>
-    <mergeCell ref="H1417:I1417"/>
-    <mergeCell ref="H1418:I1418"/>
-    <mergeCell ref="H1419:I1419"/>
-    <mergeCell ref="H1420:I1420"/>
-    <mergeCell ref="H1421:I1421"/>
-    <mergeCell ref="H1422:I1422"/>
-    <mergeCell ref="H1423:I1423"/>
-    <mergeCell ref="H1406:I1406"/>
-    <mergeCell ref="H1407:I1407"/>
-    <mergeCell ref="H1408:I1408"/>
-    <mergeCell ref="H1409:I1409"/>
-    <mergeCell ref="H1410:I1410"/>
-    <mergeCell ref="H1411:I1411"/>
-    <mergeCell ref="H1412:I1412"/>
-    <mergeCell ref="H1413:I1413"/>
-    <mergeCell ref="H1414:I1414"/>
-    <mergeCell ref="H1397:I1397"/>
-    <mergeCell ref="H1398:I1398"/>
-    <mergeCell ref="H1399:I1399"/>
-    <mergeCell ref="H1400:I1400"/>
-    <mergeCell ref="H1401:I1401"/>
-    <mergeCell ref="H1402:I1402"/>
-    <mergeCell ref="H1403:I1403"/>
-    <mergeCell ref="H1404:I1404"/>
-    <mergeCell ref="H1405:I1405"/>
-    <mergeCell ref="H1388:I1388"/>
-    <mergeCell ref="H1389:I1389"/>
-    <mergeCell ref="H1390:I1390"/>
-    <mergeCell ref="H1391:I1391"/>
-    <mergeCell ref="H1392:I1392"/>
-    <mergeCell ref="H1393:I1393"/>
-    <mergeCell ref="H1394:I1394"/>
-    <mergeCell ref="H1395:I1395"/>
-    <mergeCell ref="H1396:I1396"/>
-    <mergeCell ref="H1379:I1379"/>
-    <mergeCell ref="H1380:I1380"/>
-    <mergeCell ref="H1381:I1381"/>
-    <mergeCell ref="H1382:I1382"/>
-    <mergeCell ref="H1383:I1383"/>
-    <mergeCell ref="H1384:I1384"/>
-    <mergeCell ref="H1385:I1385"/>
-    <mergeCell ref="H1386:I1386"/>
-    <mergeCell ref="H1387:I1387"/>
-    <mergeCell ref="H1370:I1370"/>
-    <mergeCell ref="H1371:I1371"/>
-    <mergeCell ref="H1372:I1372"/>
-    <mergeCell ref="H1373:I1373"/>
-    <mergeCell ref="H1374:I1374"/>
-    <mergeCell ref="H1375:I1375"/>
-    <mergeCell ref="H1376:I1376"/>
-    <mergeCell ref="H1377:I1377"/>
-    <mergeCell ref="H1378:I1378"/>
-    <mergeCell ref="H1361:I1361"/>
-    <mergeCell ref="H1362:I1362"/>
-    <mergeCell ref="H1363:I1363"/>
-    <mergeCell ref="H1364:I1364"/>
-    <mergeCell ref="H1365:I1365"/>
-    <mergeCell ref="H1366:I1366"/>
-    <mergeCell ref="H1367:I1367"/>
-    <mergeCell ref="H1368:I1368"/>
-    <mergeCell ref="H1369:I1369"/>
-    <mergeCell ref="H1352:I1352"/>
-    <mergeCell ref="H1353:I1353"/>
-    <mergeCell ref="H1354:I1354"/>
-    <mergeCell ref="H1355:I1355"/>
-    <mergeCell ref="H1356:I1356"/>
-    <mergeCell ref="H1357:I1357"/>
-    <mergeCell ref="H1358:I1358"/>
-    <mergeCell ref="H1359:I1359"/>
-    <mergeCell ref="H1360:I1360"/>
-    <mergeCell ref="H1343:I1343"/>
-    <mergeCell ref="H1344:I1344"/>
-    <mergeCell ref="H1345:I1345"/>
-    <mergeCell ref="H1346:I1346"/>
-    <mergeCell ref="H1347:I1347"/>
-    <mergeCell ref="H1348:I1348"/>
-    <mergeCell ref="H1349:I1349"/>
-    <mergeCell ref="H1350:I1350"/>
-    <mergeCell ref="H1351:I1351"/>
-    <mergeCell ref="H1334:I1334"/>
-    <mergeCell ref="H1335:I1335"/>
-    <mergeCell ref="H1336:I1336"/>
-    <mergeCell ref="H1337:I1337"/>
-    <mergeCell ref="H1338:I1338"/>
-    <mergeCell ref="H1339:I1339"/>
-    <mergeCell ref="H1340:I1340"/>
-    <mergeCell ref="H1341:I1341"/>
-    <mergeCell ref="H1342:I1342"/>
-    <mergeCell ref="H1325:I1325"/>
-    <mergeCell ref="H1326:I1326"/>
-    <mergeCell ref="H1327:I1327"/>
-    <mergeCell ref="H1328:I1328"/>
-    <mergeCell ref="H1329:I1329"/>
-    <mergeCell ref="H1330:I1330"/>
-    <mergeCell ref="H1331:I1331"/>
-    <mergeCell ref="H1332:I1332"/>
-    <mergeCell ref="H1333:I1333"/>
-    <mergeCell ref="H1316:I1316"/>
-    <mergeCell ref="H1317:I1317"/>
-    <mergeCell ref="H1318:I1318"/>
-    <mergeCell ref="H1319:I1319"/>
-    <mergeCell ref="H1320:I1320"/>
-    <mergeCell ref="H1321:I1321"/>
-    <mergeCell ref="H1322:I1322"/>
-    <mergeCell ref="H1323:I1323"/>
-    <mergeCell ref="H1324:I1324"/>
-    <mergeCell ref="H1307:I1307"/>
-    <mergeCell ref="H1308:I1308"/>
-    <mergeCell ref="H1309:I1309"/>
-    <mergeCell ref="H1310:I1310"/>
-    <mergeCell ref="H1311:I1311"/>
-    <mergeCell ref="H1312:I1312"/>
-    <mergeCell ref="H1313:I1313"/>
-    <mergeCell ref="H1314:I1314"/>
-    <mergeCell ref="H1315:I1315"/>
-    <mergeCell ref="H1298:I1298"/>
-    <mergeCell ref="H1299:I1299"/>
-    <mergeCell ref="H1300:I1300"/>
-    <mergeCell ref="H1301:I1301"/>
-    <mergeCell ref="H1302:I1302"/>
-    <mergeCell ref="H1303:I1303"/>
-    <mergeCell ref="H1304:I1304"/>
-    <mergeCell ref="H1305:I1305"/>
-    <mergeCell ref="H1306:I1306"/>
-    <mergeCell ref="H1289:I1289"/>
-    <mergeCell ref="H1290:I1290"/>
-    <mergeCell ref="H1291:I1291"/>
-    <mergeCell ref="H1292:I1292"/>
-    <mergeCell ref="H1293:I1293"/>
-    <mergeCell ref="H1294:I1294"/>
-    <mergeCell ref="H1295:I1295"/>
-    <mergeCell ref="H1296:I1296"/>
-    <mergeCell ref="H1297:I1297"/>
-    <mergeCell ref="H1280:I1280"/>
-    <mergeCell ref="H1281:I1281"/>
-    <mergeCell ref="H1282:I1282"/>
-    <mergeCell ref="H1283:I1283"/>
-    <mergeCell ref="H1284:I1284"/>
-    <mergeCell ref="H1285:I1285"/>
-    <mergeCell ref="H1286:I1286"/>
-    <mergeCell ref="H1287:I1287"/>
-    <mergeCell ref="H1288:I1288"/>
-    <mergeCell ref="H1271:I1271"/>
-    <mergeCell ref="H1272:I1272"/>
-    <mergeCell ref="H1273:I1273"/>
-    <mergeCell ref="H1274:I1274"/>
-    <mergeCell ref="H1275:I1275"/>
-    <mergeCell ref="H1276:I1276"/>
-    <mergeCell ref="H1277:I1277"/>
-    <mergeCell ref="H1278:I1278"/>
-    <mergeCell ref="H1279:I1279"/>
-    <mergeCell ref="H1262:I1262"/>
-    <mergeCell ref="H1263:I1263"/>
-    <mergeCell ref="H1264:I1264"/>
-    <mergeCell ref="H1265:I1265"/>
-    <mergeCell ref="H1266:I1266"/>
-    <mergeCell ref="H1267:I1267"/>
-    <mergeCell ref="H1268:I1268"/>
-    <mergeCell ref="H1269:I1269"/>
-    <mergeCell ref="H1270:I1270"/>
-    <mergeCell ref="H1253:I1253"/>
-    <mergeCell ref="H1254:I1254"/>
-    <mergeCell ref="H1255:I1255"/>
-    <mergeCell ref="H1256:I1256"/>
-    <mergeCell ref="H1257:I1257"/>
-    <mergeCell ref="H1258:I1258"/>
-    <mergeCell ref="H1259:I1259"/>
-    <mergeCell ref="H1260:I1260"/>
-    <mergeCell ref="H1261:I1261"/>
-    <mergeCell ref="H1244:I1244"/>
-    <mergeCell ref="H1245:I1245"/>
-    <mergeCell ref="H1246:I1246"/>
-    <mergeCell ref="H1247:I1247"/>
-    <mergeCell ref="H1248:I1248"/>
-    <mergeCell ref="H1249:I1249"/>
-    <mergeCell ref="H1250:I1250"/>
-    <mergeCell ref="H1251:I1251"/>
-    <mergeCell ref="H1252:I1252"/>
-    <mergeCell ref="H1235:I1235"/>
-    <mergeCell ref="H1236:I1236"/>
-    <mergeCell ref="H1237:I1237"/>
-    <mergeCell ref="H1238:I1238"/>
-    <mergeCell ref="H1239:I1239"/>
-    <mergeCell ref="H1240:I1240"/>
-    <mergeCell ref="H1241:I1241"/>
-    <mergeCell ref="H1242:I1242"/>
-    <mergeCell ref="H1243:I1243"/>
-    <mergeCell ref="H1226:I1226"/>
-    <mergeCell ref="H1227:I1227"/>
-    <mergeCell ref="H1228:I1228"/>
-    <mergeCell ref="H1229:I1229"/>
-    <mergeCell ref="H1230:I1230"/>
-    <mergeCell ref="H1231:I1231"/>
-    <mergeCell ref="H1232:I1232"/>
-    <mergeCell ref="H1233:I1233"/>
-    <mergeCell ref="H1234:I1234"/>
-    <mergeCell ref="H1217:I1217"/>
-    <mergeCell ref="H1218:I1218"/>
-    <mergeCell ref="H1219:I1219"/>
-    <mergeCell ref="H1220:I1220"/>
-    <mergeCell ref="H1221:I1221"/>
-    <mergeCell ref="H1222:I1222"/>
-    <mergeCell ref="H1223:I1223"/>
-    <mergeCell ref="H1224:I1224"/>
-    <mergeCell ref="H1225:I1225"/>
-    <mergeCell ref="H1208:I1208"/>
-    <mergeCell ref="H1209:I1209"/>
-    <mergeCell ref="H1210:I1210"/>
-    <mergeCell ref="H1211:I1211"/>
-    <mergeCell ref="H1212:I1212"/>
-    <mergeCell ref="H1213:I1213"/>
-    <mergeCell ref="H1214:I1214"/>
-    <mergeCell ref="H1215:I1215"/>
-    <mergeCell ref="H1216:I1216"/>
-    <mergeCell ref="H1199:I1199"/>
-    <mergeCell ref="H1200:I1200"/>
-    <mergeCell ref="H1201:I1201"/>
-    <mergeCell ref="H1202:I1202"/>
-    <mergeCell ref="H1203:I1203"/>
-    <mergeCell ref="H1204:I1204"/>
-    <mergeCell ref="H1205:I1205"/>
-    <mergeCell ref="H1206:I1206"/>
-    <mergeCell ref="H1207:I1207"/>
-    <mergeCell ref="H1190:I1190"/>
-    <mergeCell ref="H1191:I1191"/>
-    <mergeCell ref="H1192:I1192"/>
-    <mergeCell ref="H1193:I1193"/>
-    <mergeCell ref="H1194:I1194"/>
-    <mergeCell ref="H1195:I1195"/>
-    <mergeCell ref="H1196:I1196"/>
-    <mergeCell ref="H1197:I1197"/>
-    <mergeCell ref="H1198:I1198"/>
-    <mergeCell ref="H1181:I1181"/>
-    <mergeCell ref="H1182:I1182"/>
-    <mergeCell ref="H1183:I1183"/>
-    <mergeCell ref="H1184:I1184"/>
-    <mergeCell ref="H1185:I1185"/>
-    <mergeCell ref="H1186:I1186"/>
-    <mergeCell ref="H1187:I1187"/>
-    <mergeCell ref="H1188:I1188"/>
-    <mergeCell ref="H1189:I1189"/>
-    <mergeCell ref="H1172:I1172"/>
-    <mergeCell ref="H1173:I1173"/>
-    <mergeCell ref="H1174:I1174"/>
-    <mergeCell ref="H1175:I1175"/>
-    <mergeCell ref="H1176:I1176"/>
-    <mergeCell ref="H1177:I1177"/>
-    <mergeCell ref="H1178:I1178"/>
-    <mergeCell ref="H1179:I1179"/>
-    <mergeCell ref="H1180:I1180"/>
-    <mergeCell ref="H1163:I1163"/>
-    <mergeCell ref="H1164:I1164"/>
-    <mergeCell ref="H1165:I1165"/>
-    <mergeCell ref="H1166:I1166"/>
-    <mergeCell ref="H1167:I1167"/>
-    <mergeCell ref="H1168:I1168"/>
-    <mergeCell ref="H1169:I1169"/>
-    <mergeCell ref="H1170:I1170"/>
-    <mergeCell ref="H1171:I1171"/>
-    <mergeCell ref="H1154:I1154"/>
-    <mergeCell ref="H1155:I1155"/>
-    <mergeCell ref="H1156:I1156"/>
-    <mergeCell ref="H1157:I1157"/>
-    <mergeCell ref="H1158:I1158"/>
-    <mergeCell ref="H1159:I1159"/>
-    <mergeCell ref="H1160:I1160"/>
-    <mergeCell ref="H1161:I1161"/>
-    <mergeCell ref="H1162:I1162"/>
-    <mergeCell ref="H1145:I1145"/>
-    <mergeCell ref="H1146:I1146"/>
-    <mergeCell ref="H1147:I1147"/>
-    <mergeCell ref="H1148:I1148"/>
-    <mergeCell ref="H1149:I1149"/>
-    <mergeCell ref="H1150:I1150"/>
-    <mergeCell ref="H1151:I1151"/>
-    <mergeCell ref="H1152:I1152"/>
-    <mergeCell ref="H1153:I1153"/>
-    <mergeCell ref="H1136:I1136"/>
-    <mergeCell ref="H1137:I1137"/>
-    <mergeCell ref="H1138:I1138"/>
-    <mergeCell ref="H1139:I1139"/>
-    <mergeCell ref="H1140:I1140"/>
-    <mergeCell ref="H1141:I1141"/>
-    <mergeCell ref="H1142:I1142"/>
-    <mergeCell ref="H1143:I1143"/>
-    <mergeCell ref="H1144:I1144"/>
-    <mergeCell ref="H1127:I1127"/>
-    <mergeCell ref="H1128:I1128"/>
-    <mergeCell ref="H1129:I1129"/>
-    <mergeCell ref="H1130:I1130"/>
-    <mergeCell ref="H1131:I1131"/>
-    <mergeCell ref="H1132:I1132"/>
-    <mergeCell ref="H1133:I1133"/>
-    <mergeCell ref="H1134:I1134"/>
-    <mergeCell ref="H1135:I1135"/>
-    <mergeCell ref="H1118:I1118"/>
-    <mergeCell ref="H1119:I1119"/>
-    <mergeCell ref="H1120:I1120"/>
-    <mergeCell ref="H1121:I1121"/>
-    <mergeCell ref="H1122:I1122"/>
-    <mergeCell ref="H1123:I1123"/>
-    <mergeCell ref="H1124:I1124"/>
-    <mergeCell ref="H1125:I1125"/>
-    <mergeCell ref="H1126:I1126"/>
-    <mergeCell ref="H1109:I1109"/>
-    <mergeCell ref="H1110:I1110"/>
-    <mergeCell ref="H1111:I1111"/>
-    <mergeCell ref="H1112:I1112"/>
-    <mergeCell ref="H1113:I1113"/>
-    <mergeCell ref="H1114:I1114"/>
-    <mergeCell ref="H1115:I1115"/>
-    <mergeCell ref="H1116:I1116"/>
-    <mergeCell ref="H1117:I1117"/>
-    <mergeCell ref="H1100:I1100"/>
-    <mergeCell ref="H1101:I1101"/>
-    <mergeCell ref="H1102:I1102"/>
-    <mergeCell ref="H1103:I1103"/>
-    <mergeCell ref="H1104:I1104"/>
-    <mergeCell ref="H1105:I1105"/>
-    <mergeCell ref="H1106:I1106"/>
-    <mergeCell ref="H1107:I1107"/>
-    <mergeCell ref="H1108:I1108"/>
-    <mergeCell ref="H1091:I1091"/>
-    <mergeCell ref="H1092:I1092"/>
-    <mergeCell ref="H1093:I1093"/>
-    <mergeCell ref="H1094:I1094"/>
-    <mergeCell ref="H1095:I1095"/>
-    <mergeCell ref="H1096:I1096"/>
-    <mergeCell ref="H1097:I1097"/>
-    <mergeCell ref="H1098:I1098"/>
-    <mergeCell ref="H1099:I1099"/>
-    <mergeCell ref="H1082:I1082"/>
-    <mergeCell ref="H1083:I1083"/>
-    <mergeCell ref="H1084:I1084"/>
-    <mergeCell ref="H1085:I1085"/>
-    <mergeCell ref="H1086:I1086"/>
-    <mergeCell ref="H1087:I1087"/>
-    <mergeCell ref="H1088:I1088"/>
-    <mergeCell ref="H1089:I1089"/>
-    <mergeCell ref="H1090:I1090"/>
-    <mergeCell ref="H1073:I1073"/>
-    <mergeCell ref="H1074:I1074"/>
-    <mergeCell ref="H1075:I1075"/>
-    <mergeCell ref="H1076:I1076"/>
-    <mergeCell ref="H1077:I1077"/>
-    <mergeCell ref="H1078:I1078"/>
-    <mergeCell ref="H1079:I1079"/>
-    <mergeCell ref="H1080:I1080"/>
-    <mergeCell ref="H1081:I1081"/>
-    <mergeCell ref="H1064:I1064"/>
-    <mergeCell ref="H1065:I1065"/>
-    <mergeCell ref="H1066:I1066"/>
-    <mergeCell ref="H1067:I1067"/>
-    <mergeCell ref="H1068:I1068"/>
-    <mergeCell ref="H1069:I1069"/>
-    <mergeCell ref="H1070:I1070"/>
-    <mergeCell ref="H1071:I1071"/>
-    <mergeCell ref="H1072:I1072"/>
-    <mergeCell ref="H1055:I1055"/>
-    <mergeCell ref="H1056:I1056"/>
-    <mergeCell ref="H1057:I1057"/>
-    <mergeCell ref="H1058:I1058"/>
-    <mergeCell ref="H1059:I1059"/>
-    <mergeCell ref="H1060:I1060"/>
-    <mergeCell ref="H1061:I1061"/>
-    <mergeCell ref="H1062:I1062"/>
-    <mergeCell ref="H1063:I1063"/>
-    <mergeCell ref="H1046:I1046"/>
-    <mergeCell ref="H1047:I1047"/>
-    <mergeCell ref="H1048:I1048"/>
-    <mergeCell ref="H1049:I1049"/>
-    <mergeCell ref="H1050:I1050"/>
-    <mergeCell ref="H1051:I1051"/>
-    <mergeCell ref="H1052:I1052"/>
-    <mergeCell ref="H1053:I1053"/>
-    <mergeCell ref="H1054:I1054"/>
-    <mergeCell ref="H1037:I1037"/>
-    <mergeCell ref="H1038:I1038"/>
-    <mergeCell ref="H1039:I1039"/>
-    <mergeCell ref="H1040:I1040"/>
-    <mergeCell ref="H1041:I1041"/>
-    <mergeCell ref="H1042:I1042"/>
-    <mergeCell ref="H1043:I1043"/>
-    <mergeCell ref="H1044:I1044"/>
-    <mergeCell ref="H1045:I1045"/>
-    <mergeCell ref="H1028:I1028"/>
-    <mergeCell ref="H1029:I1029"/>
-    <mergeCell ref="H1030:I1030"/>
-    <mergeCell ref="H1031:I1031"/>
-    <mergeCell ref="H1032:I1032"/>
-    <mergeCell ref="H1033:I1033"/>
-    <mergeCell ref="H1034:I1034"/>
-    <mergeCell ref="H1035:I1035"/>
-    <mergeCell ref="H1036:I1036"/>
-    <mergeCell ref="H1019:I1019"/>
-    <mergeCell ref="H1020:I1020"/>
-    <mergeCell ref="H1021:I1021"/>
-    <mergeCell ref="H1022:I1022"/>
-    <mergeCell ref="H1023:I1023"/>
-    <mergeCell ref="H1024:I1024"/>
-    <mergeCell ref="H1025:I1025"/>
-    <mergeCell ref="H1026:I1026"/>
-    <mergeCell ref="H1027:I1027"/>
-    <mergeCell ref="H1010:I1010"/>
-    <mergeCell ref="H1011:I1011"/>
-    <mergeCell ref="H1012:I1012"/>
-    <mergeCell ref="H1013:I1013"/>
-    <mergeCell ref="H1014:I1014"/>
-    <mergeCell ref="H1015:I1015"/>
-    <mergeCell ref="H1016:I1016"/>
-    <mergeCell ref="H1017:I1017"/>
-    <mergeCell ref="H1018:I1018"/>
-    <mergeCell ref="H1001:I1001"/>
-    <mergeCell ref="H1002:I1002"/>
-    <mergeCell ref="H1003:I1003"/>
-    <mergeCell ref="H1004:I1004"/>
-    <mergeCell ref="H1005:I1005"/>
-    <mergeCell ref="H1006:I1006"/>
-    <mergeCell ref="H1007:I1007"/>
-    <mergeCell ref="H1008:I1008"/>
-    <mergeCell ref="H1009:I1009"/>
+    <mergeCell ref="H985:I985"/>
+    <mergeCell ref="H986:I986"/>
+    <mergeCell ref="H987:I987"/>
+    <mergeCell ref="H988:I988"/>
+    <mergeCell ref="H989:I989"/>
+    <mergeCell ref="H980:I980"/>
+    <mergeCell ref="H981:I981"/>
+    <mergeCell ref="H982:I982"/>
+    <mergeCell ref="H983:I983"/>
+    <mergeCell ref="H984:I984"/>
+    <mergeCell ref="H995:I995"/>
+    <mergeCell ref="H996:I996"/>
+    <mergeCell ref="H997:I997"/>
+    <mergeCell ref="H998:I998"/>
+    <mergeCell ref="H999:I999"/>
+    <mergeCell ref="H990:I990"/>
+    <mergeCell ref="H991:I991"/>
+    <mergeCell ref="H992:I992"/>
+    <mergeCell ref="H993:I993"/>
+    <mergeCell ref="H994:I994"/>
+    <mergeCell ref="H965:I965"/>
+    <mergeCell ref="H966:I966"/>
+    <mergeCell ref="H967:I967"/>
+    <mergeCell ref="H968:I968"/>
+    <mergeCell ref="H969:I969"/>
+    <mergeCell ref="H960:I960"/>
+    <mergeCell ref="H961:I961"/>
+    <mergeCell ref="H962:I962"/>
+    <mergeCell ref="H963:I963"/>
+    <mergeCell ref="H964:I964"/>
+    <mergeCell ref="H975:I975"/>
+    <mergeCell ref="H976:I976"/>
+    <mergeCell ref="H977:I977"/>
+    <mergeCell ref="H978:I978"/>
+    <mergeCell ref="H979:I979"/>
+    <mergeCell ref="H970:I970"/>
+    <mergeCell ref="H971:I971"/>
+    <mergeCell ref="H972:I972"/>
+    <mergeCell ref="H973:I973"/>
+    <mergeCell ref="H974:I974"/>
+    <mergeCell ref="H945:I945"/>
+    <mergeCell ref="H946:I946"/>
+    <mergeCell ref="H947:I947"/>
+    <mergeCell ref="H948:I948"/>
+    <mergeCell ref="H949:I949"/>
+    <mergeCell ref="H940:I940"/>
+    <mergeCell ref="H941:I941"/>
+    <mergeCell ref="H942:I942"/>
+    <mergeCell ref="H943:I943"/>
+    <mergeCell ref="H944:I944"/>
+    <mergeCell ref="H955:I955"/>
+    <mergeCell ref="H956:I956"/>
+    <mergeCell ref="H957:I957"/>
+    <mergeCell ref="H958:I958"/>
+    <mergeCell ref="H959:I959"/>
+    <mergeCell ref="H950:I950"/>
+    <mergeCell ref="H951:I951"/>
+    <mergeCell ref="H952:I952"/>
+    <mergeCell ref="H953:I953"/>
+    <mergeCell ref="H954:I954"/>
+    <mergeCell ref="H925:I925"/>
+    <mergeCell ref="H926:I926"/>
+    <mergeCell ref="H927:I927"/>
+    <mergeCell ref="H928:I928"/>
+    <mergeCell ref="H929:I929"/>
+    <mergeCell ref="H920:I920"/>
+    <mergeCell ref="H921:I921"/>
+    <mergeCell ref="H922:I922"/>
+    <mergeCell ref="H923:I923"/>
+    <mergeCell ref="H924:I924"/>
+    <mergeCell ref="H935:I935"/>
+    <mergeCell ref="H936:I936"/>
+    <mergeCell ref="H937:I937"/>
+    <mergeCell ref="H938:I938"/>
+    <mergeCell ref="H939:I939"/>
+    <mergeCell ref="H930:I930"/>
+    <mergeCell ref="H931:I931"/>
+    <mergeCell ref="H932:I932"/>
+    <mergeCell ref="H933:I933"/>
+    <mergeCell ref="H934:I934"/>
+    <mergeCell ref="H905:I905"/>
+    <mergeCell ref="H906:I906"/>
+    <mergeCell ref="H907:I907"/>
+    <mergeCell ref="H908:I908"/>
+    <mergeCell ref="H909:I909"/>
+    <mergeCell ref="H900:I900"/>
+    <mergeCell ref="H901:I901"/>
+    <mergeCell ref="H902:I902"/>
+    <mergeCell ref="H903:I903"/>
+    <mergeCell ref="H904:I904"/>
+    <mergeCell ref="H915:I915"/>
+    <mergeCell ref="H916:I916"/>
+    <mergeCell ref="H917:I917"/>
+    <mergeCell ref="H918:I918"/>
+    <mergeCell ref="H919:I919"/>
+    <mergeCell ref="H910:I910"/>
+    <mergeCell ref="H911:I911"/>
+    <mergeCell ref="H912:I912"/>
+    <mergeCell ref="H913:I913"/>
+    <mergeCell ref="H914:I914"/>
+    <mergeCell ref="H885:I885"/>
+    <mergeCell ref="H886:I886"/>
+    <mergeCell ref="H887:I887"/>
+    <mergeCell ref="H888:I888"/>
+    <mergeCell ref="H889:I889"/>
+    <mergeCell ref="H880:I880"/>
+    <mergeCell ref="H881:I881"/>
+    <mergeCell ref="H882:I882"/>
+    <mergeCell ref="H883:I883"/>
+    <mergeCell ref="H884:I884"/>
+    <mergeCell ref="H895:I895"/>
+    <mergeCell ref="H896:I896"/>
+    <mergeCell ref="H897:I897"/>
+    <mergeCell ref="H898:I898"/>
+    <mergeCell ref="H899:I899"/>
+    <mergeCell ref="H890:I890"/>
+    <mergeCell ref="H891:I891"/>
+    <mergeCell ref="H892:I892"/>
+    <mergeCell ref="H893:I893"/>
+    <mergeCell ref="H894:I894"/>
+    <mergeCell ref="H865:I865"/>
+    <mergeCell ref="H866:I866"/>
+    <mergeCell ref="H867:I867"/>
+    <mergeCell ref="H868:I868"/>
+    <mergeCell ref="H869:I869"/>
+    <mergeCell ref="H860:I860"/>
+    <mergeCell ref="H861:I861"/>
+    <mergeCell ref="H862:I862"/>
+    <mergeCell ref="H863:I863"/>
+    <mergeCell ref="H864:I864"/>
+    <mergeCell ref="H875:I875"/>
+    <mergeCell ref="H876:I876"/>
+    <mergeCell ref="H877:I877"/>
+    <mergeCell ref="H878:I878"/>
+    <mergeCell ref="H879:I879"/>
+    <mergeCell ref="H870:I870"/>
+    <mergeCell ref="H871:I871"/>
+    <mergeCell ref="H872:I872"/>
+    <mergeCell ref="H873:I873"/>
+    <mergeCell ref="H874:I874"/>
+    <mergeCell ref="H845:I845"/>
+    <mergeCell ref="H846:I846"/>
+    <mergeCell ref="H847:I847"/>
+    <mergeCell ref="H848:I848"/>
+    <mergeCell ref="H849:I849"/>
+    <mergeCell ref="H840:I840"/>
+    <mergeCell ref="H841:I841"/>
+    <mergeCell ref="H842:I842"/>
+    <mergeCell ref="H843:I843"/>
+    <mergeCell ref="H844:I844"/>
+    <mergeCell ref="H855:I855"/>
+    <mergeCell ref="H856:I856"/>
+    <mergeCell ref="H857:I857"/>
+    <mergeCell ref="H858:I858"/>
+    <mergeCell ref="H859:I859"/>
+    <mergeCell ref="H850:I850"/>
+    <mergeCell ref="H851:I851"/>
+    <mergeCell ref="H852:I852"/>
+    <mergeCell ref="H853:I853"/>
+    <mergeCell ref="H854:I854"/>
+    <mergeCell ref="H825:I825"/>
+    <mergeCell ref="H826:I826"/>
+    <mergeCell ref="H827:I827"/>
+    <mergeCell ref="H828:I828"/>
+    <mergeCell ref="H829:I829"/>
+    <mergeCell ref="H820:I820"/>
+    <mergeCell ref="H821:I821"/>
+    <mergeCell ref="H822:I822"/>
+    <mergeCell ref="H823:I823"/>
+    <mergeCell ref="H824:I824"/>
+    <mergeCell ref="H835:I835"/>
+    <mergeCell ref="H836:I836"/>
+    <mergeCell ref="H837:I837"/>
+    <mergeCell ref="H838:I838"/>
+    <mergeCell ref="H839:I839"/>
+    <mergeCell ref="H830:I830"/>
+    <mergeCell ref="H831:I831"/>
+    <mergeCell ref="H832:I832"/>
+    <mergeCell ref="H833:I833"/>
+    <mergeCell ref="H834:I834"/>
+    <mergeCell ref="H805:I805"/>
+    <mergeCell ref="H806:I806"/>
+    <mergeCell ref="H807:I807"/>
+    <mergeCell ref="H808:I808"/>
+    <mergeCell ref="H809:I809"/>
+    <mergeCell ref="H800:I800"/>
+    <mergeCell ref="H801:I801"/>
+    <mergeCell ref="H802:I802"/>
+    <mergeCell ref="H803:I803"/>
+    <mergeCell ref="H804:I804"/>
+    <mergeCell ref="H815:I815"/>
+    <mergeCell ref="H816:I816"/>
+    <mergeCell ref="H817:I817"/>
+    <mergeCell ref="H818:I818"/>
+    <mergeCell ref="H819:I819"/>
+    <mergeCell ref="H810:I810"/>
+    <mergeCell ref="H811:I811"/>
+    <mergeCell ref="H812:I812"/>
+    <mergeCell ref="H813:I813"/>
+    <mergeCell ref="H814:I814"/>
+    <mergeCell ref="H785:I785"/>
+    <mergeCell ref="H786:I786"/>
+    <mergeCell ref="H787:I787"/>
+    <mergeCell ref="H788:I788"/>
+    <mergeCell ref="H789:I789"/>
+    <mergeCell ref="H780:I780"/>
+    <mergeCell ref="H781:I781"/>
+    <mergeCell ref="H782:I782"/>
+    <mergeCell ref="H783:I783"/>
+    <mergeCell ref="H784:I784"/>
+    <mergeCell ref="H795:I795"/>
+    <mergeCell ref="H796:I796"/>
+    <mergeCell ref="H797:I797"/>
+    <mergeCell ref="H798:I798"/>
+    <mergeCell ref="H799:I799"/>
+    <mergeCell ref="H790:I790"/>
+    <mergeCell ref="H791:I791"/>
+    <mergeCell ref="H792:I792"/>
+    <mergeCell ref="H793:I793"/>
+    <mergeCell ref="H794:I794"/>
+    <mergeCell ref="H765:I765"/>
+    <mergeCell ref="H766:I766"/>
+    <mergeCell ref="H767:I767"/>
+    <mergeCell ref="H768:I768"/>
+    <mergeCell ref="H769:I769"/>
+    <mergeCell ref="H760:I760"/>
+    <mergeCell ref="H761:I761"/>
+    <mergeCell ref="H762:I762"/>
+    <mergeCell ref="H763:I763"/>
+    <mergeCell ref="H764:I764"/>
+    <mergeCell ref="H775:I775"/>
+    <mergeCell ref="H776:I776"/>
+    <mergeCell ref="H777:I777"/>
+    <mergeCell ref="H778:I778"/>
+    <mergeCell ref="H779:I779"/>
+    <mergeCell ref="H770:I770"/>
+    <mergeCell ref="H771:I771"/>
+    <mergeCell ref="H772:I772"/>
+    <mergeCell ref="H773:I773"/>
+    <mergeCell ref="H774:I774"/>
+    <mergeCell ref="H745:I745"/>
+    <mergeCell ref="H746:I746"/>
+    <mergeCell ref="H747:I747"/>
+    <mergeCell ref="H748:I748"/>
+    <mergeCell ref="H749:I749"/>
+    <mergeCell ref="H740:I740"/>
+    <mergeCell ref="H741:I741"/>
+    <mergeCell ref="H742:I742"/>
+    <mergeCell ref="H743:I743"/>
+    <mergeCell ref="H744:I744"/>
+    <mergeCell ref="H755:I755"/>
+    <mergeCell ref="H756:I756"/>
+    <mergeCell ref="H757:I757"/>
+    <mergeCell ref="H758:I758"/>
+    <mergeCell ref="H759:I759"/>
+    <mergeCell ref="H750:I750"/>
+    <mergeCell ref="H751:I751"/>
+    <mergeCell ref="H752:I752"/>
+    <mergeCell ref="H753:I753"/>
+    <mergeCell ref="H754:I754"/>
+    <mergeCell ref="H725:I725"/>
+    <mergeCell ref="H726:I726"/>
+    <mergeCell ref="H727:I727"/>
+    <mergeCell ref="H728:I728"/>
+    <mergeCell ref="H729:I729"/>
+    <mergeCell ref="H720:I720"/>
+    <mergeCell ref="H721:I721"/>
+    <mergeCell ref="H722:I722"/>
+    <mergeCell ref="H723:I723"/>
+    <mergeCell ref="H724:I724"/>
+    <mergeCell ref="H735:I735"/>
+    <mergeCell ref="H736:I736"/>
+    <mergeCell ref="H737:I737"/>
+    <mergeCell ref="H738:I738"/>
+    <mergeCell ref="H739:I739"/>
+    <mergeCell ref="H730:I730"/>
+    <mergeCell ref="H731:I731"/>
+    <mergeCell ref="H732:I732"/>
+    <mergeCell ref="H733:I733"/>
+    <mergeCell ref="H734:I734"/>
+    <mergeCell ref="H705:I705"/>
+    <mergeCell ref="H706:I706"/>
+    <mergeCell ref="H707:I707"/>
+    <mergeCell ref="H708:I708"/>
+    <mergeCell ref="H709:I709"/>
+    <mergeCell ref="H700:I700"/>
+    <mergeCell ref="H701:I701"/>
+    <mergeCell ref="H702:I702"/>
+    <mergeCell ref="H703:I703"/>
+    <mergeCell ref="H704:I704"/>
+    <mergeCell ref="H715:I715"/>
+    <mergeCell ref="H716:I716"/>
+    <mergeCell ref="H717:I717"/>
+    <mergeCell ref="H718:I718"/>
+    <mergeCell ref="H719:I719"/>
+    <mergeCell ref="H710:I710"/>
+    <mergeCell ref="H711:I711"/>
+    <mergeCell ref="H712:I712"/>
+    <mergeCell ref="H713:I713"/>
+    <mergeCell ref="H714:I714"/>
+    <mergeCell ref="H685:I685"/>
+    <mergeCell ref="H686:I686"/>
+    <mergeCell ref="H687:I687"/>
+    <mergeCell ref="H688:I688"/>
+    <mergeCell ref="H689:I689"/>
+    <mergeCell ref="H680:I680"/>
+    <mergeCell ref="H681:I681"/>
+    <mergeCell ref="H682:I682"/>
+    <mergeCell ref="H683:I683"/>
+    <mergeCell ref="H684:I684"/>
+    <mergeCell ref="H695:I695"/>
+    <mergeCell ref="H696:I696"/>
+    <mergeCell ref="H697:I697"/>
+    <mergeCell ref="H698:I698"/>
+    <mergeCell ref="H699:I699"/>
+    <mergeCell ref="H690:I690"/>
+    <mergeCell ref="H691:I691"/>
+    <mergeCell ref="H692:I692"/>
+    <mergeCell ref="H693:I693"/>
+    <mergeCell ref="H694:I694"/>
+    <mergeCell ref="H665:I665"/>
+    <mergeCell ref="H666:I666"/>
+    <mergeCell ref="H667:I667"/>
+    <mergeCell ref="H668:I668"/>
+    <mergeCell ref="H669:I669"/>
+    <mergeCell ref="H660:I660"/>
+    <mergeCell ref="H661:I661"/>
+    <mergeCell ref="H662:I662"/>
+    <mergeCell ref="H663:I663"/>
+    <mergeCell ref="H664:I664"/>
+    <mergeCell ref="H675:I675"/>
+    <mergeCell ref="H676:I676"/>
+    <mergeCell ref="H677:I677"/>
+    <mergeCell ref="H678:I678"/>
+    <mergeCell ref="H679:I679"/>
+    <mergeCell ref="H670:I670"/>
+    <mergeCell ref="H671:I671"/>
+    <mergeCell ref="H672:I672"/>
+    <mergeCell ref="H673:I673"/>
+    <mergeCell ref="H674:I674"/>
+    <mergeCell ref="H645:I645"/>
+    <mergeCell ref="H646:I646"/>
+    <mergeCell ref="H647:I647"/>
+    <mergeCell ref="H648:I648"/>
+    <mergeCell ref="H649:I649"/>
+    <mergeCell ref="H640:I640"/>
+    <mergeCell ref="H641:I641"/>
+    <mergeCell ref="H642:I642"/>
+    <mergeCell ref="H643:I643"/>
+    <mergeCell ref="H644:I644"/>
+    <mergeCell ref="H655:I655"/>
+    <mergeCell ref="H656:I656"/>
+    <mergeCell ref="H657:I657"/>
+    <mergeCell ref="H658:I658"/>
+    <mergeCell ref="H659:I659"/>
+    <mergeCell ref="H650:I650"/>
+    <mergeCell ref="H651:I651"/>
+    <mergeCell ref="H652:I652"/>
+    <mergeCell ref="H653:I653"/>
+    <mergeCell ref="H654:I654"/>
+    <mergeCell ref="H625:I625"/>
+    <mergeCell ref="H626:I626"/>
+    <mergeCell ref="H627:I627"/>
+    <mergeCell ref="H628:I628"/>
+    <mergeCell ref="H629:I629"/>
+    <mergeCell ref="H620:I620"/>
+    <mergeCell ref="H621:I621"/>
+    <mergeCell ref="H622:I622"/>
+    <mergeCell ref="H623:I623"/>
+    <mergeCell ref="H624:I624"/>
+    <mergeCell ref="H635:I635"/>
+    <mergeCell ref="H636:I636"/>
+    <mergeCell ref="H637:I637"/>
+    <mergeCell ref="H638:I638"/>
+    <mergeCell ref="H639:I639"/>
+    <mergeCell ref="H630:I630"/>
+    <mergeCell ref="H631:I631"/>
+    <mergeCell ref="H632:I632"/>
+    <mergeCell ref="H633:I633"/>
+    <mergeCell ref="H634:I634"/>
+    <mergeCell ref="H605:I605"/>
+    <mergeCell ref="H606:I606"/>
+    <mergeCell ref="H607:I607"/>
+    <mergeCell ref="H608:I608"/>
+    <mergeCell ref="H609:I609"/>
+    <mergeCell ref="H600:I600"/>
+    <mergeCell ref="H601:I601"/>
+    <mergeCell ref="H602:I602"/>
+    <mergeCell ref="H603:I603"/>
+    <mergeCell ref="H604:I604"/>
+    <mergeCell ref="H615:I615"/>
+    <mergeCell ref="H616:I616"/>
+    <mergeCell ref="H617:I617"/>
+    <mergeCell ref="H618:I618"/>
+    <mergeCell ref="H619:I619"/>
+    <mergeCell ref="H610:I610"/>
+    <mergeCell ref="H611:I611"/>
+    <mergeCell ref="H612:I612"/>
+    <mergeCell ref="H613:I613"/>
+    <mergeCell ref="H614:I614"/>
+    <mergeCell ref="H585:I585"/>
+    <mergeCell ref="H586:I586"/>
+    <mergeCell ref="H587:I587"/>
+    <mergeCell ref="H588:I588"/>
+    <mergeCell ref="H589:I589"/>
+    <mergeCell ref="H580:I580"/>
+    <mergeCell ref="H581:I581"/>
+    <mergeCell ref="H582:I582"/>
+    <mergeCell ref="H583:I583"/>
+    <mergeCell ref="H584:I584"/>
+    <mergeCell ref="H595:I595"/>
+    <mergeCell ref="H596:I596"/>
+    <mergeCell ref="H597:I597"/>
+    <mergeCell ref="H598:I598"/>
+    <mergeCell ref="H599:I599"/>
+    <mergeCell ref="H590:I590"/>
+    <mergeCell ref="H591:I591"/>
+    <mergeCell ref="H592:I592"/>
+    <mergeCell ref="H593:I593"/>
+    <mergeCell ref="H594:I594"/>
+    <mergeCell ref="H565:I565"/>
+    <mergeCell ref="H566:I566"/>
+    <mergeCell ref="H567:I567"/>
+    <mergeCell ref="H568:I568"/>
+    <mergeCell ref="H569:I569"/>
+    <mergeCell ref="H560:I560"/>
+    <mergeCell ref="H561:I561"/>
+    <mergeCell ref="H562:I562"/>
+    <mergeCell ref="H563:I563"/>
+    <mergeCell ref="H564:I564"/>
+    <mergeCell ref="H575:I575"/>
+    <mergeCell ref="H576:I576"/>
+    <mergeCell ref="H577:I577"/>
+    <mergeCell ref="H578:I578"/>
+    <mergeCell ref="H579:I579"/>
+    <mergeCell ref="H570:I570"/>
+    <mergeCell ref="H571:I571"/>
+    <mergeCell ref="H572:I572"/>
+    <mergeCell ref="H573:I573"/>
+    <mergeCell ref="H574:I574"/>
+    <mergeCell ref="H545:I545"/>
+    <mergeCell ref="H546:I546"/>
+    <mergeCell ref="H547:I547"/>
+    <mergeCell ref="H548:I548"/>
+    <mergeCell ref="H549:I549"/>
+    <mergeCell ref="H540:I540"/>
+    <mergeCell ref="H541:I541"/>
+    <mergeCell ref="H542:I542"/>
+    <mergeCell ref="H543:I543"/>
+    <mergeCell ref="H544:I544"/>
+    <mergeCell ref="H555:I555"/>
+    <mergeCell ref="H556:I556"/>
+    <mergeCell ref="H557:I557"/>
+    <mergeCell ref="H558:I558"/>
+    <mergeCell ref="H559:I559"/>
+    <mergeCell ref="H550:I550"/>
+    <mergeCell ref="H551:I551"/>
+    <mergeCell ref="H552:I552"/>
+    <mergeCell ref="H553:I553"/>
+    <mergeCell ref="H554:I554"/>
+    <mergeCell ref="H525:I525"/>
+    <mergeCell ref="H526:I526"/>
+    <mergeCell ref="H527:I527"/>
+    <mergeCell ref="H528:I528"/>
+    <mergeCell ref="H529:I529"/>
+    <mergeCell ref="H520:I520"/>
+    <mergeCell ref="H521:I521"/>
+    <mergeCell ref="H522:I522"/>
+    <mergeCell ref="H523:I523"/>
+    <mergeCell ref="H524:I524"/>
+    <mergeCell ref="H535:I535"/>
+    <mergeCell ref="H536:I536"/>
+    <mergeCell ref="H537:I537"/>
+    <mergeCell ref="H538:I538"/>
+    <mergeCell ref="H539:I539"/>
+    <mergeCell ref="H530:I530"/>
+    <mergeCell ref="H531:I531"/>
+    <mergeCell ref="H532:I532"/>
+    <mergeCell ref="H533:I533"/>
+    <mergeCell ref="H534:I534"/>
+    <mergeCell ref="H505:I505"/>
+    <mergeCell ref="H506:I506"/>
+    <mergeCell ref="H507:I507"/>
+    <mergeCell ref="H508:I508"/>
+    <mergeCell ref="H509:I509"/>
+    <mergeCell ref="H500:I500"/>
+    <mergeCell ref="H501:I501"/>
+    <mergeCell ref="H502:I502"/>
+    <mergeCell ref="H503:I503"/>
+    <mergeCell ref="H504:I504"/>
+    <mergeCell ref="H515:I515"/>
+    <mergeCell ref="H516:I516"/>
+    <mergeCell ref="H517:I517"/>
+    <mergeCell ref="H518:I518"/>
+    <mergeCell ref="H519:I519"/>
+    <mergeCell ref="H510:I510"/>
+    <mergeCell ref="H511:I511"/>
+    <mergeCell ref="H512:I512"/>
+    <mergeCell ref="H513:I513"/>
+    <mergeCell ref="H514:I514"/>
+    <mergeCell ref="H485:I485"/>
+    <mergeCell ref="H486:I486"/>
+    <mergeCell ref="H487:I487"/>
+    <mergeCell ref="H488:I488"/>
+    <mergeCell ref="H489:I489"/>
+    <mergeCell ref="H480:I480"/>
+    <mergeCell ref="H481:I481"/>
+    <mergeCell ref="H482:I482"/>
+    <mergeCell ref="H483:I483"/>
+    <mergeCell ref="H484:I484"/>
+    <mergeCell ref="H495:I495"/>
+    <mergeCell ref="H496:I496"/>
+    <mergeCell ref="H497:I497"/>
+    <mergeCell ref="H498:I498"/>
+    <mergeCell ref="H499:I499"/>
+    <mergeCell ref="H490:I490"/>
+    <mergeCell ref="H491:I491"/>
+    <mergeCell ref="H492:I492"/>
+    <mergeCell ref="H493:I493"/>
+    <mergeCell ref="H494:I494"/>
+    <mergeCell ref="H465:I465"/>
+    <mergeCell ref="H466:I466"/>
+    <mergeCell ref="H467:I467"/>
+    <mergeCell ref="H468:I468"/>
+    <mergeCell ref="H469:I469"/>
+    <mergeCell ref="H460:I460"/>
+    <mergeCell ref="H461:I461"/>
+    <mergeCell ref="H462:I462"/>
+    <mergeCell ref="H463:I463"/>
+    <mergeCell ref="H464:I464"/>
+    <mergeCell ref="H475:I475"/>
+    <mergeCell ref="H476:I476"/>
+    <mergeCell ref="H477:I477"/>
+    <mergeCell ref="H478:I478"/>
+    <mergeCell ref="H479:I479"/>
+    <mergeCell ref="H470:I470"/>
+    <mergeCell ref="H471:I471"/>
+    <mergeCell ref="H472:I472"/>
+    <mergeCell ref="H473:I473"/>
+    <mergeCell ref="H474:I474"/>
+    <mergeCell ref="H445:I445"/>
+    <mergeCell ref="H446:I446"/>
+    <mergeCell ref="H447:I447"/>
+    <mergeCell ref="H448:I448"/>
+    <mergeCell ref="H449:I449"/>
+    <mergeCell ref="H440:I440"/>
+    <mergeCell ref="H441:I441"/>
+    <mergeCell ref="H442:I442"/>
+    <mergeCell ref="H443:I443"/>
+    <mergeCell ref="H444:I444"/>
+    <mergeCell ref="H455:I455"/>
+    <mergeCell ref="H456:I456"/>
+    <mergeCell ref="H457:I457"/>
+    <mergeCell ref="H458:I458"/>
+    <mergeCell ref="H459:I459"/>
+    <mergeCell ref="H450:I450"/>
+    <mergeCell ref="H451:I451"/>
+    <mergeCell ref="H452:I452"/>
+    <mergeCell ref="H453:I453"/>
+    <mergeCell ref="H454:I454"/>
+    <mergeCell ref="H425:I425"/>
+    <mergeCell ref="H426:I426"/>
+    <mergeCell ref="H427:I427"/>
+    <mergeCell ref="H428:I428"/>
+    <mergeCell ref="H429:I429"/>
+    <mergeCell ref="H420:I420"/>
+    <mergeCell ref="H421:I421"/>
+    <mergeCell ref="H422:I422"/>
+    <mergeCell ref="H423:I423"/>
+    <mergeCell ref="H424:I424"/>
+    <mergeCell ref="H435:I435"/>
+    <mergeCell ref="H436:I436"/>
+    <mergeCell ref="H437:I437"/>
+    <mergeCell ref="H438:I438"/>
+    <mergeCell ref="H439:I439"/>
+    <mergeCell ref="H430:I430"/>
+    <mergeCell ref="H431:I431"/>
+    <mergeCell ref="H432:I432"/>
+    <mergeCell ref="H433:I433"/>
+    <mergeCell ref="H434:I434"/>
+    <mergeCell ref="H405:I405"/>
+    <mergeCell ref="H406:I406"/>
+    <mergeCell ref="H407:I407"/>
+    <mergeCell ref="H408:I408"/>
+    <mergeCell ref="H409:I409"/>
+    <mergeCell ref="H400:I400"/>
+    <mergeCell ref="H401:I401"/>
+    <mergeCell ref="H402:I402"/>
+    <mergeCell ref="H403:I403"/>
+    <mergeCell ref="H404:I404"/>
+    <mergeCell ref="H415:I415"/>
+    <mergeCell ref="H416:I416"/>
+    <mergeCell ref="H417:I417"/>
+    <mergeCell ref="H418:I418"/>
+    <mergeCell ref="H419:I419"/>
+    <mergeCell ref="H410:I410"/>
+    <mergeCell ref="H411:I411"/>
+    <mergeCell ref="H412:I412"/>
+    <mergeCell ref="H413:I413"/>
+    <mergeCell ref="H414:I414"/>
+    <mergeCell ref="H385:I385"/>
+    <mergeCell ref="H386:I386"/>
+    <mergeCell ref="H387:I387"/>
+    <mergeCell ref="H388:I388"/>
+    <mergeCell ref="H389:I389"/>
+    <mergeCell ref="H380:I380"/>
+    <mergeCell ref="H381:I381"/>
+    <mergeCell ref="H382:I382"/>
+    <mergeCell ref="H383:I383"/>
+    <mergeCell ref="H384:I384"/>
+    <mergeCell ref="H395:I395"/>
+    <mergeCell ref="H396:I396"/>
+    <mergeCell ref="H397:I397"/>
+    <mergeCell ref="H398:I398"/>
+    <mergeCell ref="H399:I399"/>
+    <mergeCell ref="H390:I390"/>
+    <mergeCell ref="H391:I391"/>
+    <mergeCell ref="H392:I392"/>
+    <mergeCell ref="H393:I393"/>
+    <mergeCell ref="H394:I394"/>
+    <mergeCell ref="H365:I365"/>
+    <mergeCell ref="H366:I366"/>
+    <mergeCell ref="H367:I367"/>
+    <mergeCell ref="H368:I368"/>
+    <mergeCell ref="H369:I369"/>
+    <mergeCell ref="H360:I360"/>
+    <mergeCell ref="H361:I361"/>
+    <mergeCell ref="H362:I362"/>
+    <mergeCell ref="H363:I363"/>
+    <mergeCell ref="H364:I364"/>
+    <mergeCell ref="H375:I375"/>
+    <mergeCell ref="H376:I376"/>
+    <mergeCell ref="H377:I377"/>
+    <mergeCell ref="H378:I378"/>
+    <mergeCell ref="H379:I379"/>
+    <mergeCell ref="H370:I370"/>
+    <mergeCell ref="H371:I371"/>
+    <mergeCell ref="H372:I372"/>
+    <mergeCell ref="H373:I373"/>
+    <mergeCell ref="H374:I374"/>
+    <mergeCell ref="H345:I345"/>
+    <mergeCell ref="H346:I346"/>
+    <mergeCell ref="H347:I347"/>
+    <mergeCell ref="H348:I348"/>
+    <mergeCell ref="H349:I349"/>
+    <mergeCell ref="H340:I340"/>
+    <mergeCell ref="H341:I341"/>
+    <mergeCell ref="H342:I342"/>
+    <mergeCell ref="H343:I343"/>
+    <mergeCell ref="H344:I344"/>
+    <mergeCell ref="H355:I355"/>
+    <mergeCell ref="H356:I356"/>
+    <mergeCell ref="H357:I357"/>
+    <mergeCell ref="H358:I358"/>
+    <mergeCell ref="H359:I359"/>
+    <mergeCell ref="H350:I350"/>
+    <mergeCell ref="H351:I351"/>
+    <mergeCell ref="H352:I352"/>
+    <mergeCell ref="H353:I353"/>
+    <mergeCell ref="H354:I354"/>
+    <mergeCell ref="H325:I325"/>
+    <mergeCell ref="H326:I326"/>
+    <mergeCell ref="H327:I327"/>
+    <mergeCell ref="H328:I328"/>
+    <mergeCell ref="H329:I329"/>
+    <mergeCell ref="H320:I320"/>
+    <mergeCell ref="H321:I321"/>
+    <mergeCell ref="H322:I322"/>
+    <mergeCell ref="H323:I323"/>
+    <mergeCell ref="H324:I324"/>
+    <mergeCell ref="H335:I335"/>
+    <mergeCell ref="H336:I336"/>
+    <mergeCell ref="H337:I337"/>
+    <mergeCell ref="H338:I338"/>
+    <mergeCell ref="H339:I339"/>
+    <mergeCell ref="H330:I330"/>
+    <mergeCell ref="H331:I331"/>
+    <mergeCell ref="H332:I332"/>
+    <mergeCell ref="H333:I333"/>
+    <mergeCell ref="H334:I334"/>
+    <mergeCell ref="H305:I305"/>
+    <mergeCell ref="H306:I306"/>
+    <mergeCell ref="H307:I307"/>
+    <mergeCell ref="H308:I308"/>
+    <mergeCell ref="H309:I309"/>
+    <mergeCell ref="H300:I300"/>
+    <mergeCell ref="H301:I301"/>
+    <mergeCell ref="H302:I302"/>
+    <mergeCell ref="H303:I303"/>
+    <mergeCell ref="H304:I304"/>
+    <mergeCell ref="H315:I315"/>
+    <mergeCell ref="H316:I316"/>
+    <mergeCell ref="H317:I317"/>
+    <mergeCell ref="H318:I318"/>
+    <mergeCell ref="H319:I319"/>
+    <mergeCell ref="H310:I310"/>
+    <mergeCell ref="H311:I311"/>
+    <mergeCell ref="H312:I312"/>
+    <mergeCell ref="H313:I313"/>
+    <mergeCell ref="H314:I314"/>
+    <mergeCell ref="H285:I285"/>
+    <mergeCell ref="H286:I286"/>
+    <mergeCell ref="H287:I287"/>
+    <mergeCell ref="H288:I288"/>
+    <mergeCell ref="H289:I289"/>
+    <mergeCell ref="H280:I280"/>
+    <mergeCell ref="H281:I281"/>
+    <mergeCell ref="H282:I282"/>
+    <mergeCell ref="H283:I283"/>
+    <mergeCell ref="H284:I284"/>
+    <mergeCell ref="H295:I295"/>
+    <mergeCell ref="H296:I296"/>
+    <mergeCell ref="H297:I297"/>
+    <mergeCell ref="H298:I298"/>
+    <mergeCell ref="H299:I299"/>
+    <mergeCell ref="H290:I290"/>
+    <mergeCell ref="H291:I291"/>
+    <mergeCell ref="H292:I292"/>
+    <mergeCell ref="H293:I293"/>
+    <mergeCell ref="H294:I294"/>
+    <mergeCell ref="H265:I265"/>
+    <mergeCell ref="H266:I266"/>
+    <mergeCell ref="H267:I267"/>
+    <mergeCell ref="H268:I268"/>
+    <mergeCell ref="H269:I269"/>
+    <mergeCell ref="H260:I260"/>
+    <mergeCell ref="H261:I261"/>
+    <mergeCell ref="H262:I262"/>
+    <mergeCell ref="H263:I263"/>
+    <mergeCell ref="H264:I264"/>
+    <mergeCell ref="H275:I275"/>
+    <mergeCell ref="H276:I276"/>
+    <mergeCell ref="H277:I277"/>
+    <mergeCell ref="H278:I278"/>
+    <mergeCell ref="H279:I279"/>
+    <mergeCell ref="H270:I270"/>
+    <mergeCell ref="H271:I271"/>
+    <mergeCell ref="H272:I272"/>
+    <mergeCell ref="H273:I273"/>
+    <mergeCell ref="H274:I274"/>
+    <mergeCell ref="H245:I245"/>
+    <mergeCell ref="H246:I246"/>
+    <mergeCell ref="H247:I247"/>
+    <mergeCell ref="H248:I248"/>
+    <mergeCell ref="H249:I249"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="H241:I241"/>
+    <mergeCell ref="H242:I242"/>
+    <mergeCell ref="H243:I243"/>
+    <mergeCell ref="H244:I244"/>
+    <mergeCell ref="H255:I255"/>
+    <mergeCell ref="H256:I256"/>
+    <mergeCell ref="H257:I257"/>
+    <mergeCell ref="H258:I258"/>
+    <mergeCell ref="H259:I259"/>
+    <mergeCell ref="H250:I250"/>
+    <mergeCell ref="H251:I251"/>
+    <mergeCell ref="H252:I252"/>
+    <mergeCell ref="H253:I253"/>
+    <mergeCell ref="H254:I254"/>
+    <mergeCell ref="H225:I225"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="H228:I228"/>
+    <mergeCell ref="H229:I229"/>
+    <mergeCell ref="H220:I220"/>
+    <mergeCell ref="H221:I221"/>
+    <mergeCell ref="H222:I222"/>
+    <mergeCell ref="H223:I223"/>
+    <mergeCell ref="H224:I224"/>
+    <mergeCell ref="H235:I235"/>
+    <mergeCell ref="H236:I236"/>
+    <mergeCell ref="H237:I237"/>
+    <mergeCell ref="H238:I238"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="H230:I230"/>
+    <mergeCell ref="H231:I231"/>
+    <mergeCell ref="H232:I232"/>
+    <mergeCell ref="H233:I233"/>
+    <mergeCell ref="H234:I234"/>
+    <mergeCell ref="H205:I205"/>
+    <mergeCell ref="H206:I206"/>
+    <mergeCell ref="H207:I207"/>
+    <mergeCell ref="H208:I208"/>
+    <mergeCell ref="H209:I209"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="H202:I202"/>
+    <mergeCell ref="H203:I203"/>
+    <mergeCell ref="H204:I204"/>
+    <mergeCell ref="H215:I215"/>
+    <mergeCell ref="H216:I216"/>
+    <mergeCell ref="H217:I217"/>
+    <mergeCell ref="H218:I218"/>
+    <mergeCell ref="H219:I219"/>
+    <mergeCell ref="H210:I210"/>
+    <mergeCell ref="H211:I211"/>
+    <mergeCell ref="H212:I212"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="H185:I185"/>
+    <mergeCell ref="H186:I186"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="H189:I189"/>
+    <mergeCell ref="H180:I180"/>
+    <mergeCell ref="H181:I181"/>
+    <mergeCell ref="H182:I182"/>
+    <mergeCell ref="H183:I183"/>
+    <mergeCell ref="H184:I184"/>
+    <mergeCell ref="H195:I195"/>
+    <mergeCell ref="H196:I196"/>
+    <mergeCell ref="H197:I197"/>
+    <mergeCell ref="H198:I198"/>
+    <mergeCell ref="H199:I199"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="H191:I191"/>
+    <mergeCell ref="H192:I192"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="H194:I194"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="H168:I168"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="H176:I176"/>
+    <mergeCell ref="H177:I177"/>
+    <mergeCell ref="H178:I178"/>
+    <mergeCell ref="H179:I179"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H18:I18"/>
@@ -40885,963 +38351,3504 @@
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="H167:I167"/>
-    <mergeCell ref="H168:I168"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="H176:I176"/>
-    <mergeCell ref="H177:I177"/>
-    <mergeCell ref="H178:I178"/>
-    <mergeCell ref="H179:I179"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="H171:I171"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="H185:I185"/>
-    <mergeCell ref="H186:I186"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="H189:I189"/>
-    <mergeCell ref="H180:I180"/>
-    <mergeCell ref="H181:I181"/>
-    <mergeCell ref="H182:I182"/>
-    <mergeCell ref="H183:I183"/>
-    <mergeCell ref="H184:I184"/>
-    <mergeCell ref="H195:I195"/>
-    <mergeCell ref="H196:I196"/>
-    <mergeCell ref="H197:I197"/>
-    <mergeCell ref="H198:I198"/>
-    <mergeCell ref="H199:I199"/>
-    <mergeCell ref="H190:I190"/>
-    <mergeCell ref="H191:I191"/>
-    <mergeCell ref="H192:I192"/>
-    <mergeCell ref="H193:I193"/>
-    <mergeCell ref="H194:I194"/>
-    <mergeCell ref="H205:I205"/>
-    <mergeCell ref="H206:I206"/>
-    <mergeCell ref="H207:I207"/>
-    <mergeCell ref="H208:I208"/>
-    <mergeCell ref="H209:I209"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="H202:I202"/>
-    <mergeCell ref="H203:I203"/>
-    <mergeCell ref="H204:I204"/>
-    <mergeCell ref="H215:I215"/>
-    <mergeCell ref="H216:I216"/>
-    <mergeCell ref="H217:I217"/>
-    <mergeCell ref="H218:I218"/>
-    <mergeCell ref="H219:I219"/>
-    <mergeCell ref="H210:I210"/>
-    <mergeCell ref="H211:I211"/>
-    <mergeCell ref="H212:I212"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="H225:I225"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="H228:I228"/>
-    <mergeCell ref="H229:I229"/>
-    <mergeCell ref="H220:I220"/>
-    <mergeCell ref="H221:I221"/>
-    <mergeCell ref="H222:I222"/>
-    <mergeCell ref="H223:I223"/>
-    <mergeCell ref="H224:I224"/>
-    <mergeCell ref="H235:I235"/>
-    <mergeCell ref="H236:I236"/>
-    <mergeCell ref="H237:I237"/>
-    <mergeCell ref="H238:I238"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="H230:I230"/>
-    <mergeCell ref="H231:I231"/>
-    <mergeCell ref="H232:I232"/>
-    <mergeCell ref="H233:I233"/>
-    <mergeCell ref="H234:I234"/>
-    <mergeCell ref="H245:I245"/>
-    <mergeCell ref="H246:I246"/>
-    <mergeCell ref="H247:I247"/>
-    <mergeCell ref="H248:I248"/>
-    <mergeCell ref="H249:I249"/>
-    <mergeCell ref="H240:I240"/>
-    <mergeCell ref="H241:I241"/>
-    <mergeCell ref="H242:I242"/>
-    <mergeCell ref="H243:I243"/>
-    <mergeCell ref="H244:I244"/>
-    <mergeCell ref="H255:I255"/>
-    <mergeCell ref="H256:I256"/>
-    <mergeCell ref="H257:I257"/>
-    <mergeCell ref="H258:I258"/>
-    <mergeCell ref="H259:I259"/>
-    <mergeCell ref="H250:I250"/>
-    <mergeCell ref="H251:I251"/>
-    <mergeCell ref="H252:I252"/>
-    <mergeCell ref="H253:I253"/>
-    <mergeCell ref="H254:I254"/>
-    <mergeCell ref="H265:I265"/>
-    <mergeCell ref="H266:I266"/>
-    <mergeCell ref="H267:I267"/>
-    <mergeCell ref="H268:I268"/>
-    <mergeCell ref="H269:I269"/>
-    <mergeCell ref="H260:I260"/>
-    <mergeCell ref="H261:I261"/>
-    <mergeCell ref="H262:I262"/>
-    <mergeCell ref="H263:I263"/>
-    <mergeCell ref="H264:I264"/>
-    <mergeCell ref="H275:I275"/>
-    <mergeCell ref="H276:I276"/>
-    <mergeCell ref="H277:I277"/>
-    <mergeCell ref="H278:I278"/>
-    <mergeCell ref="H279:I279"/>
-    <mergeCell ref="H270:I270"/>
-    <mergeCell ref="H271:I271"/>
-    <mergeCell ref="H272:I272"/>
-    <mergeCell ref="H273:I273"/>
-    <mergeCell ref="H274:I274"/>
-    <mergeCell ref="H285:I285"/>
-    <mergeCell ref="H286:I286"/>
-    <mergeCell ref="H287:I287"/>
-    <mergeCell ref="H288:I288"/>
-    <mergeCell ref="H289:I289"/>
-    <mergeCell ref="H280:I280"/>
-    <mergeCell ref="H281:I281"/>
-    <mergeCell ref="H282:I282"/>
-    <mergeCell ref="H283:I283"/>
-    <mergeCell ref="H284:I284"/>
-    <mergeCell ref="H295:I295"/>
-    <mergeCell ref="H296:I296"/>
-    <mergeCell ref="H297:I297"/>
-    <mergeCell ref="H298:I298"/>
-    <mergeCell ref="H299:I299"/>
-    <mergeCell ref="H290:I290"/>
-    <mergeCell ref="H291:I291"/>
-    <mergeCell ref="H292:I292"/>
-    <mergeCell ref="H293:I293"/>
-    <mergeCell ref="H294:I294"/>
-    <mergeCell ref="H305:I305"/>
-    <mergeCell ref="H306:I306"/>
-    <mergeCell ref="H307:I307"/>
-    <mergeCell ref="H308:I308"/>
-    <mergeCell ref="H309:I309"/>
-    <mergeCell ref="H300:I300"/>
-    <mergeCell ref="H301:I301"/>
-    <mergeCell ref="H302:I302"/>
-    <mergeCell ref="H303:I303"/>
-    <mergeCell ref="H304:I304"/>
-    <mergeCell ref="H315:I315"/>
-    <mergeCell ref="H316:I316"/>
-    <mergeCell ref="H317:I317"/>
-    <mergeCell ref="H318:I318"/>
-    <mergeCell ref="H319:I319"/>
-    <mergeCell ref="H310:I310"/>
-    <mergeCell ref="H311:I311"/>
-    <mergeCell ref="H312:I312"/>
-    <mergeCell ref="H313:I313"/>
-    <mergeCell ref="H314:I314"/>
-    <mergeCell ref="H325:I325"/>
-    <mergeCell ref="H326:I326"/>
-    <mergeCell ref="H327:I327"/>
-    <mergeCell ref="H328:I328"/>
-    <mergeCell ref="H329:I329"/>
-    <mergeCell ref="H320:I320"/>
-    <mergeCell ref="H321:I321"/>
-    <mergeCell ref="H322:I322"/>
-    <mergeCell ref="H323:I323"/>
-    <mergeCell ref="H324:I324"/>
-    <mergeCell ref="H335:I335"/>
-    <mergeCell ref="H336:I336"/>
-    <mergeCell ref="H337:I337"/>
-    <mergeCell ref="H338:I338"/>
-    <mergeCell ref="H339:I339"/>
-    <mergeCell ref="H330:I330"/>
-    <mergeCell ref="H331:I331"/>
-    <mergeCell ref="H332:I332"/>
-    <mergeCell ref="H333:I333"/>
-    <mergeCell ref="H334:I334"/>
-    <mergeCell ref="H345:I345"/>
-    <mergeCell ref="H346:I346"/>
-    <mergeCell ref="H347:I347"/>
-    <mergeCell ref="H348:I348"/>
-    <mergeCell ref="H349:I349"/>
-    <mergeCell ref="H340:I340"/>
-    <mergeCell ref="H341:I341"/>
-    <mergeCell ref="H342:I342"/>
-    <mergeCell ref="H343:I343"/>
-    <mergeCell ref="H344:I344"/>
-    <mergeCell ref="H355:I355"/>
-    <mergeCell ref="H356:I356"/>
-    <mergeCell ref="H357:I357"/>
-    <mergeCell ref="H358:I358"/>
-    <mergeCell ref="H359:I359"/>
-    <mergeCell ref="H350:I350"/>
-    <mergeCell ref="H351:I351"/>
-    <mergeCell ref="H352:I352"/>
-    <mergeCell ref="H353:I353"/>
-    <mergeCell ref="H354:I354"/>
-    <mergeCell ref="H365:I365"/>
-    <mergeCell ref="H366:I366"/>
-    <mergeCell ref="H367:I367"/>
-    <mergeCell ref="H368:I368"/>
-    <mergeCell ref="H369:I369"/>
-    <mergeCell ref="H360:I360"/>
-    <mergeCell ref="H361:I361"/>
-    <mergeCell ref="H362:I362"/>
-    <mergeCell ref="H363:I363"/>
-    <mergeCell ref="H364:I364"/>
-    <mergeCell ref="H375:I375"/>
-    <mergeCell ref="H376:I376"/>
-    <mergeCell ref="H377:I377"/>
-    <mergeCell ref="H378:I378"/>
-    <mergeCell ref="H379:I379"/>
-    <mergeCell ref="H370:I370"/>
-    <mergeCell ref="H371:I371"/>
-    <mergeCell ref="H372:I372"/>
-    <mergeCell ref="H373:I373"/>
-    <mergeCell ref="H374:I374"/>
-    <mergeCell ref="H385:I385"/>
-    <mergeCell ref="H386:I386"/>
-    <mergeCell ref="H387:I387"/>
-    <mergeCell ref="H388:I388"/>
-    <mergeCell ref="H389:I389"/>
-    <mergeCell ref="H380:I380"/>
-    <mergeCell ref="H381:I381"/>
-    <mergeCell ref="H382:I382"/>
-    <mergeCell ref="H383:I383"/>
-    <mergeCell ref="H384:I384"/>
-    <mergeCell ref="H395:I395"/>
-    <mergeCell ref="H396:I396"/>
-    <mergeCell ref="H397:I397"/>
-    <mergeCell ref="H398:I398"/>
-    <mergeCell ref="H399:I399"/>
-    <mergeCell ref="H390:I390"/>
-    <mergeCell ref="H391:I391"/>
-    <mergeCell ref="H392:I392"/>
-    <mergeCell ref="H393:I393"/>
-    <mergeCell ref="H394:I394"/>
-    <mergeCell ref="H405:I405"/>
-    <mergeCell ref="H406:I406"/>
-    <mergeCell ref="H407:I407"/>
-    <mergeCell ref="H408:I408"/>
-    <mergeCell ref="H409:I409"/>
-    <mergeCell ref="H400:I400"/>
-    <mergeCell ref="H401:I401"/>
-    <mergeCell ref="H402:I402"/>
-    <mergeCell ref="H403:I403"/>
-    <mergeCell ref="H404:I404"/>
-    <mergeCell ref="H415:I415"/>
-    <mergeCell ref="H416:I416"/>
-    <mergeCell ref="H417:I417"/>
-    <mergeCell ref="H418:I418"/>
-    <mergeCell ref="H419:I419"/>
-    <mergeCell ref="H410:I410"/>
-    <mergeCell ref="H411:I411"/>
-    <mergeCell ref="H412:I412"/>
-    <mergeCell ref="H413:I413"/>
-    <mergeCell ref="H414:I414"/>
-    <mergeCell ref="H425:I425"/>
-    <mergeCell ref="H426:I426"/>
-    <mergeCell ref="H427:I427"/>
-    <mergeCell ref="H428:I428"/>
-    <mergeCell ref="H429:I429"/>
-    <mergeCell ref="H420:I420"/>
-    <mergeCell ref="H421:I421"/>
-    <mergeCell ref="H422:I422"/>
-    <mergeCell ref="H423:I423"/>
-    <mergeCell ref="H424:I424"/>
-    <mergeCell ref="H435:I435"/>
-    <mergeCell ref="H436:I436"/>
-    <mergeCell ref="H437:I437"/>
-    <mergeCell ref="H438:I438"/>
-    <mergeCell ref="H439:I439"/>
-    <mergeCell ref="H430:I430"/>
-    <mergeCell ref="H431:I431"/>
-    <mergeCell ref="H432:I432"/>
-    <mergeCell ref="H433:I433"/>
-    <mergeCell ref="H434:I434"/>
-    <mergeCell ref="H445:I445"/>
-    <mergeCell ref="H446:I446"/>
-    <mergeCell ref="H447:I447"/>
-    <mergeCell ref="H448:I448"/>
-    <mergeCell ref="H449:I449"/>
-    <mergeCell ref="H440:I440"/>
-    <mergeCell ref="H441:I441"/>
-    <mergeCell ref="H442:I442"/>
-    <mergeCell ref="H443:I443"/>
-    <mergeCell ref="H444:I444"/>
-    <mergeCell ref="H455:I455"/>
-    <mergeCell ref="H456:I456"/>
-    <mergeCell ref="H457:I457"/>
-    <mergeCell ref="H458:I458"/>
-    <mergeCell ref="H459:I459"/>
-    <mergeCell ref="H450:I450"/>
-    <mergeCell ref="H451:I451"/>
-    <mergeCell ref="H452:I452"/>
-    <mergeCell ref="H453:I453"/>
-    <mergeCell ref="H454:I454"/>
-    <mergeCell ref="H465:I465"/>
-    <mergeCell ref="H466:I466"/>
-    <mergeCell ref="H467:I467"/>
-    <mergeCell ref="H468:I468"/>
-    <mergeCell ref="H469:I469"/>
-    <mergeCell ref="H460:I460"/>
-    <mergeCell ref="H461:I461"/>
-    <mergeCell ref="H462:I462"/>
-    <mergeCell ref="H463:I463"/>
-    <mergeCell ref="H464:I464"/>
-    <mergeCell ref="H475:I475"/>
-    <mergeCell ref="H476:I476"/>
-    <mergeCell ref="H477:I477"/>
-    <mergeCell ref="H478:I478"/>
-    <mergeCell ref="H479:I479"/>
-    <mergeCell ref="H470:I470"/>
-    <mergeCell ref="H471:I471"/>
-    <mergeCell ref="H472:I472"/>
-    <mergeCell ref="H473:I473"/>
-    <mergeCell ref="H474:I474"/>
-    <mergeCell ref="H485:I485"/>
-    <mergeCell ref="H486:I486"/>
-    <mergeCell ref="H487:I487"/>
-    <mergeCell ref="H488:I488"/>
-    <mergeCell ref="H489:I489"/>
-    <mergeCell ref="H480:I480"/>
-    <mergeCell ref="H481:I481"/>
-    <mergeCell ref="H482:I482"/>
-    <mergeCell ref="H483:I483"/>
-    <mergeCell ref="H484:I484"/>
-    <mergeCell ref="H495:I495"/>
-    <mergeCell ref="H496:I496"/>
-    <mergeCell ref="H497:I497"/>
-    <mergeCell ref="H498:I498"/>
-    <mergeCell ref="H499:I499"/>
-    <mergeCell ref="H490:I490"/>
-    <mergeCell ref="H491:I491"/>
-    <mergeCell ref="H492:I492"/>
-    <mergeCell ref="H493:I493"/>
-    <mergeCell ref="H494:I494"/>
-    <mergeCell ref="H505:I505"/>
-    <mergeCell ref="H506:I506"/>
-    <mergeCell ref="H507:I507"/>
-    <mergeCell ref="H508:I508"/>
-    <mergeCell ref="H509:I509"/>
-    <mergeCell ref="H500:I500"/>
-    <mergeCell ref="H501:I501"/>
-    <mergeCell ref="H502:I502"/>
-    <mergeCell ref="H503:I503"/>
-    <mergeCell ref="H504:I504"/>
-    <mergeCell ref="H515:I515"/>
-    <mergeCell ref="H516:I516"/>
-    <mergeCell ref="H517:I517"/>
-    <mergeCell ref="H518:I518"/>
-    <mergeCell ref="H519:I519"/>
-    <mergeCell ref="H510:I510"/>
-    <mergeCell ref="H511:I511"/>
-    <mergeCell ref="H512:I512"/>
-    <mergeCell ref="H513:I513"/>
-    <mergeCell ref="H514:I514"/>
-    <mergeCell ref="H525:I525"/>
-    <mergeCell ref="H526:I526"/>
-    <mergeCell ref="H527:I527"/>
-    <mergeCell ref="H528:I528"/>
-    <mergeCell ref="H529:I529"/>
-    <mergeCell ref="H520:I520"/>
-    <mergeCell ref="H521:I521"/>
-    <mergeCell ref="H522:I522"/>
-    <mergeCell ref="H523:I523"/>
-    <mergeCell ref="H524:I524"/>
-    <mergeCell ref="H535:I535"/>
-    <mergeCell ref="H536:I536"/>
-    <mergeCell ref="H537:I537"/>
-    <mergeCell ref="H538:I538"/>
-    <mergeCell ref="H539:I539"/>
-    <mergeCell ref="H530:I530"/>
-    <mergeCell ref="H531:I531"/>
-    <mergeCell ref="H532:I532"/>
-    <mergeCell ref="H533:I533"/>
-    <mergeCell ref="H534:I534"/>
-    <mergeCell ref="H545:I545"/>
-    <mergeCell ref="H546:I546"/>
-    <mergeCell ref="H547:I547"/>
-    <mergeCell ref="H548:I548"/>
-    <mergeCell ref="H549:I549"/>
-    <mergeCell ref="H540:I540"/>
-    <mergeCell ref="H541:I541"/>
-    <mergeCell ref="H542:I542"/>
-    <mergeCell ref="H543:I543"/>
-    <mergeCell ref="H544:I544"/>
-    <mergeCell ref="H555:I555"/>
-    <mergeCell ref="H556:I556"/>
-    <mergeCell ref="H557:I557"/>
-    <mergeCell ref="H558:I558"/>
-    <mergeCell ref="H559:I559"/>
-    <mergeCell ref="H550:I550"/>
-    <mergeCell ref="H551:I551"/>
-    <mergeCell ref="H552:I552"/>
-    <mergeCell ref="H553:I553"/>
-    <mergeCell ref="H554:I554"/>
-    <mergeCell ref="H565:I565"/>
-    <mergeCell ref="H566:I566"/>
-    <mergeCell ref="H567:I567"/>
-    <mergeCell ref="H568:I568"/>
-    <mergeCell ref="H569:I569"/>
-    <mergeCell ref="H560:I560"/>
-    <mergeCell ref="H561:I561"/>
-    <mergeCell ref="H562:I562"/>
-    <mergeCell ref="H563:I563"/>
-    <mergeCell ref="H564:I564"/>
-    <mergeCell ref="H575:I575"/>
-    <mergeCell ref="H576:I576"/>
-    <mergeCell ref="H577:I577"/>
-    <mergeCell ref="H578:I578"/>
-    <mergeCell ref="H579:I579"/>
-    <mergeCell ref="H570:I570"/>
-    <mergeCell ref="H571:I571"/>
-    <mergeCell ref="H572:I572"/>
-    <mergeCell ref="H573:I573"/>
-    <mergeCell ref="H574:I574"/>
-    <mergeCell ref="H585:I585"/>
-    <mergeCell ref="H586:I586"/>
-    <mergeCell ref="H587:I587"/>
-    <mergeCell ref="H588:I588"/>
-    <mergeCell ref="H589:I589"/>
-    <mergeCell ref="H580:I580"/>
-    <mergeCell ref="H581:I581"/>
-    <mergeCell ref="H582:I582"/>
-    <mergeCell ref="H583:I583"/>
-    <mergeCell ref="H584:I584"/>
-    <mergeCell ref="H595:I595"/>
-    <mergeCell ref="H596:I596"/>
-    <mergeCell ref="H597:I597"/>
-    <mergeCell ref="H598:I598"/>
-    <mergeCell ref="H599:I599"/>
-    <mergeCell ref="H590:I590"/>
-    <mergeCell ref="H591:I591"/>
-    <mergeCell ref="H592:I592"/>
-    <mergeCell ref="H593:I593"/>
-    <mergeCell ref="H594:I594"/>
-    <mergeCell ref="H605:I605"/>
-    <mergeCell ref="H606:I606"/>
-    <mergeCell ref="H607:I607"/>
-    <mergeCell ref="H608:I608"/>
-    <mergeCell ref="H609:I609"/>
-    <mergeCell ref="H600:I600"/>
-    <mergeCell ref="H601:I601"/>
-    <mergeCell ref="H602:I602"/>
-    <mergeCell ref="H603:I603"/>
-    <mergeCell ref="H604:I604"/>
-    <mergeCell ref="H615:I615"/>
-    <mergeCell ref="H616:I616"/>
-    <mergeCell ref="H617:I617"/>
-    <mergeCell ref="H618:I618"/>
-    <mergeCell ref="H619:I619"/>
-    <mergeCell ref="H610:I610"/>
-    <mergeCell ref="H611:I611"/>
-    <mergeCell ref="H612:I612"/>
-    <mergeCell ref="H613:I613"/>
-    <mergeCell ref="H614:I614"/>
-    <mergeCell ref="H625:I625"/>
-    <mergeCell ref="H626:I626"/>
-    <mergeCell ref="H627:I627"/>
-    <mergeCell ref="H628:I628"/>
-    <mergeCell ref="H629:I629"/>
-    <mergeCell ref="H620:I620"/>
-    <mergeCell ref="H621:I621"/>
-    <mergeCell ref="H622:I622"/>
-    <mergeCell ref="H623:I623"/>
-    <mergeCell ref="H624:I624"/>
-    <mergeCell ref="H635:I635"/>
-    <mergeCell ref="H636:I636"/>
-    <mergeCell ref="H637:I637"/>
-    <mergeCell ref="H638:I638"/>
-    <mergeCell ref="H639:I639"/>
-    <mergeCell ref="H630:I630"/>
-    <mergeCell ref="H631:I631"/>
-    <mergeCell ref="H632:I632"/>
-    <mergeCell ref="H633:I633"/>
-    <mergeCell ref="H634:I634"/>
-    <mergeCell ref="H645:I645"/>
-    <mergeCell ref="H646:I646"/>
-    <mergeCell ref="H647:I647"/>
-    <mergeCell ref="H648:I648"/>
-    <mergeCell ref="H649:I649"/>
-    <mergeCell ref="H640:I640"/>
-    <mergeCell ref="H641:I641"/>
-    <mergeCell ref="H642:I642"/>
-    <mergeCell ref="H643:I643"/>
-    <mergeCell ref="H644:I644"/>
-    <mergeCell ref="H655:I655"/>
-    <mergeCell ref="H656:I656"/>
-    <mergeCell ref="H657:I657"/>
-    <mergeCell ref="H658:I658"/>
-    <mergeCell ref="H659:I659"/>
-    <mergeCell ref="H650:I650"/>
-    <mergeCell ref="H651:I651"/>
-    <mergeCell ref="H652:I652"/>
-    <mergeCell ref="H653:I653"/>
-    <mergeCell ref="H654:I654"/>
-    <mergeCell ref="H665:I665"/>
-    <mergeCell ref="H666:I666"/>
-    <mergeCell ref="H667:I667"/>
-    <mergeCell ref="H668:I668"/>
-    <mergeCell ref="H669:I669"/>
-    <mergeCell ref="H660:I660"/>
-    <mergeCell ref="H661:I661"/>
-    <mergeCell ref="H662:I662"/>
-    <mergeCell ref="H663:I663"/>
-    <mergeCell ref="H664:I664"/>
-    <mergeCell ref="H675:I675"/>
-    <mergeCell ref="H676:I676"/>
-    <mergeCell ref="H677:I677"/>
-    <mergeCell ref="H678:I678"/>
-    <mergeCell ref="H679:I679"/>
-    <mergeCell ref="H670:I670"/>
-    <mergeCell ref="H671:I671"/>
-    <mergeCell ref="H672:I672"/>
-    <mergeCell ref="H673:I673"/>
-    <mergeCell ref="H674:I674"/>
-    <mergeCell ref="H685:I685"/>
-    <mergeCell ref="H686:I686"/>
-    <mergeCell ref="H687:I687"/>
-    <mergeCell ref="H688:I688"/>
-    <mergeCell ref="H689:I689"/>
-    <mergeCell ref="H680:I680"/>
-    <mergeCell ref="H681:I681"/>
-    <mergeCell ref="H682:I682"/>
-    <mergeCell ref="H683:I683"/>
-    <mergeCell ref="H684:I684"/>
-    <mergeCell ref="H695:I695"/>
-    <mergeCell ref="H696:I696"/>
-    <mergeCell ref="H697:I697"/>
-    <mergeCell ref="H698:I698"/>
-    <mergeCell ref="H699:I699"/>
-    <mergeCell ref="H690:I690"/>
-    <mergeCell ref="H691:I691"/>
-    <mergeCell ref="H692:I692"/>
-    <mergeCell ref="H693:I693"/>
-    <mergeCell ref="H694:I694"/>
-    <mergeCell ref="H705:I705"/>
-    <mergeCell ref="H706:I706"/>
-    <mergeCell ref="H707:I707"/>
-    <mergeCell ref="H708:I708"/>
-    <mergeCell ref="H709:I709"/>
-    <mergeCell ref="H700:I700"/>
-    <mergeCell ref="H701:I701"/>
-    <mergeCell ref="H702:I702"/>
-    <mergeCell ref="H703:I703"/>
-    <mergeCell ref="H704:I704"/>
-    <mergeCell ref="H715:I715"/>
-    <mergeCell ref="H716:I716"/>
-    <mergeCell ref="H717:I717"/>
-    <mergeCell ref="H718:I718"/>
-    <mergeCell ref="H719:I719"/>
-    <mergeCell ref="H710:I710"/>
-    <mergeCell ref="H711:I711"/>
-    <mergeCell ref="H712:I712"/>
-    <mergeCell ref="H713:I713"/>
-    <mergeCell ref="H714:I714"/>
-    <mergeCell ref="H725:I725"/>
-    <mergeCell ref="H726:I726"/>
-    <mergeCell ref="H727:I727"/>
-    <mergeCell ref="H728:I728"/>
-    <mergeCell ref="H729:I729"/>
-    <mergeCell ref="H720:I720"/>
-    <mergeCell ref="H721:I721"/>
-    <mergeCell ref="H722:I722"/>
-    <mergeCell ref="H723:I723"/>
-    <mergeCell ref="H724:I724"/>
-    <mergeCell ref="H735:I735"/>
-    <mergeCell ref="H736:I736"/>
-    <mergeCell ref="H737:I737"/>
-    <mergeCell ref="H738:I738"/>
-    <mergeCell ref="H739:I739"/>
-    <mergeCell ref="H730:I730"/>
-    <mergeCell ref="H731:I731"/>
-    <mergeCell ref="H732:I732"/>
-    <mergeCell ref="H733:I733"/>
-    <mergeCell ref="H734:I734"/>
-    <mergeCell ref="H745:I745"/>
-    <mergeCell ref="H746:I746"/>
-    <mergeCell ref="H747:I747"/>
-    <mergeCell ref="H748:I748"/>
-    <mergeCell ref="H749:I749"/>
-    <mergeCell ref="H740:I740"/>
-    <mergeCell ref="H741:I741"/>
-    <mergeCell ref="H742:I742"/>
-    <mergeCell ref="H743:I743"/>
-    <mergeCell ref="H744:I744"/>
-    <mergeCell ref="H755:I755"/>
-    <mergeCell ref="H756:I756"/>
-    <mergeCell ref="H757:I757"/>
-    <mergeCell ref="H758:I758"/>
-    <mergeCell ref="H759:I759"/>
-    <mergeCell ref="H750:I750"/>
-    <mergeCell ref="H751:I751"/>
-    <mergeCell ref="H752:I752"/>
-    <mergeCell ref="H753:I753"/>
-    <mergeCell ref="H754:I754"/>
-    <mergeCell ref="H765:I765"/>
-    <mergeCell ref="H766:I766"/>
-    <mergeCell ref="H767:I767"/>
-    <mergeCell ref="H768:I768"/>
-    <mergeCell ref="H769:I769"/>
-    <mergeCell ref="H760:I760"/>
-    <mergeCell ref="H761:I761"/>
-    <mergeCell ref="H762:I762"/>
-    <mergeCell ref="H763:I763"/>
-    <mergeCell ref="H764:I764"/>
-    <mergeCell ref="H775:I775"/>
-    <mergeCell ref="H776:I776"/>
-    <mergeCell ref="H777:I777"/>
-    <mergeCell ref="H778:I778"/>
-    <mergeCell ref="H779:I779"/>
-    <mergeCell ref="H770:I770"/>
-    <mergeCell ref="H771:I771"/>
-    <mergeCell ref="H772:I772"/>
-    <mergeCell ref="H773:I773"/>
-    <mergeCell ref="H774:I774"/>
-    <mergeCell ref="H785:I785"/>
-    <mergeCell ref="H786:I786"/>
-    <mergeCell ref="H787:I787"/>
-    <mergeCell ref="H788:I788"/>
-    <mergeCell ref="H789:I789"/>
-    <mergeCell ref="H780:I780"/>
-    <mergeCell ref="H781:I781"/>
-    <mergeCell ref="H782:I782"/>
-    <mergeCell ref="H783:I783"/>
-    <mergeCell ref="H784:I784"/>
-    <mergeCell ref="H795:I795"/>
-    <mergeCell ref="H796:I796"/>
-    <mergeCell ref="H797:I797"/>
-    <mergeCell ref="H798:I798"/>
-    <mergeCell ref="H799:I799"/>
-    <mergeCell ref="H790:I790"/>
-    <mergeCell ref="H791:I791"/>
-    <mergeCell ref="H792:I792"/>
-    <mergeCell ref="H793:I793"/>
-    <mergeCell ref="H794:I794"/>
-    <mergeCell ref="H805:I805"/>
-    <mergeCell ref="H806:I806"/>
-    <mergeCell ref="H807:I807"/>
-    <mergeCell ref="H808:I808"/>
-    <mergeCell ref="H809:I809"/>
-    <mergeCell ref="H800:I800"/>
-    <mergeCell ref="H801:I801"/>
-    <mergeCell ref="H802:I802"/>
-    <mergeCell ref="H803:I803"/>
-    <mergeCell ref="H804:I804"/>
-    <mergeCell ref="H815:I815"/>
-    <mergeCell ref="H816:I816"/>
-    <mergeCell ref="H817:I817"/>
-    <mergeCell ref="H818:I818"/>
-    <mergeCell ref="H819:I819"/>
-    <mergeCell ref="H810:I810"/>
-    <mergeCell ref="H811:I811"/>
-    <mergeCell ref="H812:I812"/>
-    <mergeCell ref="H813:I813"/>
-    <mergeCell ref="H814:I814"/>
-    <mergeCell ref="H825:I825"/>
-    <mergeCell ref="H826:I826"/>
-    <mergeCell ref="H827:I827"/>
-    <mergeCell ref="H828:I828"/>
-    <mergeCell ref="H829:I829"/>
-    <mergeCell ref="H820:I820"/>
-    <mergeCell ref="H821:I821"/>
-    <mergeCell ref="H822:I822"/>
-    <mergeCell ref="H823:I823"/>
-    <mergeCell ref="H824:I824"/>
-    <mergeCell ref="H835:I835"/>
-    <mergeCell ref="H836:I836"/>
-    <mergeCell ref="H837:I837"/>
-    <mergeCell ref="H838:I838"/>
-    <mergeCell ref="H839:I839"/>
-    <mergeCell ref="H830:I830"/>
-    <mergeCell ref="H831:I831"/>
-    <mergeCell ref="H832:I832"/>
-    <mergeCell ref="H833:I833"/>
-    <mergeCell ref="H834:I834"/>
-    <mergeCell ref="H845:I845"/>
-    <mergeCell ref="H846:I846"/>
-    <mergeCell ref="H847:I847"/>
-    <mergeCell ref="H848:I848"/>
-    <mergeCell ref="H849:I849"/>
-    <mergeCell ref="H840:I840"/>
-    <mergeCell ref="H841:I841"/>
-    <mergeCell ref="H842:I842"/>
-    <mergeCell ref="H843:I843"/>
-    <mergeCell ref="H844:I844"/>
-    <mergeCell ref="H855:I855"/>
-    <mergeCell ref="H856:I856"/>
-    <mergeCell ref="H857:I857"/>
-    <mergeCell ref="H858:I858"/>
-    <mergeCell ref="H859:I859"/>
-    <mergeCell ref="H850:I850"/>
-    <mergeCell ref="H851:I851"/>
-    <mergeCell ref="H852:I852"/>
-    <mergeCell ref="H853:I853"/>
-    <mergeCell ref="H854:I854"/>
-    <mergeCell ref="H865:I865"/>
-    <mergeCell ref="H866:I866"/>
-    <mergeCell ref="H867:I867"/>
-    <mergeCell ref="H868:I868"/>
-    <mergeCell ref="H869:I869"/>
-    <mergeCell ref="H860:I860"/>
-    <mergeCell ref="H861:I861"/>
-    <mergeCell ref="H862:I862"/>
-    <mergeCell ref="H863:I863"/>
-    <mergeCell ref="H864:I864"/>
-    <mergeCell ref="H875:I875"/>
-    <mergeCell ref="H876:I876"/>
-    <mergeCell ref="H877:I877"/>
-    <mergeCell ref="H878:I878"/>
-    <mergeCell ref="H879:I879"/>
-    <mergeCell ref="H870:I870"/>
-    <mergeCell ref="H871:I871"/>
-    <mergeCell ref="H872:I872"/>
-    <mergeCell ref="H873:I873"/>
-    <mergeCell ref="H874:I874"/>
-    <mergeCell ref="H885:I885"/>
-    <mergeCell ref="H886:I886"/>
-    <mergeCell ref="H887:I887"/>
-    <mergeCell ref="H888:I888"/>
-    <mergeCell ref="H889:I889"/>
-    <mergeCell ref="H880:I880"/>
-    <mergeCell ref="H881:I881"/>
-    <mergeCell ref="H882:I882"/>
-    <mergeCell ref="H883:I883"/>
-    <mergeCell ref="H884:I884"/>
-    <mergeCell ref="H895:I895"/>
-    <mergeCell ref="H896:I896"/>
-    <mergeCell ref="H897:I897"/>
-    <mergeCell ref="H898:I898"/>
-    <mergeCell ref="H899:I899"/>
-    <mergeCell ref="H890:I890"/>
-    <mergeCell ref="H891:I891"/>
-    <mergeCell ref="H892:I892"/>
-    <mergeCell ref="H893:I893"/>
-    <mergeCell ref="H894:I894"/>
-    <mergeCell ref="H905:I905"/>
-    <mergeCell ref="H906:I906"/>
-    <mergeCell ref="H907:I907"/>
-    <mergeCell ref="H908:I908"/>
-    <mergeCell ref="H909:I909"/>
-    <mergeCell ref="H900:I900"/>
-    <mergeCell ref="H901:I901"/>
-    <mergeCell ref="H902:I902"/>
-    <mergeCell ref="H903:I903"/>
-    <mergeCell ref="H904:I904"/>
-    <mergeCell ref="H915:I915"/>
-    <mergeCell ref="H916:I916"/>
-    <mergeCell ref="H917:I917"/>
-    <mergeCell ref="H918:I918"/>
-    <mergeCell ref="H919:I919"/>
-    <mergeCell ref="H910:I910"/>
-    <mergeCell ref="H911:I911"/>
-    <mergeCell ref="H912:I912"/>
-    <mergeCell ref="H913:I913"/>
-    <mergeCell ref="H914:I914"/>
-    <mergeCell ref="H925:I925"/>
-    <mergeCell ref="H926:I926"/>
-    <mergeCell ref="H927:I927"/>
-    <mergeCell ref="H928:I928"/>
-    <mergeCell ref="H929:I929"/>
-    <mergeCell ref="H920:I920"/>
-    <mergeCell ref="H921:I921"/>
-    <mergeCell ref="H922:I922"/>
-    <mergeCell ref="H923:I923"/>
-    <mergeCell ref="H924:I924"/>
-    <mergeCell ref="H935:I935"/>
-    <mergeCell ref="H936:I936"/>
-    <mergeCell ref="H937:I937"/>
-    <mergeCell ref="H938:I938"/>
-    <mergeCell ref="H939:I939"/>
-    <mergeCell ref="H930:I930"/>
-    <mergeCell ref="H931:I931"/>
-    <mergeCell ref="H932:I932"/>
-    <mergeCell ref="H933:I933"/>
-    <mergeCell ref="H934:I934"/>
-    <mergeCell ref="H945:I945"/>
-    <mergeCell ref="H946:I946"/>
-    <mergeCell ref="H947:I947"/>
-    <mergeCell ref="H948:I948"/>
-    <mergeCell ref="H949:I949"/>
-    <mergeCell ref="H940:I940"/>
-    <mergeCell ref="H941:I941"/>
-    <mergeCell ref="H942:I942"/>
-    <mergeCell ref="H943:I943"/>
-    <mergeCell ref="H944:I944"/>
-    <mergeCell ref="H955:I955"/>
-    <mergeCell ref="H956:I956"/>
-    <mergeCell ref="H957:I957"/>
-    <mergeCell ref="H958:I958"/>
-    <mergeCell ref="H959:I959"/>
-    <mergeCell ref="H950:I950"/>
-    <mergeCell ref="H951:I951"/>
-    <mergeCell ref="H952:I952"/>
-    <mergeCell ref="H953:I953"/>
-    <mergeCell ref="H954:I954"/>
-    <mergeCell ref="H965:I965"/>
-    <mergeCell ref="H966:I966"/>
-    <mergeCell ref="H967:I967"/>
-    <mergeCell ref="H968:I968"/>
-    <mergeCell ref="H969:I969"/>
-    <mergeCell ref="H960:I960"/>
-    <mergeCell ref="H961:I961"/>
-    <mergeCell ref="H962:I962"/>
-    <mergeCell ref="H963:I963"/>
-    <mergeCell ref="H964:I964"/>
-    <mergeCell ref="H975:I975"/>
-    <mergeCell ref="H976:I976"/>
-    <mergeCell ref="H977:I977"/>
-    <mergeCell ref="H978:I978"/>
-    <mergeCell ref="H979:I979"/>
-    <mergeCell ref="H970:I970"/>
-    <mergeCell ref="H971:I971"/>
-    <mergeCell ref="H972:I972"/>
-    <mergeCell ref="H973:I973"/>
-    <mergeCell ref="H974:I974"/>
-    <mergeCell ref="H985:I985"/>
-    <mergeCell ref="H986:I986"/>
-    <mergeCell ref="H987:I987"/>
-    <mergeCell ref="H988:I988"/>
-    <mergeCell ref="H989:I989"/>
-    <mergeCell ref="H980:I980"/>
-    <mergeCell ref="H981:I981"/>
-    <mergeCell ref="H982:I982"/>
-    <mergeCell ref="H983:I983"/>
-    <mergeCell ref="H984:I984"/>
-    <mergeCell ref="H995:I995"/>
-    <mergeCell ref="H996:I996"/>
-    <mergeCell ref="H997:I997"/>
-    <mergeCell ref="H998:I998"/>
-    <mergeCell ref="H999:I999"/>
-    <mergeCell ref="H990:I990"/>
-    <mergeCell ref="H991:I991"/>
-    <mergeCell ref="H992:I992"/>
-    <mergeCell ref="H993:I993"/>
-    <mergeCell ref="H994:I994"/>
+    <mergeCell ref="H1010:I1010"/>
+    <mergeCell ref="H1011:I1011"/>
+    <mergeCell ref="H1012:I1012"/>
+    <mergeCell ref="H1013:I1013"/>
+    <mergeCell ref="H1014:I1014"/>
+    <mergeCell ref="H1015:I1015"/>
+    <mergeCell ref="H1016:I1016"/>
+    <mergeCell ref="H1017:I1017"/>
+    <mergeCell ref="H1018:I1018"/>
+    <mergeCell ref="H1001:I1001"/>
+    <mergeCell ref="H1002:I1002"/>
+    <mergeCell ref="H1003:I1003"/>
+    <mergeCell ref="H1004:I1004"/>
+    <mergeCell ref="H1005:I1005"/>
+    <mergeCell ref="H1006:I1006"/>
+    <mergeCell ref="H1007:I1007"/>
+    <mergeCell ref="H1008:I1008"/>
+    <mergeCell ref="H1009:I1009"/>
+    <mergeCell ref="H1028:I1028"/>
+    <mergeCell ref="H1029:I1029"/>
+    <mergeCell ref="H1030:I1030"/>
+    <mergeCell ref="H1031:I1031"/>
+    <mergeCell ref="H1032:I1032"/>
+    <mergeCell ref="H1033:I1033"/>
+    <mergeCell ref="H1034:I1034"/>
+    <mergeCell ref="H1035:I1035"/>
+    <mergeCell ref="H1036:I1036"/>
+    <mergeCell ref="H1019:I1019"/>
+    <mergeCell ref="H1020:I1020"/>
+    <mergeCell ref="H1021:I1021"/>
+    <mergeCell ref="H1022:I1022"/>
+    <mergeCell ref="H1023:I1023"/>
+    <mergeCell ref="H1024:I1024"/>
+    <mergeCell ref="H1025:I1025"/>
+    <mergeCell ref="H1026:I1026"/>
+    <mergeCell ref="H1027:I1027"/>
+    <mergeCell ref="H1046:I1046"/>
+    <mergeCell ref="H1047:I1047"/>
+    <mergeCell ref="H1048:I1048"/>
+    <mergeCell ref="H1049:I1049"/>
+    <mergeCell ref="H1050:I1050"/>
+    <mergeCell ref="H1051:I1051"/>
+    <mergeCell ref="H1052:I1052"/>
+    <mergeCell ref="H1053:I1053"/>
+    <mergeCell ref="H1054:I1054"/>
+    <mergeCell ref="H1037:I1037"/>
+    <mergeCell ref="H1038:I1038"/>
+    <mergeCell ref="H1039:I1039"/>
+    <mergeCell ref="H1040:I1040"/>
+    <mergeCell ref="H1041:I1041"/>
+    <mergeCell ref="H1042:I1042"/>
+    <mergeCell ref="H1043:I1043"/>
+    <mergeCell ref="H1044:I1044"/>
+    <mergeCell ref="H1045:I1045"/>
+    <mergeCell ref="H1064:I1064"/>
+    <mergeCell ref="H1065:I1065"/>
+    <mergeCell ref="H1066:I1066"/>
+    <mergeCell ref="H1067:I1067"/>
+    <mergeCell ref="H1068:I1068"/>
+    <mergeCell ref="H1069:I1069"/>
+    <mergeCell ref="H1070:I1070"/>
+    <mergeCell ref="H1071:I1071"/>
+    <mergeCell ref="H1072:I1072"/>
+    <mergeCell ref="H1055:I1055"/>
+    <mergeCell ref="H1056:I1056"/>
+    <mergeCell ref="H1057:I1057"/>
+    <mergeCell ref="H1058:I1058"/>
+    <mergeCell ref="H1059:I1059"/>
+    <mergeCell ref="H1060:I1060"/>
+    <mergeCell ref="H1061:I1061"/>
+    <mergeCell ref="H1062:I1062"/>
+    <mergeCell ref="H1063:I1063"/>
+    <mergeCell ref="H1082:I1082"/>
+    <mergeCell ref="H1083:I1083"/>
+    <mergeCell ref="H1084:I1084"/>
+    <mergeCell ref="H1085:I1085"/>
+    <mergeCell ref="H1086:I1086"/>
+    <mergeCell ref="H1087:I1087"/>
+    <mergeCell ref="H1088:I1088"/>
+    <mergeCell ref="H1089:I1089"/>
+    <mergeCell ref="H1090:I1090"/>
+    <mergeCell ref="H1073:I1073"/>
+    <mergeCell ref="H1074:I1074"/>
+    <mergeCell ref="H1075:I1075"/>
+    <mergeCell ref="H1076:I1076"/>
+    <mergeCell ref="H1077:I1077"/>
+    <mergeCell ref="H1078:I1078"/>
+    <mergeCell ref="H1079:I1079"/>
+    <mergeCell ref="H1080:I1080"/>
+    <mergeCell ref="H1081:I1081"/>
+    <mergeCell ref="H1100:I1100"/>
+    <mergeCell ref="H1101:I1101"/>
+    <mergeCell ref="H1102:I1102"/>
+    <mergeCell ref="H1103:I1103"/>
+    <mergeCell ref="H1104:I1104"/>
+    <mergeCell ref="H1105:I1105"/>
+    <mergeCell ref="H1106:I1106"/>
+    <mergeCell ref="H1107:I1107"/>
+    <mergeCell ref="H1108:I1108"/>
+    <mergeCell ref="H1091:I1091"/>
+    <mergeCell ref="H1092:I1092"/>
+    <mergeCell ref="H1093:I1093"/>
+    <mergeCell ref="H1094:I1094"/>
+    <mergeCell ref="H1095:I1095"/>
+    <mergeCell ref="H1096:I1096"/>
+    <mergeCell ref="H1097:I1097"/>
+    <mergeCell ref="H1098:I1098"/>
+    <mergeCell ref="H1099:I1099"/>
+    <mergeCell ref="H1118:I1118"/>
+    <mergeCell ref="H1119:I1119"/>
+    <mergeCell ref="H1120:I1120"/>
+    <mergeCell ref="H1121:I1121"/>
+    <mergeCell ref="H1122:I1122"/>
+    <mergeCell ref="H1123:I1123"/>
+    <mergeCell ref="H1124:I1124"/>
+    <mergeCell ref="H1125:I1125"/>
+    <mergeCell ref="H1126:I1126"/>
+    <mergeCell ref="H1109:I1109"/>
+    <mergeCell ref="H1110:I1110"/>
+    <mergeCell ref="H1111:I1111"/>
+    <mergeCell ref="H1112:I1112"/>
+    <mergeCell ref="H1113:I1113"/>
+    <mergeCell ref="H1114:I1114"/>
+    <mergeCell ref="H1115:I1115"/>
+    <mergeCell ref="H1116:I1116"/>
+    <mergeCell ref="H1117:I1117"/>
+    <mergeCell ref="H1136:I1136"/>
+    <mergeCell ref="H1137:I1137"/>
+    <mergeCell ref="H1138:I1138"/>
+    <mergeCell ref="H1139:I1139"/>
+    <mergeCell ref="H1140:I1140"/>
+    <mergeCell ref="H1141:I1141"/>
+    <mergeCell ref="H1142:I1142"/>
+    <mergeCell ref="H1143:I1143"/>
+    <mergeCell ref="H1144:I1144"/>
+    <mergeCell ref="H1127:I1127"/>
+    <mergeCell ref="H1128:I1128"/>
+    <mergeCell ref="H1129:I1129"/>
+    <mergeCell ref="H1130:I1130"/>
+    <mergeCell ref="H1131:I1131"/>
+    <mergeCell ref="H1132:I1132"/>
+    <mergeCell ref="H1133:I1133"/>
+    <mergeCell ref="H1134:I1134"/>
+    <mergeCell ref="H1135:I1135"/>
+    <mergeCell ref="H1154:I1154"/>
+    <mergeCell ref="H1155:I1155"/>
+    <mergeCell ref="H1156:I1156"/>
+    <mergeCell ref="H1157:I1157"/>
+    <mergeCell ref="H1158:I1158"/>
+    <mergeCell ref="H1159:I1159"/>
+    <mergeCell ref="H1160:I1160"/>
+    <mergeCell ref="H1161:I1161"/>
+    <mergeCell ref="H1162:I1162"/>
+    <mergeCell ref="H1145:I1145"/>
+    <mergeCell ref="H1146:I1146"/>
+    <mergeCell ref="H1147:I1147"/>
+    <mergeCell ref="H1148:I1148"/>
+    <mergeCell ref="H1149:I1149"/>
+    <mergeCell ref="H1150:I1150"/>
+    <mergeCell ref="H1151:I1151"/>
+    <mergeCell ref="H1152:I1152"/>
+    <mergeCell ref="H1153:I1153"/>
+    <mergeCell ref="H1172:I1172"/>
+    <mergeCell ref="H1173:I1173"/>
+    <mergeCell ref="H1174:I1174"/>
+    <mergeCell ref="H1175:I1175"/>
+    <mergeCell ref="H1176:I1176"/>
+    <mergeCell ref="H1177:I1177"/>
+    <mergeCell ref="H1178:I1178"/>
+    <mergeCell ref="H1179:I1179"/>
+    <mergeCell ref="H1180:I1180"/>
+    <mergeCell ref="H1163:I1163"/>
+    <mergeCell ref="H1164:I1164"/>
+    <mergeCell ref="H1165:I1165"/>
+    <mergeCell ref="H1166:I1166"/>
+    <mergeCell ref="H1167:I1167"/>
+    <mergeCell ref="H1168:I1168"/>
+    <mergeCell ref="H1169:I1169"/>
+    <mergeCell ref="H1170:I1170"/>
+    <mergeCell ref="H1171:I1171"/>
+    <mergeCell ref="H1190:I1190"/>
+    <mergeCell ref="H1191:I1191"/>
+    <mergeCell ref="H1192:I1192"/>
+    <mergeCell ref="H1193:I1193"/>
+    <mergeCell ref="H1194:I1194"/>
+    <mergeCell ref="H1195:I1195"/>
+    <mergeCell ref="H1196:I1196"/>
+    <mergeCell ref="H1197:I1197"/>
+    <mergeCell ref="H1198:I1198"/>
+    <mergeCell ref="H1181:I1181"/>
+    <mergeCell ref="H1182:I1182"/>
+    <mergeCell ref="H1183:I1183"/>
+    <mergeCell ref="H1184:I1184"/>
+    <mergeCell ref="H1185:I1185"/>
+    <mergeCell ref="H1186:I1186"/>
+    <mergeCell ref="H1187:I1187"/>
+    <mergeCell ref="H1188:I1188"/>
+    <mergeCell ref="H1189:I1189"/>
+    <mergeCell ref="H1208:I1208"/>
+    <mergeCell ref="H1209:I1209"/>
+    <mergeCell ref="H1210:I1210"/>
+    <mergeCell ref="H1211:I1211"/>
+    <mergeCell ref="H1212:I1212"/>
+    <mergeCell ref="H1213:I1213"/>
+    <mergeCell ref="H1214:I1214"/>
+    <mergeCell ref="H1215:I1215"/>
+    <mergeCell ref="H1216:I1216"/>
+    <mergeCell ref="H1199:I1199"/>
+    <mergeCell ref="H1200:I1200"/>
+    <mergeCell ref="H1201:I1201"/>
+    <mergeCell ref="H1202:I1202"/>
+    <mergeCell ref="H1203:I1203"/>
+    <mergeCell ref="H1204:I1204"/>
+    <mergeCell ref="H1205:I1205"/>
+    <mergeCell ref="H1206:I1206"/>
+    <mergeCell ref="H1207:I1207"/>
+    <mergeCell ref="H1226:I1226"/>
+    <mergeCell ref="H1227:I1227"/>
+    <mergeCell ref="H1228:I1228"/>
+    <mergeCell ref="H1229:I1229"/>
+    <mergeCell ref="H1230:I1230"/>
+    <mergeCell ref="H1231:I1231"/>
+    <mergeCell ref="H1232:I1232"/>
+    <mergeCell ref="H1233:I1233"/>
+    <mergeCell ref="H1234:I1234"/>
+    <mergeCell ref="H1217:I1217"/>
+    <mergeCell ref="H1218:I1218"/>
+    <mergeCell ref="H1219:I1219"/>
+    <mergeCell ref="H1220:I1220"/>
+    <mergeCell ref="H1221:I1221"/>
+    <mergeCell ref="H1222:I1222"/>
+    <mergeCell ref="H1223:I1223"/>
+    <mergeCell ref="H1224:I1224"/>
+    <mergeCell ref="H1225:I1225"/>
+    <mergeCell ref="H1244:I1244"/>
+    <mergeCell ref="H1245:I1245"/>
+    <mergeCell ref="H1246:I1246"/>
+    <mergeCell ref="H1247:I1247"/>
+    <mergeCell ref="H1248:I1248"/>
+    <mergeCell ref="H1249:I1249"/>
+    <mergeCell ref="H1250:I1250"/>
+    <mergeCell ref="H1251:I1251"/>
+    <mergeCell ref="H1252:I1252"/>
+    <mergeCell ref="H1235:I1235"/>
+    <mergeCell ref="H1236:I1236"/>
+    <mergeCell ref="H1237:I1237"/>
+    <mergeCell ref="H1238:I1238"/>
+    <mergeCell ref="H1239:I1239"/>
+    <mergeCell ref="H1240:I1240"/>
+    <mergeCell ref="H1241:I1241"/>
+    <mergeCell ref="H1242:I1242"/>
+    <mergeCell ref="H1243:I1243"/>
+    <mergeCell ref="H1262:I1262"/>
+    <mergeCell ref="H1263:I1263"/>
+    <mergeCell ref="H1264:I1264"/>
+    <mergeCell ref="H1265:I1265"/>
+    <mergeCell ref="H1266:I1266"/>
+    <mergeCell ref="H1267:I1267"/>
+    <mergeCell ref="H1268:I1268"/>
+    <mergeCell ref="H1269:I1269"/>
+    <mergeCell ref="H1270:I1270"/>
+    <mergeCell ref="H1253:I1253"/>
+    <mergeCell ref="H1254:I1254"/>
+    <mergeCell ref="H1255:I1255"/>
+    <mergeCell ref="H1256:I1256"/>
+    <mergeCell ref="H1257:I1257"/>
+    <mergeCell ref="H1258:I1258"/>
+    <mergeCell ref="H1259:I1259"/>
+    <mergeCell ref="H1260:I1260"/>
+    <mergeCell ref="H1261:I1261"/>
+    <mergeCell ref="H1280:I1280"/>
+    <mergeCell ref="H1281:I1281"/>
+    <mergeCell ref="H1282:I1282"/>
+    <mergeCell ref="H1283:I1283"/>
+    <mergeCell ref="H1284:I1284"/>
+    <mergeCell ref="H1285:I1285"/>
+    <mergeCell ref="H1286:I1286"/>
+    <mergeCell ref="H1287:I1287"/>
+    <mergeCell ref="H1288:I1288"/>
+    <mergeCell ref="H1271:I1271"/>
+    <mergeCell ref="H1272:I1272"/>
+    <mergeCell ref="H1273:I1273"/>
+    <mergeCell ref="H1274:I1274"/>
+    <mergeCell ref="H1275:I1275"/>
+    <mergeCell ref="H1276:I1276"/>
+    <mergeCell ref="H1277:I1277"/>
+    <mergeCell ref="H1278:I1278"/>
+    <mergeCell ref="H1279:I1279"/>
+    <mergeCell ref="H1298:I1298"/>
+    <mergeCell ref="H1299:I1299"/>
+    <mergeCell ref="H1300:I1300"/>
+    <mergeCell ref="H1301:I1301"/>
+    <mergeCell ref="H1302:I1302"/>
+    <mergeCell ref="H1303:I1303"/>
+    <mergeCell ref="H1304:I1304"/>
+    <mergeCell ref="H1305:I1305"/>
+    <mergeCell ref="H1306:I1306"/>
+    <mergeCell ref="H1289:I1289"/>
+    <mergeCell ref="H1290:I1290"/>
+    <mergeCell ref="H1291:I1291"/>
+    <mergeCell ref="H1292:I1292"/>
+    <mergeCell ref="H1293:I1293"/>
+    <mergeCell ref="H1294:I1294"/>
+    <mergeCell ref="H1295:I1295"/>
+    <mergeCell ref="H1296:I1296"/>
+    <mergeCell ref="H1297:I1297"/>
+    <mergeCell ref="H1316:I1316"/>
+    <mergeCell ref="H1317:I1317"/>
+    <mergeCell ref="H1318:I1318"/>
+    <mergeCell ref="H1319:I1319"/>
+    <mergeCell ref="H1320:I1320"/>
+    <mergeCell ref="H1321:I1321"/>
+    <mergeCell ref="H1322:I1322"/>
+    <mergeCell ref="H1323:I1323"/>
+    <mergeCell ref="H1324:I1324"/>
+    <mergeCell ref="H1307:I1307"/>
+    <mergeCell ref="H1308:I1308"/>
+    <mergeCell ref="H1309:I1309"/>
+    <mergeCell ref="H1310:I1310"/>
+    <mergeCell ref="H1311:I1311"/>
+    <mergeCell ref="H1312:I1312"/>
+    <mergeCell ref="H1313:I1313"/>
+    <mergeCell ref="H1314:I1314"/>
+    <mergeCell ref="H1315:I1315"/>
+    <mergeCell ref="H1334:I1334"/>
+    <mergeCell ref="H1335:I1335"/>
+    <mergeCell ref="H1336:I1336"/>
+    <mergeCell ref="H1337:I1337"/>
+    <mergeCell ref="H1338:I1338"/>
+    <mergeCell ref="H1339:I1339"/>
+    <mergeCell ref="H1340:I1340"/>
+    <mergeCell ref="H1341:I1341"/>
+    <mergeCell ref="H1342:I1342"/>
+    <mergeCell ref="H1325:I1325"/>
+    <mergeCell ref="H1326:I1326"/>
+    <mergeCell ref="H1327:I1327"/>
+    <mergeCell ref="H1328:I1328"/>
+    <mergeCell ref="H1329:I1329"/>
+    <mergeCell ref="H1330:I1330"/>
+    <mergeCell ref="H1331:I1331"/>
+    <mergeCell ref="H1332:I1332"/>
+    <mergeCell ref="H1333:I1333"/>
+    <mergeCell ref="H1352:I1352"/>
+    <mergeCell ref="H1353:I1353"/>
+    <mergeCell ref="H1354:I1354"/>
+    <mergeCell ref="H1355:I1355"/>
+    <mergeCell ref="H1356:I1356"/>
+    <mergeCell ref="H1357:I1357"/>
+    <mergeCell ref="H1358:I1358"/>
+    <mergeCell ref="H1359:I1359"/>
+    <mergeCell ref="H1360:I1360"/>
+    <mergeCell ref="H1343:I1343"/>
+    <mergeCell ref="H1344:I1344"/>
+    <mergeCell ref="H1345:I1345"/>
+    <mergeCell ref="H1346:I1346"/>
+    <mergeCell ref="H1347:I1347"/>
+    <mergeCell ref="H1348:I1348"/>
+    <mergeCell ref="H1349:I1349"/>
+    <mergeCell ref="H1350:I1350"/>
+    <mergeCell ref="H1351:I1351"/>
+    <mergeCell ref="H1370:I1370"/>
+    <mergeCell ref="H1371:I1371"/>
+    <mergeCell ref="H1372:I1372"/>
+    <mergeCell ref="H1373:I1373"/>
+    <mergeCell ref="H1374:I1374"/>
+    <mergeCell ref="H1375:I1375"/>
+    <mergeCell ref="H1376:I1376"/>
+    <mergeCell ref="H1377:I1377"/>
+    <mergeCell ref="H1378:I1378"/>
+    <mergeCell ref="H1361:I1361"/>
+    <mergeCell ref="H1362:I1362"/>
+    <mergeCell ref="H1363:I1363"/>
+    <mergeCell ref="H1364:I1364"/>
+    <mergeCell ref="H1365:I1365"/>
+    <mergeCell ref="H1366:I1366"/>
+    <mergeCell ref="H1367:I1367"/>
+    <mergeCell ref="H1368:I1368"/>
+    <mergeCell ref="H1369:I1369"/>
+    <mergeCell ref="H1388:I1388"/>
+    <mergeCell ref="H1389:I1389"/>
+    <mergeCell ref="H1390:I1390"/>
+    <mergeCell ref="H1391:I1391"/>
+    <mergeCell ref="H1392:I1392"/>
+    <mergeCell ref="H1393:I1393"/>
+    <mergeCell ref="H1394:I1394"/>
+    <mergeCell ref="H1395:I1395"/>
+    <mergeCell ref="H1396:I1396"/>
+    <mergeCell ref="H1379:I1379"/>
+    <mergeCell ref="H1380:I1380"/>
+    <mergeCell ref="H1381:I1381"/>
+    <mergeCell ref="H1382:I1382"/>
+    <mergeCell ref="H1383:I1383"/>
+    <mergeCell ref="H1384:I1384"/>
+    <mergeCell ref="H1385:I1385"/>
+    <mergeCell ref="H1386:I1386"/>
+    <mergeCell ref="H1387:I1387"/>
+    <mergeCell ref="H1406:I1406"/>
+    <mergeCell ref="H1407:I1407"/>
+    <mergeCell ref="H1408:I1408"/>
+    <mergeCell ref="H1409:I1409"/>
+    <mergeCell ref="H1410:I1410"/>
+    <mergeCell ref="H1411:I1411"/>
+    <mergeCell ref="H1412:I1412"/>
+    <mergeCell ref="H1413:I1413"/>
+    <mergeCell ref="H1414:I1414"/>
+    <mergeCell ref="H1397:I1397"/>
+    <mergeCell ref="H1398:I1398"/>
+    <mergeCell ref="H1399:I1399"/>
+    <mergeCell ref="H1400:I1400"/>
+    <mergeCell ref="H1401:I1401"/>
+    <mergeCell ref="H1402:I1402"/>
+    <mergeCell ref="H1403:I1403"/>
+    <mergeCell ref="H1404:I1404"/>
+    <mergeCell ref="H1405:I1405"/>
+    <mergeCell ref="H1424:I1424"/>
+    <mergeCell ref="H1425:I1425"/>
+    <mergeCell ref="H1426:I1426"/>
+    <mergeCell ref="H1427:I1427"/>
+    <mergeCell ref="H1428:I1428"/>
+    <mergeCell ref="H1429:I1429"/>
+    <mergeCell ref="H1430:I1430"/>
+    <mergeCell ref="H1431:I1431"/>
+    <mergeCell ref="H1432:I1432"/>
+    <mergeCell ref="H1415:I1415"/>
+    <mergeCell ref="H1416:I1416"/>
+    <mergeCell ref="H1417:I1417"/>
+    <mergeCell ref="H1418:I1418"/>
+    <mergeCell ref="H1419:I1419"/>
+    <mergeCell ref="H1420:I1420"/>
+    <mergeCell ref="H1421:I1421"/>
+    <mergeCell ref="H1422:I1422"/>
+    <mergeCell ref="H1423:I1423"/>
+    <mergeCell ref="H1442:I1442"/>
+    <mergeCell ref="H1443:I1443"/>
+    <mergeCell ref="H1444:I1444"/>
+    <mergeCell ref="H1445:I1445"/>
+    <mergeCell ref="H1446:I1446"/>
+    <mergeCell ref="H1447:I1447"/>
+    <mergeCell ref="H1448:I1448"/>
+    <mergeCell ref="H1449:I1449"/>
+    <mergeCell ref="H1450:I1450"/>
+    <mergeCell ref="H1433:I1433"/>
+    <mergeCell ref="H1434:I1434"/>
+    <mergeCell ref="H1435:I1435"/>
+    <mergeCell ref="H1436:I1436"/>
+    <mergeCell ref="H1437:I1437"/>
+    <mergeCell ref="H1438:I1438"/>
+    <mergeCell ref="H1439:I1439"/>
+    <mergeCell ref="H1440:I1440"/>
+    <mergeCell ref="H1441:I1441"/>
+    <mergeCell ref="H1460:I1460"/>
+    <mergeCell ref="H1461:I1461"/>
+    <mergeCell ref="H1462:I1462"/>
+    <mergeCell ref="H1463:I1463"/>
+    <mergeCell ref="H1464:I1464"/>
+    <mergeCell ref="H1465:I1465"/>
+    <mergeCell ref="H1466:I1466"/>
+    <mergeCell ref="H1467:I1467"/>
+    <mergeCell ref="H1468:I1468"/>
+    <mergeCell ref="H1451:I1451"/>
+    <mergeCell ref="H1452:I1452"/>
+    <mergeCell ref="H1453:I1453"/>
+    <mergeCell ref="H1454:I1454"/>
+    <mergeCell ref="H1455:I1455"/>
+    <mergeCell ref="H1456:I1456"/>
+    <mergeCell ref="H1457:I1457"/>
+    <mergeCell ref="H1458:I1458"/>
+    <mergeCell ref="H1459:I1459"/>
+    <mergeCell ref="H1478:I1478"/>
+    <mergeCell ref="H1479:I1479"/>
+    <mergeCell ref="H1480:I1480"/>
+    <mergeCell ref="H1481:I1481"/>
+    <mergeCell ref="H1482:I1482"/>
+    <mergeCell ref="H1483:I1483"/>
+    <mergeCell ref="H1484:I1484"/>
+    <mergeCell ref="H1485:I1485"/>
+    <mergeCell ref="H1486:I1486"/>
+    <mergeCell ref="H1469:I1469"/>
+    <mergeCell ref="H1470:I1470"/>
+    <mergeCell ref="H1471:I1471"/>
+    <mergeCell ref="H1472:I1472"/>
+    <mergeCell ref="H1473:I1473"/>
+    <mergeCell ref="H1474:I1474"/>
+    <mergeCell ref="H1475:I1475"/>
+    <mergeCell ref="H1476:I1476"/>
+    <mergeCell ref="H1477:I1477"/>
+    <mergeCell ref="H1496:I1496"/>
+    <mergeCell ref="H1497:I1497"/>
+    <mergeCell ref="H1498:I1498"/>
+    <mergeCell ref="H1499:I1499"/>
+    <mergeCell ref="H1500:I1500"/>
+    <mergeCell ref="H1501:I1501"/>
+    <mergeCell ref="H1502:I1502"/>
+    <mergeCell ref="H1503:I1503"/>
+    <mergeCell ref="H1504:I1504"/>
+    <mergeCell ref="H1487:I1487"/>
+    <mergeCell ref="H1488:I1488"/>
+    <mergeCell ref="H1489:I1489"/>
+    <mergeCell ref="H1490:I1490"/>
+    <mergeCell ref="H1491:I1491"/>
+    <mergeCell ref="H1492:I1492"/>
+    <mergeCell ref="H1493:I1493"/>
+    <mergeCell ref="H1494:I1494"/>
+    <mergeCell ref="H1495:I1495"/>
+    <mergeCell ref="H1514:I1514"/>
+    <mergeCell ref="H1515:I1515"/>
+    <mergeCell ref="H1516:I1516"/>
+    <mergeCell ref="H1517:I1517"/>
+    <mergeCell ref="H1518:I1518"/>
+    <mergeCell ref="H1519:I1519"/>
+    <mergeCell ref="H1520:I1520"/>
+    <mergeCell ref="H1521:I1521"/>
+    <mergeCell ref="H1522:I1522"/>
+    <mergeCell ref="H1505:I1505"/>
+    <mergeCell ref="H1506:I1506"/>
+    <mergeCell ref="H1507:I1507"/>
+    <mergeCell ref="H1508:I1508"/>
+    <mergeCell ref="H1509:I1509"/>
+    <mergeCell ref="H1510:I1510"/>
+    <mergeCell ref="H1511:I1511"/>
+    <mergeCell ref="H1512:I1512"/>
+    <mergeCell ref="H1513:I1513"/>
+    <mergeCell ref="H1532:I1532"/>
+    <mergeCell ref="H1533:I1533"/>
+    <mergeCell ref="H1534:I1534"/>
+    <mergeCell ref="H1535:I1535"/>
+    <mergeCell ref="H1536:I1536"/>
+    <mergeCell ref="H1537:I1537"/>
+    <mergeCell ref="H1538:I1538"/>
+    <mergeCell ref="H1539:I1539"/>
+    <mergeCell ref="H1540:I1540"/>
+    <mergeCell ref="H1523:I1523"/>
+    <mergeCell ref="H1524:I1524"/>
+    <mergeCell ref="H1525:I1525"/>
+    <mergeCell ref="H1526:I1526"/>
+    <mergeCell ref="H1527:I1527"/>
+    <mergeCell ref="H1528:I1528"/>
+    <mergeCell ref="H1529:I1529"/>
+    <mergeCell ref="H1530:I1530"/>
+    <mergeCell ref="H1531:I1531"/>
+    <mergeCell ref="H1550:I1550"/>
+    <mergeCell ref="H1551:I1551"/>
+    <mergeCell ref="H1552:I1552"/>
+    <mergeCell ref="H1553:I1553"/>
+    <mergeCell ref="H1554:I1554"/>
+    <mergeCell ref="H1555:I1555"/>
+    <mergeCell ref="H1556:I1556"/>
+    <mergeCell ref="H1557:I1557"/>
+    <mergeCell ref="H1558:I1558"/>
+    <mergeCell ref="H1541:I1541"/>
+    <mergeCell ref="H1542:I1542"/>
+    <mergeCell ref="H1543:I1543"/>
+    <mergeCell ref="H1544:I1544"/>
+    <mergeCell ref="H1545:I1545"/>
+    <mergeCell ref="H1546:I1546"/>
+    <mergeCell ref="H1547:I1547"/>
+    <mergeCell ref="H1548:I1548"/>
+    <mergeCell ref="H1549:I1549"/>
+    <mergeCell ref="H1568:I1568"/>
+    <mergeCell ref="H1569:I1569"/>
+    <mergeCell ref="H1570:I1570"/>
+    <mergeCell ref="H1571:I1571"/>
+    <mergeCell ref="H1572:I1572"/>
+    <mergeCell ref="H1573:I1573"/>
+    <mergeCell ref="H1574:I1574"/>
+    <mergeCell ref="H1575:I1575"/>
+    <mergeCell ref="H1576:I1576"/>
+    <mergeCell ref="H1559:I1559"/>
+    <mergeCell ref="H1560:I1560"/>
+    <mergeCell ref="H1561:I1561"/>
+    <mergeCell ref="H1562:I1562"/>
+    <mergeCell ref="H1563:I1563"/>
+    <mergeCell ref="H1564:I1564"/>
+    <mergeCell ref="H1565:I1565"/>
+    <mergeCell ref="H1566:I1566"/>
+    <mergeCell ref="H1567:I1567"/>
+    <mergeCell ref="H1586:I1586"/>
+    <mergeCell ref="H1587:I1587"/>
+    <mergeCell ref="H1588:I1588"/>
+    <mergeCell ref="H1589:I1589"/>
+    <mergeCell ref="H1590:I1590"/>
+    <mergeCell ref="H1591:I1591"/>
+    <mergeCell ref="H1592:I1592"/>
+    <mergeCell ref="H1593:I1593"/>
+    <mergeCell ref="H1594:I1594"/>
+    <mergeCell ref="H1577:I1577"/>
+    <mergeCell ref="H1578:I1578"/>
+    <mergeCell ref="H1579:I1579"/>
+    <mergeCell ref="H1580:I1580"/>
+    <mergeCell ref="H1581:I1581"/>
+    <mergeCell ref="H1582:I1582"/>
+    <mergeCell ref="H1583:I1583"/>
+    <mergeCell ref="H1584:I1584"/>
+    <mergeCell ref="H1585:I1585"/>
+    <mergeCell ref="H1604:I1604"/>
+    <mergeCell ref="H1605:I1605"/>
+    <mergeCell ref="H1606:I1606"/>
+    <mergeCell ref="H1607:I1607"/>
+    <mergeCell ref="H1608:I1608"/>
+    <mergeCell ref="H1609:I1609"/>
+    <mergeCell ref="H1610:I1610"/>
+    <mergeCell ref="H1611:I1611"/>
+    <mergeCell ref="H1612:I1612"/>
+    <mergeCell ref="H1595:I1595"/>
+    <mergeCell ref="H1596:I1596"/>
+    <mergeCell ref="H1597:I1597"/>
+    <mergeCell ref="H1598:I1598"/>
+    <mergeCell ref="H1599:I1599"/>
+    <mergeCell ref="H1600:I1600"/>
+    <mergeCell ref="H1601:I1601"/>
+    <mergeCell ref="H1602:I1602"/>
+    <mergeCell ref="H1603:I1603"/>
+    <mergeCell ref="H1622:I1622"/>
+    <mergeCell ref="H1623:I1623"/>
+    <mergeCell ref="H1624:I1624"/>
+    <mergeCell ref="H1625:I1625"/>
+    <mergeCell ref="H1626:I1626"/>
+    <mergeCell ref="H1627:I1627"/>
+    <mergeCell ref="H1628:I1628"/>
+    <mergeCell ref="H1629:I1629"/>
+    <mergeCell ref="H1630:I1630"/>
+    <mergeCell ref="H1613:I1613"/>
+    <mergeCell ref="H1614:I1614"/>
+    <mergeCell ref="H1615:I1615"/>
+    <mergeCell ref="H1616:I1616"/>
+    <mergeCell ref="H1617:I1617"/>
+    <mergeCell ref="H1618:I1618"/>
+    <mergeCell ref="H1619:I1619"/>
+    <mergeCell ref="H1620:I1620"/>
+    <mergeCell ref="H1621:I1621"/>
+    <mergeCell ref="H1640:I1640"/>
+    <mergeCell ref="H1641:I1641"/>
+    <mergeCell ref="H1642:I1642"/>
+    <mergeCell ref="H1643:I1643"/>
+    <mergeCell ref="H1644:I1644"/>
+    <mergeCell ref="H1645:I1645"/>
+    <mergeCell ref="H1646:I1646"/>
+    <mergeCell ref="H1647:I1647"/>
+    <mergeCell ref="H1648:I1648"/>
+    <mergeCell ref="H1631:I1631"/>
+    <mergeCell ref="H1632:I1632"/>
+    <mergeCell ref="H1633:I1633"/>
+    <mergeCell ref="H1634:I1634"/>
+    <mergeCell ref="H1635:I1635"/>
+    <mergeCell ref="H1636:I1636"/>
+    <mergeCell ref="H1637:I1637"/>
+    <mergeCell ref="H1638:I1638"/>
+    <mergeCell ref="H1639:I1639"/>
+    <mergeCell ref="H1658:I1658"/>
+    <mergeCell ref="H1659:I1659"/>
+    <mergeCell ref="H1660:I1660"/>
+    <mergeCell ref="H1661:I1661"/>
+    <mergeCell ref="H1662:I1662"/>
+    <mergeCell ref="H1663:I1663"/>
+    <mergeCell ref="H1664:I1664"/>
+    <mergeCell ref="H1665:I1665"/>
+    <mergeCell ref="H1666:I1666"/>
+    <mergeCell ref="H1649:I1649"/>
+    <mergeCell ref="H1650:I1650"/>
+    <mergeCell ref="H1651:I1651"/>
+    <mergeCell ref="H1652:I1652"/>
+    <mergeCell ref="H1653:I1653"/>
+    <mergeCell ref="H1654:I1654"/>
+    <mergeCell ref="H1655:I1655"/>
+    <mergeCell ref="H1656:I1656"/>
+    <mergeCell ref="H1657:I1657"/>
+    <mergeCell ref="H1676:I1676"/>
+    <mergeCell ref="H1677:I1677"/>
+    <mergeCell ref="H1678:I1678"/>
+    <mergeCell ref="H1679:I1679"/>
+    <mergeCell ref="H1680:I1680"/>
+    <mergeCell ref="H1681:I1681"/>
+    <mergeCell ref="H1682:I1682"/>
+    <mergeCell ref="H1683:I1683"/>
+    <mergeCell ref="H1684:I1684"/>
+    <mergeCell ref="H1667:I1667"/>
+    <mergeCell ref="H1668:I1668"/>
+    <mergeCell ref="H1669:I1669"/>
+    <mergeCell ref="H1670:I1670"/>
+    <mergeCell ref="H1671:I1671"/>
+    <mergeCell ref="H1672:I1672"/>
+    <mergeCell ref="H1673:I1673"/>
+    <mergeCell ref="H1674:I1674"/>
+    <mergeCell ref="H1675:I1675"/>
+    <mergeCell ref="H1694:I1694"/>
+    <mergeCell ref="H1695:I1695"/>
+    <mergeCell ref="H1696:I1696"/>
+    <mergeCell ref="H1697:I1697"/>
+    <mergeCell ref="H1698:I1698"/>
+    <mergeCell ref="H1699:I1699"/>
+    <mergeCell ref="H1700:I1700"/>
+    <mergeCell ref="H1701:I1701"/>
+    <mergeCell ref="H1702:I1702"/>
+    <mergeCell ref="H1685:I1685"/>
+    <mergeCell ref="H1686:I1686"/>
+    <mergeCell ref="H1687:I1687"/>
+    <mergeCell ref="H1688:I1688"/>
+    <mergeCell ref="H1689:I1689"/>
+    <mergeCell ref="H1690:I1690"/>
+    <mergeCell ref="H1691:I1691"/>
+    <mergeCell ref="H1692:I1692"/>
+    <mergeCell ref="H1693:I1693"/>
+    <mergeCell ref="H1712:I1712"/>
+    <mergeCell ref="H1713:I1713"/>
+    <mergeCell ref="H1714:I1714"/>
+    <mergeCell ref="H1715:I1715"/>
+    <mergeCell ref="H1716:I1716"/>
+    <mergeCell ref="H1717:I1717"/>
+    <mergeCell ref="H1718:I1718"/>
+    <mergeCell ref="H1719:I1719"/>
+    <mergeCell ref="H1720:I1720"/>
+    <mergeCell ref="H1703:I1703"/>
+    <mergeCell ref="H1704:I1704"/>
+    <mergeCell ref="H1705:I1705"/>
+    <mergeCell ref="H1706:I1706"/>
+    <mergeCell ref="H1707:I1707"/>
+    <mergeCell ref="H1708:I1708"/>
+    <mergeCell ref="H1709:I1709"/>
+    <mergeCell ref="H1710:I1710"/>
+    <mergeCell ref="H1711:I1711"/>
+    <mergeCell ref="H1730:I1730"/>
+    <mergeCell ref="H1731:I1731"/>
+    <mergeCell ref="H1732:I1732"/>
+    <mergeCell ref="H1733:I1733"/>
+    <mergeCell ref="H1734:I1734"/>
+    <mergeCell ref="H1735:I1735"/>
+    <mergeCell ref="H1736:I1736"/>
+    <mergeCell ref="H1737:I1737"/>
+    <mergeCell ref="H1738:I1738"/>
+    <mergeCell ref="H1721:I1721"/>
+    <mergeCell ref="H1722:I1722"/>
+    <mergeCell ref="H1723:I1723"/>
+    <mergeCell ref="H1724:I1724"/>
+    <mergeCell ref="H1725:I1725"/>
+    <mergeCell ref="H1726:I1726"/>
+    <mergeCell ref="H1727:I1727"/>
+    <mergeCell ref="H1728:I1728"/>
+    <mergeCell ref="H1729:I1729"/>
+    <mergeCell ref="H1748:I1748"/>
+    <mergeCell ref="H1749:I1749"/>
+    <mergeCell ref="H1750:I1750"/>
+    <mergeCell ref="H1751:I1751"/>
+    <mergeCell ref="H1752:I1752"/>
+    <mergeCell ref="H1753:I1753"/>
+    <mergeCell ref="H1754:I1754"/>
+    <mergeCell ref="H1755:I1755"/>
+    <mergeCell ref="H1756:I1756"/>
+    <mergeCell ref="H1739:I1739"/>
+    <mergeCell ref="H1740:I1740"/>
+    <mergeCell ref="H1741:I1741"/>
+    <mergeCell ref="H1742:I1742"/>
+    <mergeCell ref="H1743:I1743"/>
+    <mergeCell ref="H1744:I1744"/>
+    <mergeCell ref="H1745:I1745"/>
+    <mergeCell ref="H1746:I1746"/>
+    <mergeCell ref="H1747:I1747"/>
+    <mergeCell ref="H1766:I1766"/>
+    <mergeCell ref="H1767:I1767"/>
+    <mergeCell ref="H1768:I1768"/>
+    <mergeCell ref="H1769:I1769"/>
+    <mergeCell ref="H1770:I1770"/>
+    <mergeCell ref="H1771:I1771"/>
+    <mergeCell ref="H1772:I1772"/>
+    <mergeCell ref="H1773:I1773"/>
+    <mergeCell ref="H1774:I1774"/>
+    <mergeCell ref="H1757:I1757"/>
+    <mergeCell ref="H1758:I1758"/>
+    <mergeCell ref="H1759:I1759"/>
+    <mergeCell ref="H1760:I1760"/>
+    <mergeCell ref="H1761:I1761"/>
+    <mergeCell ref="H1762:I1762"/>
+    <mergeCell ref="H1763:I1763"/>
+    <mergeCell ref="H1764:I1764"/>
+    <mergeCell ref="H1765:I1765"/>
+    <mergeCell ref="H1784:I1784"/>
+    <mergeCell ref="H1785:I1785"/>
+    <mergeCell ref="H1786:I1786"/>
+    <mergeCell ref="H1787:I1787"/>
+    <mergeCell ref="H1788:I1788"/>
+    <mergeCell ref="H1789:I1789"/>
+    <mergeCell ref="H1790:I1790"/>
+    <mergeCell ref="H1791:I1791"/>
+    <mergeCell ref="H1792:I1792"/>
+    <mergeCell ref="H1775:I1775"/>
+    <mergeCell ref="H1776:I1776"/>
+    <mergeCell ref="H1777:I1777"/>
+    <mergeCell ref="H1778:I1778"/>
+    <mergeCell ref="H1779:I1779"/>
+    <mergeCell ref="H1780:I1780"/>
+    <mergeCell ref="H1781:I1781"/>
+    <mergeCell ref="H1782:I1782"/>
+    <mergeCell ref="H1783:I1783"/>
+    <mergeCell ref="H1802:I1802"/>
+    <mergeCell ref="H1803:I1803"/>
+    <mergeCell ref="H1804:I1804"/>
+    <mergeCell ref="H1805:I1805"/>
+    <mergeCell ref="H1806:I1806"/>
+    <mergeCell ref="H1807:I1807"/>
+    <mergeCell ref="H1808:I1808"/>
+    <mergeCell ref="H1809:I1809"/>
+    <mergeCell ref="H1810:I1810"/>
+    <mergeCell ref="H1793:I1793"/>
+    <mergeCell ref="H1794:I1794"/>
+    <mergeCell ref="H1795:I1795"/>
+    <mergeCell ref="H1796:I1796"/>
+    <mergeCell ref="H1797:I1797"/>
+    <mergeCell ref="H1798:I1798"/>
+    <mergeCell ref="H1799:I1799"/>
+    <mergeCell ref="H1800:I1800"/>
+    <mergeCell ref="H1801:I1801"/>
+    <mergeCell ref="H1820:I1820"/>
+    <mergeCell ref="H1821:I1821"/>
+    <mergeCell ref="H1822:I1822"/>
+    <mergeCell ref="H1823:I1823"/>
+    <mergeCell ref="H1824:I1824"/>
+    <mergeCell ref="H1825:I1825"/>
+    <mergeCell ref="H1826:I1826"/>
+    <mergeCell ref="H1827:I1827"/>
+    <mergeCell ref="H1828:I1828"/>
+    <mergeCell ref="H1811:I1811"/>
+    <mergeCell ref="H1812:I1812"/>
+    <mergeCell ref="H1813:I1813"/>
+    <mergeCell ref="H1814:I1814"/>
+    <mergeCell ref="H1815:I1815"/>
+    <mergeCell ref="H1816:I1816"/>
+    <mergeCell ref="H1817:I1817"/>
+    <mergeCell ref="H1818:I1818"/>
+    <mergeCell ref="H1819:I1819"/>
+    <mergeCell ref="H1838:I1838"/>
+    <mergeCell ref="H1839:I1839"/>
+    <mergeCell ref="H1840:I1840"/>
+    <mergeCell ref="H1841:I1841"/>
+    <mergeCell ref="H1842:I1842"/>
+    <mergeCell ref="H1843:I1843"/>
+    <mergeCell ref="H1844:I1844"/>
+    <mergeCell ref="H1845:I1845"/>
+    <mergeCell ref="H1846:I1846"/>
+    <mergeCell ref="H1829:I1829"/>
+    <mergeCell ref="H1830:I1830"/>
+    <mergeCell ref="H1831:I1831"/>
+    <mergeCell ref="H1832:I1832"/>
+    <mergeCell ref="H1833:I1833"/>
+    <mergeCell ref="H1834:I1834"/>
+    <mergeCell ref="H1835:I1835"/>
+    <mergeCell ref="H1836:I1836"/>
+    <mergeCell ref="H1837:I1837"/>
+    <mergeCell ref="H1856:I1856"/>
+    <mergeCell ref="H1857:I1857"/>
+    <mergeCell ref="H1858:I1858"/>
+    <mergeCell ref="H1859:I1859"/>
+    <mergeCell ref="H1860:I1860"/>
+    <mergeCell ref="H1861:I1861"/>
+    <mergeCell ref="H1862:I1862"/>
+    <mergeCell ref="H1863:I1863"/>
+    <mergeCell ref="H1864:I1864"/>
+    <mergeCell ref="H1847:I1847"/>
+    <mergeCell ref="H1848:I1848"/>
+    <mergeCell ref="H1849:I1849"/>
+    <mergeCell ref="H1850:I1850"/>
+    <mergeCell ref="H1851:I1851"/>
+    <mergeCell ref="H1852:I1852"/>
+    <mergeCell ref="H1853:I1853"/>
+    <mergeCell ref="H1854:I1854"/>
+    <mergeCell ref="H1855:I1855"/>
+    <mergeCell ref="H1874:I1874"/>
+    <mergeCell ref="H1875:I1875"/>
+    <mergeCell ref="H1876:I1876"/>
+    <mergeCell ref="H1877:I1877"/>
+    <mergeCell ref="H1878:I1878"/>
+    <mergeCell ref="H1879:I1879"/>
+    <mergeCell ref="H1880:I1880"/>
+    <mergeCell ref="H1881:I1881"/>
+    <mergeCell ref="H1882:I1882"/>
+    <mergeCell ref="H1865:I1865"/>
+    <mergeCell ref="H1866:I1866"/>
+    <mergeCell ref="H1867:I1867"/>
+    <mergeCell ref="H1868:I1868"/>
+    <mergeCell ref="H1869:I1869"/>
+    <mergeCell ref="H1870:I1870"/>
+    <mergeCell ref="H1871:I1871"/>
+    <mergeCell ref="H1872:I1872"/>
+    <mergeCell ref="H1873:I1873"/>
+    <mergeCell ref="H1892:I1892"/>
+    <mergeCell ref="H1893:I1893"/>
+    <mergeCell ref="H1894:I1894"/>
+    <mergeCell ref="H1895:I1895"/>
+    <mergeCell ref="H1896:I1896"/>
+    <mergeCell ref="H1897:I1897"/>
+    <mergeCell ref="H1898:I1898"/>
+    <mergeCell ref="H1899:I1899"/>
+    <mergeCell ref="H1900:I1900"/>
+    <mergeCell ref="H1883:I1883"/>
+    <mergeCell ref="H1884:I1884"/>
+    <mergeCell ref="H1885:I1885"/>
+    <mergeCell ref="H1886:I1886"/>
+    <mergeCell ref="H1887:I1887"/>
+    <mergeCell ref="H1888:I1888"/>
+    <mergeCell ref="H1889:I1889"/>
+    <mergeCell ref="H1890:I1890"/>
+    <mergeCell ref="H1891:I1891"/>
+    <mergeCell ref="H1910:I1910"/>
+    <mergeCell ref="H1911:I1911"/>
+    <mergeCell ref="H1912:I1912"/>
+    <mergeCell ref="H1913:I1913"/>
+    <mergeCell ref="H1914:I1914"/>
+    <mergeCell ref="H1915:I1915"/>
+    <mergeCell ref="H1916:I1916"/>
+    <mergeCell ref="H1917:I1917"/>
+    <mergeCell ref="H1918:I1918"/>
+    <mergeCell ref="H1901:I1901"/>
+    <mergeCell ref="H1902:I1902"/>
+    <mergeCell ref="H1903:I1903"/>
+    <mergeCell ref="H1904:I1904"/>
+    <mergeCell ref="H1905:I1905"/>
+    <mergeCell ref="H1906:I1906"/>
+    <mergeCell ref="H1907:I1907"/>
+    <mergeCell ref="H1908:I1908"/>
+    <mergeCell ref="H1909:I1909"/>
+    <mergeCell ref="H1928:I1928"/>
+    <mergeCell ref="H1929:I1929"/>
+    <mergeCell ref="H1930:I1930"/>
+    <mergeCell ref="H1931:I1931"/>
+    <mergeCell ref="H1932:I1932"/>
+    <mergeCell ref="H1933:I1933"/>
+    <mergeCell ref="H1934:I1934"/>
+    <mergeCell ref="H1935:I1935"/>
+    <mergeCell ref="H1936:I1936"/>
+    <mergeCell ref="H1919:I1919"/>
+    <mergeCell ref="H1920:I1920"/>
+    <mergeCell ref="H1921:I1921"/>
+    <mergeCell ref="H1922:I1922"/>
+    <mergeCell ref="H1923:I1923"/>
+    <mergeCell ref="H1924:I1924"/>
+    <mergeCell ref="H1925:I1925"/>
+    <mergeCell ref="H1926:I1926"/>
+    <mergeCell ref="H1927:I1927"/>
+    <mergeCell ref="H1946:I1946"/>
+    <mergeCell ref="H1947:I1947"/>
+    <mergeCell ref="H1948:I1948"/>
+    <mergeCell ref="H1949:I1949"/>
+    <mergeCell ref="H1950:I1950"/>
+    <mergeCell ref="H1951:I1951"/>
+    <mergeCell ref="H1952:I1952"/>
+    <mergeCell ref="H1953:I1953"/>
+    <mergeCell ref="H1954:I1954"/>
+    <mergeCell ref="H1937:I1937"/>
+    <mergeCell ref="H1938:I1938"/>
+    <mergeCell ref="H1939:I1939"/>
+    <mergeCell ref="H1940:I1940"/>
+    <mergeCell ref="H1941:I1941"/>
+    <mergeCell ref="H1942:I1942"/>
+    <mergeCell ref="H1943:I1943"/>
+    <mergeCell ref="H1944:I1944"/>
+    <mergeCell ref="H1945:I1945"/>
+    <mergeCell ref="H1964:I1964"/>
+    <mergeCell ref="H1965:I1965"/>
+    <mergeCell ref="H1966:I1966"/>
+    <mergeCell ref="H1967:I1967"/>
+    <mergeCell ref="H1968:I1968"/>
+    <mergeCell ref="H1969:I1969"/>
+    <mergeCell ref="H1970:I1970"/>
+    <mergeCell ref="H1971:I1971"/>
+    <mergeCell ref="H1972:I1972"/>
+    <mergeCell ref="H1955:I1955"/>
+    <mergeCell ref="H1956:I1956"/>
+    <mergeCell ref="H1957:I1957"/>
+    <mergeCell ref="H1958:I1958"/>
+    <mergeCell ref="H1959:I1959"/>
+    <mergeCell ref="H1960:I1960"/>
+    <mergeCell ref="H1961:I1961"/>
+    <mergeCell ref="H1962:I1962"/>
+    <mergeCell ref="H1963:I1963"/>
+    <mergeCell ref="H1982:I1982"/>
+    <mergeCell ref="H1983:I1983"/>
+    <mergeCell ref="H1984:I1984"/>
+    <mergeCell ref="H1985:I1985"/>
+    <mergeCell ref="H1986:I1986"/>
+    <mergeCell ref="H1987:I1987"/>
+    <mergeCell ref="H1988:I1988"/>
+    <mergeCell ref="H1989:I1989"/>
+    <mergeCell ref="H1990:I1990"/>
+    <mergeCell ref="H1973:I1973"/>
+    <mergeCell ref="H1974:I1974"/>
+    <mergeCell ref="H1975:I1975"/>
+    <mergeCell ref="H1976:I1976"/>
+    <mergeCell ref="H1977:I1977"/>
+    <mergeCell ref="H1978:I1978"/>
+    <mergeCell ref="H1979:I1979"/>
+    <mergeCell ref="H1980:I1980"/>
+    <mergeCell ref="H1981:I1981"/>
+    <mergeCell ref="H2000:I2000"/>
+    <mergeCell ref="H2001:I2001"/>
+    <mergeCell ref="H2002:I2002"/>
+    <mergeCell ref="H2003:I2003"/>
+    <mergeCell ref="H2004:I2004"/>
+    <mergeCell ref="H2005:I2005"/>
+    <mergeCell ref="H2006:I2006"/>
+    <mergeCell ref="H2007:I2007"/>
+    <mergeCell ref="H2008:I2008"/>
+    <mergeCell ref="H1991:I1991"/>
+    <mergeCell ref="H1992:I1992"/>
+    <mergeCell ref="H1993:I1993"/>
+    <mergeCell ref="H1994:I1994"/>
+    <mergeCell ref="H1995:I1995"/>
+    <mergeCell ref="H1996:I1996"/>
+    <mergeCell ref="H1997:I1997"/>
+    <mergeCell ref="H1998:I1998"/>
+    <mergeCell ref="H1999:I1999"/>
+    <mergeCell ref="H2018:I2018"/>
+    <mergeCell ref="H2019:I2019"/>
+    <mergeCell ref="H2020:I2020"/>
+    <mergeCell ref="H2021:I2021"/>
+    <mergeCell ref="H2022:I2022"/>
+    <mergeCell ref="H2023:I2023"/>
+    <mergeCell ref="H2024:I2024"/>
+    <mergeCell ref="H2025:I2025"/>
+    <mergeCell ref="H2026:I2026"/>
+    <mergeCell ref="H2009:I2009"/>
+    <mergeCell ref="H2010:I2010"/>
+    <mergeCell ref="H2011:I2011"/>
+    <mergeCell ref="H2012:I2012"/>
+    <mergeCell ref="H2013:I2013"/>
+    <mergeCell ref="H2014:I2014"/>
+    <mergeCell ref="H2015:I2015"/>
+    <mergeCell ref="H2016:I2016"/>
+    <mergeCell ref="H2017:I2017"/>
+    <mergeCell ref="H2036:I2036"/>
+    <mergeCell ref="H2037:I2037"/>
+    <mergeCell ref="H2038:I2038"/>
+    <mergeCell ref="H2039:I2039"/>
+    <mergeCell ref="H2040:I2040"/>
+    <mergeCell ref="H2041:I2041"/>
+    <mergeCell ref="H2042:I2042"/>
+    <mergeCell ref="H2043:I2043"/>
+    <mergeCell ref="H2044:I2044"/>
+    <mergeCell ref="H2027:I2027"/>
+    <mergeCell ref="H2028:I2028"/>
+    <mergeCell ref="H2029:I2029"/>
+    <mergeCell ref="H2030:I2030"/>
+    <mergeCell ref="H2031:I2031"/>
+    <mergeCell ref="H2032:I2032"/>
+    <mergeCell ref="H2033:I2033"/>
+    <mergeCell ref="H2034:I2034"/>
+    <mergeCell ref="H2035:I2035"/>
+    <mergeCell ref="H2054:I2054"/>
+    <mergeCell ref="H2055:I2055"/>
+    <mergeCell ref="H2056:I2056"/>
+    <mergeCell ref="H2057:I2057"/>
+    <mergeCell ref="H2058:I2058"/>
+    <mergeCell ref="H2059:I2059"/>
+    <mergeCell ref="H2060:I2060"/>
+    <mergeCell ref="H2061:I2061"/>
+    <mergeCell ref="H2062:I2062"/>
+    <mergeCell ref="H2045:I2045"/>
+    <mergeCell ref="H2046:I2046"/>
+    <mergeCell ref="H2047:I2047"/>
+    <mergeCell ref="H2048:I2048"/>
+    <mergeCell ref="H2049:I2049"/>
+    <mergeCell ref="H2050:I2050"/>
+    <mergeCell ref="H2051:I2051"/>
+    <mergeCell ref="H2052:I2052"/>
+    <mergeCell ref="H2053:I2053"/>
+    <mergeCell ref="H2072:I2072"/>
+    <mergeCell ref="H2073:I2073"/>
+    <mergeCell ref="H2074:I2074"/>
+    <mergeCell ref="H2075:I2075"/>
+    <mergeCell ref="H2076:I2076"/>
+    <mergeCell ref="H2077:I2077"/>
+    <mergeCell ref="H2078:I2078"/>
+    <mergeCell ref="H2079:I2079"/>
+    <mergeCell ref="H2080:I2080"/>
+    <mergeCell ref="H2063:I2063"/>
+    <mergeCell ref="H2064:I2064"/>
+    <mergeCell ref="H2065:I2065"/>
+    <mergeCell ref="H2066:I2066"/>
+    <mergeCell ref="H2067:I2067"/>
+    <mergeCell ref="H2068:I2068"/>
+    <mergeCell ref="H2069:I2069"/>
+    <mergeCell ref="H2070:I2070"/>
+    <mergeCell ref="H2071:I2071"/>
+    <mergeCell ref="H2090:I2090"/>
+    <mergeCell ref="H2091:I2091"/>
+    <mergeCell ref="H2092:I2092"/>
+    <mergeCell ref="H2093:I2093"/>
+    <mergeCell ref="H2094:I2094"/>
+    <mergeCell ref="H2095:I2095"/>
+    <mergeCell ref="H2096:I2096"/>
+    <mergeCell ref="H2097:I2097"/>
+    <mergeCell ref="H2098:I2098"/>
+    <mergeCell ref="H2081:I2081"/>
+    <mergeCell ref="H2082:I2082"/>
+    <mergeCell ref="H2083:I2083"/>
+    <mergeCell ref="H2084:I2084"/>
+    <mergeCell ref="H2085:I2085"/>
+    <mergeCell ref="H2086:I2086"/>
+    <mergeCell ref="H2087:I2087"/>
+    <mergeCell ref="H2088:I2088"/>
+    <mergeCell ref="H2089:I2089"/>
+    <mergeCell ref="H2108:I2108"/>
+    <mergeCell ref="H2109:I2109"/>
+    <mergeCell ref="H2110:I2110"/>
+    <mergeCell ref="H2111:I2111"/>
+    <mergeCell ref="H2112:I2112"/>
+    <mergeCell ref="H2113:I2113"/>
+    <mergeCell ref="H2114:I2114"/>
+    <mergeCell ref="H2115:I2115"/>
+    <mergeCell ref="H2116:I2116"/>
+    <mergeCell ref="H2099:I2099"/>
+    <mergeCell ref="H2100:I2100"/>
+    <mergeCell ref="H2101:I2101"/>
+    <mergeCell ref="H2102:I2102"/>
+    <mergeCell ref="H2103:I2103"/>
+    <mergeCell ref="H2104:I2104"/>
+    <mergeCell ref="H2105:I2105"/>
+    <mergeCell ref="H2106:I2106"/>
+    <mergeCell ref="H2107:I2107"/>
+    <mergeCell ref="H2126:I2126"/>
+    <mergeCell ref="H2127:I2127"/>
+    <mergeCell ref="H2128:I2128"/>
+    <mergeCell ref="H2129:I2129"/>
+    <mergeCell ref="H2130:I2130"/>
+    <mergeCell ref="H2131:I2131"/>
+    <mergeCell ref="H2132:I2132"/>
+    <mergeCell ref="H2133:I2133"/>
+    <mergeCell ref="H2134:I2134"/>
+    <mergeCell ref="H2117:I2117"/>
+    <mergeCell ref="H2118:I2118"/>
+    <mergeCell ref="H2119:I2119"/>
+    <mergeCell ref="H2120:I2120"/>
+    <mergeCell ref="H2121:I2121"/>
+    <mergeCell ref="H2122:I2122"/>
+    <mergeCell ref="H2123:I2123"/>
+    <mergeCell ref="H2124:I2124"/>
+    <mergeCell ref="H2125:I2125"/>
+    <mergeCell ref="H2144:I2144"/>
+    <mergeCell ref="H2145:I2145"/>
+    <mergeCell ref="H2146:I2146"/>
+    <mergeCell ref="H2147:I2147"/>
+    <mergeCell ref="H2148:I2148"/>
+    <mergeCell ref="H2149:I2149"/>
+    <mergeCell ref="H2150:I2150"/>
+    <mergeCell ref="H2151:I2151"/>
+    <mergeCell ref="H2152:I2152"/>
+    <mergeCell ref="H2135:I2135"/>
+    <mergeCell ref="H2136:I2136"/>
+    <mergeCell ref="H2137:I2137"/>
+    <mergeCell ref="H2138:I2138"/>
+    <mergeCell ref="H2139:I2139"/>
+    <mergeCell ref="H2140:I2140"/>
+    <mergeCell ref="H2141:I2141"/>
+    <mergeCell ref="H2142:I2142"/>
+    <mergeCell ref="H2143:I2143"/>
+    <mergeCell ref="H2162:I2162"/>
+    <mergeCell ref="H2163:I2163"/>
+    <mergeCell ref="H2164:I2164"/>
+    <mergeCell ref="H2165:I2165"/>
+    <mergeCell ref="H2166:I2166"/>
+    <mergeCell ref="H2167:I2167"/>
+    <mergeCell ref="H2168:I2168"/>
+    <mergeCell ref="H2169:I2169"/>
+    <mergeCell ref="H2170:I2170"/>
+    <mergeCell ref="H2153:I2153"/>
+    <mergeCell ref="H2154:I2154"/>
+    <mergeCell ref="H2155:I2155"/>
+    <mergeCell ref="H2156:I2156"/>
+    <mergeCell ref="H2157:I2157"/>
+    <mergeCell ref="H2158:I2158"/>
+    <mergeCell ref="H2159:I2159"/>
+    <mergeCell ref="H2160:I2160"/>
+    <mergeCell ref="H2161:I2161"/>
+    <mergeCell ref="H2180:I2180"/>
+    <mergeCell ref="H2181:I2181"/>
+    <mergeCell ref="H2182:I2182"/>
+    <mergeCell ref="H2183:I2183"/>
+    <mergeCell ref="H2184:I2184"/>
+    <mergeCell ref="H2185:I2185"/>
+    <mergeCell ref="H2186:I2186"/>
+    <mergeCell ref="H2187:I2187"/>
+    <mergeCell ref="H2188:I2188"/>
+    <mergeCell ref="H2171:I2171"/>
+    <mergeCell ref="H2172:I2172"/>
+    <mergeCell ref="H2173:I2173"/>
+    <mergeCell ref="H2174:I2174"/>
+    <mergeCell ref="H2175:I2175"/>
+    <mergeCell ref="H2176:I2176"/>
+    <mergeCell ref="H2177:I2177"/>
+    <mergeCell ref="H2178:I2178"/>
+    <mergeCell ref="H2179:I2179"/>
+    <mergeCell ref="H2198:I2198"/>
+    <mergeCell ref="H2199:I2199"/>
+    <mergeCell ref="H2200:I2200"/>
+    <mergeCell ref="H2201:I2201"/>
+    <mergeCell ref="H2202:I2202"/>
+    <mergeCell ref="H2203:I2203"/>
+    <mergeCell ref="H2204:I2204"/>
+    <mergeCell ref="H2205:I2205"/>
+    <mergeCell ref="H2206:I2206"/>
+    <mergeCell ref="H2189:I2189"/>
+    <mergeCell ref="H2190:I2190"/>
+    <mergeCell ref="H2191:I2191"/>
+    <mergeCell ref="H2192:I2192"/>
+    <mergeCell ref="H2193:I2193"/>
+    <mergeCell ref="H2194:I2194"/>
+    <mergeCell ref="H2195:I2195"/>
+    <mergeCell ref="H2196:I2196"/>
+    <mergeCell ref="H2197:I2197"/>
+    <mergeCell ref="H2216:I2216"/>
+    <mergeCell ref="H2217:I2217"/>
+    <mergeCell ref="H2218:I2218"/>
+    <mergeCell ref="H2219:I2219"/>
+    <mergeCell ref="H2220:I2220"/>
+    <mergeCell ref="H2221:I2221"/>
+    <mergeCell ref="H2222:I2222"/>
+    <mergeCell ref="H2223:I2223"/>
+    <mergeCell ref="H2224:I2224"/>
+    <mergeCell ref="H2207:I2207"/>
+    <mergeCell ref="H2208:I2208"/>
+    <mergeCell ref="H2209:I2209"/>
+    <mergeCell ref="H2210:I2210"/>
+    <mergeCell ref="H2211:I2211"/>
+    <mergeCell ref="H2212:I2212"/>
+    <mergeCell ref="H2213:I2213"/>
+    <mergeCell ref="H2214:I2214"/>
+    <mergeCell ref="H2215:I2215"/>
+    <mergeCell ref="H2234:I2234"/>
+    <mergeCell ref="H2235:I2235"/>
+    <mergeCell ref="H2236:I2236"/>
+    <mergeCell ref="H2237:I2237"/>
+    <mergeCell ref="H2238:I2238"/>
+    <mergeCell ref="H2239:I2239"/>
+    <mergeCell ref="H2240:I2240"/>
+    <mergeCell ref="H2241:I2241"/>
+    <mergeCell ref="H2242:I2242"/>
+    <mergeCell ref="H2225:I2225"/>
+    <mergeCell ref="H2226:I2226"/>
+    <mergeCell ref="H2227:I2227"/>
+    <mergeCell ref="H2228:I2228"/>
+    <mergeCell ref="H2229:I2229"/>
+    <mergeCell ref="H2230:I2230"/>
+    <mergeCell ref="H2231:I2231"/>
+    <mergeCell ref="H2232:I2232"/>
+    <mergeCell ref="H2233:I2233"/>
+    <mergeCell ref="H2252:I2252"/>
+    <mergeCell ref="H2253:I2253"/>
+    <mergeCell ref="H2254:I2254"/>
+    <mergeCell ref="H2255:I2255"/>
+    <mergeCell ref="H2256:I2256"/>
+    <mergeCell ref="H2257:I2257"/>
+    <mergeCell ref="H2258:I2258"/>
+    <mergeCell ref="H2259:I2259"/>
+    <mergeCell ref="H2260:I2260"/>
+    <mergeCell ref="H2243:I2243"/>
+    <mergeCell ref="H2244:I2244"/>
+    <mergeCell ref="H2245:I2245"/>
+    <mergeCell ref="H2246:I2246"/>
+    <mergeCell ref="H2247:I2247"/>
+    <mergeCell ref="H2248:I2248"/>
+    <mergeCell ref="H2249:I2249"/>
+    <mergeCell ref="H2250:I2250"/>
+    <mergeCell ref="H2251:I2251"/>
+    <mergeCell ref="H2270:I2270"/>
+    <mergeCell ref="H2271:I2271"/>
+    <mergeCell ref="H2272:I2272"/>
+    <mergeCell ref="H2273:I2273"/>
+    <mergeCell ref="H2274:I2274"/>
+    <mergeCell ref="H2275:I2275"/>
+    <mergeCell ref="H2276:I2276"/>
+    <mergeCell ref="H2277:I2277"/>
+    <mergeCell ref="H2278:I2278"/>
+    <mergeCell ref="H2261:I2261"/>
+    <mergeCell ref="H2262:I2262"/>
+    <mergeCell ref="H2263:I2263"/>
+    <mergeCell ref="H2264:I2264"/>
+    <mergeCell ref="H2265:I2265"/>
+    <mergeCell ref="H2266:I2266"/>
+    <mergeCell ref="H2267:I2267"/>
+    <mergeCell ref="H2268:I2268"/>
+    <mergeCell ref="H2269:I2269"/>
+    <mergeCell ref="H2288:I2288"/>
+    <mergeCell ref="H2289:I2289"/>
+    <mergeCell ref="H2290:I2290"/>
+    <mergeCell ref="H2291:I2291"/>
+    <mergeCell ref="H2292:I2292"/>
+    <mergeCell ref="H2293:I2293"/>
+    <mergeCell ref="H2294:I2294"/>
+    <mergeCell ref="H2295:I2295"/>
+    <mergeCell ref="H2296:I2296"/>
+    <mergeCell ref="H2279:I2279"/>
+    <mergeCell ref="H2280:I2280"/>
+    <mergeCell ref="H2281:I2281"/>
+    <mergeCell ref="H2282:I2282"/>
+    <mergeCell ref="H2283:I2283"/>
+    <mergeCell ref="H2284:I2284"/>
+    <mergeCell ref="H2285:I2285"/>
+    <mergeCell ref="H2286:I2286"/>
+    <mergeCell ref="H2287:I2287"/>
+    <mergeCell ref="H2306:I2306"/>
+    <mergeCell ref="H2307:I2307"/>
+    <mergeCell ref="H2308:I2308"/>
+    <mergeCell ref="H2309:I2309"/>
+    <mergeCell ref="H2310:I2310"/>
+    <mergeCell ref="H2311:I2311"/>
+    <mergeCell ref="H2312:I2312"/>
+    <mergeCell ref="H2313:I2313"/>
+    <mergeCell ref="H2314:I2314"/>
+    <mergeCell ref="H2297:I2297"/>
+    <mergeCell ref="H2298:I2298"/>
+    <mergeCell ref="H2299:I2299"/>
+    <mergeCell ref="H2300:I2300"/>
+    <mergeCell ref="H2301:I2301"/>
+    <mergeCell ref="H2302:I2302"/>
+    <mergeCell ref="H2303:I2303"/>
+    <mergeCell ref="H2304:I2304"/>
+    <mergeCell ref="H2305:I2305"/>
+    <mergeCell ref="H2324:I2324"/>
+    <mergeCell ref="H2325:I2325"/>
+    <mergeCell ref="H2326:I2326"/>
+    <mergeCell ref="H2327:I2327"/>
+    <mergeCell ref="H2328:I2328"/>
+    <mergeCell ref="H2329:I2329"/>
+    <mergeCell ref="H2330:I2330"/>
+    <mergeCell ref="H2331:I2331"/>
+    <mergeCell ref="H2332:I2332"/>
+    <mergeCell ref="H2315:I2315"/>
+    <mergeCell ref="H2316:I2316"/>
+    <mergeCell ref="H2317:I2317"/>
+    <mergeCell ref="H2318:I2318"/>
+    <mergeCell ref="H2319:I2319"/>
+    <mergeCell ref="H2320:I2320"/>
+    <mergeCell ref="H2321:I2321"/>
+    <mergeCell ref="H2322:I2322"/>
+    <mergeCell ref="H2323:I2323"/>
+    <mergeCell ref="H2342:I2342"/>
+    <mergeCell ref="H2343:I2343"/>
+    <mergeCell ref="H2344:I2344"/>
+    <mergeCell ref="H2345:I2345"/>
+    <mergeCell ref="H2346:I2346"/>
+    <mergeCell ref="H2347:I2347"/>
+    <mergeCell ref="H2348:I2348"/>
+    <mergeCell ref="H2349:I2349"/>
+    <mergeCell ref="H2350:I2350"/>
+    <mergeCell ref="H2333:I2333"/>
+    <mergeCell ref="H2334:I2334"/>
+    <mergeCell ref="H2335:I2335"/>
+    <mergeCell ref="H2336:I2336"/>
+    <mergeCell ref="H2337:I2337"/>
+    <mergeCell ref="H2338:I2338"/>
+    <mergeCell ref="H2339:I2339"/>
+    <mergeCell ref="H2340:I2340"/>
+    <mergeCell ref="H2341:I2341"/>
+    <mergeCell ref="H2360:I2360"/>
+    <mergeCell ref="H2361:I2361"/>
+    <mergeCell ref="H2362:I2362"/>
+    <mergeCell ref="H2363:I2363"/>
+    <mergeCell ref="H2364:I2364"/>
+    <mergeCell ref="H2365:I2365"/>
+    <mergeCell ref="H2366:I2366"/>
+    <mergeCell ref="H2367:I2367"/>
+    <mergeCell ref="H2368:I2368"/>
+    <mergeCell ref="H2351:I2351"/>
+    <mergeCell ref="H2352:I2352"/>
+    <mergeCell ref="H2353:I2353"/>
+    <mergeCell ref="H2354:I2354"/>
+    <mergeCell ref="H2355:I2355"/>
+    <mergeCell ref="H2356:I2356"/>
+    <mergeCell ref="H2357:I2357"/>
+    <mergeCell ref="H2358:I2358"/>
+    <mergeCell ref="H2359:I2359"/>
+    <mergeCell ref="H2378:I2378"/>
+    <mergeCell ref="H2379:I2379"/>
+    <mergeCell ref="H2380:I2380"/>
+    <mergeCell ref="H2381:I2381"/>
+    <mergeCell ref="H2382:I2382"/>
+    <mergeCell ref="H2383:I2383"/>
+    <mergeCell ref="H2384:I2384"/>
+    <mergeCell ref="H2385:I2385"/>
+    <mergeCell ref="H2386:I2386"/>
+    <mergeCell ref="H2369:I2369"/>
+    <mergeCell ref="H2370:I2370"/>
+    <mergeCell ref="H2371:I2371"/>
+    <mergeCell ref="H2372:I2372"/>
+    <mergeCell ref="H2373:I2373"/>
+    <mergeCell ref="H2374:I2374"/>
+    <mergeCell ref="H2375:I2375"/>
+    <mergeCell ref="H2376:I2376"/>
+    <mergeCell ref="H2377:I2377"/>
+    <mergeCell ref="H2396:I2396"/>
+    <mergeCell ref="H2397:I2397"/>
+    <mergeCell ref="H2398:I2398"/>
+    <mergeCell ref="H2399:I2399"/>
+    <mergeCell ref="H2400:I2400"/>
+    <mergeCell ref="H2401:I2401"/>
+    <mergeCell ref="H2402:I2402"/>
+    <mergeCell ref="H2403:I2403"/>
+    <mergeCell ref="H2404:I2404"/>
+    <mergeCell ref="H2387:I2387"/>
+    <mergeCell ref="H2388:I2388"/>
+    <mergeCell ref="H2389:I2389"/>
+    <mergeCell ref="H2390:I2390"/>
+    <mergeCell ref="H2391:I2391"/>
+    <mergeCell ref="H2392:I2392"/>
+    <mergeCell ref="H2393:I2393"/>
+    <mergeCell ref="H2394:I2394"/>
+    <mergeCell ref="H2395:I2395"/>
+    <mergeCell ref="H2414:I2414"/>
+    <mergeCell ref="H2415:I2415"/>
+    <mergeCell ref="H2416:I2416"/>
+    <mergeCell ref="H2417:I2417"/>
+    <mergeCell ref="H2418:I2418"/>
+    <mergeCell ref="H2419:I2419"/>
+    <mergeCell ref="H2420:I2420"/>
+    <mergeCell ref="H2421:I2421"/>
+    <mergeCell ref="H2422:I2422"/>
+    <mergeCell ref="H2405:I2405"/>
+    <mergeCell ref="H2406:I2406"/>
+    <mergeCell ref="H2407:I2407"/>
+    <mergeCell ref="H2408:I2408"/>
+    <mergeCell ref="H2409:I2409"/>
+    <mergeCell ref="H2410:I2410"/>
+    <mergeCell ref="H2411:I2411"/>
+    <mergeCell ref="H2412:I2412"/>
+    <mergeCell ref="H2413:I2413"/>
+    <mergeCell ref="H2432:I2432"/>
+    <mergeCell ref="H2433:I2433"/>
+    <mergeCell ref="H2434:I2434"/>
+    <mergeCell ref="H2435:I2435"/>
+    <mergeCell ref="H2436:I2436"/>
+    <mergeCell ref="H2437:I2437"/>
+    <mergeCell ref="H2438:I2438"/>
+    <mergeCell ref="H2439:I2439"/>
+    <mergeCell ref="H2440:I2440"/>
+    <mergeCell ref="H2423:I2423"/>
+    <mergeCell ref="H2424:I2424"/>
+    <mergeCell ref="H2425:I2425"/>
+    <mergeCell ref="H2426:I2426"/>
+    <mergeCell ref="H2427:I2427"/>
+    <mergeCell ref="H2428:I2428"/>
+    <mergeCell ref="H2429:I2429"/>
+    <mergeCell ref="H2430:I2430"/>
+    <mergeCell ref="H2431:I2431"/>
+    <mergeCell ref="H2450:I2450"/>
+    <mergeCell ref="H2451:I2451"/>
+    <mergeCell ref="H2452:I2452"/>
+    <mergeCell ref="H2453:I2453"/>
+    <mergeCell ref="H2454:I2454"/>
+    <mergeCell ref="H2455:I2455"/>
+    <mergeCell ref="H2456:I2456"/>
+    <mergeCell ref="H2457:I2457"/>
+    <mergeCell ref="H2458:I2458"/>
+    <mergeCell ref="H2441:I2441"/>
+    <mergeCell ref="H2442:I2442"/>
+    <mergeCell ref="H2443:I2443"/>
+    <mergeCell ref="H2444:I2444"/>
+    <mergeCell ref="H2445:I2445"/>
+    <mergeCell ref="H2446:I2446"/>
+    <mergeCell ref="H2447:I2447"/>
+    <mergeCell ref="H2448:I2448"/>
+    <mergeCell ref="H2449:I2449"/>
+    <mergeCell ref="H2468:I2468"/>
+    <mergeCell ref="H2469:I2469"/>
+    <mergeCell ref="H2470:I2470"/>
+    <mergeCell ref="H2471:I2471"/>
+    <mergeCell ref="H2472:I2472"/>
+    <mergeCell ref="H2473:I2473"/>
+    <mergeCell ref="H2474:I2474"/>
+    <mergeCell ref="H2475:I2475"/>
+    <mergeCell ref="H2476:I2476"/>
+    <mergeCell ref="H2459:I2459"/>
+    <mergeCell ref="H2460:I2460"/>
+    <mergeCell ref="H2461:I2461"/>
+    <mergeCell ref="H2462:I2462"/>
+    <mergeCell ref="H2463:I2463"/>
+    <mergeCell ref="H2464:I2464"/>
+    <mergeCell ref="H2465:I2465"/>
+    <mergeCell ref="H2466:I2466"/>
+    <mergeCell ref="H2467:I2467"/>
+    <mergeCell ref="H2486:I2486"/>
+    <mergeCell ref="H2487:I2487"/>
+    <mergeCell ref="H2488:I2488"/>
+    <mergeCell ref="H2489:I2489"/>
+    <mergeCell ref="H2490:I2490"/>
+    <mergeCell ref="H2491:I2491"/>
+    <mergeCell ref="H2492:I2492"/>
+    <mergeCell ref="H2493:I2493"/>
+    <mergeCell ref="H2494:I2494"/>
+    <mergeCell ref="H2477:I2477"/>
+    <mergeCell ref="H2478:I2478"/>
+    <mergeCell ref="H2479:I2479"/>
+    <mergeCell ref="H2480:I2480"/>
+    <mergeCell ref="H2481:I2481"/>
+    <mergeCell ref="H2482:I2482"/>
+    <mergeCell ref="H2483:I2483"/>
+    <mergeCell ref="H2484:I2484"/>
+    <mergeCell ref="H2485:I2485"/>
+    <mergeCell ref="H2504:I2504"/>
+    <mergeCell ref="H2505:I2505"/>
+    <mergeCell ref="H2506:I2506"/>
+    <mergeCell ref="H2507:I2507"/>
+    <mergeCell ref="H2508:I2508"/>
+    <mergeCell ref="H2509:I2509"/>
+    <mergeCell ref="H2510:I2510"/>
+    <mergeCell ref="H2511:I2511"/>
+    <mergeCell ref="H2512:I2512"/>
+    <mergeCell ref="H2495:I2495"/>
+    <mergeCell ref="H2496:I2496"/>
+    <mergeCell ref="H2497:I2497"/>
+    <mergeCell ref="H2498:I2498"/>
+    <mergeCell ref="H2499:I2499"/>
+    <mergeCell ref="H2500:I2500"/>
+    <mergeCell ref="H2501:I2501"/>
+    <mergeCell ref="H2502:I2502"/>
+    <mergeCell ref="H2503:I2503"/>
+    <mergeCell ref="H2522:I2522"/>
+    <mergeCell ref="H2523:I2523"/>
+    <mergeCell ref="H2524:I2524"/>
+    <mergeCell ref="H2525:I2525"/>
+    <mergeCell ref="H2526:I2526"/>
+    <mergeCell ref="H2527:I2527"/>
+    <mergeCell ref="H2528:I2528"/>
+    <mergeCell ref="H2529:I2529"/>
+    <mergeCell ref="H2530:I2530"/>
+    <mergeCell ref="H2513:I2513"/>
+    <mergeCell ref="H2514:I2514"/>
+    <mergeCell ref="H2515:I2515"/>
+    <mergeCell ref="H2516:I2516"/>
+    <mergeCell ref="H2517:I2517"/>
+    <mergeCell ref="H2518:I2518"/>
+    <mergeCell ref="H2519:I2519"/>
+    <mergeCell ref="H2520:I2520"/>
+    <mergeCell ref="H2521:I2521"/>
+    <mergeCell ref="H2540:I2540"/>
+    <mergeCell ref="H2541:I2541"/>
+    <mergeCell ref="H2542:I2542"/>
+    <mergeCell ref="H2543:I2543"/>
+    <mergeCell ref="H2544:I2544"/>
+    <mergeCell ref="H2545:I2545"/>
+    <mergeCell ref="H2546:I2546"/>
+    <mergeCell ref="H2547:I2547"/>
+    <mergeCell ref="H2548:I2548"/>
+    <mergeCell ref="H2531:I2531"/>
+    <mergeCell ref="H2532:I2532"/>
+    <mergeCell ref="H2533:I2533"/>
+    <mergeCell ref="H2534:I2534"/>
+    <mergeCell ref="H2535:I2535"/>
+    <mergeCell ref="H2536:I2536"/>
+    <mergeCell ref="H2537:I2537"/>
+    <mergeCell ref="H2538:I2538"/>
+    <mergeCell ref="H2539:I2539"/>
+    <mergeCell ref="H2558:I2558"/>
+    <mergeCell ref="H2559:I2559"/>
+    <mergeCell ref="H2560:I2560"/>
+    <mergeCell ref="H2561:I2561"/>
+    <mergeCell ref="H2562:I2562"/>
+    <mergeCell ref="H2563:I2563"/>
+    <mergeCell ref="H2564:I2564"/>
+    <mergeCell ref="H2565:I2565"/>
+    <mergeCell ref="H2566:I2566"/>
+    <mergeCell ref="H2549:I2549"/>
+    <mergeCell ref="H2550:I2550"/>
+    <mergeCell ref="H2551:I2551"/>
+    <mergeCell ref="H2552:I2552"/>
+    <mergeCell ref="H2553:I2553"/>
+    <mergeCell ref="H2554:I2554"/>
+    <mergeCell ref="H2555:I2555"/>
+    <mergeCell ref="H2556:I2556"/>
+    <mergeCell ref="H2557:I2557"/>
+    <mergeCell ref="H2576:I2576"/>
+    <mergeCell ref="H2577:I2577"/>
+    <mergeCell ref="H2578:I2578"/>
+    <mergeCell ref="H2579:I2579"/>
+    <mergeCell ref="H2580:I2580"/>
+    <mergeCell ref="H2581:I2581"/>
+    <mergeCell ref="H2582:I2582"/>
+    <mergeCell ref="H2583:I2583"/>
+    <mergeCell ref="H2584:I2584"/>
+    <mergeCell ref="H2567:I2567"/>
+    <mergeCell ref="H2568:I2568"/>
+    <mergeCell ref="H2569:I2569"/>
+    <mergeCell ref="H2570:I2570"/>
+    <mergeCell ref="H2571:I2571"/>
+    <mergeCell ref="H2572:I2572"/>
+    <mergeCell ref="H2573:I2573"/>
+    <mergeCell ref="H2574:I2574"/>
+    <mergeCell ref="H2575:I2575"/>
+    <mergeCell ref="H2594:I2594"/>
+    <mergeCell ref="H2595:I2595"/>
+    <mergeCell ref="H2596:I2596"/>
+    <mergeCell ref="H2597:I2597"/>
+    <mergeCell ref="H2598:I2598"/>
+    <mergeCell ref="H2599:I2599"/>
+    <mergeCell ref="H2600:I2600"/>
+    <mergeCell ref="H2601:I2601"/>
+    <mergeCell ref="H2602:I2602"/>
+    <mergeCell ref="H2585:I2585"/>
+    <mergeCell ref="H2586:I2586"/>
+    <mergeCell ref="H2587:I2587"/>
+    <mergeCell ref="H2588:I2588"/>
+    <mergeCell ref="H2589:I2589"/>
+    <mergeCell ref="H2590:I2590"/>
+    <mergeCell ref="H2591:I2591"/>
+    <mergeCell ref="H2592:I2592"/>
+    <mergeCell ref="H2593:I2593"/>
+    <mergeCell ref="H2612:I2612"/>
+    <mergeCell ref="H2613:I2613"/>
+    <mergeCell ref="H2614:I2614"/>
+    <mergeCell ref="H2615:I2615"/>
+    <mergeCell ref="H2616:I2616"/>
+    <mergeCell ref="H2617:I2617"/>
+    <mergeCell ref="H2618:I2618"/>
+    <mergeCell ref="H2619:I2619"/>
+    <mergeCell ref="H2620:I2620"/>
+    <mergeCell ref="H2603:I2603"/>
+    <mergeCell ref="H2604:I2604"/>
+    <mergeCell ref="H2605:I2605"/>
+    <mergeCell ref="H2606:I2606"/>
+    <mergeCell ref="H2607:I2607"/>
+    <mergeCell ref="H2608:I2608"/>
+    <mergeCell ref="H2609:I2609"/>
+    <mergeCell ref="H2610:I2610"/>
+    <mergeCell ref="H2611:I2611"/>
+    <mergeCell ref="H2630:I2630"/>
+    <mergeCell ref="H2631:I2631"/>
+    <mergeCell ref="H2632:I2632"/>
+    <mergeCell ref="H2633:I2633"/>
+    <mergeCell ref="H2634:I2634"/>
+    <mergeCell ref="H2635:I2635"/>
+    <mergeCell ref="H2636:I2636"/>
+    <mergeCell ref="H2637:I2637"/>
+    <mergeCell ref="H2638:I2638"/>
+    <mergeCell ref="H2621:I2621"/>
+    <mergeCell ref="H2622:I2622"/>
+    <mergeCell ref="H2623:I2623"/>
+    <mergeCell ref="H2624:I2624"/>
+    <mergeCell ref="H2625:I2625"/>
+    <mergeCell ref="H2626:I2626"/>
+    <mergeCell ref="H2627:I2627"/>
+    <mergeCell ref="H2628:I2628"/>
+    <mergeCell ref="H2629:I2629"/>
+    <mergeCell ref="H2648:I2648"/>
+    <mergeCell ref="H2649:I2649"/>
+    <mergeCell ref="H2650:I2650"/>
+    <mergeCell ref="H2651:I2651"/>
+    <mergeCell ref="H2652:I2652"/>
+    <mergeCell ref="H2653:I2653"/>
+    <mergeCell ref="H2654:I2654"/>
+    <mergeCell ref="H2655:I2655"/>
+    <mergeCell ref="H2656:I2656"/>
+    <mergeCell ref="H2639:I2639"/>
+    <mergeCell ref="H2640:I2640"/>
+    <mergeCell ref="H2641:I2641"/>
+    <mergeCell ref="H2642:I2642"/>
+    <mergeCell ref="H2643:I2643"/>
+    <mergeCell ref="H2644:I2644"/>
+    <mergeCell ref="H2645:I2645"/>
+    <mergeCell ref="H2646:I2646"/>
+    <mergeCell ref="H2647:I2647"/>
+    <mergeCell ref="H2666:I2666"/>
+    <mergeCell ref="H2667:I2667"/>
+    <mergeCell ref="H2668:I2668"/>
+    <mergeCell ref="H2669:I2669"/>
+    <mergeCell ref="H2670:I2670"/>
+    <mergeCell ref="H2671:I2671"/>
+    <mergeCell ref="H2672:I2672"/>
+    <mergeCell ref="H2673:I2673"/>
+    <mergeCell ref="H2674:I2674"/>
+    <mergeCell ref="H2657:I2657"/>
+    <mergeCell ref="H2658:I2658"/>
+    <mergeCell ref="H2659:I2659"/>
+    <mergeCell ref="H2660:I2660"/>
+    <mergeCell ref="H2661:I2661"/>
+    <mergeCell ref="H2662:I2662"/>
+    <mergeCell ref="H2663:I2663"/>
+    <mergeCell ref="H2664:I2664"/>
+    <mergeCell ref="H2665:I2665"/>
+    <mergeCell ref="H2684:I2684"/>
+    <mergeCell ref="H2685:I2685"/>
+    <mergeCell ref="H2686:I2686"/>
+    <mergeCell ref="H2687:I2687"/>
+    <mergeCell ref="H2688:I2688"/>
+    <mergeCell ref="H2689:I2689"/>
+    <mergeCell ref="H2690:I2690"/>
+    <mergeCell ref="H2691:I2691"/>
+    <mergeCell ref="H2692:I2692"/>
+    <mergeCell ref="H2675:I2675"/>
+    <mergeCell ref="H2676:I2676"/>
+    <mergeCell ref="H2677:I2677"/>
+    <mergeCell ref="H2678:I2678"/>
+    <mergeCell ref="H2679:I2679"/>
+    <mergeCell ref="H2680:I2680"/>
+    <mergeCell ref="H2681:I2681"/>
+    <mergeCell ref="H2682:I2682"/>
+    <mergeCell ref="H2683:I2683"/>
+    <mergeCell ref="H2702:I2702"/>
+    <mergeCell ref="H2703:I2703"/>
+    <mergeCell ref="H2704:I2704"/>
+    <mergeCell ref="H2705:I2705"/>
+    <mergeCell ref="H2706:I2706"/>
+    <mergeCell ref="H2707:I2707"/>
+    <mergeCell ref="H2708:I2708"/>
+    <mergeCell ref="H2709:I2709"/>
+    <mergeCell ref="H2710:I2710"/>
+    <mergeCell ref="H2693:I2693"/>
+    <mergeCell ref="H2694:I2694"/>
+    <mergeCell ref="H2695:I2695"/>
+    <mergeCell ref="H2696:I2696"/>
+    <mergeCell ref="H2697:I2697"/>
+    <mergeCell ref="H2698:I2698"/>
+    <mergeCell ref="H2699:I2699"/>
+    <mergeCell ref="H2700:I2700"/>
+    <mergeCell ref="H2701:I2701"/>
+    <mergeCell ref="H2720:I2720"/>
+    <mergeCell ref="H2721:I2721"/>
+    <mergeCell ref="H2722:I2722"/>
+    <mergeCell ref="H2723:I2723"/>
+    <mergeCell ref="H2724:I2724"/>
+    <mergeCell ref="H2725:I2725"/>
+    <mergeCell ref="H2726:I2726"/>
+    <mergeCell ref="H2727:I2727"/>
+    <mergeCell ref="H2728:I2728"/>
+    <mergeCell ref="H2711:I2711"/>
+    <mergeCell ref="H2712:I2712"/>
+    <mergeCell ref="H2713:I2713"/>
+    <mergeCell ref="H2714:I2714"/>
+    <mergeCell ref="H2715:I2715"/>
+    <mergeCell ref="H2716:I2716"/>
+    <mergeCell ref="H2717:I2717"/>
+    <mergeCell ref="H2718:I2718"/>
+    <mergeCell ref="H2719:I2719"/>
+    <mergeCell ref="H2738:I2738"/>
+    <mergeCell ref="H2739:I2739"/>
+    <mergeCell ref="H2740:I2740"/>
+    <mergeCell ref="H2741:I2741"/>
+    <mergeCell ref="H2742:I2742"/>
+    <mergeCell ref="H2743:I2743"/>
+    <mergeCell ref="H2744:I2744"/>
+    <mergeCell ref="H2745:I2745"/>
+    <mergeCell ref="H2746:I2746"/>
+    <mergeCell ref="H2729:I2729"/>
+    <mergeCell ref="H2730:I2730"/>
+    <mergeCell ref="H2731:I2731"/>
+    <mergeCell ref="H2732:I2732"/>
+    <mergeCell ref="H2733:I2733"/>
+    <mergeCell ref="H2734:I2734"/>
+    <mergeCell ref="H2735:I2735"/>
+    <mergeCell ref="H2736:I2736"/>
+    <mergeCell ref="H2737:I2737"/>
+    <mergeCell ref="H2756:I2756"/>
+    <mergeCell ref="H2757:I2757"/>
+    <mergeCell ref="H2758:I2758"/>
+    <mergeCell ref="H2759:I2759"/>
+    <mergeCell ref="H2760:I2760"/>
+    <mergeCell ref="H2761:I2761"/>
+    <mergeCell ref="H2762:I2762"/>
+    <mergeCell ref="H2763:I2763"/>
+    <mergeCell ref="H2764:I2764"/>
+    <mergeCell ref="H2747:I2747"/>
+    <mergeCell ref="H2748:I2748"/>
+    <mergeCell ref="H2749:I2749"/>
+    <mergeCell ref="H2750:I2750"/>
+    <mergeCell ref="H2751:I2751"/>
+    <mergeCell ref="H2752:I2752"/>
+    <mergeCell ref="H2753:I2753"/>
+    <mergeCell ref="H2754:I2754"/>
+    <mergeCell ref="H2755:I2755"/>
+    <mergeCell ref="H2774:I2774"/>
+    <mergeCell ref="H2775:I2775"/>
+    <mergeCell ref="H2776:I2776"/>
+    <mergeCell ref="H2777:I2777"/>
+    <mergeCell ref="H2778:I2778"/>
+    <mergeCell ref="H2779:I2779"/>
+    <mergeCell ref="H2780:I2780"/>
+    <mergeCell ref="H2781:I2781"/>
+    <mergeCell ref="H2782:I2782"/>
+    <mergeCell ref="H2765:I2765"/>
+    <mergeCell ref="H2766:I2766"/>
+    <mergeCell ref="H2767:I2767"/>
+    <mergeCell ref="H2768:I2768"/>
+    <mergeCell ref="H2769:I2769"/>
+    <mergeCell ref="H2770:I2770"/>
+    <mergeCell ref="H2771:I2771"/>
+    <mergeCell ref="H2772:I2772"/>
+    <mergeCell ref="H2773:I2773"/>
+    <mergeCell ref="H2792:I2792"/>
+    <mergeCell ref="H2793:I2793"/>
+    <mergeCell ref="H2794:I2794"/>
+    <mergeCell ref="H2795:I2795"/>
+    <mergeCell ref="H2796:I2796"/>
+    <mergeCell ref="H2797:I2797"/>
+    <mergeCell ref="H2798:I2798"/>
+    <mergeCell ref="H2799:I2799"/>
+    <mergeCell ref="H2800:I2800"/>
+    <mergeCell ref="H2783:I2783"/>
+    <mergeCell ref="H2784:I2784"/>
+    <mergeCell ref="H2785:I2785"/>
+    <mergeCell ref="H2786:I2786"/>
+    <mergeCell ref="H2787:I2787"/>
+    <mergeCell ref="H2788:I2788"/>
+    <mergeCell ref="H2789:I2789"/>
+    <mergeCell ref="H2790:I2790"/>
+    <mergeCell ref="H2791:I2791"/>
+    <mergeCell ref="H2810:I2810"/>
+    <mergeCell ref="H2811:I2811"/>
+    <mergeCell ref="H2812:I2812"/>
+    <mergeCell ref="H2813:I2813"/>
+    <mergeCell ref="H2814:I2814"/>
+    <mergeCell ref="H2815:I2815"/>
+    <mergeCell ref="H2816:I2816"/>
+    <mergeCell ref="H2817:I2817"/>
+    <mergeCell ref="H2818:I2818"/>
+    <mergeCell ref="H2801:I2801"/>
+    <mergeCell ref="H2802:I2802"/>
+    <mergeCell ref="H2803:I2803"/>
+    <mergeCell ref="H2804:I2804"/>
+    <mergeCell ref="H2805:I2805"/>
+    <mergeCell ref="H2806:I2806"/>
+    <mergeCell ref="H2807:I2807"/>
+    <mergeCell ref="H2808:I2808"/>
+    <mergeCell ref="H2809:I2809"/>
+    <mergeCell ref="H2828:I2828"/>
+    <mergeCell ref="H2829:I2829"/>
+    <mergeCell ref="H2830:I2830"/>
+    <mergeCell ref="H2831:I2831"/>
+    <mergeCell ref="H2832:I2832"/>
+    <mergeCell ref="H2833:I2833"/>
+    <mergeCell ref="H2834:I2834"/>
+    <mergeCell ref="H2835:I2835"/>
+    <mergeCell ref="H2836:I2836"/>
+    <mergeCell ref="H2819:I2819"/>
+    <mergeCell ref="H2820:I2820"/>
+    <mergeCell ref="H2821:I2821"/>
+    <mergeCell ref="H2822:I2822"/>
+    <mergeCell ref="H2823:I2823"/>
+    <mergeCell ref="H2824:I2824"/>
+    <mergeCell ref="H2825:I2825"/>
+    <mergeCell ref="H2826:I2826"/>
+    <mergeCell ref="H2827:I2827"/>
+    <mergeCell ref="H2846:I2846"/>
+    <mergeCell ref="H2847:I2847"/>
+    <mergeCell ref="H2848:I2848"/>
+    <mergeCell ref="H2849:I2849"/>
+    <mergeCell ref="H2850:I2850"/>
+    <mergeCell ref="H2851:I2851"/>
+    <mergeCell ref="H2852:I2852"/>
+    <mergeCell ref="H2853:I2853"/>
+    <mergeCell ref="H2854:I2854"/>
+    <mergeCell ref="H2837:I2837"/>
+    <mergeCell ref="H2838:I2838"/>
+    <mergeCell ref="H2839:I2839"/>
+    <mergeCell ref="H2840:I2840"/>
+    <mergeCell ref="H2841:I2841"/>
+    <mergeCell ref="H2842:I2842"/>
+    <mergeCell ref="H2843:I2843"/>
+    <mergeCell ref="H2844:I2844"/>
+    <mergeCell ref="H2845:I2845"/>
+    <mergeCell ref="H2864:I2864"/>
+    <mergeCell ref="H2865:I2865"/>
+    <mergeCell ref="H2866:I2866"/>
+    <mergeCell ref="H2867:I2867"/>
+    <mergeCell ref="H2868:I2868"/>
+    <mergeCell ref="H2869:I2869"/>
+    <mergeCell ref="H2870:I2870"/>
+    <mergeCell ref="H2871:I2871"/>
+    <mergeCell ref="H2872:I2872"/>
+    <mergeCell ref="H2855:I2855"/>
+    <mergeCell ref="H2856:I2856"/>
+    <mergeCell ref="H2857:I2857"/>
+    <mergeCell ref="H2858:I2858"/>
+    <mergeCell ref="H2859:I2859"/>
+    <mergeCell ref="H2860:I2860"/>
+    <mergeCell ref="H2861:I2861"/>
+    <mergeCell ref="H2862:I2862"/>
+    <mergeCell ref="H2863:I2863"/>
+    <mergeCell ref="H2882:I2882"/>
+    <mergeCell ref="H2883:I2883"/>
+    <mergeCell ref="H2884:I2884"/>
+    <mergeCell ref="H2885:I2885"/>
+    <mergeCell ref="H2886:I2886"/>
+    <mergeCell ref="H2887:I2887"/>
+    <mergeCell ref="H2888:I2888"/>
+    <mergeCell ref="H2889:I2889"/>
+    <mergeCell ref="H2890:I2890"/>
+    <mergeCell ref="H2873:I2873"/>
+    <mergeCell ref="H2874:I2874"/>
+    <mergeCell ref="H2875:I2875"/>
+    <mergeCell ref="H2876:I2876"/>
+    <mergeCell ref="H2877:I2877"/>
+    <mergeCell ref="H2878:I2878"/>
+    <mergeCell ref="H2879:I2879"/>
+    <mergeCell ref="H2880:I2880"/>
+    <mergeCell ref="H2881:I2881"/>
+    <mergeCell ref="H2900:I2900"/>
+    <mergeCell ref="H2901:I2901"/>
+    <mergeCell ref="H2902:I2902"/>
+    <mergeCell ref="H2903:I2903"/>
+    <mergeCell ref="H2904:I2904"/>
+    <mergeCell ref="H2905:I2905"/>
+    <mergeCell ref="H2906:I2906"/>
+    <mergeCell ref="H2907:I2907"/>
+    <mergeCell ref="H2908:I2908"/>
+    <mergeCell ref="H2891:I2891"/>
+    <mergeCell ref="H2892:I2892"/>
+    <mergeCell ref="H2893:I2893"/>
+    <mergeCell ref="H2894:I2894"/>
+    <mergeCell ref="H2895:I2895"/>
+    <mergeCell ref="H2896:I2896"/>
+    <mergeCell ref="H2897:I2897"/>
+    <mergeCell ref="H2898:I2898"/>
+    <mergeCell ref="H2899:I2899"/>
+    <mergeCell ref="H2918:I2918"/>
+    <mergeCell ref="H2919:I2919"/>
+    <mergeCell ref="H2920:I2920"/>
+    <mergeCell ref="H2921:I2921"/>
+    <mergeCell ref="H2922:I2922"/>
+    <mergeCell ref="H2923:I2923"/>
+    <mergeCell ref="H2924:I2924"/>
+    <mergeCell ref="H2925:I2925"/>
+    <mergeCell ref="H2926:I2926"/>
+    <mergeCell ref="H2909:I2909"/>
+    <mergeCell ref="H2910:I2910"/>
+    <mergeCell ref="H2911:I2911"/>
+    <mergeCell ref="H2912:I2912"/>
+    <mergeCell ref="H2913:I2913"/>
+    <mergeCell ref="H2914:I2914"/>
+    <mergeCell ref="H2915:I2915"/>
+    <mergeCell ref="H2916:I2916"/>
+    <mergeCell ref="H2917:I2917"/>
+    <mergeCell ref="H2936:I2936"/>
+    <mergeCell ref="H2937:I2937"/>
+    <mergeCell ref="H2938:I2938"/>
+    <mergeCell ref="H2939:I2939"/>
+    <mergeCell ref="H2940:I2940"/>
+    <mergeCell ref="H2941:I2941"/>
+    <mergeCell ref="H2942:I2942"/>
+    <mergeCell ref="H2943:I2943"/>
+    <mergeCell ref="H2944:I2944"/>
+    <mergeCell ref="H2927:I2927"/>
+    <mergeCell ref="H2928:I2928"/>
+    <mergeCell ref="H2929:I2929"/>
+    <mergeCell ref="H2930:I2930"/>
+    <mergeCell ref="H2931:I2931"/>
+    <mergeCell ref="H2932:I2932"/>
+    <mergeCell ref="H2933:I2933"/>
+    <mergeCell ref="H2934:I2934"/>
+    <mergeCell ref="H2935:I2935"/>
+    <mergeCell ref="H2954:I2954"/>
+    <mergeCell ref="H2955:I2955"/>
+    <mergeCell ref="H2956:I2956"/>
+    <mergeCell ref="H2957:I2957"/>
+    <mergeCell ref="H2958:I2958"/>
+    <mergeCell ref="H2959:I2959"/>
+    <mergeCell ref="H2960:I2960"/>
+    <mergeCell ref="H2961:I2961"/>
+    <mergeCell ref="H2962:I2962"/>
+    <mergeCell ref="H2945:I2945"/>
+    <mergeCell ref="H2946:I2946"/>
+    <mergeCell ref="H2947:I2947"/>
+    <mergeCell ref="H2948:I2948"/>
+    <mergeCell ref="H2949:I2949"/>
+    <mergeCell ref="H2950:I2950"/>
+    <mergeCell ref="H2951:I2951"/>
+    <mergeCell ref="H2952:I2952"/>
+    <mergeCell ref="H2953:I2953"/>
+    <mergeCell ref="H2972:I2972"/>
+    <mergeCell ref="H2973:I2973"/>
+    <mergeCell ref="H2974:I2974"/>
+    <mergeCell ref="H2975:I2975"/>
+    <mergeCell ref="H2976:I2976"/>
+    <mergeCell ref="H2977:I2977"/>
+    <mergeCell ref="H2978:I2978"/>
+    <mergeCell ref="H2979:I2979"/>
+    <mergeCell ref="H2980:I2980"/>
+    <mergeCell ref="H2963:I2963"/>
+    <mergeCell ref="H2964:I2964"/>
+    <mergeCell ref="H2965:I2965"/>
+    <mergeCell ref="H2966:I2966"/>
+    <mergeCell ref="H2967:I2967"/>
+    <mergeCell ref="H2968:I2968"/>
+    <mergeCell ref="H2969:I2969"/>
+    <mergeCell ref="H2970:I2970"/>
+    <mergeCell ref="H2971:I2971"/>
+    <mergeCell ref="H2990:I2990"/>
+    <mergeCell ref="H2991:I2991"/>
+    <mergeCell ref="H2992:I2992"/>
+    <mergeCell ref="H2993:I2993"/>
+    <mergeCell ref="H2994:I2994"/>
+    <mergeCell ref="H2995:I2995"/>
+    <mergeCell ref="H2996:I2996"/>
+    <mergeCell ref="H2997:I2997"/>
+    <mergeCell ref="H2998:I2998"/>
+    <mergeCell ref="H2981:I2981"/>
+    <mergeCell ref="H2982:I2982"/>
+    <mergeCell ref="H2983:I2983"/>
+    <mergeCell ref="H2984:I2984"/>
+    <mergeCell ref="H2985:I2985"/>
+    <mergeCell ref="H2986:I2986"/>
+    <mergeCell ref="H2987:I2987"/>
+    <mergeCell ref="H2988:I2988"/>
+    <mergeCell ref="H2989:I2989"/>
+    <mergeCell ref="H3008:I3008"/>
+    <mergeCell ref="H3009:I3009"/>
+    <mergeCell ref="H3010:I3010"/>
+    <mergeCell ref="H3011:I3011"/>
+    <mergeCell ref="H3012:I3012"/>
+    <mergeCell ref="H3013:I3013"/>
+    <mergeCell ref="H3014:I3014"/>
+    <mergeCell ref="H3015:I3015"/>
+    <mergeCell ref="H3016:I3016"/>
+    <mergeCell ref="H2999:I2999"/>
+    <mergeCell ref="H3000:I3000"/>
+    <mergeCell ref="H3001:I3001"/>
+    <mergeCell ref="H3002:I3002"/>
+    <mergeCell ref="H3003:I3003"/>
+    <mergeCell ref="H3004:I3004"/>
+    <mergeCell ref="H3005:I3005"/>
+    <mergeCell ref="H3006:I3006"/>
+    <mergeCell ref="H3007:I3007"/>
+    <mergeCell ref="H3026:I3026"/>
+    <mergeCell ref="H3027:I3027"/>
+    <mergeCell ref="H3028:I3028"/>
+    <mergeCell ref="H3029:I3029"/>
+    <mergeCell ref="H3030:I3030"/>
+    <mergeCell ref="H3031:I3031"/>
+    <mergeCell ref="H3032:I3032"/>
+    <mergeCell ref="H3033:I3033"/>
+    <mergeCell ref="H3034:I3034"/>
+    <mergeCell ref="H3017:I3017"/>
+    <mergeCell ref="H3018:I3018"/>
+    <mergeCell ref="H3019:I3019"/>
+    <mergeCell ref="H3020:I3020"/>
+    <mergeCell ref="H3021:I3021"/>
+    <mergeCell ref="H3022:I3022"/>
+    <mergeCell ref="H3023:I3023"/>
+    <mergeCell ref="H3024:I3024"/>
+    <mergeCell ref="H3025:I3025"/>
+    <mergeCell ref="H3044:I3044"/>
+    <mergeCell ref="H3045:I3045"/>
+    <mergeCell ref="H3046:I3046"/>
+    <mergeCell ref="H3047:I3047"/>
+    <mergeCell ref="H3048:I3048"/>
+    <mergeCell ref="H3049:I3049"/>
+    <mergeCell ref="H3050:I3050"/>
+    <mergeCell ref="H3051:I3051"/>
+    <mergeCell ref="H3052:I3052"/>
+    <mergeCell ref="H3035:I3035"/>
+    <mergeCell ref="H3036:I3036"/>
+    <mergeCell ref="H3037:I3037"/>
+    <mergeCell ref="H3038:I3038"/>
+    <mergeCell ref="H3039:I3039"/>
+    <mergeCell ref="H3040:I3040"/>
+    <mergeCell ref="H3041:I3041"/>
+    <mergeCell ref="H3042:I3042"/>
+    <mergeCell ref="H3043:I3043"/>
+    <mergeCell ref="H3062:I3062"/>
+    <mergeCell ref="H3063:I3063"/>
+    <mergeCell ref="H3064:I3064"/>
+    <mergeCell ref="H3065:I3065"/>
+    <mergeCell ref="H3066:I3066"/>
+    <mergeCell ref="H3067:I3067"/>
+    <mergeCell ref="H3068:I3068"/>
+    <mergeCell ref="H3069:I3069"/>
+    <mergeCell ref="H3070:I3070"/>
+    <mergeCell ref="H3053:I3053"/>
+    <mergeCell ref="H3054:I3054"/>
+    <mergeCell ref="H3055:I3055"/>
+    <mergeCell ref="H3056:I3056"/>
+    <mergeCell ref="H3057:I3057"/>
+    <mergeCell ref="H3058:I3058"/>
+    <mergeCell ref="H3059:I3059"/>
+    <mergeCell ref="H3060:I3060"/>
+    <mergeCell ref="H3061:I3061"/>
+    <mergeCell ref="H3080:I3080"/>
+    <mergeCell ref="H3081:I3081"/>
+    <mergeCell ref="H3082:I3082"/>
+    <mergeCell ref="H3083:I3083"/>
+    <mergeCell ref="H3084:I3084"/>
+    <mergeCell ref="H3085:I3085"/>
+    <mergeCell ref="H3086:I3086"/>
+    <mergeCell ref="H3087:I3087"/>
+    <mergeCell ref="H3088:I3088"/>
+    <mergeCell ref="H3071:I3071"/>
+    <mergeCell ref="H3072:I3072"/>
+    <mergeCell ref="H3073:I3073"/>
+    <mergeCell ref="H3074:I3074"/>
+    <mergeCell ref="H3075:I3075"/>
+    <mergeCell ref="H3076:I3076"/>
+    <mergeCell ref="H3077:I3077"/>
+    <mergeCell ref="H3078:I3078"/>
+    <mergeCell ref="H3079:I3079"/>
+    <mergeCell ref="H3098:I3098"/>
+    <mergeCell ref="H3099:I3099"/>
+    <mergeCell ref="H3100:I3100"/>
+    <mergeCell ref="H3101:I3101"/>
+    <mergeCell ref="H3102:I3102"/>
+    <mergeCell ref="H3103:I3103"/>
+    <mergeCell ref="H3104:I3104"/>
+    <mergeCell ref="H3105:I3105"/>
+    <mergeCell ref="H3106:I3106"/>
+    <mergeCell ref="H3089:I3089"/>
+    <mergeCell ref="H3090:I3090"/>
+    <mergeCell ref="H3091:I3091"/>
+    <mergeCell ref="H3092:I3092"/>
+    <mergeCell ref="H3093:I3093"/>
+    <mergeCell ref="H3094:I3094"/>
+    <mergeCell ref="H3095:I3095"/>
+    <mergeCell ref="H3096:I3096"/>
+    <mergeCell ref="H3097:I3097"/>
+    <mergeCell ref="H3116:I3116"/>
+    <mergeCell ref="H3117:I3117"/>
+    <mergeCell ref="H3118:I3118"/>
+    <mergeCell ref="H3119:I3119"/>
+    <mergeCell ref="H3120:I3120"/>
+    <mergeCell ref="H3121:I3121"/>
+    <mergeCell ref="H3122:I3122"/>
+    <mergeCell ref="H3123:I3123"/>
+    <mergeCell ref="H3124:I3124"/>
+    <mergeCell ref="H3107:I3107"/>
+    <mergeCell ref="H3108:I3108"/>
+    <mergeCell ref="H3109:I3109"/>
+    <mergeCell ref="H3110:I3110"/>
+    <mergeCell ref="H3111:I3111"/>
+    <mergeCell ref="H3112:I3112"/>
+    <mergeCell ref="H3113:I3113"/>
+    <mergeCell ref="H3114:I3114"/>
+    <mergeCell ref="H3115:I3115"/>
+    <mergeCell ref="H3134:I3134"/>
+    <mergeCell ref="H3135:I3135"/>
+    <mergeCell ref="H3136:I3136"/>
+    <mergeCell ref="H3137:I3137"/>
+    <mergeCell ref="H3138:I3138"/>
+    <mergeCell ref="H3139:I3139"/>
+    <mergeCell ref="H3140:I3140"/>
+    <mergeCell ref="H3141:I3141"/>
+    <mergeCell ref="H3142:I3142"/>
+    <mergeCell ref="H3125:I3125"/>
+    <mergeCell ref="H3126:I3126"/>
+    <mergeCell ref="H3127:I3127"/>
+    <mergeCell ref="H3128:I3128"/>
+    <mergeCell ref="H3129:I3129"/>
+    <mergeCell ref="H3130:I3130"/>
+    <mergeCell ref="H3131:I3131"/>
+    <mergeCell ref="H3132:I3132"/>
+    <mergeCell ref="H3133:I3133"/>
+    <mergeCell ref="H3152:I3152"/>
+    <mergeCell ref="H3153:I3153"/>
+    <mergeCell ref="H3154:I3154"/>
+    <mergeCell ref="H3155:I3155"/>
+    <mergeCell ref="H3156:I3156"/>
+    <mergeCell ref="H3157:I3157"/>
+    <mergeCell ref="H3158:I3158"/>
+    <mergeCell ref="H3159:I3159"/>
+    <mergeCell ref="H3160:I3160"/>
+    <mergeCell ref="H3143:I3143"/>
+    <mergeCell ref="H3144:I3144"/>
+    <mergeCell ref="H3145:I3145"/>
+    <mergeCell ref="H3146:I3146"/>
+    <mergeCell ref="H3147:I3147"/>
+    <mergeCell ref="H3148:I3148"/>
+    <mergeCell ref="H3149:I3149"/>
+    <mergeCell ref="H3150:I3150"/>
+    <mergeCell ref="H3151:I3151"/>
+    <mergeCell ref="H3170:I3170"/>
+    <mergeCell ref="H3171:I3171"/>
+    <mergeCell ref="H3172:I3172"/>
+    <mergeCell ref="H3173:I3173"/>
+    <mergeCell ref="H3174:I3174"/>
+    <mergeCell ref="H3175:I3175"/>
+    <mergeCell ref="H3176:I3176"/>
+    <mergeCell ref="H3177:I3177"/>
+    <mergeCell ref="H3178:I3178"/>
+    <mergeCell ref="H3161:I3161"/>
+    <mergeCell ref="H3162:I3162"/>
+    <mergeCell ref="H3163:I3163"/>
+    <mergeCell ref="H3164:I3164"/>
+    <mergeCell ref="H3165:I3165"/>
+    <mergeCell ref="H3166:I3166"/>
+    <mergeCell ref="H3167:I3167"/>
+    <mergeCell ref="H3168:I3168"/>
+    <mergeCell ref="H3169:I3169"/>
+    <mergeCell ref="H3188:I3188"/>
+    <mergeCell ref="H3189:I3189"/>
+    <mergeCell ref="H3190:I3190"/>
+    <mergeCell ref="H3191:I3191"/>
+    <mergeCell ref="H3192:I3192"/>
+    <mergeCell ref="H3193:I3193"/>
+    <mergeCell ref="H3194:I3194"/>
+    <mergeCell ref="H3195:I3195"/>
+    <mergeCell ref="H3196:I3196"/>
+    <mergeCell ref="H3179:I3179"/>
+    <mergeCell ref="H3180:I3180"/>
+    <mergeCell ref="H3181:I3181"/>
+    <mergeCell ref="H3182:I3182"/>
+    <mergeCell ref="H3183:I3183"/>
+    <mergeCell ref="H3184:I3184"/>
+    <mergeCell ref="H3185:I3185"/>
+    <mergeCell ref="H3186:I3186"/>
+    <mergeCell ref="H3187:I3187"/>
+    <mergeCell ref="H3206:I3206"/>
+    <mergeCell ref="H3207:I3207"/>
+    <mergeCell ref="H3208:I3208"/>
+    <mergeCell ref="H3209:I3209"/>
+    <mergeCell ref="H3210:I3210"/>
+    <mergeCell ref="H3211:I3211"/>
+    <mergeCell ref="H3212:I3212"/>
+    <mergeCell ref="H3213:I3213"/>
+    <mergeCell ref="H3214:I3214"/>
+    <mergeCell ref="H3197:I3197"/>
+    <mergeCell ref="H3198:I3198"/>
+    <mergeCell ref="H3199:I3199"/>
+    <mergeCell ref="H3200:I3200"/>
+    <mergeCell ref="H3201:I3201"/>
+    <mergeCell ref="H3202:I3202"/>
+    <mergeCell ref="H3203:I3203"/>
+    <mergeCell ref="H3204:I3204"/>
+    <mergeCell ref="H3205:I3205"/>
+    <mergeCell ref="H3224:I3224"/>
+    <mergeCell ref="H3225:I3225"/>
+    <mergeCell ref="H3226:I3226"/>
+    <mergeCell ref="H3227:I3227"/>
+    <mergeCell ref="H3228:I3228"/>
+    <mergeCell ref="H3229:I3229"/>
+    <mergeCell ref="H3230:I3230"/>
+    <mergeCell ref="H3231:I3231"/>
+    <mergeCell ref="H3232:I3232"/>
+    <mergeCell ref="H3215:I3215"/>
+    <mergeCell ref="H3216:I3216"/>
+    <mergeCell ref="H3217:I3217"/>
+    <mergeCell ref="H3218:I3218"/>
+    <mergeCell ref="H3219:I3219"/>
+    <mergeCell ref="H3220:I3220"/>
+    <mergeCell ref="H3221:I3221"/>
+    <mergeCell ref="H3222:I3222"/>
+    <mergeCell ref="H3223:I3223"/>
+    <mergeCell ref="H3242:I3242"/>
+    <mergeCell ref="H3243:I3243"/>
+    <mergeCell ref="H3244:I3244"/>
+    <mergeCell ref="H3245:I3245"/>
+    <mergeCell ref="H3246:I3246"/>
+    <mergeCell ref="H3247:I3247"/>
+    <mergeCell ref="H3248:I3248"/>
+    <mergeCell ref="H3249:I3249"/>
+    <mergeCell ref="H3250:I3250"/>
+    <mergeCell ref="H3233:I3233"/>
+    <mergeCell ref="H3234:I3234"/>
+    <mergeCell ref="H3235:I3235"/>
+    <mergeCell ref="H3236:I3236"/>
+    <mergeCell ref="H3237:I3237"/>
+    <mergeCell ref="H3238:I3238"/>
+    <mergeCell ref="H3239:I3239"/>
+    <mergeCell ref="H3240:I3240"/>
+    <mergeCell ref="H3241:I3241"/>
+    <mergeCell ref="H3260:I3260"/>
+    <mergeCell ref="H3261:I3261"/>
+    <mergeCell ref="H3262:I3262"/>
+    <mergeCell ref="H3263:I3263"/>
+    <mergeCell ref="H3264:I3264"/>
+    <mergeCell ref="H3265:I3265"/>
+    <mergeCell ref="H3266:I3266"/>
+    <mergeCell ref="H3267:I3267"/>
+    <mergeCell ref="H3268:I3268"/>
+    <mergeCell ref="H3251:I3251"/>
+    <mergeCell ref="H3252:I3252"/>
+    <mergeCell ref="H3253:I3253"/>
+    <mergeCell ref="H3254:I3254"/>
+    <mergeCell ref="H3255:I3255"/>
+    <mergeCell ref="H3256:I3256"/>
+    <mergeCell ref="H3257:I3257"/>
+    <mergeCell ref="H3258:I3258"/>
+    <mergeCell ref="H3259:I3259"/>
+    <mergeCell ref="H3278:I3278"/>
+    <mergeCell ref="H3279:I3279"/>
+    <mergeCell ref="H3280:I3280"/>
+    <mergeCell ref="H3281:I3281"/>
+    <mergeCell ref="H3282:I3282"/>
+    <mergeCell ref="H3283:I3283"/>
+    <mergeCell ref="H3284:I3284"/>
+    <mergeCell ref="H3285:I3285"/>
+    <mergeCell ref="H3286:I3286"/>
+    <mergeCell ref="H3269:I3269"/>
+    <mergeCell ref="H3270:I3270"/>
+    <mergeCell ref="H3271:I3271"/>
+    <mergeCell ref="H3272:I3272"/>
+    <mergeCell ref="H3273:I3273"/>
+    <mergeCell ref="H3274:I3274"/>
+    <mergeCell ref="H3275:I3275"/>
+    <mergeCell ref="H3276:I3276"/>
+    <mergeCell ref="H3277:I3277"/>
+    <mergeCell ref="H3296:I3296"/>
+    <mergeCell ref="H3297:I3297"/>
+    <mergeCell ref="H3298:I3298"/>
+    <mergeCell ref="H3299:I3299"/>
+    <mergeCell ref="H3300:I3300"/>
+    <mergeCell ref="H3301:I3301"/>
+    <mergeCell ref="H3302:I3302"/>
+    <mergeCell ref="H3303:I3303"/>
+    <mergeCell ref="H3304:I3304"/>
+    <mergeCell ref="H3287:I3287"/>
+    <mergeCell ref="H3288:I3288"/>
+    <mergeCell ref="H3289:I3289"/>
+    <mergeCell ref="H3290:I3290"/>
+    <mergeCell ref="H3291:I3291"/>
+    <mergeCell ref="H3292:I3292"/>
+    <mergeCell ref="H3293:I3293"/>
+    <mergeCell ref="H3294:I3294"/>
+    <mergeCell ref="H3295:I3295"/>
+    <mergeCell ref="H3314:I3314"/>
+    <mergeCell ref="H3315:I3315"/>
+    <mergeCell ref="H3316:I3316"/>
+    <mergeCell ref="H3317:I3317"/>
+    <mergeCell ref="H3318:I3318"/>
+    <mergeCell ref="H3319:I3319"/>
+    <mergeCell ref="H3320:I3320"/>
+    <mergeCell ref="H3321:I3321"/>
+    <mergeCell ref="H3322:I3322"/>
+    <mergeCell ref="H3305:I3305"/>
+    <mergeCell ref="H3306:I3306"/>
+    <mergeCell ref="H3307:I3307"/>
+    <mergeCell ref="H3308:I3308"/>
+    <mergeCell ref="H3309:I3309"/>
+    <mergeCell ref="H3310:I3310"/>
+    <mergeCell ref="H3311:I3311"/>
+    <mergeCell ref="H3312:I3312"/>
+    <mergeCell ref="H3313:I3313"/>
+    <mergeCell ref="H3332:I3332"/>
+    <mergeCell ref="H3333:I3333"/>
+    <mergeCell ref="H3334:I3334"/>
+    <mergeCell ref="H3335:I3335"/>
+    <mergeCell ref="H3336:I3336"/>
+    <mergeCell ref="H3337:I3337"/>
+    <mergeCell ref="H3338:I3338"/>
+    <mergeCell ref="H3339:I3339"/>
+    <mergeCell ref="H3340:I3340"/>
+    <mergeCell ref="H3323:I3323"/>
+    <mergeCell ref="H3324:I3324"/>
+    <mergeCell ref="H3325:I3325"/>
+    <mergeCell ref="H3326:I3326"/>
+    <mergeCell ref="H3327:I3327"/>
+    <mergeCell ref="H3328:I3328"/>
+    <mergeCell ref="H3329:I3329"/>
+    <mergeCell ref="H3330:I3330"/>
+    <mergeCell ref="H3331:I3331"/>
+    <mergeCell ref="H3350:I3350"/>
+    <mergeCell ref="H3351:I3351"/>
+    <mergeCell ref="H3352:I3352"/>
+    <mergeCell ref="H3353:I3353"/>
+    <mergeCell ref="H3354:I3354"/>
+    <mergeCell ref="H3355:I3355"/>
+    <mergeCell ref="H3356:I3356"/>
+    <mergeCell ref="H3357:I3357"/>
+    <mergeCell ref="H3358:I3358"/>
+    <mergeCell ref="H3341:I3341"/>
+    <mergeCell ref="H3342:I3342"/>
+    <mergeCell ref="H3343:I3343"/>
+    <mergeCell ref="H3344:I3344"/>
+    <mergeCell ref="H3345:I3345"/>
+    <mergeCell ref="H3346:I3346"/>
+    <mergeCell ref="H3347:I3347"/>
+    <mergeCell ref="H3348:I3348"/>
+    <mergeCell ref="H3349:I3349"/>
+    <mergeCell ref="H3368:I3368"/>
+    <mergeCell ref="H3369:I3369"/>
+    <mergeCell ref="H3370:I3370"/>
+    <mergeCell ref="H3371:I3371"/>
+    <mergeCell ref="H3372:I3372"/>
+    <mergeCell ref="H3373:I3373"/>
+    <mergeCell ref="H3374:I3374"/>
+    <mergeCell ref="H3375:I3375"/>
+    <mergeCell ref="H3376:I3376"/>
+    <mergeCell ref="H3359:I3359"/>
+    <mergeCell ref="H3360:I3360"/>
+    <mergeCell ref="H3361:I3361"/>
+    <mergeCell ref="H3362:I3362"/>
+    <mergeCell ref="H3363:I3363"/>
+    <mergeCell ref="H3364:I3364"/>
+    <mergeCell ref="H3365:I3365"/>
+    <mergeCell ref="H3366:I3366"/>
+    <mergeCell ref="H3367:I3367"/>
+    <mergeCell ref="H3386:I3386"/>
+    <mergeCell ref="H3387:I3387"/>
+    <mergeCell ref="H3388:I3388"/>
+    <mergeCell ref="H3389:I3389"/>
+    <mergeCell ref="H3390:I3390"/>
+    <mergeCell ref="H3391:I3391"/>
+    <mergeCell ref="H3392:I3392"/>
+    <mergeCell ref="H3393:I3393"/>
+    <mergeCell ref="H3394:I3394"/>
+    <mergeCell ref="H3377:I3377"/>
+    <mergeCell ref="H3378:I3378"/>
+    <mergeCell ref="H3379:I3379"/>
+    <mergeCell ref="H3380:I3380"/>
+    <mergeCell ref="H3381:I3381"/>
+    <mergeCell ref="H3382:I3382"/>
+    <mergeCell ref="H3383:I3383"/>
+    <mergeCell ref="H3384:I3384"/>
+    <mergeCell ref="H3385:I3385"/>
+    <mergeCell ref="H3404:I3404"/>
+    <mergeCell ref="H3405:I3405"/>
+    <mergeCell ref="H3406:I3406"/>
+    <mergeCell ref="H3407:I3407"/>
+    <mergeCell ref="H3408:I3408"/>
+    <mergeCell ref="H3409:I3409"/>
+    <mergeCell ref="H3410:I3410"/>
+    <mergeCell ref="H3411:I3411"/>
+    <mergeCell ref="H3412:I3412"/>
+    <mergeCell ref="H3395:I3395"/>
+    <mergeCell ref="H3396:I3396"/>
+    <mergeCell ref="H3397:I3397"/>
+    <mergeCell ref="H3398:I3398"/>
+    <mergeCell ref="H3399:I3399"/>
+    <mergeCell ref="H3400:I3400"/>
+    <mergeCell ref="H3401:I3401"/>
+    <mergeCell ref="H3402:I3402"/>
+    <mergeCell ref="H3403:I3403"/>
+    <mergeCell ref="H3422:I3422"/>
+    <mergeCell ref="H3423:I3423"/>
+    <mergeCell ref="H3424:I3424"/>
+    <mergeCell ref="H3425:I3425"/>
+    <mergeCell ref="H3426:I3426"/>
+    <mergeCell ref="H3427:I3427"/>
+    <mergeCell ref="H3428:I3428"/>
+    <mergeCell ref="H3429:I3429"/>
+    <mergeCell ref="H3430:I3430"/>
+    <mergeCell ref="H3413:I3413"/>
+    <mergeCell ref="H3414:I3414"/>
+    <mergeCell ref="H3415:I3415"/>
+    <mergeCell ref="H3416:I3416"/>
+    <mergeCell ref="H3417:I3417"/>
+    <mergeCell ref="H3418:I3418"/>
+    <mergeCell ref="H3419:I3419"/>
+    <mergeCell ref="H3420:I3420"/>
+    <mergeCell ref="H3421:I3421"/>
+    <mergeCell ref="H3440:I3440"/>
+    <mergeCell ref="H3441:I3441"/>
+    <mergeCell ref="H3442:I3442"/>
+    <mergeCell ref="H3443:I3443"/>
+    <mergeCell ref="H3444:I3444"/>
+    <mergeCell ref="H3445:I3445"/>
+    <mergeCell ref="H3446:I3446"/>
+    <mergeCell ref="H3447:I3447"/>
+    <mergeCell ref="H3448:I3448"/>
+    <mergeCell ref="H3431:I3431"/>
+    <mergeCell ref="H3432:I3432"/>
+    <mergeCell ref="H3433:I3433"/>
+    <mergeCell ref="H3434:I3434"/>
+    <mergeCell ref="H3435:I3435"/>
+    <mergeCell ref="H3436:I3436"/>
+    <mergeCell ref="H3437:I3437"/>
+    <mergeCell ref="H3438:I3438"/>
+    <mergeCell ref="H3439:I3439"/>
+    <mergeCell ref="H3458:I3458"/>
+    <mergeCell ref="H3459:I3459"/>
+    <mergeCell ref="H3460:I3460"/>
+    <mergeCell ref="H3461:I3461"/>
+    <mergeCell ref="H3462:I3462"/>
+    <mergeCell ref="H3463:I3463"/>
+    <mergeCell ref="H3464:I3464"/>
+    <mergeCell ref="H3465:I3465"/>
+    <mergeCell ref="H3466:I3466"/>
+    <mergeCell ref="H3449:I3449"/>
+    <mergeCell ref="H3450:I3450"/>
+    <mergeCell ref="H3451:I3451"/>
+    <mergeCell ref="H3452:I3452"/>
+    <mergeCell ref="H3453:I3453"/>
+    <mergeCell ref="H3454:I3454"/>
+    <mergeCell ref="H3455:I3455"/>
+    <mergeCell ref="H3456:I3456"/>
+    <mergeCell ref="H3457:I3457"/>
+    <mergeCell ref="H3476:I3476"/>
+    <mergeCell ref="H3477:I3477"/>
+    <mergeCell ref="H3478:I3478"/>
+    <mergeCell ref="H3479:I3479"/>
+    <mergeCell ref="H3480:I3480"/>
+    <mergeCell ref="H3481:I3481"/>
+    <mergeCell ref="H3482:I3482"/>
+    <mergeCell ref="H3483:I3483"/>
+    <mergeCell ref="H3484:I3484"/>
+    <mergeCell ref="H3467:I3467"/>
+    <mergeCell ref="H3468:I3468"/>
+    <mergeCell ref="H3469:I3469"/>
+    <mergeCell ref="H3470:I3470"/>
+    <mergeCell ref="H3471:I3471"/>
+    <mergeCell ref="H3472:I3472"/>
+    <mergeCell ref="H3473:I3473"/>
+    <mergeCell ref="H3474:I3474"/>
+    <mergeCell ref="H3475:I3475"/>
+    <mergeCell ref="H3494:I3494"/>
+    <mergeCell ref="H3495:I3495"/>
+    <mergeCell ref="H3496:I3496"/>
+    <mergeCell ref="H3497:I3497"/>
+    <mergeCell ref="H3498:I3498"/>
+    <mergeCell ref="H3499:I3499"/>
+    <mergeCell ref="H3500:I3500"/>
+    <mergeCell ref="H3501:I3501"/>
+    <mergeCell ref="H3502:I3502"/>
+    <mergeCell ref="H3485:I3485"/>
+    <mergeCell ref="H3486:I3486"/>
+    <mergeCell ref="H3487:I3487"/>
+    <mergeCell ref="H3488:I3488"/>
+    <mergeCell ref="H3489:I3489"/>
+    <mergeCell ref="H3490:I3490"/>
+    <mergeCell ref="H3491:I3491"/>
+    <mergeCell ref="H3492:I3492"/>
+    <mergeCell ref="H3493:I3493"/>
+    <mergeCell ref="H3512:I3512"/>
+    <mergeCell ref="H3513:I3513"/>
+    <mergeCell ref="H3514:I3514"/>
+    <mergeCell ref="H3515:I3515"/>
+    <mergeCell ref="H3516:I3516"/>
+    <mergeCell ref="H3517:I3517"/>
+    <mergeCell ref="H3518:I3518"/>
+    <mergeCell ref="H3519:I3519"/>
+    <mergeCell ref="H3520:I3520"/>
+    <mergeCell ref="H3503:I3503"/>
+    <mergeCell ref="H3504:I3504"/>
+    <mergeCell ref="H3505:I3505"/>
+    <mergeCell ref="H3506:I3506"/>
+    <mergeCell ref="H3507:I3507"/>
+    <mergeCell ref="H3508:I3508"/>
+    <mergeCell ref="H3509:I3509"/>
+    <mergeCell ref="H3510:I3510"/>
+    <mergeCell ref="H3511:I3511"/>
+    <mergeCell ref="H3530:I3530"/>
+    <mergeCell ref="H3531:I3531"/>
+    <mergeCell ref="H3532:I3532"/>
+    <mergeCell ref="H3533:I3533"/>
+    <mergeCell ref="H3534:I3534"/>
+    <mergeCell ref="H3535:I3535"/>
+    <mergeCell ref="H3536:I3536"/>
+    <mergeCell ref="H3537:I3537"/>
+    <mergeCell ref="H3538:I3538"/>
+    <mergeCell ref="H3521:I3521"/>
+    <mergeCell ref="H3522:I3522"/>
+    <mergeCell ref="H3523:I3523"/>
+    <mergeCell ref="H3524:I3524"/>
+    <mergeCell ref="H3525:I3525"/>
+    <mergeCell ref="H3526:I3526"/>
+    <mergeCell ref="H3527:I3527"/>
+    <mergeCell ref="H3528:I3528"/>
+    <mergeCell ref="H3529:I3529"/>
+    <mergeCell ref="H3548:I3548"/>
+    <mergeCell ref="H3549:I3549"/>
+    <mergeCell ref="H3550:I3550"/>
+    <mergeCell ref="H3551:I3551"/>
+    <mergeCell ref="H3552:I3552"/>
+    <mergeCell ref="H3553:I3553"/>
+    <mergeCell ref="H3554:I3554"/>
+    <mergeCell ref="H3555:I3555"/>
+    <mergeCell ref="H3556:I3556"/>
+    <mergeCell ref="H3539:I3539"/>
+    <mergeCell ref="H3540:I3540"/>
+    <mergeCell ref="H3541:I3541"/>
+    <mergeCell ref="H3542:I3542"/>
+    <mergeCell ref="H3543:I3543"/>
+    <mergeCell ref="H3544:I3544"/>
+    <mergeCell ref="H3545:I3545"/>
+    <mergeCell ref="H3546:I3546"/>
+    <mergeCell ref="H3547:I3547"/>
+    <mergeCell ref="H3566:I3566"/>
+    <mergeCell ref="H3567:I3567"/>
+    <mergeCell ref="H3568:I3568"/>
+    <mergeCell ref="H3569:I3569"/>
+    <mergeCell ref="H3570:I3570"/>
+    <mergeCell ref="H3571:I3571"/>
+    <mergeCell ref="H3572:I3572"/>
+    <mergeCell ref="H3573:I3573"/>
+    <mergeCell ref="H3574:I3574"/>
+    <mergeCell ref="H3557:I3557"/>
+    <mergeCell ref="H3558:I3558"/>
+    <mergeCell ref="H3559:I3559"/>
+    <mergeCell ref="H3560:I3560"/>
+    <mergeCell ref="H3561:I3561"/>
+    <mergeCell ref="H3562:I3562"/>
+    <mergeCell ref="H3563:I3563"/>
+    <mergeCell ref="H3564:I3564"/>
+    <mergeCell ref="H3565:I3565"/>
+    <mergeCell ref="H3584:I3584"/>
+    <mergeCell ref="H3585:I3585"/>
+    <mergeCell ref="H3586:I3586"/>
+    <mergeCell ref="H3587:I3587"/>
+    <mergeCell ref="H3588:I3588"/>
+    <mergeCell ref="H3589:I3589"/>
+    <mergeCell ref="H3590:I3590"/>
+    <mergeCell ref="H3591:I3591"/>
+    <mergeCell ref="H3592:I3592"/>
+    <mergeCell ref="H3575:I3575"/>
+    <mergeCell ref="H3576:I3576"/>
+    <mergeCell ref="H3577:I3577"/>
+    <mergeCell ref="H3578:I3578"/>
+    <mergeCell ref="H3579:I3579"/>
+    <mergeCell ref="H3580:I3580"/>
+    <mergeCell ref="H3581:I3581"/>
+    <mergeCell ref="H3582:I3582"/>
+    <mergeCell ref="H3583:I3583"/>
+    <mergeCell ref="H3602:I3602"/>
+    <mergeCell ref="H3603:I3603"/>
+    <mergeCell ref="H3604:I3604"/>
+    <mergeCell ref="H3605:I3605"/>
+    <mergeCell ref="H3606:I3606"/>
+    <mergeCell ref="H3607:I3607"/>
+    <mergeCell ref="H3608:I3608"/>
+    <mergeCell ref="H3609:I3609"/>
+    <mergeCell ref="H3610:I3610"/>
+    <mergeCell ref="H3593:I3593"/>
+    <mergeCell ref="H3594:I3594"/>
+    <mergeCell ref="H3595:I3595"/>
+    <mergeCell ref="H3596:I3596"/>
+    <mergeCell ref="H3597:I3597"/>
+    <mergeCell ref="H3598:I3598"/>
+    <mergeCell ref="H3599:I3599"/>
+    <mergeCell ref="H3600:I3600"/>
+    <mergeCell ref="H3601:I3601"/>
+    <mergeCell ref="H3620:I3620"/>
+    <mergeCell ref="H3621:I3621"/>
+    <mergeCell ref="H3622:I3622"/>
+    <mergeCell ref="H3623:I3623"/>
+    <mergeCell ref="H3624:I3624"/>
+    <mergeCell ref="H3625:I3625"/>
+    <mergeCell ref="H3626:I3626"/>
+    <mergeCell ref="H3627:I3627"/>
+    <mergeCell ref="H3628:I3628"/>
+    <mergeCell ref="H3611:I3611"/>
+    <mergeCell ref="H3612:I3612"/>
+    <mergeCell ref="H3613:I3613"/>
+    <mergeCell ref="H3614:I3614"/>
+    <mergeCell ref="H3615:I3615"/>
+    <mergeCell ref="H3616:I3616"/>
+    <mergeCell ref="H3617:I3617"/>
+    <mergeCell ref="H3618:I3618"/>
+    <mergeCell ref="H3619:I3619"/>
+    <mergeCell ref="H3638:I3638"/>
+    <mergeCell ref="H3639:I3639"/>
+    <mergeCell ref="H3640:I3640"/>
+    <mergeCell ref="H3641:I3641"/>
+    <mergeCell ref="H3642:I3642"/>
+    <mergeCell ref="H3643:I3643"/>
+    <mergeCell ref="H3644:I3644"/>
+    <mergeCell ref="H3645:I3645"/>
+    <mergeCell ref="H3646:I3646"/>
+    <mergeCell ref="H3629:I3629"/>
+    <mergeCell ref="H3630:I3630"/>
+    <mergeCell ref="H3631:I3631"/>
+    <mergeCell ref="H3632:I3632"/>
+    <mergeCell ref="H3633:I3633"/>
+    <mergeCell ref="H3634:I3634"/>
+    <mergeCell ref="H3635:I3635"/>
+    <mergeCell ref="H3636:I3636"/>
+    <mergeCell ref="H3637:I3637"/>
+    <mergeCell ref="H3656:I3656"/>
+    <mergeCell ref="H3657:I3657"/>
+    <mergeCell ref="H3658:I3658"/>
+    <mergeCell ref="H3659:I3659"/>
+    <mergeCell ref="H3660:I3660"/>
+    <mergeCell ref="H3661:I3661"/>
+    <mergeCell ref="H3662:I3662"/>
+    <mergeCell ref="H3663:I3663"/>
+    <mergeCell ref="H3664:I3664"/>
+    <mergeCell ref="H3647:I3647"/>
+    <mergeCell ref="H3648:I3648"/>
+    <mergeCell ref="H3649:I3649"/>
+    <mergeCell ref="H3650:I3650"/>
+    <mergeCell ref="H3651:I3651"/>
+    <mergeCell ref="H3652:I3652"/>
+    <mergeCell ref="H3653:I3653"/>
+    <mergeCell ref="H3654:I3654"/>
+    <mergeCell ref="H3655:I3655"/>
+    <mergeCell ref="H3674:I3674"/>
+    <mergeCell ref="H3675:I3675"/>
+    <mergeCell ref="H3676:I3676"/>
+    <mergeCell ref="H3677:I3677"/>
+    <mergeCell ref="H3678:I3678"/>
+    <mergeCell ref="H3679:I3679"/>
+    <mergeCell ref="H3680:I3680"/>
+    <mergeCell ref="H3681:I3681"/>
+    <mergeCell ref="H3682:I3682"/>
+    <mergeCell ref="H3665:I3665"/>
+    <mergeCell ref="H3666:I3666"/>
+    <mergeCell ref="H3667:I3667"/>
+    <mergeCell ref="H3668:I3668"/>
+    <mergeCell ref="H3669:I3669"/>
+    <mergeCell ref="H3670:I3670"/>
+    <mergeCell ref="H3671:I3671"/>
+    <mergeCell ref="H3672:I3672"/>
+    <mergeCell ref="H3673:I3673"/>
+    <mergeCell ref="H3692:I3692"/>
+    <mergeCell ref="H3693:I3693"/>
+    <mergeCell ref="H3694:I3694"/>
+    <mergeCell ref="H3695:I3695"/>
+    <mergeCell ref="H3696:I3696"/>
+    <mergeCell ref="H3697:I3697"/>
+    <mergeCell ref="H3698:I3698"/>
+    <mergeCell ref="H3699:I3699"/>
+    <mergeCell ref="H3700:I3700"/>
+    <mergeCell ref="H3683:I3683"/>
+    <mergeCell ref="H3684:I3684"/>
+    <mergeCell ref="H3685:I3685"/>
+    <mergeCell ref="H3686:I3686"/>
+    <mergeCell ref="H3687:I3687"/>
+    <mergeCell ref="H3688:I3688"/>
+    <mergeCell ref="H3689:I3689"/>
+    <mergeCell ref="H3690:I3690"/>
+    <mergeCell ref="H3691:I3691"/>
+    <mergeCell ref="H3710:I3710"/>
+    <mergeCell ref="H3711:I3711"/>
+    <mergeCell ref="H3712:I3712"/>
+    <mergeCell ref="H3713:I3713"/>
+    <mergeCell ref="H3714:I3714"/>
+    <mergeCell ref="H3715:I3715"/>
+    <mergeCell ref="H3716:I3716"/>
+    <mergeCell ref="H3717:I3717"/>
+    <mergeCell ref="H3718:I3718"/>
+    <mergeCell ref="H3701:I3701"/>
+    <mergeCell ref="H3702:I3702"/>
+    <mergeCell ref="H3703:I3703"/>
+    <mergeCell ref="H3704:I3704"/>
+    <mergeCell ref="H3705:I3705"/>
+    <mergeCell ref="H3706:I3706"/>
+    <mergeCell ref="H3707:I3707"/>
+    <mergeCell ref="H3708:I3708"/>
+    <mergeCell ref="H3709:I3709"/>
+    <mergeCell ref="H3728:I3728"/>
+    <mergeCell ref="H3729:I3729"/>
+    <mergeCell ref="H3730:I3730"/>
+    <mergeCell ref="H3731:I3731"/>
+    <mergeCell ref="H3732:I3732"/>
+    <mergeCell ref="H3733:I3733"/>
+    <mergeCell ref="H3734:I3734"/>
+    <mergeCell ref="H3735:I3735"/>
+    <mergeCell ref="H3736:I3736"/>
+    <mergeCell ref="H3719:I3719"/>
+    <mergeCell ref="H3720:I3720"/>
+    <mergeCell ref="H3721:I3721"/>
+    <mergeCell ref="H3722:I3722"/>
+    <mergeCell ref="H3723:I3723"/>
+    <mergeCell ref="H3724:I3724"/>
+    <mergeCell ref="H3725:I3725"/>
+    <mergeCell ref="H3726:I3726"/>
+    <mergeCell ref="H3727:I3727"/>
+    <mergeCell ref="H3746:I3746"/>
+    <mergeCell ref="H3747:I3747"/>
+    <mergeCell ref="H3748:I3748"/>
+    <mergeCell ref="H3749:I3749"/>
+    <mergeCell ref="H3750:I3750"/>
+    <mergeCell ref="H3751:I3751"/>
+    <mergeCell ref="H3752:I3752"/>
+    <mergeCell ref="H3753:I3753"/>
+    <mergeCell ref="H3754:I3754"/>
+    <mergeCell ref="H3737:I3737"/>
+    <mergeCell ref="H3738:I3738"/>
+    <mergeCell ref="H3739:I3739"/>
+    <mergeCell ref="H3740:I3740"/>
+    <mergeCell ref="H3741:I3741"/>
+    <mergeCell ref="H3742:I3742"/>
+    <mergeCell ref="H3743:I3743"/>
+    <mergeCell ref="H3744:I3744"/>
+    <mergeCell ref="H3745:I3745"/>
+    <mergeCell ref="H3764:I3764"/>
+    <mergeCell ref="H3765:I3765"/>
+    <mergeCell ref="H3766:I3766"/>
+    <mergeCell ref="H3767:I3767"/>
+    <mergeCell ref="H3768:I3768"/>
+    <mergeCell ref="H3769:I3769"/>
+    <mergeCell ref="H3770:I3770"/>
+    <mergeCell ref="H3771:I3771"/>
+    <mergeCell ref="H3772:I3772"/>
+    <mergeCell ref="H3755:I3755"/>
+    <mergeCell ref="H3756:I3756"/>
+    <mergeCell ref="H3757:I3757"/>
+    <mergeCell ref="H3758:I3758"/>
+    <mergeCell ref="H3759:I3759"/>
+    <mergeCell ref="H3760:I3760"/>
+    <mergeCell ref="H3761:I3761"/>
+    <mergeCell ref="H3762:I3762"/>
+    <mergeCell ref="H3763:I3763"/>
+    <mergeCell ref="H3782:I3782"/>
+    <mergeCell ref="H3783:I3783"/>
+    <mergeCell ref="H3784:I3784"/>
+    <mergeCell ref="H3785:I3785"/>
+    <mergeCell ref="H3786:I3786"/>
+    <mergeCell ref="H3787:I3787"/>
+    <mergeCell ref="H3788:I3788"/>
+    <mergeCell ref="H3789:I3789"/>
+    <mergeCell ref="H3790:I3790"/>
+    <mergeCell ref="H3773:I3773"/>
+    <mergeCell ref="H3774:I3774"/>
+    <mergeCell ref="H3775:I3775"/>
+    <mergeCell ref="H3776:I3776"/>
+    <mergeCell ref="H3777:I3777"/>
+    <mergeCell ref="H3778:I3778"/>
+    <mergeCell ref="H3779:I3779"/>
+    <mergeCell ref="H3780:I3780"/>
+    <mergeCell ref="H3781:I3781"/>
+    <mergeCell ref="H3800:I3800"/>
+    <mergeCell ref="H3801:I3801"/>
+    <mergeCell ref="H3802:I3802"/>
+    <mergeCell ref="H3803:I3803"/>
+    <mergeCell ref="H3804:I3804"/>
+    <mergeCell ref="H3805:I3805"/>
+    <mergeCell ref="H3806:I3806"/>
+    <mergeCell ref="H3807:I3807"/>
+    <mergeCell ref="H3808:I3808"/>
+    <mergeCell ref="H3791:I3791"/>
+    <mergeCell ref="H3792:I3792"/>
+    <mergeCell ref="H3793:I3793"/>
+    <mergeCell ref="H3794:I3794"/>
+    <mergeCell ref="H3795:I3795"/>
+    <mergeCell ref="H3796:I3796"/>
+    <mergeCell ref="H3797:I3797"/>
+    <mergeCell ref="H3798:I3798"/>
+    <mergeCell ref="H3799:I3799"/>
+    <mergeCell ref="H3818:I3818"/>
+    <mergeCell ref="H3819:I3819"/>
+    <mergeCell ref="H3820:I3820"/>
+    <mergeCell ref="H3821:I3821"/>
+    <mergeCell ref="H3822:I3822"/>
+    <mergeCell ref="H3823:I3823"/>
+    <mergeCell ref="H3824:I3824"/>
+    <mergeCell ref="H3825:I3825"/>
+    <mergeCell ref="H3826:I3826"/>
+    <mergeCell ref="H3809:I3809"/>
+    <mergeCell ref="H3810:I3810"/>
+    <mergeCell ref="H3811:I3811"/>
+    <mergeCell ref="H3812:I3812"/>
+    <mergeCell ref="H3813:I3813"/>
+    <mergeCell ref="H3814:I3814"/>
+    <mergeCell ref="H3815:I3815"/>
+    <mergeCell ref="H3816:I3816"/>
+    <mergeCell ref="H3817:I3817"/>
+    <mergeCell ref="H3836:I3836"/>
+    <mergeCell ref="H3837:I3837"/>
+    <mergeCell ref="H3838:I3838"/>
+    <mergeCell ref="H3839:I3839"/>
+    <mergeCell ref="H3840:I3840"/>
+    <mergeCell ref="H3841:I3841"/>
+    <mergeCell ref="H3842:I3842"/>
+    <mergeCell ref="H3843:I3843"/>
+    <mergeCell ref="H3844:I3844"/>
+    <mergeCell ref="H3827:I3827"/>
+    <mergeCell ref="H3828:I3828"/>
+    <mergeCell ref="H3829:I3829"/>
+    <mergeCell ref="H3830:I3830"/>
+    <mergeCell ref="H3831:I3831"/>
+    <mergeCell ref="H3832:I3832"/>
+    <mergeCell ref="H3833:I3833"/>
+    <mergeCell ref="H3834:I3834"/>
+    <mergeCell ref="H3835:I3835"/>
+    <mergeCell ref="H3854:I3854"/>
+    <mergeCell ref="H3855:I3855"/>
+    <mergeCell ref="H3856:I3856"/>
+    <mergeCell ref="H3857:I3857"/>
+    <mergeCell ref="H3858:I3858"/>
+    <mergeCell ref="H3859:I3859"/>
+    <mergeCell ref="H3860:I3860"/>
+    <mergeCell ref="H3861:I3861"/>
+    <mergeCell ref="H3862:I3862"/>
+    <mergeCell ref="H3845:I3845"/>
+    <mergeCell ref="H3846:I3846"/>
+    <mergeCell ref="H3847:I3847"/>
+    <mergeCell ref="H3848:I3848"/>
+    <mergeCell ref="H3849:I3849"/>
+    <mergeCell ref="H3850:I3850"/>
+    <mergeCell ref="H3851:I3851"/>
+    <mergeCell ref="H3852:I3852"/>
+    <mergeCell ref="H3853:I3853"/>
+    <mergeCell ref="H3872:I3872"/>
+    <mergeCell ref="H3873:I3873"/>
+    <mergeCell ref="H3874:I3874"/>
+    <mergeCell ref="H3875:I3875"/>
+    <mergeCell ref="H3876:I3876"/>
+    <mergeCell ref="H3877:I3877"/>
+    <mergeCell ref="H3878:I3878"/>
+    <mergeCell ref="H3879:I3879"/>
+    <mergeCell ref="H3880:I3880"/>
+    <mergeCell ref="H3863:I3863"/>
+    <mergeCell ref="H3864:I3864"/>
+    <mergeCell ref="H3865:I3865"/>
+    <mergeCell ref="H3866:I3866"/>
+    <mergeCell ref="H3867:I3867"/>
+    <mergeCell ref="H3868:I3868"/>
+    <mergeCell ref="H3869:I3869"/>
+    <mergeCell ref="H3870:I3870"/>
+    <mergeCell ref="H3871:I3871"/>
+    <mergeCell ref="H3890:I3890"/>
+    <mergeCell ref="H3891:I3891"/>
+    <mergeCell ref="H3892:I3892"/>
+    <mergeCell ref="H3893:I3893"/>
+    <mergeCell ref="H3894:I3894"/>
+    <mergeCell ref="H3895:I3895"/>
+    <mergeCell ref="H3896:I3896"/>
+    <mergeCell ref="H3897:I3897"/>
+    <mergeCell ref="H3898:I3898"/>
+    <mergeCell ref="H3881:I3881"/>
+    <mergeCell ref="H3882:I3882"/>
+    <mergeCell ref="H3883:I3883"/>
+    <mergeCell ref="H3884:I3884"/>
+    <mergeCell ref="H3885:I3885"/>
+    <mergeCell ref="H3886:I3886"/>
+    <mergeCell ref="H3887:I3887"/>
+    <mergeCell ref="H3888:I3888"/>
+    <mergeCell ref="H3889:I3889"/>
+    <mergeCell ref="H3908:I3908"/>
+    <mergeCell ref="H3909:I3909"/>
+    <mergeCell ref="H3910:I3910"/>
+    <mergeCell ref="H3911:I3911"/>
+    <mergeCell ref="H3912:I3912"/>
+    <mergeCell ref="H3913:I3913"/>
+    <mergeCell ref="H3914:I3914"/>
+    <mergeCell ref="H3915:I3915"/>
+    <mergeCell ref="H3916:I3916"/>
+    <mergeCell ref="H3899:I3899"/>
+    <mergeCell ref="H3900:I3900"/>
+    <mergeCell ref="H3901:I3901"/>
+    <mergeCell ref="H3902:I3902"/>
+    <mergeCell ref="H3903:I3903"/>
+    <mergeCell ref="H3904:I3904"/>
+    <mergeCell ref="H3905:I3905"/>
+    <mergeCell ref="H3906:I3906"/>
+    <mergeCell ref="H3907:I3907"/>
+    <mergeCell ref="H3926:I3926"/>
+    <mergeCell ref="H3927:I3927"/>
+    <mergeCell ref="H3928:I3928"/>
+    <mergeCell ref="H3929:I3929"/>
+    <mergeCell ref="H3930:I3930"/>
+    <mergeCell ref="H3931:I3931"/>
+    <mergeCell ref="H3932:I3932"/>
+    <mergeCell ref="H3933:I3933"/>
+    <mergeCell ref="H3934:I3934"/>
+    <mergeCell ref="H3917:I3917"/>
+    <mergeCell ref="H3918:I3918"/>
+    <mergeCell ref="H3919:I3919"/>
+    <mergeCell ref="H3920:I3920"/>
+    <mergeCell ref="H3921:I3921"/>
+    <mergeCell ref="H3922:I3922"/>
+    <mergeCell ref="H3923:I3923"/>
+    <mergeCell ref="H3924:I3924"/>
+    <mergeCell ref="H3925:I3925"/>
+    <mergeCell ref="H3944:I3944"/>
+    <mergeCell ref="H3945:I3945"/>
+    <mergeCell ref="H3946:I3946"/>
+    <mergeCell ref="H3947:I3947"/>
+    <mergeCell ref="H3948:I3948"/>
+    <mergeCell ref="H3949:I3949"/>
+    <mergeCell ref="H3950:I3950"/>
+    <mergeCell ref="H3951:I3951"/>
+    <mergeCell ref="H3952:I3952"/>
+    <mergeCell ref="H3935:I3935"/>
+    <mergeCell ref="H3936:I3936"/>
+    <mergeCell ref="H3937:I3937"/>
+    <mergeCell ref="H3938:I3938"/>
+    <mergeCell ref="H3939:I3939"/>
+    <mergeCell ref="H3940:I3940"/>
+    <mergeCell ref="H3941:I3941"/>
+    <mergeCell ref="H3942:I3942"/>
+    <mergeCell ref="H3943:I3943"/>
+    <mergeCell ref="H3962:I3962"/>
+    <mergeCell ref="H3963:I3963"/>
+    <mergeCell ref="H3964:I3964"/>
+    <mergeCell ref="H3965:I3965"/>
+    <mergeCell ref="H3966:I3966"/>
+    <mergeCell ref="H3967:I3967"/>
+    <mergeCell ref="H3968:I3968"/>
+    <mergeCell ref="H3969:I3969"/>
+    <mergeCell ref="H3970:I3970"/>
+    <mergeCell ref="H3953:I3953"/>
+    <mergeCell ref="H3954:I3954"/>
+    <mergeCell ref="H3955:I3955"/>
+    <mergeCell ref="H3956:I3956"/>
+    <mergeCell ref="H3957:I3957"/>
+    <mergeCell ref="H3958:I3958"/>
+    <mergeCell ref="H3959:I3959"/>
+    <mergeCell ref="H3960:I3960"/>
+    <mergeCell ref="H3961:I3961"/>
+    <mergeCell ref="H3980:I3980"/>
+    <mergeCell ref="H3981:I3981"/>
+    <mergeCell ref="H3982:I3982"/>
+    <mergeCell ref="H3983:I3983"/>
+    <mergeCell ref="H3984:I3984"/>
+    <mergeCell ref="H3985:I3985"/>
+    <mergeCell ref="H3986:I3986"/>
+    <mergeCell ref="H3987:I3987"/>
+    <mergeCell ref="H3988:I3988"/>
+    <mergeCell ref="H3971:I3971"/>
+    <mergeCell ref="H3972:I3972"/>
+    <mergeCell ref="H3973:I3973"/>
+    <mergeCell ref="H3974:I3974"/>
+    <mergeCell ref="H3975:I3975"/>
+    <mergeCell ref="H3976:I3976"/>
+    <mergeCell ref="H3977:I3977"/>
+    <mergeCell ref="H3978:I3978"/>
+    <mergeCell ref="H3979:I3979"/>
+    <mergeCell ref="H3998:I3998"/>
+    <mergeCell ref="H3999:I3999"/>
+    <mergeCell ref="H4000:I4000"/>
+    <mergeCell ref="H4001:I4001"/>
+    <mergeCell ref="H4002:I4002"/>
+    <mergeCell ref="H4003:I4003"/>
+    <mergeCell ref="H4004:I4004"/>
+    <mergeCell ref="H4005:I4005"/>
+    <mergeCell ref="H4006:I4006"/>
+    <mergeCell ref="H3989:I3989"/>
+    <mergeCell ref="H3990:I3990"/>
+    <mergeCell ref="H3991:I3991"/>
+    <mergeCell ref="H3992:I3992"/>
+    <mergeCell ref="H3993:I3993"/>
+    <mergeCell ref="H3994:I3994"/>
+    <mergeCell ref="H3995:I3995"/>
+    <mergeCell ref="H3996:I3996"/>
+    <mergeCell ref="H3997:I3997"/>
+    <mergeCell ref="H4016:I4016"/>
+    <mergeCell ref="H4017:I4017"/>
+    <mergeCell ref="H4018:I4018"/>
+    <mergeCell ref="H4019:I4019"/>
+    <mergeCell ref="H4020:I4020"/>
+    <mergeCell ref="H4021:I4021"/>
+    <mergeCell ref="H4022:I4022"/>
+    <mergeCell ref="H4023:I4023"/>
+    <mergeCell ref="H4024:I4024"/>
+    <mergeCell ref="H4007:I4007"/>
+    <mergeCell ref="H4008:I4008"/>
+    <mergeCell ref="H4009:I4009"/>
+    <mergeCell ref="H4010:I4010"/>
+    <mergeCell ref="H4011:I4011"/>
+    <mergeCell ref="H4012:I4012"/>
+    <mergeCell ref="H4013:I4013"/>
+    <mergeCell ref="H4014:I4014"/>
+    <mergeCell ref="H4015:I4015"/>
+    <mergeCell ref="H4034:I4034"/>
+    <mergeCell ref="H4035:I4035"/>
+    <mergeCell ref="H4036:I4036"/>
+    <mergeCell ref="H4037:I4037"/>
+    <mergeCell ref="H4038:I4038"/>
+    <mergeCell ref="H4039:I4039"/>
+    <mergeCell ref="H4040:I4040"/>
+    <mergeCell ref="H4041:I4041"/>
+    <mergeCell ref="H4042:I4042"/>
+    <mergeCell ref="H4025:I4025"/>
+    <mergeCell ref="H4026:I4026"/>
+    <mergeCell ref="H4027:I4027"/>
+    <mergeCell ref="H4028:I4028"/>
+    <mergeCell ref="H4029:I4029"/>
+    <mergeCell ref="H4030:I4030"/>
+    <mergeCell ref="H4031:I4031"/>
+    <mergeCell ref="H4032:I4032"/>
+    <mergeCell ref="H4033:I4033"/>
+    <mergeCell ref="H4052:I4052"/>
+    <mergeCell ref="H4053:I4053"/>
+    <mergeCell ref="H4054:I4054"/>
+    <mergeCell ref="H4055:I4055"/>
+    <mergeCell ref="H4056:I4056"/>
+    <mergeCell ref="H4057:I4057"/>
+    <mergeCell ref="H4058:I4058"/>
+    <mergeCell ref="H4059:I4059"/>
+    <mergeCell ref="H4060:I4060"/>
+    <mergeCell ref="H4043:I4043"/>
+    <mergeCell ref="H4044:I4044"/>
+    <mergeCell ref="H4045:I4045"/>
+    <mergeCell ref="H4046:I4046"/>
+    <mergeCell ref="H4047:I4047"/>
+    <mergeCell ref="H4048:I4048"/>
+    <mergeCell ref="H4049:I4049"/>
+    <mergeCell ref="H4050:I4050"/>
+    <mergeCell ref="H4051:I4051"/>
+    <mergeCell ref="H4070:I4070"/>
+    <mergeCell ref="H4071:I4071"/>
+    <mergeCell ref="H4072:I4072"/>
+    <mergeCell ref="H4073:I4073"/>
+    <mergeCell ref="H4074:I4074"/>
+    <mergeCell ref="H4075:I4075"/>
+    <mergeCell ref="H4076:I4076"/>
+    <mergeCell ref="H4077:I4077"/>
+    <mergeCell ref="H4078:I4078"/>
+    <mergeCell ref="H4061:I4061"/>
+    <mergeCell ref="H4062:I4062"/>
+    <mergeCell ref="H4063:I4063"/>
+    <mergeCell ref="H4064:I4064"/>
+    <mergeCell ref="H4065:I4065"/>
+    <mergeCell ref="H4066:I4066"/>
+    <mergeCell ref="H4067:I4067"/>
+    <mergeCell ref="H4068:I4068"/>
+    <mergeCell ref="H4069:I4069"/>
+    <mergeCell ref="H4088:I4088"/>
+    <mergeCell ref="H4089:I4089"/>
+    <mergeCell ref="H4090:I4090"/>
+    <mergeCell ref="H4091:I4091"/>
+    <mergeCell ref="H4092:I4092"/>
+    <mergeCell ref="H4093:I4093"/>
+    <mergeCell ref="H4094:I4094"/>
+    <mergeCell ref="H4095:I4095"/>
+    <mergeCell ref="H4096:I4096"/>
+    <mergeCell ref="H4079:I4079"/>
+    <mergeCell ref="H4080:I4080"/>
+    <mergeCell ref="H4081:I4081"/>
+    <mergeCell ref="H4082:I4082"/>
+    <mergeCell ref="H4083:I4083"/>
+    <mergeCell ref="H4084:I4084"/>
+    <mergeCell ref="H4085:I4085"/>
+    <mergeCell ref="H4086:I4086"/>
+    <mergeCell ref="H4087:I4087"/>
+    <mergeCell ref="H4106:I4106"/>
+    <mergeCell ref="H4107:I4107"/>
+    <mergeCell ref="H4108:I4108"/>
+    <mergeCell ref="H4109:I4109"/>
+    <mergeCell ref="H4110:I4110"/>
+    <mergeCell ref="H4111:I4111"/>
+    <mergeCell ref="H4112:I4112"/>
+    <mergeCell ref="H4113:I4113"/>
+    <mergeCell ref="H4114:I4114"/>
+    <mergeCell ref="H4097:I4097"/>
+    <mergeCell ref="H4098:I4098"/>
+    <mergeCell ref="H4099:I4099"/>
+    <mergeCell ref="H4100:I4100"/>
+    <mergeCell ref="H4101:I4101"/>
+    <mergeCell ref="H4102:I4102"/>
+    <mergeCell ref="H4103:I4103"/>
+    <mergeCell ref="H4104:I4104"/>
+    <mergeCell ref="H4105:I4105"/>
+    <mergeCell ref="H4124:I4124"/>
+    <mergeCell ref="H4125:I4125"/>
+    <mergeCell ref="H4126:I4126"/>
+    <mergeCell ref="H4127:I4127"/>
+    <mergeCell ref="H4128:I4128"/>
+    <mergeCell ref="H4129:I4129"/>
+    <mergeCell ref="H4130:I4130"/>
+    <mergeCell ref="H4131:I4131"/>
+    <mergeCell ref="H4132:I4132"/>
+    <mergeCell ref="H4115:I4115"/>
+    <mergeCell ref="H4116:I4116"/>
+    <mergeCell ref="H4117:I4117"/>
+    <mergeCell ref="H4118:I4118"/>
+    <mergeCell ref="H4119:I4119"/>
+    <mergeCell ref="H4120:I4120"/>
+    <mergeCell ref="H4121:I4121"/>
+    <mergeCell ref="H4122:I4122"/>
+    <mergeCell ref="H4123:I4123"/>
+    <mergeCell ref="H4142:I4142"/>
+    <mergeCell ref="H4143:I4143"/>
+    <mergeCell ref="H4144:I4144"/>
+    <mergeCell ref="H4145:I4145"/>
+    <mergeCell ref="H4146:I4146"/>
+    <mergeCell ref="H4147:I4147"/>
+    <mergeCell ref="H4148:I4148"/>
+    <mergeCell ref="H4149:I4149"/>
+    <mergeCell ref="H4150:I4150"/>
+    <mergeCell ref="H4133:I4133"/>
+    <mergeCell ref="H4134:I4134"/>
+    <mergeCell ref="H4135:I4135"/>
+    <mergeCell ref="H4136:I4136"/>
+    <mergeCell ref="H4137:I4137"/>
+    <mergeCell ref="H4138:I4138"/>
+    <mergeCell ref="H4139:I4139"/>
+    <mergeCell ref="H4140:I4140"/>
+    <mergeCell ref="H4141:I4141"/>
+    <mergeCell ref="H4160:I4160"/>
+    <mergeCell ref="H4161:I4161"/>
+    <mergeCell ref="H4162:I4162"/>
+    <mergeCell ref="H4163:I4163"/>
+    <mergeCell ref="H4164:I4164"/>
+    <mergeCell ref="H4165:I4165"/>
+    <mergeCell ref="H4166:I4166"/>
+    <mergeCell ref="H4167:I4167"/>
+    <mergeCell ref="H4168:I4168"/>
+    <mergeCell ref="H4151:I4151"/>
+    <mergeCell ref="H4152:I4152"/>
+    <mergeCell ref="H4153:I4153"/>
+    <mergeCell ref="H4154:I4154"/>
+    <mergeCell ref="H4155:I4155"/>
+    <mergeCell ref="H4156:I4156"/>
+    <mergeCell ref="H4157:I4157"/>
+    <mergeCell ref="H4158:I4158"/>
+    <mergeCell ref="H4159:I4159"/>
+    <mergeCell ref="H4178:I4178"/>
+    <mergeCell ref="H4179:I4179"/>
+    <mergeCell ref="H4180:I4180"/>
+    <mergeCell ref="H4181:I4181"/>
+    <mergeCell ref="H4182:I4182"/>
+    <mergeCell ref="H4183:I4183"/>
+    <mergeCell ref="H4184:I4184"/>
+    <mergeCell ref="H4185:I4185"/>
+    <mergeCell ref="H4186:I4186"/>
+    <mergeCell ref="H4169:I4169"/>
+    <mergeCell ref="H4170:I4170"/>
+    <mergeCell ref="H4171:I4171"/>
+    <mergeCell ref="H4172:I4172"/>
+    <mergeCell ref="H4173:I4173"/>
+    <mergeCell ref="H4174:I4174"/>
+    <mergeCell ref="H4175:I4175"/>
+    <mergeCell ref="H4176:I4176"/>
+    <mergeCell ref="H4177:I4177"/>
+    <mergeCell ref="H4196:I4196"/>
+    <mergeCell ref="H4197:I4197"/>
+    <mergeCell ref="H4198:I4198"/>
+    <mergeCell ref="H4199:I4199"/>
+    <mergeCell ref="H4200:I4200"/>
+    <mergeCell ref="H4201:I4201"/>
+    <mergeCell ref="H4202:I4202"/>
+    <mergeCell ref="H4203:I4203"/>
+    <mergeCell ref="H4204:I4204"/>
+    <mergeCell ref="H4187:I4187"/>
+    <mergeCell ref="H4188:I4188"/>
+    <mergeCell ref="H4189:I4189"/>
+    <mergeCell ref="H4190:I4190"/>
+    <mergeCell ref="H4191:I4191"/>
+    <mergeCell ref="H4192:I4192"/>
+    <mergeCell ref="H4193:I4193"/>
+    <mergeCell ref="H4194:I4194"/>
+    <mergeCell ref="H4195:I4195"/>
+    <mergeCell ref="H4214:I4214"/>
+    <mergeCell ref="H4215:I4215"/>
+    <mergeCell ref="H4216:I4216"/>
+    <mergeCell ref="H4217:I4217"/>
+    <mergeCell ref="H4218:I4218"/>
+    <mergeCell ref="H4219:I4219"/>
+    <mergeCell ref="H4220:I4220"/>
+    <mergeCell ref="H4221:I4221"/>
+    <mergeCell ref="H4222:I4222"/>
+    <mergeCell ref="H4205:I4205"/>
+    <mergeCell ref="H4206:I4206"/>
+    <mergeCell ref="H4207:I4207"/>
+    <mergeCell ref="H4208:I4208"/>
+    <mergeCell ref="H4209:I4209"/>
+    <mergeCell ref="H4210:I4210"/>
+    <mergeCell ref="H4211:I4211"/>
+    <mergeCell ref="H4212:I4212"/>
+    <mergeCell ref="H4213:I4213"/>
+    <mergeCell ref="H4232:I4232"/>
+    <mergeCell ref="H4233:I4233"/>
+    <mergeCell ref="H4234:I4234"/>
+    <mergeCell ref="H4235:I4235"/>
+    <mergeCell ref="H4236:I4236"/>
+    <mergeCell ref="H4237:I4237"/>
+    <mergeCell ref="H4238:I4238"/>
+    <mergeCell ref="H4239:I4239"/>
+    <mergeCell ref="H4240:I4240"/>
+    <mergeCell ref="H4223:I4223"/>
+    <mergeCell ref="H4224:I4224"/>
+    <mergeCell ref="H4225:I4225"/>
+    <mergeCell ref="H4226:I4226"/>
+    <mergeCell ref="H4227:I4227"/>
+    <mergeCell ref="H4228:I4228"/>
+    <mergeCell ref="H4229:I4229"/>
+    <mergeCell ref="H4230:I4230"/>
+    <mergeCell ref="H4231:I4231"/>
+    <mergeCell ref="H4250:I4250"/>
+    <mergeCell ref="H4251:I4251"/>
+    <mergeCell ref="H4252:I4252"/>
+    <mergeCell ref="H4253:I4253"/>
+    <mergeCell ref="H4254:I4254"/>
+    <mergeCell ref="H4255:I4255"/>
+    <mergeCell ref="H4256:I4256"/>
+    <mergeCell ref="H4257:I4257"/>
+    <mergeCell ref="H4258:I4258"/>
+    <mergeCell ref="H4241:I4241"/>
+    <mergeCell ref="H4242:I4242"/>
+    <mergeCell ref="H4243:I4243"/>
+    <mergeCell ref="H4244:I4244"/>
+    <mergeCell ref="H4245:I4245"/>
+    <mergeCell ref="H4246:I4246"/>
+    <mergeCell ref="H4247:I4247"/>
+    <mergeCell ref="H4248:I4248"/>
+    <mergeCell ref="H4249:I4249"/>
+    <mergeCell ref="H4268:I4268"/>
+    <mergeCell ref="H4269:I4269"/>
+    <mergeCell ref="H4270:I4270"/>
+    <mergeCell ref="H4271:I4271"/>
+    <mergeCell ref="H4272:I4272"/>
+    <mergeCell ref="H4273:I4273"/>
+    <mergeCell ref="H4274:I4274"/>
+    <mergeCell ref="H4275:I4275"/>
+    <mergeCell ref="H4276:I4276"/>
+    <mergeCell ref="H4259:I4259"/>
+    <mergeCell ref="H4260:I4260"/>
+    <mergeCell ref="H4261:I4261"/>
+    <mergeCell ref="H4262:I4262"/>
+    <mergeCell ref="H4263:I4263"/>
+    <mergeCell ref="H4264:I4264"/>
+    <mergeCell ref="H4265:I4265"/>
+    <mergeCell ref="H4266:I4266"/>
+    <mergeCell ref="H4267:I4267"/>
+    <mergeCell ref="H4286:I4286"/>
+    <mergeCell ref="H4287:I4287"/>
+    <mergeCell ref="H4288:I4288"/>
+    <mergeCell ref="H4289:I4289"/>
+    <mergeCell ref="H4290:I4290"/>
+    <mergeCell ref="H4291:I4291"/>
+    <mergeCell ref="H4292:I4292"/>
+    <mergeCell ref="H4293:I4293"/>
+    <mergeCell ref="H4294:I4294"/>
+    <mergeCell ref="H4277:I4277"/>
+    <mergeCell ref="H4278:I4278"/>
+    <mergeCell ref="H4279:I4279"/>
+    <mergeCell ref="H4280:I4280"/>
+    <mergeCell ref="H4281:I4281"/>
+    <mergeCell ref="H4282:I4282"/>
+    <mergeCell ref="H4283:I4283"/>
+    <mergeCell ref="H4284:I4284"/>
+    <mergeCell ref="H4285:I4285"/>
+    <mergeCell ref="H4304:I4304"/>
+    <mergeCell ref="H4305:I4305"/>
+    <mergeCell ref="H4306:I4306"/>
+    <mergeCell ref="H4307:I4307"/>
+    <mergeCell ref="H4308:I4308"/>
+    <mergeCell ref="H4309:I4309"/>
+    <mergeCell ref="H4310:I4310"/>
+    <mergeCell ref="H4311:I4311"/>
+    <mergeCell ref="H4312:I4312"/>
+    <mergeCell ref="H4295:I4295"/>
+    <mergeCell ref="H4296:I4296"/>
+    <mergeCell ref="H4297:I4297"/>
+    <mergeCell ref="H4298:I4298"/>
+    <mergeCell ref="H4299:I4299"/>
+    <mergeCell ref="H4300:I4300"/>
+    <mergeCell ref="H4301:I4301"/>
+    <mergeCell ref="H4302:I4302"/>
+    <mergeCell ref="H4303:I4303"/>
+    <mergeCell ref="H4322:I4322"/>
+    <mergeCell ref="H4323:I4323"/>
+    <mergeCell ref="H4324:I4324"/>
+    <mergeCell ref="H4325:I4325"/>
+    <mergeCell ref="H4326:I4326"/>
+    <mergeCell ref="H4327:I4327"/>
+    <mergeCell ref="H4328:I4328"/>
+    <mergeCell ref="H4329:I4329"/>
+    <mergeCell ref="H4330:I4330"/>
+    <mergeCell ref="H4313:I4313"/>
+    <mergeCell ref="H4314:I4314"/>
+    <mergeCell ref="H4315:I4315"/>
+    <mergeCell ref="H4316:I4316"/>
+    <mergeCell ref="H4317:I4317"/>
+    <mergeCell ref="H4318:I4318"/>
+    <mergeCell ref="H4319:I4319"/>
+    <mergeCell ref="H4320:I4320"/>
+    <mergeCell ref="H4321:I4321"/>
+    <mergeCell ref="H4340:I4340"/>
+    <mergeCell ref="H4341:I4341"/>
+    <mergeCell ref="H4342:I4342"/>
+    <mergeCell ref="H4343:I4343"/>
+    <mergeCell ref="H4344:I4344"/>
+    <mergeCell ref="H4345:I4345"/>
+    <mergeCell ref="H4346:I4346"/>
+    <mergeCell ref="H4347:I4347"/>
+    <mergeCell ref="H4348:I4348"/>
+    <mergeCell ref="H4331:I4331"/>
+    <mergeCell ref="H4332:I4332"/>
+    <mergeCell ref="H4333:I4333"/>
+    <mergeCell ref="H4334:I4334"/>
+    <mergeCell ref="H4335:I4335"/>
+    <mergeCell ref="H4336:I4336"/>
+    <mergeCell ref="H4337:I4337"/>
+    <mergeCell ref="H4338:I4338"/>
+    <mergeCell ref="H4339:I4339"/>
+    <mergeCell ref="H4358:I4358"/>
+    <mergeCell ref="H4359:I4359"/>
+    <mergeCell ref="H4360:I4360"/>
+    <mergeCell ref="H4361:I4361"/>
+    <mergeCell ref="H4362:I4362"/>
+    <mergeCell ref="H4363:I4363"/>
+    <mergeCell ref="H4364:I4364"/>
+    <mergeCell ref="H4365:I4365"/>
+    <mergeCell ref="H4366:I4366"/>
+    <mergeCell ref="H4349:I4349"/>
+    <mergeCell ref="H4350:I4350"/>
+    <mergeCell ref="H4351:I4351"/>
+    <mergeCell ref="H4352:I4352"/>
+    <mergeCell ref="H4353:I4353"/>
+    <mergeCell ref="H4354:I4354"/>
+    <mergeCell ref="H4355:I4355"/>
+    <mergeCell ref="H4356:I4356"/>
+    <mergeCell ref="H4357:I4357"/>
+    <mergeCell ref="H4376:I4376"/>
+    <mergeCell ref="H4377:I4377"/>
+    <mergeCell ref="H4378:I4378"/>
+    <mergeCell ref="H4379:I4379"/>
+    <mergeCell ref="H4380:I4380"/>
+    <mergeCell ref="H4381:I4381"/>
+    <mergeCell ref="H4382:I4382"/>
+    <mergeCell ref="H4383:I4383"/>
+    <mergeCell ref="H4384:I4384"/>
+    <mergeCell ref="H4367:I4367"/>
+    <mergeCell ref="H4368:I4368"/>
+    <mergeCell ref="H4369:I4369"/>
+    <mergeCell ref="H4370:I4370"/>
+    <mergeCell ref="H4371:I4371"/>
+    <mergeCell ref="H4372:I4372"/>
+    <mergeCell ref="H4373:I4373"/>
+    <mergeCell ref="H4374:I4374"/>
+    <mergeCell ref="H4375:I4375"/>
+    <mergeCell ref="H4394:I4394"/>
+    <mergeCell ref="H4395:I4395"/>
+    <mergeCell ref="H4396:I4396"/>
+    <mergeCell ref="H4397:I4397"/>
+    <mergeCell ref="H4398:I4398"/>
+    <mergeCell ref="H4399:I4399"/>
+    <mergeCell ref="H4400:I4400"/>
+    <mergeCell ref="H4401:I4401"/>
+    <mergeCell ref="H4402:I4402"/>
+    <mergeCell ref="H4385:I4385"/>
+    <mergeCell ref="H4386:I4386"/>
+    <mergeCell ref="H4387:I4387"/>
+    <mergeCell ref="H4388:I4388"/>
+    <mergeCell ref="H4389:I4389"/>
+    <mergeCell ref="H4390:I4390"/>
+    <mergeCell ref="H4391:I4391"/>
+    <mergeCell ref="H4392:I4392"/>
+    <mergeCell ref="H4393:I4393"/>
+    <mergeCell ref="H4412:I4412"/>
+    <mergeCell ref="H4413:I4413"/>
+    <mergeCell ref="H4414:I4414"/>
+    <mergeCell ref="H4415:I4415"/>
+    <mergeCell ref="H4416:I4416"/>
+    <mergeCell ref="H4417:I4417"/>
+    <mergeCell ref="H4418:I4418"/>
+    <mergeCell ref="H4419:I4419"/>
+    <mergeCell ref="H4420:I4420"/>
+    <mergeCell ref="H4403:I4403"/>
+    <mergeCell ref="H4404:I4404"/>
+    <mergeCell ref="H4405:I4405"/>
+    <mergeCell ref="H4406:I4406"/>
+    <mergeCell ref="H4407:I4407"/>
+    <mergeCell ref="H4408:I4408"/>
+    <mergeCell ref="H4409:I4409"/>
+    <mergeCell ref="H4410:I4410"/>
+    <mergeCell ref="H4411:I4411"/>
+    <mergeCell ref="H4430:I4430"/>
+    <mergeCell ref="H4431:I4431"/>
+    <mergeCell ref="H4432:I4432"/>
+    <mergeCell ref="H4433:I4433"/>
+    <mergeCell ref="H4434:I4434"/>
+    <mergeCell ref="H4435:I4435"/>
+    <mergeCell ref="H4436:I4436"/>
+    <mergeCell ref="H4437:I4437"/>
+    <mergeCell ref="H4438:I4438"/>
+    <mergeCell ref="H4421:I4421"/>
+    <mergeCell ref="H4422:I4422"/>
+    <mergeCell ref="H4423:I4423"/>
+    <mergeCell ref="H4424:I4424"/>
+    <mergeCell ref="H4425:I4425"/>
+    <mergeCell ref="H4426:I4426"/>
+    <mergeCell ref="H4427:I4427"/>
+    <mergeCell ref="H4428:I4428"/>
+    <mergeCell ref="H4429:I4429"/>
+    <mergeCell ref="H4448:I4448"/>
+    <mergeCell ref="H4449:I4449"/>
+    <mergeCell ref="H4450:I4450"/>
+    <mergeCell ref="H4451:I4451"/>
+    <mergeCell ref="H4452:I4452"/>
+    <mergeCell ref="H4453:I4453"/>
+    <mergeCell ref="H4454:I4454"/>
+    <mergeCell ref="H4455:I4455"/>
+    <mergeCell ref="H4456:I4456"/>
+    <mergeCell ref="H4439:I4439"/>
+    <mergeCell ref="H4440:I4440"/>
+    <mergeCell ref="H4441:I4441"/>
+    <mergeCell ref="H4442:I4442"/>
+    <mergeCell ref="H4443:I4443"/>
+    <mergeCell ref="H4444:I4444"/>
+    <mergeCell ref="H4445:I4445"/>
+    <mergeCell ref="H4446:I4446"/>
+    <mergeCell ref="H4447:I4447"/>
+    <mergeCell ref="H4466:I4466"/>
+    <mergeCell ref="H4467:I4467"/>
+    <mergeCell ref="H4468:I4468"/>
+    <mergeCell ref="H4469:I4469"/>
+    <mergeCell ref="H4470:I4470"/>
+    <mergeCell ref="H4471:I4471"/>
+    <mergeCell ref="H4472:I4472"/>
+    <mergeCell ref="H4473:I4473"/>
+    <mergeCell ref="H4474:I4474"/>
+    <mergeCell ref="H4457:I4457"/>
+    <mergeCell ref="H4458:I4458"/>
+    <mergeCell ref="H4459:I4459"/>
+    <mergeCell ref="H4460:I4460"/>
+    <mergeCell ref="H4461:I4461"/>
+    <mergeCell ref="H4462:I4462"/>
+    <mergeCell ref="H4463:I4463"/>
+    <mergeCell ref="H4464:I4464"/>
+    <mergeCell ref="H4465:I4465"/>
+    <mergeCell ref="H4493:I4493"/>
+    <mergeCell ref="H4494:I4494"/>
+    <mergeCell ref="H4495:I4495"/>
+    <mergeCell ref="H4496:I4496"/>
+    <mergeCell ref="H4497:I4497"/>
+    <mergeCell ref="H4498:I4498"/>
+    <mergeCell ref="H4484:I4484"/>
+    <mergeCell ref="H4485:I4485"/>
+    <mergeCell ref="H4486:I4486"/>
+    <mergeCell ref="H4487:I4487"/>
+    <mergeCell ref="H4488:I4488"/>
+    <mergeCell ref="H4489:I4489"/>
+    <mergeCell ref="H4490:I4490"/>
+    <mergeCell ref="H4491:I4491"/>
+    <mergeCell ref="H4492:I4492"/>
+    <mergeCell ref="H4475:I4475"/>
+    <mergeCell ref="H4476:I4476"/>
+    <mergeCell ref="H4477:I4477"/>
+    <mergeCell ref="H4478:I4478"/>
+    <mergeCell ref="H4479:I4479"/>
+    <mergeCell ref="H4480:I4480"/>
+    <mergeCell ref="H4481:I4481"/>
+    <mergeCell ref="H4482:I4482"/>
+    <mergeCell ref="H4483:I4483"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
